--- a/output/Total_time_range_data/陕西省/商洛市_学习考察.xlsx
+++ b/output/Total_time_range_data/陕西省/商洛市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3034 +436,3321 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>274</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>洛南集中整顿教育教学突出问题区县资讯</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/135397.htm</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为进一步加强教育主管部门及校（园）长队伍建设，提升各级各类学校管理水平，办好人民满意的教育，从7月21日开始，洛南县开展了为期一个多月的教育教学突出问题集中整顿活动。', '考核研判，破解教育瓶颈。洛南县成立教育教学突出问题集中整顿工作专班，县委、县政府领导挂帅，从教育、纪检、组织、人社等部门抽调38人组建了7个考核研判组，深入县科教体局及下属科级单位和全县68所中小学幼儿园，对领导班子及成员近3年履职情况进行考核研判。考核研判结束后，各考核研判组针对考核研判过程中发现的共性及个性问题，逐单位（校）深刻剖析原因，提出下一步整改措施。县教育教学突出问题集中整顿工作专班，根据各研判组研判过程中发现的问题，撰写了全县教育教学突出问题集中整顿考核研判情况汇报，及时组织召开县委教育工作领导小组会，商榷整改措施，落实整改单位，夯实整改责任，明确整改时限，着力破解制约洛南教育教学高质量发展瓶颈。', '扎实整改，补齐教育短板。为了确保集中整顿效果，县教育教学突出问题集中整顿工作专班分两个批次组织召开了全县学生家长代表座谈会和全县教师代表、校（园）长代表座谈会，虚心听取提升洛南教育管理水平和教学质量的意见建议；组织“两代一委”代表和部分校（园）长赴镇安县、山阳县、商南县及商丹、秦韵等学校考察学习先进教育教学管理经验。通过征求意见建议、考察学习及考核研判发现的问题，分类建立了问题台账，扎实开展问题整改。', '建章立制，提升教育水平。为确保全县教育教学突出问题集中整顿工作不走过场、取得实效，洛南县制定“县管校聘”实施办法，今年秋季率先在全县初级中学开展“县管校聘”工作，打破教师聘用界限，对中学落聘教师集中进行培训后，可聘用为小学教师，2024年秋季将在全县小学开展“县管校聘”工作；制定“引校长招教师提质量”实施办法，打情感牌、乡情牌，开展柔性引才，不拘一格招引一批名师、名校长，吸引一批优质生源，不断激发教师活力，办好人民满意的教育；出台《洛南县教育质量赶超三年行动计划》，通过建章立制、行政推动、科研引领、专业指导、各方协同，必将为洛南教育高质量发展奠定坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>274</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>商洛市农业农村局农产品质量安全工作喜获国家表彰部门动态</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-01-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/18513.htm</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['我市长期以来在全国农产品质量安全工作领域走在前列，成效突出。近期商洛市农业农村局被农业农村部农产品质量安全中心评为“全国农产品质量安全（优质农产品）业务技术优秀工作机构”；周龙、李俊两位同志被评为“全国农产品质量安全（优质农产品）业务技术优秀个人”。', '在农产品质量安全工作中我市探索出了“政府负总责，三级有机构，监管到村组，检测全覆盖”的农产品质量安全监管“商洛模式”，被部、省大力推广；2016年被农业部命名为首批“国家农产品质量安全市”，有内蒙古、甘肃、四川、宝鸡、渭南等十余个兄弟省市来我市考察学习；2018年为了创新农产品质量安全监管工作模式，打造全域化农产品质量安全示范样板，陕西省农业厅、商洛市人民政府在商洛率先开展“省市共建农产品质量安全市提升示范行动”；2019年被农业农村部确定为“创建全国名特优新农产品试点市”；同时被农业农村部确定包扶云南省怒江州农产品质量安全创建工作。（市农业农村局 周龙）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>274</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>西安慈善会来商考察交流商洛要闻</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/134844.htm</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['8月10日，西安市慈善会会长朱智生带队深入商洛市慈善协会考察学习，共谋发展大计，共叙友谊之情，共创两地慈善组织优势互补、资源共享、合作发展的新格局。', '座谈会上，商洛市慈善协会有关负责人介绍了2022年以来的工作开展情况，西安市慈善会相关负责人分享了西安市慈善会的工作经验，双方签订了友好合作协议，互赠了书画作品。朱智生对商洛市慈善协会工作给予了高度评价，对下一步加强西商两地慈善组织合作、促进慈善事业高质量发展提出了建设性建议和意见。商洛市慈善协会会长李选良表示，商洛和西安山水相连、经济相融、文化相通、民俗相同、亲如兄弟、情深意长，希望加强两地慈善组织长期工作交流，按照平等互惠、优势互补、共同发展的合作理念，不断巩固合作交流成果。', '随后，双方参会人员还深入市慈善老年大学、商州区城关街道东关社区慈善幸福家园和区慈善老年大学、杨峪河镇楚山社区慈善幸福家园、刘湾街道仁和社区慈善幸福家园进行了实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>274</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>洛南特色民宿产业赋能乡村振兴区县资讯</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/139305.htm</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['今年以来，洛南县紧跟“西商融合”战略，大力发展观光农业、体验农业等特色农业，并紧紧抓住民宿这个核心，通过盘活农村闲置资产，大力发展民宿产业，赋能乡村振兴。', '洛南县通过深入西安市蓝田县、汉中市留坝县及南京市江宁区考察，学习借鉴先进经验，引进专业民宿设计公司来洛考察，在统筹推进“千万工程”“两改两转三促进”“镇区建设”中摸清闲置宅基地、学校等资源底数，提升溪乐谷民宿群质量，加快桃悠谷民宿群建设，规范运营音乐小镇乐秀街，打造村落农庄特色民宿，科学选址建设野奢帐篷民宿。目前，辖区内有7家A级景区，其中，4A级景区2家，3A级景区5家。全县有各类民宿12家，房间388个，床位数563张。音乐小镇、华阳老街·花溪弄和亲农·溪乐谷民宿被评为全市最美民宿，音乐小镇民宿和亲农·溪乐谷民宿评定为全市精品民宿，音乐小镇民宿荣获商洛“中国康养之都·最美民宿”。正在打造的保安溪乐谷民宿群、古城桃悠谷民宿群、四皓街道乐秀街，将深入挖掘乡村旅游资源、深度开发乡村旅游产品、优化乡村旅游发展模式，推进文旅、农旅深度融合，全力助推旅游产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>274</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>我市组团参加第十七届文博会商洛要闻</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-09-26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/15482.htm</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['9月23日至27日，第十七届中国(深圳)国际文化产业博览交易会在深圳举办。我市由市委宣传部牵头，市县相关部门、重点文化企业和签约项目投资方负责人组成的商洛市代表团参展参会，期间集中开展了商务洽谈和项目签约。 本届文博会以突出博览和交易形式创新为主题，通过线上、线下双轨并进、同步举办的模式，由博览与交易、云上文博会及配套活动等内容构成。陕西展区位于线下文化产业综合馆10号馆内，我市鹿城水晶眼镜、水晶茶具等10余件文创产品成功入馆参展。在馆内还设立了商洛文化旅游专题电子展板。全景展示我市重点文化项目和企业、丰富的文化资源和产品，吸引了大量客商的关注，受到广泛赞誉。 文博会期间，还举行了商洛市文化产业项目集中签约仪式，现场签约肥皂花工艺品项目、金台山下集特色文化街区项目、商南县鹿城文化产业园项目、洛铜艺术项目、丽呈别院棣花酒店项目、江山和园四气康养中心项目等6个文化产业项目，签约金额5.4亿元。集体考察学习了华强方特文化科技集团、深圳书城南山城和定军山电影科技产业园等3个知名文化企业，深入了解文化与科技、旅游融合的最新趋势，针对性地开展了商务合作洽谈。', '本届文博会以突出博览和交易形式创新为主题，通过线上、线下双轨并进、同步举办的模式，由博览与交易、云上文博会及配套活动等内容构成。陕西展区位于线下文化产业综合馆10号馆内，我市鹿城水晶眼镜、水晶茶具等10余件文创产品成功入馆参展。在馆内还设立了商洛文化旅游专题电子展板。全景展示我市重点文化项目和企业、丰富的文化资源和产品，吸引了大量客商的关注，受到广泛赞誉。', '文博会期间，还举行了商洛市文化产业项目集中签约仪式，现场签约肥皂花工艺品项目、金台山下集特色文化街区项目、商南县鹿城文化产业园项目、洛铜艺术项目、丽呈别院棣花酒店项目、江山和园四气康养中心项目等6个文化产业项目，签约金额5.4亿元。集体考察学习了华强方特文化科技集团、深圳书城南山城和定军山电影科技产业园等3个知名文化企业，深入了解文化与科技、旅游融合的最新趋势，针对性地开展了商务合作洽谈。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>274</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>山阳先行先试开展油茶良种苗木培育区县资讯</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/139343.htm</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['今年以来，山阳县积极落实中央一号文件关于支持发展油茶等特色油料的要求，努力提高油茶造林质量，尤其是在油茶良种苗木培育方面进行了先行先试的探索和实践。', '山阳县坚持把油茶良种苗木培育摆在首位，组织技术干部先后赴安徽、河南、江西等地，考察学习油茶育苗技术及产业发展情况，通过科学选址、引进优良品种、加强合作、开展技术培训等措施，为油茶产业的健康发展提供了有力支撑。', '山阳县狠抓苗木基地建设，先后引进“长林4号”“长林40号”“长林53号”3个油茶品种，嫁接一年生和三年生的容器苗20万株，在银花镇湘子店村建设60亩油茶良种繁育基地。安装喷灌、遮阳网等设施，详细记录生长环境、生长过程数据，建立完整的培育技术台账，通过控制水肥、截断主根、换土等措施，提高其抗逆性和移栽后的成活率。目前,基地的油茶苗长势良好，下一步计划再扩大基地规模，繁育油茶苗木80万株。', '山阳县积极开展引种试验，新发展油茶面积1万亩，在漫川关镇李家坪村分区域种植不同产地的长林系列油茶容器苗试验基地100亩，通过观察记录苗木物候，掌握外调苗木在山阳种植成活率和长势情况，为后期油茶发展提供数据支撑。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>274</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>建议商州区也参照西安市对城区内的公共停车位给予新能源绿市长信箱</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/e_list_ldxx_xq.jsp?urltype=leadermail.LeaderMailContentUrl&amp;wbtreeid=1001&amp;leadermailid=21F6D91C3BD38664D08B38B3BFECC01D</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['建议商州区也参照西安市对城区内的公共停车位，给予新能源绿牌车辆免费停放2小时的惠民措施', '建议商州区也参照西安市对城区内的公共停车位，给予新能源绿牌车辆免费停放2小时的惠民措施，贯彻落实王市长提出的加快推进西商融合工作要求，持续改善商洛营商环境，吸引更多外地游客来商旅游消费，更好唱响22度商洛蓝的好声音，以便民惠民实际措施全力打造美丽中国先行区。同时这也是积极落实党中央国务院提出的推动设备更新和消费品以旧换新，发展绿色低碳循环经济，推动高质量发展，提高新质生产力的商洛动作。', '网友你好，来信已收悉，感谢您对市政府网站的关注，您的意见和建议我们已转商州区人民政府，在今后的工作中作为参考，感谢您的来信，祝你生活愉快！ 2024年4月3日 网友你好，你反映的问题商州区政府高度重视，立即安排区城管局核查，现回复如下： 一、基本情况 市民建议“商州区也参照西安市对城区内的公共停车位，给予新能源绿牌车辆免费停放2小时的惠民措施，贯彻落实王市长提出的加快推进西商融合工作要求，同时这也是积极落实党中央国务院提出的推动设备更新和消费品以旧换新，发展绿色低碳循环经济，推动高质量发展，提高新质生产力的商洛动作”。 二、调查情况 经核查，商州区道路停车收费标准是2017年7月4日，商州区物价局组织召开商州区中心城区道路停车泊位收费标准听证会，在充分听取代表意见的基础上制定现行收费标准，当前收费标准规定限时免费情形为停车15分钟内（含15分钟）免费，15分钟内免费包含新能源车，当前暂无专门针对新能源车在道路临时停车位停车限时免费的相关政策。 三、办理意见 为坚决贯彻落实党中央“碳达峰、碳中和”及推动设备更新和消费品以旧换新，发展绿色低碳循环经济，大力促进新能源产业迅速发展的相关政策，倡导吸引广大市民购买新能源车辆。下一步，由商州区城管局负责，积极对接商州区发改局等部门，组织相关人员赴西安及其他城市就新能源车辆限时免费停车情况进行考察学习，并认真分析研究，努力为市民群众提供更加惠民的停车服务。 商州区人民政府办公室 2024年4月11日', '市民建议“商州区也参照西安市对城区内的公共停车位，给予新能源绿牌车辆免费停放2小时的惠民措施，贯彻落实王市长提出的加快推进西商融合工作要求，同时这也是积极落实党中央国务院提出的推动设备更新和消费品以旧换新，发展绿色低碳循环经济，推动高质量发展，提高新质生产力的商洛动作”。', '经核查，商州区道路停车收费标准是2017年7月4日，商州区物价局组织召开商州区中心城区道路停车泊位收费标准听证会，在充分听取代表意见的基础上制定现行收费标准，当前收费标准规定限时免费情形为停车15分钟内（含15分钟）免费，15分钟内免费包含新能源车，当前暂无专门针对新能源车在道路临时停车位停车限时免费的相关政策。', '为坚决贯彻落实党中央“碳达峰、碳中和”及推动设备更新和消费品以旧换新，发展绿色低碳循环经济，大力促进新能源产业迅速发展的相关政策，倡导吸引广大市民购买新能源车辆。下一步，由商州区城管局负责，积极对接商州区发改局等部门，组织相关人员赴西安及其他城市就新能源车辆限时免费停车情况进行考察学习，并认真分析研究，努力为市民群众提供更加惠民的停车服务。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>274</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市委与中国延安干部学院签订合作共建意向书商洛要闻</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/139187.htm</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['4月13日至14日，市委书记赵璟带队赴中国延安干部学院、陕西延安干部学院、延安市委党校考察学习干部教育培训等工作，出席“中国延安干部学院 中共商洛市委合作共建”签约仪式。中国延安干部学院分管日常工作的副院长姜泽洵，延安市委副书记、市长严汉平，延安市委副书记马月逢参加有关考察学习活动。中国延安干部学院副院长韩东晖，市委副书记、市委党校校长赵孝代表双方签订《中国延安干部学院与商洛市委合作共建意向书》。中国延安干部学院院务委员、一级巡视员贾波，延安市委常委、市委组织部部长胡统金，商洛市委常委、市委组织部部长赵鹏参加活动。', '签约座谈会上，赵璟代表市委对中国延安干部学院对商洛的关心支持表示感谢。她说，2020年4月20日，习近平总书记来陕考察首站来到商洛，作出了“当好秦岭生态卫士”等一系列重要指示。近年来，全市上下深入学习贯彻习近平总书记历次来陕考察重要讲话重要指示精神，深入践行“两山”理论，积极探索生态产品价值实现机制试点，高质量发展和现代化建设取得新成效。赵璟表示，中国延安干部学院作为国家级干部教育培训机构，特色优势明显，办院理念先进，教学方式灵活生动，干部教育培训工作取得了丰硕成果，值得商洛学习借鉴。希望中延院充分发挥政治、人才、资源等优势，在课程开发、理论研究、教学培训等方面与商洛加强合作。商洛将以此次签约为契机，深入挖掘牛背梁、金米村教学资源，打造成为践行习近平生态文明思想的重要实践基地。', '姜泽洵在简要介绍了中国延安干部学院发展概况、办学特色后表示，商洛有着丰厚的文化底蕴、红色资源和良好的生态环境，双方合作基础和合作空间十分广泛。希望商洛立足红色资源禀赋，深耕红色沃土，厚植红色根基，为党员干部教育培训工作发挥更加积极的作用。中延院将秉承“真诚务实、友好协商、互惠共赢”原则，充分发挥平台载体作用，积极推进合作共建，为地方发展提供优质服务，携手把现场教学点办好办出彩。', '考察期间，赵璟一行参观了中国延安干部学院党性教育主题教室、院史展、延安时期体育精神主题展，在杨家岭革命旧址参观学习了中共七大礼堂旧址并聆听了专题党课，在桥儿沟革命旧址观摩了现场教学，在陕西延安干部学院、延安市委党校考察学习了课程开发、现场教学特色课程安排、地方干部培训教育开展等工作。她强调，要认真学习借鉴三所学校在干部教育培训等方面的办学理念、教学模式，结合实际加强市委党校培训阵地、课程教材、师资队伍等建设，让党校成为培养、锻炼干部的摇篮。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>274</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>赵璟带队赴北京考察学习重大活动</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1719/134899.htm</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['8月14日至15日，市委书记赵璟带队赴北京考察，拜访中国农业大学，到平谷区、昌平区考察学习现代农业、智慧化食品加工、康养产业发展等工作。市委常委、副市长李波，市委常委、市委秘书长张国瑜参加活动。', '在北京，赵璟拜访了中国农业大学校长孙其信、副校长林万龙等校领导，围绕深化校地合作开展座谈，出席第二期乡村经营管理人才（乡村CEO）商洛示范培训班开班仪式并讲话，参观中国农业大学“非凡十年·农大篇章”主题展览和“厚植爱农情怀 练就兴农本领”科技小院专题展览，考察国家数字渔业创新中心。', '考察期间，赵璟一行先后到北京市华都峪口禽业有限公司、京瓦农业科技创新中心、苏陀科技有限公司、紫兴园（北京）食品科技有限公司，详细了解企业经营管理、科技转化应用、产业链配套等情况，考察学习畜禽种业科技自主创新数字农业试点、农业科技园、智能化工厂建设工作。在昌平区居庸关村和北京泰康之家·燕园，实地参观村（社区）建设、医养服务配套，了解党建引领乡村振兴和养老服务体系建设等情况。', '赵璟强调，要进一步拓展视野、开阔眼界，认真学习吸收先进做法和有益经验，切实把考察学习成果转化为加快我市高质量发展、现代化建设的生动实践。要围绕打造特色农业强市，因地制宜做精一产、做强二产、三产融合，建好用好科技小院、中国农业大学教授工作站等创新载体，依托科技赋能提升“菌果药畜茶酒”特色农产品品质和产出效益。要加大农业龙头企业引育力度，加强上下游产业链配套，促进农业生产、加工、物流、研发、示范等相互融合和全产业链开发，推动特色农业集群化发展。要加强党建引领乡村振兴，建强基层战斗堡垒，抓好乡村CEO培育，深入实施“归雁计划”，壮大村集体经济规模，带动群众持续稳定增收，不断夯实共同富裕基础。要持续扩大养老、托育等优质服务供给，大力培育新业态、新模式、新场景，进一步完善“医养游体药食”康养产业体系，聚力打造中国康养之都。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>274</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市工改办组织赴渭南市厦门市考察学习建设工程项目审批制度部门动态</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-03-30</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/15951.htm</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['市工改办组织赴渭南市、厦门市考察学习建设工程项目审批制度改革先进工作经验-商洛市人民政府', '为积极推进全市建设工程项目审批制度改革工作，确保各项改革任务按时圆满完成，经市政府同意，市工改办于3月24日至27日组织由市政府领导带队，市、县区两级政府、部门相关工作人员赴渭南市、厦门市考察学习建设工程项目审批制度改革先进工作经验。', '考察团各成员单位从自身实际出发，带着工改工作中存在的疑难问题，先后在渭南市住建局、厦门市行政服务中心通过听取工改工作先进经验介绍、实地参观建设工程项目审批服务大厅、现场答疑解惑交流、收集项目审批管理资料等方式进行了全面、深入、细致的考察学习。为确保考察学习活动取得实效，4月26日，周秀成副市长在厦门市主持召开工改工作专题座谈会，听取市工改办工改进展情况通报和各相关部门工作汇报，并对下一步工改工作进行了安排部署。', '本次考察学习活动组织严密、内容详实，达到了预期效果，为我市建设工程项目审批制度改革下一步工作起到了积极有效的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>274</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>我市考察组赴海南省海口市三亚市五指山市考察学习商洛要闻</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/136390.htm</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['11月11日至13日，市委书记赵璟率我市考察组赴海南省海口市、三亚市、五指山市，实地考察调研乡村振兴、特色农业、民宿产业、集体经济等工作，学习先进经验，持续解放思想，谋划加快推进富民强市的思路、重点和举措。市人大常委会主任陈宁，市委副书记赵晓宁，市委常委、市委秘书长张国瑜一同参加考察。', '在海口市海口湾，考察组一行参观了乡村振兴图片展，对他们充分利用地理环境和生态资源等优势，大力发展康养度假民宿、休闲农业产业、特色餐饮经济等，带动群众增收致富的做法表示赞赏。随后，考察组一行来到三亚市博后村、后海村，仔细听取了乡村振兴战略实践、民宿产业经营发展、党建引领乡村振兴及乡村治理等经验介绍。在五指山市毛纳村，考察组详细了解了该村聚焦产业生态化、生态产业化，在茶产业发展、乡村旅游、休闲农业和特色农业等方面的生动实践。双方围绕推进巩固衔接、打造特色农业强市、土特产种质资源研究等进行了沟通交流。', '在三亚市中国科学院深海科学与工程研究所，考察组参观学习了深海所科研工作。考察组一行还在海口市考察了海南省史志馆、江东新区、海南国际能源交易中心等地，深入了解旅游经济发展、全面深化改革开放和中国特色自由贸易港建设、全省重点园区建设以及江东新区CBD建设等方面的新理念、新举措、新成效。考察组就如何以康养资源聚合创新资源、科技资源，把康养优势转化为发展优势，与两地进行了深入探讨，并与海口市商定，在“名山与大海的对话”活动的基础上，进一步拓展合作领域，实现优势互补，促进康养旅游产业发展，推动以山与海为特色的旅游产业做大做强。', '考察组一致认为，这次考察学习时间紧凑、内容丰富，既看到了差距、受到了启发，也开阔了视野、转变了观念，更从中学习到了先进的经验做法。一致表示将及时总结、吸收此次考察学习成果，切实把考察学习期间的所看、所感、所想转化为做好工作的具体措施，不断推动商洛高质量发展、现代化建设取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>274</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>商洛市自然资源局赴富平县学习考察互联网不动产登记工作部门动态</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-10-26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/16833.htm</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为深化“放管服”改革，进一步优化营商环境，严标准、高质量建成商洛不动产交易、缴费、登记等“一窗受理、并联办理、集成服务”模式，加快推进不动产登记、申报纳税等网上受理审核工作进程，10月20日，市自然资源局联合市税务局一行十余人赴富平县考察学习不动产登记工作经验。', '考察组首先参观了富平县不动产交易登记大厅，仔细聆听富平县不动产登记大厅业务、工作流程情况介绍，认真观看不动产交易税收信息系统的网上申报、交易、纳税、登记全流程操作，考察组人员边听边看边学边议，切身感受到不动产登记、信息化建设等方面与富平县存在的差距。', '之后，考察组与富平县不动产登记局、富平县税务局召开座谈会，听取了富平县不动产登记局税务协同共享工作经验等情况介绍，就登记“一窗受理、集成办公”、“税务协同共享”工作、数据共享等进行交流探讨。会上，考察组表示，富平县不动产登记以“就近办、网上办、少跑路”为导向，敢于先行、勇于实践，集成创新举措，通过简化办事流程、“不见面”办理、无纸化税务办理、压缩办理时间等系列措施，真正实现了便民利企。考察组将会借鉴富平县线上线下“一窗受理”、“互联网+不动产办税”工作的先进经验，加强部门间的分工协作，推进完善商洛市“互联网+不动产登记”项目建设工作。', '通过考察学习，大家纷纷认为富平县的先进经验和做法让人受益匪浅，为我市今后的不动产登记工作开拓了思路，解放了思想，下一步将不断优化提升营商环境，找差距、补短板，勇于创新，敢于实践，将我市不动产登记工作做好做优，并在此基础上加快推进“互联网+不动产登记”建设，切实提升商洛不动产登记服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>274</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>商洛市人民政府办公室关于命名山阳县法官镇和姚湾村交通安全市政府办文件</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2014-12-09</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1113/45612.htm</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['商洛市人民政府办公室关于命名山阳县法官镇和姚湾村交通安全示范镇村的通报-商洛市人民政府', '全省农村道路交通安全工作咸阳现场会以来，各级各相关部门认真贯彻会议精神，扎实开展道路交通安全工作，特别是山阳县政府高度重视，赴咸阳考察学习借鉴经验，较好地完成了法官镇和姚湾村的交通安全管理试点任务。', '为了树立典范，促进工作，市政府决定，命名山阳县法官镇为全市交通安全示范镇，姚湾村为全市交通安全示范村。', '希望受表彰的镇村珍惜荣誉，继续发扬真抓实干的精神，加倍努力，再创佳绩。各级各部门要认真学习山阳县法官镇和姚湾村的先进经验，不断健全交通安全网络组织，落实交通安全责任，全力抓好交通安全工作，为全市经济社会发展创造良好畅通的交通环境。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>274</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>商洛市自然资源局赴厦门考察学习多规合一协同平台和项目部门动态</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-04-13</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/15749.htm</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['商洛市自然资源局赴厦门考察学习“多规合一”协同平台和项目审批管理先进工作经验-商洛市人民政府', '2021年4月7日至9日，商洛市自然资源局副局长周育带队赴厦门市考察学习“多规合一”协同平台建设等先进工作经验。', '考察团先后在厦门市自然资源局、厦门市数字规划研究中心、厦门市行政服务中心进行实地调研，听取了厦门市“多规合一”协同平台、建设项目审批管理等先进工作经验介绍，着重从自身实际出发，带着工作中存在的疑难问题进行了现场答疑解惑交流，并详尽收集了厦门市相关管理资料。', '此次考察深入、细致地学习了“多规合一”协同平台建设、全域立体空间“一张蓝图”构建实施、建设项目策划生成、标准地出让、建设项目并联审批、“多测合一”等方面的先进经验，为我市“多规合一”协同平台建设、工程项目审批制度改革等工作顺利开展起到了积极有效的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>274</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>商州区组织相关人员赴大荔县考察学习农村人居环境整治工作先区县资讯</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-04-10</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/65413.htm</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['日前，由商州区政府组织，副区长柯长春、赵新选带领区直相关部门主要负责人和18个镇、办事处镇长（主任）一行人，赴大荔县考察学习农村人居环境整治工作中的先进经验。', '本次考察学习为期一天，主要参观了大荔县东城街道办畅家村、朝邑镇平罗村、许庄镇柳池村和上吕村等地人居环境整治情况，详细了解该县生活污水治理项目、农村改厕项目、农村生活垃圾分类、美丽庭院建设、生活污水涝池“三位一体”建设和改善农村人居环境的具体思路、运作模式等情况，最后参观了108国道沿线环境整治情况。考察结束后，返回商州召开了学习交流座谈会，就本次交流学习心得以及对商州区当前农村人居环境整治工作中存在的问题和建议进行座谈。赵新选、柯长春做了讲话。', '赵新选要求：我区要充分学习大荔县的先进经验和做法，并提出三点建议；一是完善规划、细化方案、明确工作目标和具体任务。二是建立工作长效机制加大宣传力度，大力营造宣传氛围，加强协调沟通，严格执法，确保我区境内国省道沿线村庄三堆六乱治理取得实效。三是主动作为摒弃等靠要思想，全面迅速开展整治。', '柯长春强调：通过本次学习考察认识到我区农村人居环境整治工作存在的差距，借鉴经验，做到学以致用、大力推进当前工作，以镇办为主体、部门联动，全员发力，下足功夫发动群众实施 “村庄清洁行动”，推动农村“厕所革命”工作，掀起全区农村人居环境整治工作新高潮。（商州区农业农村局 陈晓田）']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>274</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>九江市考察团来商考察学习创国卫工作六市联创</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2020-10-27</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1842/87149.htm</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['10月23日，江西省九江市考察团来我市考察学习创建国家卫生城市工作，并召开座谈会，沟通交流创建国家卫生城市工作经验。 座谈会上，九江市考察团观看了我市创国卫工作汇报片，了解了我市创国卫工作开展情况，双方还就创国卫工作中的经验举措、机制建立等进行了详细交流。考察团表示，商洛在推动创国卫工作系统化、长效化、科学化方面有很多好的经验做法值得学习借鉴，通过考察要把这些好经验好做法带回去、推广开，也希望通过此次考察，建立起兄弟地市交流沟通的渠道，相互学习、相互借鉴、优势互补、共同提高，进一步提升创国卫工作水平。 九江市考察团还实地考察了我市的智慧城管指挥中心、民乐路食品安全示范街、商州区市场监管局智慧监管指挥中心及食品经营实景学校、团结路步行街、丹江公园、东店子果菜批发市场及东关自产果蔬销售点等，了解我市在城市管理、食品安全管理、市容环境卫生管理、综合农贸市场管理等方面的具体经验做法及取得的成果。 我市的国家卫生城市创建工作，坚持“以人民为中心”，以城市建设管理为重点，以改善城市面貌、增进民生福祉为目标，集全市之智、举全市之力，全面加强城市建设，持续强化城市管理，不断净化美化城市面貌，整治规范城市秩序，健全完善城市功能，优化提升城市品位，真正实现了“创卫使城市更宜居，城市让生活更美好”的创建目标。全市上下严格对照标准，健全组织机构，完善创建机制，细化分解任务，狠抓责任落实，强力推进创建工作深入开展，如期顺利通过各项创建程序考核，取得了阶段性成效，2019年11月以825.4分的成绩通过了国家暗访，今年9月接受了全国爱卫办技术评估。(见习记者 肖莲)', '座谈会上，九江市考察团观看了我市创国卫工作汇报片，了解了我市创国卫工作开展情况，双方还就创国卫工作中的经验举措、机制建立等进行了详细交流。考察团表示，商洛在推动创国卫工作系统化、长效化、科学化方面有很多好的经验做法值得学习借鉴，通过考察要把这些好经验好做法带回去、推广开，也希望通过此次考察，建立起兄弟地市交流沟通的渠道，相互学习、相互借鉴、优势互补、共同提高，进一步提升创国卫工作水平。', '九江市考察团还实地考察了我市的智慧城管指挥中心、民乐路食品安全示范街、商州区市场监管局智慧监管指挥中心及食品经营实景学校、团结路步行街、丹江公园、东店子果菜批发市场及东关自产果蔬销售点等，了解我市在城市管理、食品安全管理、市容环境卫生管理、综合农贸市场管理等方面的具体经验做法及取得的成果。', '我市的国家卫生城市创建工作，坚持“以人民为中心”，以城市建设管理为重点，以改善城市面貌、增进民生福祉为目标，集全市之智、举全市之力，全面加强城市建设，持续强化城市管理，不断净化美化城市面貌，整治规范城市秩序，健全完善城市功能，优化提升城市品位，真正实现了“创卫使城市更宜居，城市让生活更美好”的创建目标。全市上下严格对照标准，健全组织机构，完善创建机制，细化分解任务，狠抓责任落实，强力推进创建工作深入开展，如期顺利通过各项创建程序考核，取得了阶段性成效，2019年11月以825.4分的成绩通过了国家暗访，今年9月接受了全国爱卫办技术评估。(见习记者 肖莲)']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>274</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市发改委扎实开展专项整治部门动态</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/17643.htm</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['全市“转作风、夯责任、抓落实、促发展”作风建设专项整治开展以来，市发改委结合工作实际，确定整治重点，狠抓整改落实，促进作风转变，努力为推进全市经济高质量发展贡献智慧和力量。 市发改委切实加强学习教育，组织干部职工深入学习习近平总书记来陕考察重要讲话重要指示精神，认真学习全国两会精神，不断夯实思想根基；开展警示教育，集体观看《利剑高悬警钟长鸣》警示片，通过典型案例以案释法，增强党员干部思想道德防线。围绕市上确定的生态环保、脱贫攻坚、营商环境、民生保障、社会治理五大领域，确定了16个重点整治的问题，特别是对习近平生态文明思想学习不实、项目事中事后监管缺失、易地扶贫搬迁后续扶持不到位、行政审批制度改革不到位、工程建设和矿产开发领域机制建设不到位等事项进行重点整治。狠抓工作落实，制定印发了《商洛市营商环境领域作风建设专项整治工作措施》，着力解决营商环境“2个欠进度、4个不到位”问题；牵头制订了《商洛市重点项目建设绩效考评办法》，对重点项目建设实行常态化考核，有力推进全市重点项目建设；外出考察学习营商环境、重点项目建设、工业经济、园区建设等方面先进经验和做法。立足部门职能，以易地搬迁补短板项目为抓手，加强督查、精准施策、强力推进，助力脱贫攻坚。同时，加强作风督查，不定期对干部职工履行外出报备情况进行检查，每两周开展一次应知应会知识测试，对发现的问题及时进行通报批评，切实促进党员干部作风转变。', '市发改委切实加强学习教育，组织干部职工深入学习习近平总书记来陕考察重要讲话重要指示精神，认真学习全国两会精神，不断夯实思想根基；开展警示教育，集体观看《利剑高悬警钟长鸣》警示片，通过典型案例以案释法，增强党员干部思想道德防线。围绕市上确定的生态环保、脱贫攻坚、营商环境、民生保障、社会治理五大领域，确定了16个重点整治的问题，特别是对习近平生态文明思想学习不实、项目事中事后监管缺失、易地扶贫搬迁后续扶持不到位、行政审批制度改革不到位、工程建设和矿产开发领域机制建设不到位等事项进行重点整治。狠抓工作落实，制定印发了《商洛市营商环境领域作风建设专项整治工作措施》，着力解决营商环境“2个欠进度、4个不到位”问题；牵头制订了《商洛市重点项目建设绩效考评办法》，对重点项目建设实行常态化考核，有力推进全市重点项目建设；外出考察学习营商环境、重点项目建设、工业经济、园区建设等方面先进经验和做法。立足部门职能，以易地搬迁补短板项目为抓手，加强督查、精准施策、强力推进，助力脱贫攻坚。同时，加强作风督查，不定期对干部职工履行外出报备情况进行检查，每两周开展一次应知应会知识测试，对发现的问题及时进行通报批评，切实促进党员干部作风转变。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>274</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>胡宏调研督导企业上市工作商洛要闻</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/18559.htm</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['1月7日，市委常委、副市长胡宏带领市金融办、开源证券商洛营业部负责人，深入商南县和商洛高新区有关企业，调研督导企业挂牌上市工作。他要求，各地各有关部门要将推进企业上市作为推动经济高质量发展的重要抓手，积极发挥资本市场扩投资、稳增长、促开放的作用，努力实现更多企业上市。 当天，胡宏一行先后深入柏伦工贸有限公司、秦乔农林生物科技有限公司、中钒昌盛新材料科技有限公司、海蓝科技有限公司和陕西盛世兴商信息科技有限公司进行了实地调研。他指出，市政府工作报告将培育10家上市企业列入事关商洛长远发展“十件大事”以来，我市企业挂牌上市工作始终走在全省前列。去年全省推进企业上市工作会议之后，市上又带领部分有意向上市企业负责人赴深圳市证券交易所进行了考察学习。 他强调，金融增添活力，创新引领未来。广大企业家一定要有植根于商洛的情怀，进一步树立发展信心、增强资本市场意识，带领企业找准自己生根的方向，走适合自身特色的路子，把握好科技研发和品牌营销两大关键，开发拳头产业、打造拳头产品，努力争做行业领域的领先者。市金融办、开源证券商洛营业部等有关部门要针对性地做好政策解读，适时做好业务培训，落实各项惠企利企政策，协助各地加强上市后备企业资源培育，形成上市后备企业良好梯队。各县区和商洛高新区要逐一梳理重点企业上市过程中遇到的实际困难和问题，明确任务清单、主要障碍，完善时间表和上市路线图，提供“一对一”服务，推动优质企业早日挂牌上市。', '当天，胡宏一行先后深入柏伦工贸有限公司、秦乔农林生物科技有限公司、中钒昌盛新材料科技有限公司、海蓝科技有限公司和陕西盛世兴商信息科技有限公司进行了实地调研。他指出，市政府工作报告将培育10家上市企业列入事关商洛长远发展“十件大事”以来，我市企业挂牌上市工作始终走在全省前列。去年全省推进企业上市工作会议之后，市上又带领部分有意向上市企业负责人赴深圳市证券交易所进行了考察学习。', '他强调，金融增添活力，创新引领未来。广大企业家一定要有植根于商洛的情怀，进一步树立发展信心、增强资本市场意识，带领企业找准自己生根的方向，走适合自身特色的路子，把握好科技研发和品牌营销两大关键，开发拳头产业、打造拳头产品，努力争做行业领域的领先者。市金融办、开源证券商洛营业部等有关部门要针对性地做好政策解读，适时做好业务培训，落实各项惠企利企政策，协助各地加强上市后备企业资源培育，形成上市后备企业良好梯队。各县区和商洛高新区要逐一梳理重点企业上市过程中遇到的实际困难和问题，明确任务清单、主要障碍，完善时间表和上市路线图，提供“一对一”服务，推动优质企业早日挂牌上市。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>274</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>洛南激励党员干部担当作为区县资讯</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-01-22</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/106571.htm</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['2021年以来，洛南县结合县域实际，通过调研分析，运用“三项机制”着力建设“忠诚干净担当”的高素质干部队伍，多举措激励党员干部履职尽责、担当作为、无私奉献。 洛南县采取“走出去、请进来”的方式，有计划、有重点地安排干部到发达地区考察学习、解放思想；有目标、有侧重地选派干部挂职锻炼，提高工作实践能力。对一些素质好、能力强、潜力大，但经历单一的优秀年轻干部有计划地实行多岗位交流，使大批年轻干部在多岗位交流中丰富阅历、积累经验、增长才干。 县上推行干部工作实绩量化积分制度，坚持平时考核与年终考核相结合、督查与问责相结合，全方位、多层次考核评价干部，考准考实干部工作实绩。对半年、年终考核单项排名和综合排名位居前列的单位及符合“三项机制”鼓励激励办法所列情形的，及时按照“三项机制”规定兑现奖惩，进一步激发干部干事创业激情与活力。 同时，县上支持和选拔敢于担当、主动作为的干部，宽容在改革创新中出现失误或偏差的干部，推进干部能上能下常态化制度化。注重在基层一线和特殊时期、关键时刻发现干部、识别干部、选用干部，树立凭实绩选干部的鲜明导向。同时，加强年轻后备干部的选拔、培养和管理，建立后备干部信息库，注重优秀年轻干部“蹲苗”历练，促进年轻后备干部快速成长。 此外，县上积极落实关心关爱措施，在政策允许范围内，保障干部职工正常的福利待遇，落实年终奖金、正常享受节假日、带薪年休假、职务与职级并行等政策，切实为他们解决在工作、生活、健康及家庭等方面的后顾之忧。关心一线驻村帮扶干部，落实鼓励激励政策，加大对工作实绩突出的优秀干部提拔重用力度。落实农村干部政治、经济待遇，激发和调动基层干部工作的积极性、主动性和创造性。', '洛南县采取“走出去、请进来”的方式，有计划、有重点地安排干部到发达地区考察学习、解放思想；有目标、有侧重地选派干部挂职锻炼，提高工作实践能力。对一些素质好、能力强、潜力大，但经历单一的优秀年轻干部有计划地实行多岗位交流，使大批年轻干部在多岗位交流中丰富阅历、积累经验、增长才干。', '县上推行干部工作实绩量化积分制度，坚持平时考核与年终考核相结合、督查与问责相结合，全方位、多层次考核评价干部，考准考实干部工作实绩。对半年、年终考核单项排名和综合排名位居前列的单位及符合“三项机制”鼓励激励办法所列情形的，及时按照“三项机制”规定兑现奖惩，进一步激发干部干事创业激情与活力。', '同时，县上支持和选拔敢于担当、主动作为的干部，宽容在改革创新中出现失误或偏差的干部，推进干部能上能下常态化制度化。注重在基层一线和特殊时期、关键时刻发现干部、识别干部、选用干部，树立凭实绩选干部的鲜明导向。同时，加强年轻后备干部的选拔、培养和管理，建立后备干部信息库，注重优秀年轻干部“蹲苗”历练，促进年轻后备干部快速成长。', '此外，县上积极落实关心关爱措施，在政策允许范围内，保障干部职工正常的福利待遇，落实年终奖金、正常享受节假日、带薪年休假、职务与职级并行等政策，切实为他们解决在工作、生活、健康及家庭等方面的后顾之忧。关心一线驻村帮扶干部，落实鼓励激励政策，加大对工作实绩突出的优秀干部提拔重用力度。落实农村干部政治、经济待遇，激发和调动基层干部工作的积极性、主动性和创造性。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>274</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>丹凤党建引领绘就乡村治理新画卷区县资讯</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/138162.htm</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['近年来，丹凤县牢固树立大抓基层、大抓党建鲜明导向，坚持党建引领，精准发力，多措并举推进乡村治理工作提质增效。', '建强乡村治理头雁队伍。丹凤县着力从本村致富能手、外出经商务工人员、高校毕业生、退伍军人等群体中培养选拔村干部，多渠道储备和发现村级后备干部人才，确保村干部队伍稳定接续。着眼换届后村干部队伍建设，扎实开展届中分析，及时调整不胜任村干部。对新任村干部，建立结对帮带机制，帮助新任村干部迅速进入角色、主动融入群众、积极投入工作。选派52人参加乡村CEO培训，到北京、山东烟台、浙江丽水、河南兰考等地考察，学习成功经验做法，借鉴发达地区成功模式。', '构建乡村治理联动格局。丹凤县全面落实县级领导班子成员包镇走村、镇（街道）领导班子成员包村联户制度，严格落实“四议两公开”和重大事项公开制度，及时将村规民约、居民公约、村（居）务、社会救助、村集体经济运行等内容公开“晾晒”，确保基层治理的规范化和透明度。建立“镇（街道）党（工）委+村（社区）党组织+网格（片区）党支部+楼栋党小组+党员中心户”五级组织体系，实现矛盾纠纷调解、群众权益维护、文明新风倡导、生产生活服务等事项在“格”中办理。', '凝聚乡村治理多元力量。丹凤县坚持党建引领，推动自治、法治、德治“三治融合”，依托村（社区）党群服务中心、新时代文明实践站等主阵地，深化拓展为民办事全程代理活动，打造全新的自治形式，让群众参与村事务，形成“大事共议、实事共办、要事共商”的治理格局。广泛开展“十星级文明户”“五美庭院”“五好家庭”“好婆婆”“好媳妇”等评选活动，大力宣传道德模范、先进典型事迹，形成人人学先进、人人争先进的良好社会风尚。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>274</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市司法局赴安康考察学习部门动态</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/135399.htm</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['8月29日至30日，市司法局组织县区司法局相关负责人，赴安康市石泉县考察学习法治宣传阵地建设等工作。', '考察组一行先后考察了石泉县全国民主法治示范社区池河镇西苑社区、全省民主法治示范村池河镇五爱村及县法治文化广场、法治宣传教育中心、公共法律服务中心、普法“责任田”、道路交通安全法治教育基地和药品法治宣传教育基地等法治宣传阵地建设工作。安康市法治宣传教育阵地建设规格高、亮点多，硬件工作扎实，法治氛围浓厚。特别是石泉县围绕建立健全“八五”普法机制，法治宣传载体丰富、理念新颖、档案规范，普法氛围浓厚；以“综网+警网”双网融合模式将五治融合、智能服务贯穿到日常法治建设工作中，真正体现了基层法治服务便捷化、智能化；县法治文化广场按照“谁执法谁普法”“谁主管谁普法”“谁负责谁普法”工作要求，普法成员单位在法治文化广场集中展示普法“责任田”，把群众办事依法、遇事找法落到了实处。', '考察组成员一致表示，本次考察学习，开阔了视野，拓宽了思路，增长了知识。下一步，将结合各自实际，进一步创新工作思路、转变思想观念、提升服务水平，切实在法治宣传阵地建设上狠下功夫，努力把商洛的法治文化理念呈现出来，全面提升我市法治宣传教育阵地建设水平，为“一都四区”建设和商洛高质量发展提供优质的法治服务和保障。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>274</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>山阳促进水产养殖稳步发展区县资讯</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/138512.htm</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['3月3日，从山阳县农业农村局水产站了解到，山阳县渔业产业主要养殖的品种有大鲵、鲟鱼、草鱼、鲤鱼、鲢鱼、鲫鱼等，野生鱼类有餐鲦鱼、麦穗鱼、泥鳅鱼、黄鳝鱼等；有20家水产种质资源养殖户，16家有水域滩涂证资质，山阳县天柱山地生态渔牧专业合作社、山阳县清泉种养殖专业合作社、陕西黑龙谷水产养生有限公司3家拥有“国家级水产健康养殖示范场”称号。目前，山阳县水产养殖面积1250亩，全县累计水产品产量1460吨，渔业经济产值7230万元。', '今年，山阳县农业农村局水产站将进一步提升水产养殖利润和产值，提高科学养鱼水平。把水产科技特派员的专业作用与培养提高乡村农民养鱼科技水平有效结合，激活农业后劲，促进农民增收；争取渔业财政补助项目资金，加强与周边县区交流合作，积极学习其他县区尾水治理、冷水鱼养殖、鱼病防治等方面的先进经验和成功措施，弥补自身渔业发展的技术短板和不足。同时，积极推广水产养殖良种良法，组织开展水产科技技术培训，外出考察学习，推广新品种；巩固和壮大“国家级水产健康养殖示范场”成果的应用，努力提高冷水鱼及小龙虾养殖的科技水平。此外，全县加强产品产地质量安全监管，继续做好渔业生产安全管理，对水产品养殖环节开展专项整治活动，加强对现有鱼饲料、渔药的选购指导，继续开展“五项制度”“两项登记”的检查，抓好渔药残留药物的安全抽检；定期开展渔业水域设备、设施场地防御洪涝灾害能力建设专项检查。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>274</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>王青峰带队赴贵州考察学习民宿产业发展重大活动</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-07-29</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1181/134595.htm</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['近日，市委副书记、市长王青峰带队前往贵州安顺等地考察学习扶持民宿产业发展相关工作。市财政局、市乡村振兴局以及商州区、洛南县政府主要负责同志参加考察。', '在黄果树、天龙屯堡等景区，王青峰一行详细了解景区旅游业态优化、民宿产业配套等工作，虚心学习当地紧扣核心优质资源，丰富文旅融合内涵，推动“快旅慢游”的经验和做法。在匠庐·村晓、阅山等高端精品民宿，王青峰与企业负责人深入交谈，听取项目策划、投资成本、消费群体和经营收入等情况，他说，位于秦岭腹地的商洛，旅游资源富集、文化积淀深厚，发展民宿产业的基础好、潜力大，希望民宿企业能到商洛打造一批特色鲜明的高端精品民宿。', '考察期间，王青峰一行还与安顺市政府进行了交流座谈。安顺市副市长汪文学全面介绍了安顺推动民宿产业示范区建设情况，从民宿产业规划布局、政策扶持、品牌招商和配套建设等方面分享了经验做法。王青峰高度评价了安顺市文旅融合发展的显著成效，表示将认真学习借鉴安顺培育发展民宿产业的先进经验。', '王青峰指出，围绕商洛“生态康养之都”的发展定位，我们要坚持把推动民宿产业高质量发展作为促进“双50”战略落地实施、加快文旅产业提档升级、助力农民增收和乡村振兴的有力抓手，深挖生态、气候、区位、康养等比较优势，进一步摸清传统村落、山水乡村家底，强化专项规划引领和配套政策保障，培育发展一批精品民宿集群和民宿重点村镇；面向西安、武汉等大城市市场需求，强化民宿项目策划包装，招引一批头部企业参与建设运营，丰富“民宿+康养、+运动、+农事体验”等服务业态，延长产业链条；拓宽民宿产业融资渠道，壮大农村新业态公司实力，强化从业人员培训，健全民宿产业服务保障体系，持续提高文旅融合发展水平，加快打造“中国康养之都”步伐。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>274</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>我市教育部门赴南京开展交流合作考察商洛要闻</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/139436.htm</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['4月18日，宁商两地教育部门召开对口协作座谈会。座谈会上，市教育局负责同志对融入商洛、扎根商洛、奉献商洛的南京市教育人才和大力支持商洛教育发展的南京市教育局表示感谢，南京、商洛双方教育部门及对口学校就近年来两地教育深度合作、组团式教育支援、区县对口交流等方面取得的成效进行总结，指出当前存在的问题和困难，并就下一步加强教育协作计划交换意见。南京市教育局与商洛市教育局签订新一轮宁商教育交流合作备忘录，南京市中华中学与商洛中学、南京市金陵中学仙林分校与商洛市初级中学缔结为共建结对学校，双方协定在干部培养、时空课堂、课程建设、教学改革、学术康养等方面探索互惠共赢交流合作新路径。', '活动期间，我市教育部门一行参观考察了南京市第九中学、南京市中华中学雨花校区、南京市金陵中学仙林分校等名校，双方就义务教育优质均衡发展、集团化办学、新高考改革等方面的经验做法进行深入交流。各县区教育部门负责人专程走访慰问部分“组团式”帮扶校长、教师家属，感谢其为商洛教育事业发展作出的贡献。山阳县、镇安县副县长带队赴六合区、浦口区对口交流，洛南县赴江宁区考察学习并签订合作协议，商南县赴溧水区、柞水县赴高淳区对接业务并交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>274</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>我市首个气象类地方标准获批发布商洛要闻</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/140139.htm</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['近年来，市气象局持续推动和开展气候好产品申创和气候品质认证评价工作，在农（林）产品气候品质评价指标体系建立上不断钻研琢磨、积累经验，开展气候品质认证技术日臻成熟。在此基础上，市气象局组织团队历时一年完成《连翘气候品质评价规程》地方标准制定和编写，经过实际应用校验，于6月6日获批正式发布。', '该标准的编写是依据商洛连翘生态观测资料，结合调研药企和中药材区划成果，在大量调查研究和外出考察学习的基础上归纳、分析、研讨、总结而形成。编写过程中收集整理了商洛市1991—2020年30年气温、降水、日照等气象要素，分析各气候要素对连翘品质的影响，从中选取6项多年气候指标、7项当年气候指标、3项灾害指标和4项实地调查取样分析指标进行量化分级，以加权评分方式建立气候品质评价模型，对影响商洛连翘产量和品质的气候条件优劣等级进行评定定级，制定气候品质评价等级标准，最终形成《连翘气候品质评价规程》。', '该标准是我市发布的首个气象类地方标准，也是陕西省气候品质评价方向首个地方标准，它的诞生是市气象局深入推进生态气候产品价值转化在农业气象领域的具体成果。其发布为科学、客观、定量、规范开展农（林）产品气候品质评价和认证工作提供理念遵循和科学指导，为企业自主定义的“最佳”“最好”“最优区”等称号提供技术支撑。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>274</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>郑光照在检查十四运会场馆和赛道建设时要求狠抓形象功能提升商洛要闻</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-10-15</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/19486.htm</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['郑光照在检查十四运会场馆和赛道建设时要求 狠抓形象功能提升 营造良好赛事氛围-商洛市人民政府', '10月14日上午，市委副书记、市长郑光照带领市级相关部门负责同志在市区和洛南县检查十四运会场馆和赛道建设情况。他强调，各级各相关部门要深入学习习近平总书记关于体育工作的重要论述，全面落实十四运会筹办工作要求，狠抓场馆和赛道形象功能提升，努力营造良好赛事氛围，为办一届精彩圆满的体育盛会贡献力量。市委常委、副市长胡宏一同检查。', '郑光照先后来到市体育运动中心排球热身场馆、比赛场馆，商州区全民健身中心排球训练馆，实地查看场馆提升改造、硬件设施、附属配套和周边环境等情况。他指出，要抓好室外场地绿化美化，完善场馆基础设施配套，按照与比赛主题相契合的原则做好场馆布置，在营造浓厚赛事氛围的同时，带给运动员和观众最专业、最舒适的比赛观赛体验。随后，郑光照又来到蟒岭绿道和S307洛南至商州段，踏勘公路自行车赛赛道路况安全、环境整治、标识标牌设置等工作。他要求，要推进路域环境整治工作常态化，抓好沿线绿化提升，统一赛道标准和风格，全力保障赛道整洁干净、通畅美观。', '郑光照强调，承办好十四运会的比赛项目，是省委、省政府交给我们的重大任务，也是我们义不容辞的政治责任。各级各相关部门要切实提高政治站位，做实做细各项筹办工作，在考察学习外地的好经验、好做法的基础上，组织体育运动、道路等领域专家对场馆、赛道进行全方位评估，全面查漏补缺，消除问题隐患，高标准、高质量、高水平搞好赛事活动，为办一届精彩圆满的体育盛会贡献商洛力量。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>274</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>胡宏赴西安交大创新港考察对接校地合作事宜商洛要闻</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-03-13</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/17925.htm</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['3月10日，市委常委、副市长胡宏带领市发改委、市科技局、市工信局、商洛高新区(商丹园区)管委会等单位负责同志，赴西安交大中国西部科技创新港考察学习，对接洽谈校地合作事宜。西安交大党委常委、校长助理洪军等陪同。 当天，胡宏一行先后实地参观了西安交大天然血管药物筛选与分析国家地方联合工程研究中心和中国西部科技创新港数字展厅，详细了解了创新港建设成果及规划情况。随后，双方召开了校地合作对接座谈会，从科技项目攻关、企业科技研发、科技人才引进等方面，就推进校地合作进行了深入对接交流。 胡宏指出，科学技术是第一生产力。“十四五”期间，商洛加快推进产业转型升级，更是离不开科技创新的支撑。高铁时代即将来临，商洛如何发挥自身区位优势，抢抓国家建设中国西部科技创新港的大好机遇，依托创新港平台，推进资源共享，推动校地合作，是商洛当前亟须思考的一个课题。要从人才引进入手，按照“不求为我所有，但求为我所用”的思路，创新“柔性引才”“柔性引智”模式，着力破解制约商洛产业发展和企业研发的科技人才短缺瓶颈；要从企业需求入手，依托交大丰富的科技研发资源，深入推进“政府+企业+学校”三方合作；要从地方发展入手，依托商洛丰富的资源优势，加强校地常态化对接联系，探索“飞地研发”合作新模式，深化商洛与西安交大创新港的“政产学研用”全方位合作。 洪军表示，西安交大与商洛开展校地合作是互惠共赢的举措，双方态度都很积极，前期对接非常扎实。下一步，希望双方进一步找准合作方向，共同探索出适合商洛实际的合作模式，高效务实推进校地合作，实现合作共赢。', '当天，胡宏一行先后实地参观了西安交大天然血管药物筛选与分析国家地方联合工程研究中心和中国西部科技创新港数字展厅，详细了解了创新港建设成果及规划情况。随后，双方召开了校地合作对接座谈会，从科技项目攻关、企业科技研发、科技人才引进等方面，就推进校地合作进行了深入对接交流。', '胡宏指出，科学技术是第一生产力。“十四五”期间，商洛加快推进产业转型升级，更是离不开科技创新的支撑。高铁时代即将来临，商洛如何发挥自身区位优势，抢抓国家建设中国西部科技创新港的大好机遇，依托创新港平台，推进资源共享，推动校地合作，是商洛当前亟须思考的一个课题。要从人才引进入手，按照“不求为我所有，但求为我所用”的思路，创新“柔性引才”“柔性引智”模式，着力破解制约商洛产业发展和企业研发的科技人才短缺瓶颈；要从企业需求入手，依托交大丰富的科技研发资源，深入推进“政府+企业+学校”三方合作；要从地方发展入手，依托商洛丰富的资源优势，加强校地常态化对接联系，探索“飞地研发”合作新模式，深化商洛与西安交大创新港的“政产学研用”全方位合作。', '洪军表示，西安交大与商洛开展校地合作是互惠共赢的举措，双方态度都很积极，前期对接非常扎实。下一步，希望双方进一步找准合作方向，共同探索出适合商洛实际的合作模式，高效务实推进校地合作，实现合作共赢。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>274</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>商洛市农业农村局赴河南牧原集团开展扣门招商部门动态</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-04-26</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/15666.htm</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['近日，省农业农村厅任步学副厅长带领市农业农村局局长刘清民、副局长洪亮，商南县政府副县长张贤慧，商南县农业农村局、县畜牧兽医中心、丰联集团公司有关负责人，赴河南牧原集团考察招商。', '考察组先后深入牧原集团内乡屠宰场、以色列农业园、农牧装备产业园、肉食产业综合体、牧原集团总部，考察学习了牧原集团200万头现代化生猪屠宰加工生产线、利用沼液无土栽培有机蔬菜示范园、年出栏210万头生猪肉食产业综合体、生猪智能化养殖装备研发等项目，并就引进牧原集团入陕投资进行了洽谈交流。', '刘清民指出，商洛区域优势明显，自然隔离条件好，生态环境优、产业基础好，市委、市政府高度重视畜牧业发展，把畜牧业作为特色农业产业增长极培育。希望牧原集团来商投资兴业，带动商洛生猪产业转型升级。', '牧原集团表示，将抢抓生猪产业由南向北、由东向西梯次转移的良好机遇，加大与商洛市合作交流，力争在养殖基地、屠宰加工等项目建设上取得突破，为带动商洛生猪产业发展做出积极贡献。', '据悉，牧原集团始建于1992年，以生猪养殖为主营业务，兼顾饲料加工、生猪育种、生猪屠宰等产业协同发展，集团总资产900亿元，员工8万余人，下属子公司200余家，生猪产业已发展布局到全国22省（区）78市158县。2019年出栏生猪1025万头，规模化养殖全国第一。（市农业农村局 梁斌 符剑英）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>274</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>我市强力推动生态产品价值实现商洛要闻</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-12-16</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/130661.htm</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['近日，《商洛市加快推进生态产品价值实现工作三十二条措施》正式印发。三十二条措施是在市委主要领导带队赴江浙地区考察学习、市内实地调研、多层次召开座谈会和广泛征求意见的基础上，充分结合商洛实际制定出台的。主要从促进生态物质供给产品价值、生态调节服务产品价值、生态文化服务产品价值实现、体制机制创新四方面提出了具体措施，确保全面落实中办、国办印发的《关于建立健全生态产品价值实现机制的意见》、省发改委《关于进一步做好生态产品价值实现机制有关工作的函》系列政策，切实把我市绿水青山“好颜值”转化为金山银山“好价值”。', '“三十二条”明确了贯彻落实的牵头单位和责任单位，分别从品质生产、品牌溢价、数智营销等维度，提出了促进生态物质供给产品价值实现的九条措施；从生态保护与修复、水源涵养、固碳释氧、生物多样性等维度，提出了促进生态调节服务产品价值实现的八条措施；从秦岭文化、休闲旅游、景观价值等维度，提出了促进生态文化服务产品价值实现的八条措施；从生态产品核算、生态资产运营、绿色金融支持、绿色发展奖惩等维度，提出了建立健全符合商洛实际的生态产品价值实现创新机制的七条措施。三十二条措施的施行，将有力推动商洛生态产品价值实现机制试点工作向细、向实、向深全面加快推进。', '下一步，我市计划出台生态产品价值实现机制2023年度重点工作任务清单、促进GEP与碳汇核算成果应用实施方案、GEP专项考核办法，探索制定评绿星赋能、绿色奖惩等系列配套政策，为生态产品价值实现提供制度保障，争取形成可复制、可推广的生态产品价值实现路径和模式，创造更多“秦岭样板”“商洛经验”。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>274</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>商南突出四个重点狠抓项目建设重大项目</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1062/9361.htm</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['一是健全机制抓推进。健全“县级领导包抓、职能部门帮扶、相关单位配合、专人专班推进”工作机制，重新修订重点项目管理考核办法，新增服务保障内容，加大项目考评分值；制定了项目联评会议制度和43个重点推进项目季度拉练方案；印发项目包抓和节点推进文件，压实目标任务、工作责任、推进举措和完成时限，做到了齐心协力抓项目推进。', '二是行早动快抓推进。按照“新建项目促开工、续建项目抢进度”的思路，对照项目落地开工条件，结合摸排对接和实地踏勘情况，建立了问题台账和85个项目开复工时间表路线图。通过领导一线调研、巡回指导督促、专题会议研究、联动纾难解困等举措，年初举行首批20个重点项目集中开工活动，做到了项目建设动作快、起步稳。', '三是强化保障抓推进。召开项目建设专题会议，扎实安排部署项目推进工作。通过外出考察学习、交办包抓责任、下发问题清单、包抓公开承诺、联评会议研究、政会银企联动等举措，大力优化项目推进调度，强力破解要素保障难题，努力营造“人人是主角、共推大项目”的浓厚氛围。', '四是严督实查抓推进。以“政治引领、激浊扬清，优化政治生态、推动高质量发展”主题教育活动为契机，深入开展“项目建设突破年”活动。改变常规督查办法，定期录制项目现场视频、前后影像对比汇报，设置项目建设专栏、公考公示项目进展，落严落实领导挂帅、项目挂牌、成绩挂钩的“三挂”制度，切实推动重点项目加快建设。（商南县政府办 操俊）']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>274</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>宁洛对口扶贫协作成果丰硕区县资讯</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/63303.htm</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['近年来，洛南县和南京市江宁区全面贯彻落实苏陕扶贫协作战略要求，围绕脱贫摘帽目标，完善计划规划，加强对接交流，加大帮扶投资，跟踪落实项目，宁洛对口扶贫协作成果丰硕。 持续深化扶贫协作。2016年以来，江宁和洛南两地党委、政府积极推行“高层互访定方向，基层互访重落实”工作模式，两地党政机关、事业单位、各类企业互访交流，确保了宁洛扶贫协作高效运转。截至目前，洛南县赴江宁区考察学习交流共41批次659人，江宁区赴洛南县对接考察帮扶124批次1011人。 项目帮扶加快实施。近5年累计投入协作资金近3亿元，引资入洛4.2亿元，实施阳光庭园幼儿园、亲农·溪乐谷、宁洛扶贫产业园、康平水引工艺品加工、光伏扶贫电站等项目89个，带动近2.5万名贫困人口增收，短期内解决了群众增收致富、稳定脱贫问题，长期将为助力洛南乡村振兴提供有力支持。 劳务协作成果丰硕。围绕“一人就业、脱贫一户”目标，洛南江宁劳务输出培训基地、洛南县驻长三角地区劳务招商服务中心启动运营，开展劳务输出订单式培训16期542人次，举行对口扶贫专场招聘会10多次，达成就业意向3200多人，输送劳动力1520人。特别是今年疫情期间，抢抓劳务协作机遇，开通绿色通道，精准输送务工人员，江宁返岗复工122人，贫困劳动力稳定就业取得明显成效。 消费扶贫形式多样。洛南县积极与南京市供销系统、电商产业园等平台合作，利用南京江宁众彩物流资源和优势，采取线上线下多种形式推介、销售洛南农特产品，有效增加了群众产业收入。 结对帮扶纵深发展。2018年以来，江宁区谷里街办、禄口街办、汤山街办的7个社区分别与洛南县景村镇、保安镇、麻坪镇的7个贫困村建立了对口帮扶关系，累计投入帮扶资金2550万元，有力促进了结对镇村集体经济发展和脱贫攻坚工作。', '持续深化扶贫协作。2016年以来，江宁和洛南两地党委、政府积极推行“高层互访定方向，基层互访重落实”工作模式，两地党政机关、事业单位、各类企业互访交流，确保了宁洛扶贫协作高效运转。截至目前，洛南县赴江宁区考察学习交流共41批次659人，江宁区赴洛南县对接考察帮扶124批次1011人。', '项目帮扶加快实施。近5年累计投入协作资金近3亿元，引资入洛4.2亿元，实施阳光庭园幼儿园、亲农·溪乐谷、宁洛扶贫产业园、康平水引工艺品加工、光伏扶贫电站等项目89个，带动近2.5万名贫困人口增收，短期内解决了群众增收致富、稳定脱贫问题，长期将为助力洛南乡村振兴提供有力支持。', '劳务协作成果丰硕。围绕“一人就业、脱贫一户”目标，洛南江宁劳务输出培训基地、洛南县驻长三角地区劳务招商服务中心启动运营，开展劳务输出订单式培训16期542人次，举行对口扶贫专场招聘会10多次，达成就业意向3200多人，输送劳动力1520人。特别是今年疫情期间，抢抓劳务协作机遇，开通绿色通道，精准输送务工人员，江宁返岗复工122人，贫困劳动力稳定就业取得明显成效。', '消费扶贫形式多样。洛南县积极与南京市供销系统、电商产业园等平台合作，利用南京江宁众彩物流资源和优势，采取线上线下多种形式推介、销售洛南农特产品，有效增加了群众产业收入。', '结对帮扶纵深发展。2018年以来，江宁区谷里街办、禄口街办、汤山街办的7个社区分别与洛南县景村镇、保安镇、麻坪镇的7个贫困村建立了对口帮扶关系，累计投入帮扶资金2550万元，有力促进了结对镇村集体经济发展和脱贫攻坚工作。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>274</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>高健主持召开市政协四届常委会第十八次会议聚焦加强中心城区商洛要闻</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2020-09-26</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/19598.htm</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['高健主持召开市政协四届常委会第十八次会议聚焦加强中心城区公共交通建设保障开展专题协商-商洛市人民政府', '高健主持召开市政协四届常委会第十八次会议聚焦加强中心城区公共交通建设保障开展专题协商', '9月24日至25日，市政协四届常委会举行第十八次会议。市政协主席高健主持会议，市政府副市长周秀成，市政协副主席熊道宇、周青海、苏红英、王书正、张永平、夏启宗出席会议。 会议学习传达了全国地方政协工作经验交流会精神，围绕“加强中心城区公共交通建设保障”进行专题协商，审议通过了《修订完善市政协有关制度》和《关于调整市政协有关专门委员会机构设置和领导职务任免的意见》。 高健指出，中心城区公共交通建设是体现城市发展质量和文明程度的重要标志。各级各方面要深刻认识公共交通在民生保障中的重要地位，确立“人民至上、便捷出行，大社会、大公益、大服务，大公交、大保障、大民生”的理念，合力推动公共交通建设稳步发展。 高健强调，各级各部门要拓宽视野思维，建立“政府主导、部门协同、社会参与、资源优化、便捷顺畅”的城市公共交通建设新格局。要统筹线路优化安排、站点布局建设、各类车辆投放、运营服务管理、做好政策保障、加强人员管理、政府激励支持、公共设施标准、公共综合执法与管理，推动新时代城市公共交通高质量发展。要建立市县共同支持机制，设立专项资金，制定公交企业税收返还支持公交运行政策，把客运站点与高铁站点统筹规划，把公交站点纳入城市总体规划同步建设。要加强公交运输企业内部管理，着力在资产运营效益、打造服务平台、提升人员素质上下功夫。要深化公交改革，探索建立企业发展贡献与职级待遇相适应、中心城区客运与公交管理发展相融合、城市集约化管理、公交合理票价管理、特殊人群交通保障、文明宣传教育的新机制，最大限度让人们感受到公共交通带来的幸福感。 高健要求，各级政协组织要深化政协机构改革，不断推进政协履职能力建设。要高度重视制度建设，注重抓好制度宣传和落实，形成正向反馈、良性循环的工作机制。要统筹抓好四季度重点履职工作，确保年度目标顺利实现。 周秀成表示，市政府将认真研究吸纳各位委员意见建议，全力加快公共交通建设，全力补齐短板弱项，切实让中心城区公共交通的发展变化惠及更多群众。 会前，市政协组织调研组远赴辽宁大连、鞍山和山东烟台考察学习，并同步开展公共交通现状满意度调查。会中，各位常委深入城区汽车客运站、网约车平台公司等7个公共交通运营现场开展视察调研，6名政协委员进行了专题议政发言。', '会议学习传达了全国地方政协工作经验交流会精神，围绕“加强中心城区公共交通建设保障”进行专题协商，审议通过了《修订完善市政协有关制度》和《关于调整市政协有关专门委员会机构设置和领导职务任免的意见》。', '高健指出，中心城区公共交通建设是体现城市发展质量和文明程度的重要标志。各级各方面要深刻认识公共交通在民生保障中的重要地位，确立“人民至上、便捷出行，大社会、大公益、大服务，大公交、大保障、大民生”的理念，合力推动公共交通建设稳步发展。', '高健强调，各级各部门要拓宽视野思维，建立“政府主导、部门协同、社会参与、资源优化、便捷顺畅”的城市公共交通建设新格局。要统筹线路优化安排、站点布局建设、各类车辆投放、运营服务管理、做好政策保障、加强人员管理、政府激励支持、公共设施标准、公共综合执法与管理，推动新时代城市公共交通高质量发展。要建立市县共同支持机制，设立专项资金，制定公交企业税收返还支持公交运行政策，把客运站点与高铁站点统筹规划，把公交站点纳入城市总体规划同步建设。要加强公交运输企业内部管理，着力在资产运营效益、打造服务平台、提升人员素质上下功夫。要深化公交改革，探索建立企业发展贡献与职级待遇相适应、中心城区客运与公交管理发展相融合、城市集约化管理、公交合理票价管理、特殊人群交通保障、文明宣传教育的新机制，最大限度让人们感受到公共交通带来的幸福感。', '高健要求，各级政协组织要深化政协机构改革，不断推进政协履职能力建设。要高度重视制度建设，注重抓好制度宣传和落实，形成正向反馈、良性循环的工作机制。要统筹抓好四季度重点履职工作，确保年度目标顺利实现。', '周秀成表示，市政府将认真研究吸纳各位委员意见建议，全力加快公共交通建设，全力补齐短板弱项，切实让中心城区公共交通的发展变化惠及更多群众。', '会前，市政协组织调研组远赴辽宁大连、鞍山和山东烟台考察学习，并同步开展公共交通现状满意度调查。会中，各位常委深入城区汽车客运站、网约车平台公司等7个公共交通运营现场开展视察调研，6名政协委员进行了专题议政发言。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>274</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>商洛市举办中小学幼儿园财务管理人员警示教育报告会部门动态</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/16494.htm</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['12月25日，商洛市教育局联合西安财经大学在商洛市小学举办了全市教育脱贫攻坚暨中小学、幼儿园财务管理人员警示教育专家报告会。报告会采用“线上视频+线下集中”的方式进行。市上设主会场，各县区设分会场。', '报告会邀请西安市审计局行政事业审计处副处长、高级审计师、西安市审计专家库成员、西安财经大学脱贫攻坚特聘专家刘鸣才同志，为全市教育系统领导干部、中小学财务管理人员做了“审计视角下的中小学财务管理不规范问题警示教育”的专题报告。', '刘鸣才从公务支出中的违规违纪典型案例、常见问题答疑、树立廉洁自律意识三个方面，对教育系统机关事业单位和学校的公务支出行为进行了解析。重点讲述了工会经费提取支出、奖金补贴支出、公务接待支出、办公费支出、会议费支出、培训费支出、差旅费支出、公车运行维护费支出等8个经费支出过程中的政策规定和存在违规违纪行为，就机关事业单位和学校劳保用品发放范围、赴“红色”根据地旧址考察学习支出、公款能否购买茶叶、“三八”妇女节（教师节）能否发放节日慰问品、集体活动聚餐能否公款报销、专家劳务费咨询费评审费能否发放、中小学教师课时费班主任津贴能否发放、公款能否购买手机、文体活动公用经费能否购买服装、能否组织老年活动、元旦春节能否慰问离退休老干部、误餐能否补助等12个具体问题进行了政策答疑。刘鸣才从审计的角度，解读了有关政策，用生动的案例，剖析了一些违规违纪行为，政策分析精准，警示案例鲜活，为教育系统财务人员划清了规定路线，明确了政策红线，明确了工作底线，筑牢了思想防线，对与会人员进行了很好的警示教育。报告会上，西安财经大学工会副主席邱天瑞还介绍了西安财经大学结对帮扶商洛脱贫攻坚工作情况。', '报告会由商洛市教育局副局长龚胜利主持。在主会场参加会议的有市教育局全体机关干部，市直各教育单位中层以上领导和财务工作人员，商洛高新区（商丹园区）社区管理办事处班子成员、直属学校校长代表。在各县区共设置9个分会场，参加会议的有各县区科教体局班子成员、各股室负责人，中心小学、中心幼儿园以上校长、园长。全市共计700余人参加了报告会。(来源：商洛市教育局 联系人：张洁)']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>274</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>高健主持召开市政协四届常委会第二十三次会议专题协商加快特商洛要闻</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/15388.htm</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['高健主持召开市政协四届常委会第二十三次会议专题协商加快特色农业培育 夯实乡村振兴产业基础-商洛市人民政府', '高健主持召开市政协四届常委会第二十三次会议专题协商加快特色农业培育 夯实乡村振兴产业基础', '9月28日至29日，市政协四届常委会举行第二十三次会议，围绕“加快特色农业培育，夯实乡村振兴产业基础”开展专题协商。市政协主席高健主持会议并讲话，市政府副市长李育江通报了有关情况并讲话，市政协副主席周青海、苏红英、王书正、张永平、夏启宗、刘仲林和秘书长李久敏出席会议。 会议集体学习了习近平总书记来陕考察重要讲话重要指示和中共陕西省委《关于新时代加强和改进人民政协工作的实施意见》(陕发〔2021〕15号)，通报了全市特色农业产业发展情况、调研情况及市政协2021年“委员活动日”活动开展情况，印发了关于学习贯彻省委15号文件的《通知》，审议通过了加强市县政协委员作风建设的《意见》和有关人事事项。 高健指出，全市各级政协组织要把学习贯彻总书记来陕考察重要讲话重要指示作为重要政治任务，结合年度履职实践，找准切入点和着力点，全力推动习近平总书记重要讲话重要指示在政协系统落地生根。 高健强调，各方面要深化认知，站在全局和战略高度，深刻领会加快乡村振兴的极端重要性，以全新理念理解乡村振兴。要统筹协调，完善乡村振兴专项规划，以明晰思路规划乡村振兴。要突出重点，在乡村产业、建设、风貌、治理、富裕上狠下功夫，以务实举措推进乡村振兴。要汇聚合力，综合运用改革、科技、政策和市场等举措，引导群众主动参与，以共同奋斗实现乡村振兴。要立足职能，聚焦产业发展、基础设施和公共服务等方面积极建言，以政协作为助推乡村振兴。 高健要求，各级政协组织和广大政协委员要高度重视作风建设，切实做到全面排查、立改并举、常抓长效。要认真抓好《意见》的学习宣传和贯彻落实，努力形成正向激励、良性循环的工作机制。要有序做好换届工作衔接，接续推进政协事业稳步向前发展。要统筹兼顾，认真抓好党史学习教育和四季度重点履职工作，确保年度目标任务顺利完成。 李育江表示，市政府将认真梳理吸纳意见建议，积极推动实践应用，确保意见建议落地见效、发挥作用；强力推进协商成果转化，为推进乡村全面振兴奠定产业基础；转变作风提高效能，努力推动效能型政府建设取得新成绩。 会前，市政协组织调研组远赴甘肃、宁夏、湖北和宝鸡、榆林等地考察学习，并同步开展市内实地调研。会中，王应武、于亚斌、刘康懿、殷莉、张平等5名委员代表和专家学者作了议政交流发言。', '会议集体学习了习近平总书记来陕考察重要讲话重要指示和中共陕西省委《关于新时代加强和改进人民政协工作的实施意见》(陕发〔2021〕15号)，通报了全市特色农业产业发展情况、调研情况及市政协2021年“委员活动日”活动开展情况，印发了关于学习贯彻省委15号文件的《通知》，审议通过了加强市县政协委员作风建设的《意见》和有关人事事项。', '高健指出，全市各级政协组织要把学习贯彻总书记来陕考察重要讲话重要指示作为重要政治任务，结合年度履职实践，找准切入点和着力点，全力推动习近平总书记重要讲话重要指示在政协系统落地生根。', '高健强调，各方面要深化认知，站在全局和战略高度，深刻领会加快乡村振兴的极端重要性，以全新理念理解乡村振兴。要统筹协调，完善乡村振兴专项规划，以明晰思路规划乡村振兴。要突出重点，在乡村产业、建设、风貌、治理、富裕上狠下功夫，以务实举措推进乡村振兴。要汇聚合力，综合运用改革、科技、政策和市场等举措，引导群众主动参与，以共同奋斗实现乡村振兴。要立足职能，聚焦产业发展、基础设施和公共服务等方面积极建言，以政协作为助推乡村振兴。', '高健要求，各级政协组织和广大政协委员要高度重视作风建设，切实做到全面排查、立改并举、常抓长效。要认真抓好《意见》的学习宣传和贯彻落实，努力形成正向激励、良性循环的工作机制。要有序做好换届工作衔接，接续推进政协事业稳步向前发展。要统筹兼顾，认真抓好党史学习教育和四季度重点履职工作，确保年度目标任务顺利完成。', '李育江表示，市政府将认真梳理吸纳意见建议，积极推动实践应用，确保意见建议落地见效、发挥作用；强力推进协商成果转化，为推进乡村全面振兴奠定产业基础；转变作风提高效能，努力推动效能型政府建设取得新成绩。', '会前，市政协组织调研组远赴甘肃、宁夏、湖北和宝鸡、榆林等地考察学习，并同步开展市内实地调研。会中，王应武、于亚斌、刘康懿、殷莉、张平等5名委员代表和专家学者作了议政交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>274</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>市政协党组召开扩大会议开展党史学习教育安排当前重点工作商洛要闻</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/17309.htm</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['5月6日，市政协党组书记、主席高健主持召开市政协党组扩大会议暨理论中心组学习会议。市政协党组成员、主席会议成员、各位副秘书长、市纪委监委驻市政协机关纪检监察组组长及各专委会主任参加会议。会议集体学习了《习近平新时代中国特色社会主义思想学习问答》习近平同志《论中国共产党历史》《中国共产党简史》节选篇目及省政协《致全省各级政协党员委员的一封信》，专题学习了关于加强换届纪律的相关通知要求，各位党组成员、主席会议成员逐一进行了表态承诺，签订了《严守换届纪律承诺书》，并围绕“追寻红色足迹、感悟初心使命”主题开展研讨交流。同时，研究讨论了《关于加强委员读书群有关工作的意见》和《关于考察学习特色农业发展暨重点提案办理工作有关事宜》。', '大家一致认为，追寻红色足迹、感悟初心使命，对于感悟马克思主义的真理力量和实践力量，领会党史中蕴育的深刻内涵，让初心使命在新征程中绽放出新光芒具有重要意义。表示要坚守理想信念，确保政协事业始终坚定正确的政治方向。要紧扣党政所需、群众所盼、政协所能，广泛开展协商，扎实做好“我为群众办实事”实践活动。要坚持知行合一，用实实在在的履职成果展现政协新作为。要创新履职方式，确保学习要求落实、内容全面、质量提升、促进工作。', '会议强调，各级政协组织和广大政协委员要通过“集体学、个人学、专题学、研讨学、现场学”等方式，持续开展好党史学习教育，努力在学习上下功夫、在学史增信上见成效。要以“党史·委员·读书”活动为抓手，发挥好各级党组(党委)领导示范带头、专委会组织落实、委员读书主体、网上读书群的作用，建立每月一名主席牵头、一个委室轮值、一个学习主题、一次通报总结等制度，让读书学习成为一种自觉和习惯。要把党史学习教育与履职实践相结合，统筹推进“聚力项目·助力开局”主席会议成员集中视察协商活动、主席会议成员履职培训班、委员工作室建设及常委会专题议政性协商等履职工作，切实把学习的成效转化为履职的动能。', '会议要求，各级各方面要充分认识做好换届工作的重大意义，积极配合换届工作，带头开展换届政策、换届纪律宣传教育，以实际行动为做好换届工作营造良好环境。要严格遵守换届纪律，增强纪律意识、规矩意识、自律意识，自觉遵守换届纪律要求，确保换届风清气正。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>274</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市五届人大常委会召开第四次主任会议商洛要闻</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/108428.htm</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['7月7日，市人大常委会主任陈宁主持召开市五届人大常委会第四次主任会议。市人大常委会副主任杨长洲、冯永清、赵军、李旭光和秘书长石康君参加会议。', '会议听取并讨论了关于对市人民政府关于2021年度商洛市企业国有资产管理情况的报告的审议意见、关于对市人民政府关于有效减轻过重作业负担和校外培训负担促进义务教育阶段学生全面健康发展情况的报告的审议意见、关于对市人民政府关于我市松材线虫病防治工作情况的报告的审议意见、关于对检查《中华人民共和国环境保护法》《陕西省实施〈中华人民共和国环境保护法〉办法》贯彻实施情况的报告的审议意见、关于对检查《中华人民共和国慈善法》《陕西省实施〈中华人民共和国慈善法〉办法》贯彻实施情况的报告的审议意见，听取并讨论了关于2022年上半年全市国民经济和社会发展计划及财政预算执行情况的视察调研方案、关于进一步做好《商洛市养犬管理条例（草案修改稿）》修改工作的方案、关于我市贯彻实施《中华人民共和国人民调解法》的执法检查方案、关于对市人民政府落实《市人大常委会执法检查组关于我市贯彻执行〈陕西省秦岭生态保护条例〉情况的执法检查报告》审议意见的视察检查方案，听取并讨论了关于《商洛市人大常委会基层立法联系点工作规定（草案）》的说明、商洛市人大常委会办公室关于聘任立法咨询专家的建议名单，以及关于赴南京市人大考察学习有关情况的汇报和机关建设相关工作。', '陈宁强调，要加强对审议意见落实情况的跟踪督办，督促和支持市政府及其有关部门围绕落实市人大常委会审议意见，进一步加强和改进相关工作。要按照视察调研、视察检查方案安排，加强联系沟通，认真调查研究，深入了解、全面掌握相关工作情况，为常委会议审议提供客观翔实、准确可靠的依据。要全面梳理常委会及机关工作制度、管理制度，建立健全制定、修订工作体制，推动工作规范化、制度化。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>274</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>王青峰考察学习博物馆建设等工作重大活动</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1190/134625.htm</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['为高质量推进秦岭博物馆项目建设，高水平谋划陈列布展等相关工作，近日，市委副书记、市长王青峰赴西安、洛阳等地，考察学习各地博物馆建设先进经验和做法。市委常委、宣传部部长贾永安，副市长温琳随同考察。陕西省文物局局长罗文利、洛阳市市长徐衣显等分别陪同考察并举行工作会谈。', '在陕西考古博物馆，王青峰一行重点参观了博物馆展陈设计、室内装修情况，并深入座谈了解博物馆展陈大纲编制、形式设计和展陈施工等事宜。罗文利对商洛市高质量建设秦岭博物馆做法给予充分肯定，他表示，秦岭博物馆的开工建设，填补了陕西没有全面展示秦岭的综合性博物馆的空白，具有非常重要的意义，省文物局将在展陈大纲编制、展品征集等方面给予全力支持。', '在隋唐大运河博物馆，王青峰实地考察博物馆展陈大纲编制、展陈设计和多媒体互动等，听取相关负责人关于博物馆建设运营、周边环境整治等方面经验做法的介绍，并围绕博物馆建设、文物保护利用、文旅融合发展等进行深入交流。徐衣显介绍了洛阳市文旅文创融合发展、“东方博物馆之都”建设等工作情况，他说，洛河从商洛发源，在洛阳注入黄河，两座城市名同源、地相近，山水相依、人文相亲，自古交流密切、情谊源远流长。商洛居秦岭腹地，洛阳处天下之中，两市文化底蕴深厚、生态资源富集、合作潜力巨大。希望进一步加强交流互动，在深化文旅、产业、交通、商贸等多领域务实合作上取得新突破，携手共促两市高质量发展。', '王青峰指出，陕西考古博物馆和洛阳博物馆的经验和做法，值得商洛认真总结学习，将以此次考察为契机，充分借鉴先进经验，全力以赴将秦岭博物馆打造成为高水平展示秦岭的综合性博物馆和宣传秦岭祖脉文化的国家级窗口。他表示，将深入学习洛阳在文旅融合、城市提质等方面的新模式、新路子，突出“颠覆性创意、沉浸式体验、年轻化消费、移动端传播”的文化传承发展理念，抢抓产业新风口，大力发展新文旅，进一步深化与洛阳市的交流合作，共同谱写互惠互利、共赢发展新篇章。', '随后，贾永安、温琳还带队赴中国大运河博物馆、苏州博物馆、上海自然博物馆进行了延伸考察。 （市文旅局供稿）']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>274</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>全市中国康养之都建设暨市决策咨询委员会二届五次特邀顾重大活动</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1181/133271.htm</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['全市“中国康养之都”建设暨市决策咨询委员会二届五次特邀顾问座谈会召开-商洛市人民政府', '5月10日，全市“中国康养之都”建设暨市决策咨询委员会二届五次特邀顾问座谈会在商州召开。姚引良、魏增军、赵德全、陈再生、邓理、刘维隆、吴前进、白阿莹、周一波、冯月菊等省决咨委领导和市决咨委特邀顾问出席。市委书记赵璟讲话，市委副书记、市长王青峰致辞并通报全市经济社会发展情况，市决咨委主任何铁虎主持会议，市决咨委副主任罗均让汇报赴广西、贵州考察学习情况。市人大常委会主任陈宁，市委副书记赵晓宁，市委常委、市委秘书长张国瑜，副市长刘伟、璩泽涛，市政协副主席夏启宗，市决咨委副主任兼秘书长刘永根等分别参加视察调研或座谈会。', '座谈会上，与会领导和特邀顾问充分肯定了商洛经济社会发展取得的新成效，并从挖掘地方特色文化、完善康养产业配套设施、加强宣传推介、强化人才支撑、发展高质量文旅、培育养老产业等方面，对打造“中国康养之都”提出了极具指导性、前瞻性和针对性的意见建议。', '赵璟向长期以来关心支持商洛发展的各位领导和顾问表示感谢。她说，各位领导和特邀顾问聚焦打造“中国康养之都”和高质量发展，提出了很多真知灼见，为我们打开了思路、拓展了视野、增长了见识。商洛将紧扣打造“一都四区”，立足当前、着眼未来，一张蓝图绘到底，做实做好打基础、利长远的“潜绩”。将聚焦全龄人群、全季时间、全域空间、全民消费、全国市场，创新思路举措，加快打造“中国康养之都”。持之以恒践行“两山”理念，以项目为牵引，以产业为支撑，以园区为承载，以生态为本底，着力推动生态优先、绿色升级。将大力发展县域经济、特色产业，促进群众就业、社会事业提质增效，不断加快强市富民步伐。希望大家充分发挥“智库”优势，多调研、多指导、多支持，助力商洛加快打造“一都四区”、谱写高质量发展新篇章。', '王青峰首先向各位老领导和特邀顾问多年来对商洛的关心关注表示感谢。他说，当前商洛正处在加快发展的关键时期，希望各位老领导充分发挥政治优势、经验优势和威望优势，发挥参谋智囊、监督指导、桥梁纽带作用，为我们传授经验、建言献策，我市将认真领会、落实到位，低调务实、埋头苦干，把各方意见建议转化为推动高质量发展的实践成果。', '会前，与会领导和特邀顾问还对西商城际列车商洛北客站、秦岭·商洛博物馆、南秦河生态公园、商洛比亚迪公司单晶硅、商州区电子科技产业园等项目建设情况进行了实地调研。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>274</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>赵璟率队赴武汉等地考察招商重大活动</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-08-05</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1190/134715.htm</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['8月2日至4日，市委书记赵璟率队赴湖北省武汉市、丹江口市等地开展叩门招商，拜会中国长江三峡集团，并考察调研水生态保护、博物馆展陈等工作。副市长刘伟、温琳分别参加相关活动。', '在武汉中国长江三峡集团，赵璟与三峡集团副总经理、三峡能源董事长王武斌座谈交流，洽谈合作有关事宜，并出席市政府与中国三峡新能源（集团）股份有限公司战略合作框架协议签约仪式。在湖北陕西商会，赵璟一行详细了解商会发展历程、企业发展状况等，并召开重点招商企业恳谈会。赵璟代表市委、市政府向长期以来关心支持商洛发展的企业家表示衷心感谢。她说，商洛已经迎来多重机遇叠加赋能、内在潜力加速释放的发展上升期。近年来，全市上下深入学习贯彻习近平总书记来陕考察重要讲话重要指示精神，坚定不移走好生态优先、绿色升级之路，聚力打造新材料、绿色食品和健康医药、康养三个千亿级产业集群，以及一个投资千亿元的抽水蓄能产业基地，高质量发展势头正劲、前景广阔，也为企业发展提供了良好平台。诚挚希望广大企业家一如既往关心商洛、宣传商洛、支持商洛，在更广领域、更深层次、更大范围开展交流合作，带动更多项目布局商洛、更多人才投身商洛、更多企业深耕商洛，携手共创商洛更加美好的明天。', '考察期间，赵璟一行赴中南建筑设计院、湖北省博物馆、盘龙城遗址博物院考察学习了城市规划、博物馆展陈等工作。在亚瑞生物科技集团有限公司、正威(丹江口)新能源智造产业园，详细了解企业生产运营、发展规划、投资布局等情况，围绕产业合作、项目落地等进行深入磋商，表示将以最高效率、最好政策、最优服务、最实举措，确保企业在商洛放心投资、安心创业、舒心生活。', '返程途中，赵璟一行还来到河南省南阳市淅川县荆紫关国控水质自动监测站，以及丹江豫陕交界处、商南县湘河镇省控水质自动监测站，考察调研了水生态保护工作。她指出，商洛承担着国家南水北调中线工程水源地保护这一重大政治责任，要“一断一策”加强流域综合治理，推动水生态环境质量持续向好，确保“一泓清水永续北上”。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>274</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>赵璟率队赴西安经开区和高新区考察学习商洛要闻</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/134840.htm</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['8月11日，市委书记赵璟率队赴西安经开区、高新区考察学习，并召开座谈会。市委常委、市委秘书长张国瑜，副市长刘伟一同考察。', '西安市委常委、经开区党工委书记康军，西安市委常委、高新区党工委书记马鲜萍，西安市科技局党组成员、副局长李建勋，西安经开区管委会主任贾强，副主任陈迪、张俊，西安高新区党工委副书记郭晓辉，管委会副主任顾海文、杨华分别参加有关活动。', '赵璟一行首先来到西安经开区，走进经开区综合展示馆、广联达西安科技有限公司和隆基绿能科技股份有限公司，详细了解西安经开区空间规划、区域功能以及企业生产经营等情况。在西安高新区，赵璟一行来到环普国际科技园和瞪羚谷创业社区，走进芯派科技、易点天下、泰科迈医药、力邦制药等企业，仔细询问招商运营、科技研发、销售产值等情况。', '在座谈会上，赵璟说，商洛生态良好、资源富集、交通便捷，正处于多重机遇叠加赋能、内在潜力加速释放的发展上升期。商洛和西安山水相依、人文相亲、产业相接，有很好的合作基础。商洛经开区、高新区要加强同西安经开区、高新区的交流互动，深入学习西安在产业发展、招商引资、营商环境等方面的先进经验，围绕“西安研发、商洛转化”“西安制造、商洛配套”，在科技创新、产业发展、园区建设等方面开展更多务实合作，共建西商“生活圈、生产圈、生态圈”。', '康军说，西安经开区与商洛产业契合度高、经济互补性强，合作空间广阔。经开区将抢抓西商融合协同发展机遇，进一步深化产业合作、创新协作，着力携手打造西商融合协同发展的先行典范。', '马鲜萍说，西安高新区将聚焦产业发展、科技创新等方面，与商洛市开展务实合作，互学互鉴、协同发展，努力在西商融合协同发展中走在前、当示范，为全省高质量发展作出更大贡献。', '座谈会上，商洛经开区、高新区分别与西安经开区、高新区签订了战略合作框架协议。商洛市科技局与西安市科技局签订了《西商科技交流合作协议》。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>274</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>赵璟率队赴中国农业大学对接深化校地合作孙其信会见赵璟一行重大活动</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1719/134881.htm</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['8月14日，市委书记赵璟率队赴中国农业大学对接深化校地合作，双方围绕推进乡村振兴、干部人才培养、科技成果转化等工作进行座谈。中国农业大学校长孙其信会见赵璟一行。中国农业大学党委常委、副校长林万龙，中国农业大学继续教育学院院长任金政，市委常委、副市长李波，市委常委、市委秘书长张国瑜参加会见和座谈。', '孙其信对赵璟一行的到来表示欢迎。他说，商洛市全域处于秦岭腹地，生态良好、资源丰富，发展特色农业基础良好、前景广阔。中国农业大学将聚焦建设农业强国目标，以强农兴农为己任，紧扣地方所需，发挥农大所能，着力在人才培养、产教融合、乡村振兴等领域深化校地合作，不断提高合作层次，拓宽合作领域，为商洛推进高质量发展、现代化建设提供支持。', '林万龙说，商洛市委、市政府高度重视农村人才培育，双方合作的第一期乡村经营管理人才（乡村CEO）示范培训班取得了良好成效。中国农业大学将紧扣全面推进乡村振兴和商洛工作实际，持续优化培训课程设置、创新人才培养方式，努力培育更多懂农业、爱农村、爱农民的农村紧缺人才。', '赵璟对中国农业大学给予商洛工作的支持表示感谢。她说，中国农业大学是国家“双一流”建设高校，在助力农业农村现代化建设特别是乡村振兴方面作用突出。希望学校把商洛作为优质生源基地，在商设立科技小院，尽快挂牌启动集体经济教授工作站，持续开展乡村CEO培训，助力商洛特色农业强市建设，合力打造新时代校地合作新典范。', '随后，赵璟出席第二期乡村经营管理人才（乡村CEO）商洛专题示范培训班开班仪式并讲话，勉励学员们要不负农大栽培、不负组织重托、不负乡亲期盼、不负人生韶华，高质高效完成培训任务，当好群众增收致富“带头人”。', '其间，赵璟一行还参观了中国农业大学“非凡十年·农大篇章”主题展览和“厚植爱农情怀 练就兴农本领”科技小院专题展览，并在国家数字渔业创新中心考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>274</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>王青峰带队赴杭州海宁考察学习亚运会办赛经验和国家级体育训重大活动</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024-04-03</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1188/139029.htm</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['王青峰带队赴杭州海宁考察学习亚运会办赛经验和国家级体育训练基地建设工作-商洛市人民政府', '3月31日至4月2日，市委副书记、市长王青峰带队赴杭州、海宁考察学习亚运会办赛经验和国家级体育训练基地建设工作。副市长、市公安局局长矫增兵参加考察活动。', '在杭州亚运会博物馆，王青峰认真倾听杭州申办亚运会过程，虚心学习场馆建设、市场运营开发、赛事服务保障、城市环境改造的经验和做法。在杭州奥体中心，实地考察主体育场、网球中心、体育馆、游泳馆，详细了解各场馆的设计理念、赛事组织和赛后场馆运营等情况。他说，2024国际排联沙滩排球U19世界锦标赛是继南京市之后国内第二次成功申办的国际A类赛事，也是商洛乃至陕西迄今举办的最高规格赛事之一，要以此次考察为契机，高标准、高质量、高效率推进相关筹备工作，努力为全世界呈现一场沙排盛宴。', '考察期间，王青峰一行还与杭州亚组委、杭州市政府及相关部门进行了座谈交流。杭州市副市长陈卫强全面介绍了承办第19届亚运会赛事情况，从竞赛服务、体育展示、城市景观提升、市民文明行为养成、涉外赛事安保等方面分享了经验和做法。王青峰高度评价了杭州市承办亚运会取得的显著成效，表示将充分借鉴学习，全面提高2024国际排联沙滩排球U19世界锦标赛办赛水准，持续优化提升城市环境和精细化管理水平，大力发展赛事体育经济，全方位提升商洛对外美誉度和影响力，让世界在商洛看见美丽中国，推动商洛走出国门、走向全世界。', '在海宁亚洲训练中心，王青峰一行考察了国家级训练基地规划建设和场馆经营运行情况。王青峰强调，国家排球训练基地和“一带一路”国家青少年排球高水平训练基地，是商洛举办排球赛事、发展体育产业的重要基础设施，要坚持按照商业运营、社会投资、产权明晰的原则，严格遵循“多馆合一、一馆多能”建设理念，加强创意设计，体现商洛特色，切实打造以排球运动为主题，集城市文化、专业训练、竞赛表演、全民健身等于一体的体育商业综合体，为商洛打造“国际排球名城、中国赛事名城”提供坚实“硬支撑”。（市政府办供稿）']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>274</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>市政府与省科学院签署战略合作协议重大活动</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-09-02</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1186/135205.htm</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['9月1日，市委常委、副市长孙举恒带领市发改委、市科技局、市农业农村局等部门负责同志赴省科学院考察座谈并与省科学院签署战略合作协议。省科学院党组书记、院长赵卫出席活动并讲话，副院长陈怡平主持会议并陪同考察。', '会前，孙举恒一行参观了省科学院成果展室，省科学院介绍了科技创新工作情况以及“三项改革”成果转化工作进展，市科技局通报了我市科技创新工作开展情况。', '孙举恒代表市委、市政府对省科学院长期以来为推动商洛经济社会发展作出的积极贡献表示感谢。他说，省科学院学科领域广、攻关能力强、科技成果多，拥有全省最为优质、雄厚的科技资源。近年来，省科学院与商洛市持续加强科研项目合作，双方在产业发展、科技创新成果转化、创新平台建设等方面取得了丰硕成果。当前，商洛正加快建设特色农业强市，推动“菌果药畜茶酒”特色产业提质增效，壮大县域首位产业，全力打造秦创原科技企业融通创新示范区。希望省科学院充分发挥科技资源优势，加大在商洛的研究布局和成果转化力度，为商洛提供先进理念、前沿技术、一流人才和高端智力支撑。商洛将一如既往地为各位专家在商开展工作提供便利，全力推动合作项目尽早落地见效。', '赵卫对商洛市委、市政府给予省科学院工作的大力支持表示感谢。他说，近年来，双方开展了多层次、多领域的科技创新合作，推动了很多科技成果在商洛的落地转化。省科学院将以此次协议的签署作为新起点，开展更多形式多样、层次丰富、覆盖更广的科技交流与合作，为商洛推进创新平台建设、开展核心技术攻关、打造创新人才高地、推动经济社会发展高质量发展作出新的更大贡献。', '会后，考察组前往省生物农业研究所、省动物研究所、省微生物研究所、省西安植物园、中科院地环所进行考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>274</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>商洛市赴渭南市合阳县考察学习农村改厕工作乡村振兴</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1069/13820.htm</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['近日，商洛市农业农村局副局长洪亮，带领各县区农业农村局、卫生健康局分管局长和业务股长等40余人，赴渭南市合阳县考察学习农村改厕工作。全省农村改厕技术专家、原西安未央区爱卫办常务副主任曹平，渭南市农业农村局副局长周剑平，合阳县农业农村局副局长王北红、县乡村振兴服务中心主任罗峰、副主任马智远以及合阳县相关镇（办）、村（社区）负责人等陪同考察。', '考察团一行先后来到渭南市合阳县城关街道办白灵村、坊镇北渤海村、甘井镇城后村、金峪镇浪后村、王村镇北蔡村，现场学习了乡村振兴示范村建设、三格化粪池式、双瓮化粪池式、微生物降解式及完整上下水冲式等农村户厕改建模式，详细了解在组织发动群众、技术模式选择、施工选址建设、项目档案管理、粪污资源化利用、后期维护运营等方面的主要做法和先进经验，认真听取相关镇（办）、村（社区）负责同志有关农村改厕工作情况介绍，并就农村厕所无害化改造、三格化粪池式厕所建设、整村推进项目实施以及农村厕所质量管理、粪污资源化利用、后续管护运行、市场化运作等问题进行了深入交流。', '返回途中，考察团成员就考察学习体会进行了深入交流与探讨。一致认为合阳县农村改厕工作成效显著，呈现出群众工作做得实、改厕底数摸得清、建设模式选得准、项目管理抓得细、监管机制用得活、建设标准定得高、施工监管把得严、奖励标准补得准、改厕普及均达标、群众满意都称好的10个显著特点。通过观摩考察，看到了工作中存在的不足和差距，学到了先进经验和技术模式，深深体会到农村改厕工作组织领导是关键，宣传发动是重点，技术支撑是前提，资金投入是保障，建护机制是保证。纷纷表示，农村改厕工作是一项惠及农村农民、造福广大群众的民生工程、民心工程、德政工程，下一步将认真学习借鉴合阳县农村改厕工作的好经验、好做法，按照“政策调动自觉改、整村推动连片改、因地制宜科学改、就近就地多户改、操作规范高标改、技术保证质量改、典型带动示范改、健全机制保障改、方便生活扩容改、促进产业发展改”十项工作原则，结合正在开展的作风建设专项整治、以案促改和创建国家卫生城市评估验收工作，压实责任、补齐短板、创新方法、坚持不懈、久久为功，切实做好我市农村改厕工作，把“小厕所”这个“大民生”落实好，让农村人居环境得到持续改善，把总书记时刻挂念的这件好事办好、好事办实。（市农业农村局 任勇 董龙）']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>274</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市政协四届常委会举行第二十二次会议商洛要闻</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/16690.htm</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['6月24日，市政协四届常委会举行第二十二次会议，围绕“加快实现生态经济化，推动商洛高质量发展”开展专题协商。市政协主席高健主持会议并讲话，市委常委、市政府副市长胡宏通报了有关情况并讲话，市政协副主席熊道宇、周青海、苏红英、王书正、张永平、夏启宗和秘书长李久敏出席会议。', '会议集体学习了《习近平新时代中国特色社会主义思想学习问答》有关内容和中办、国办《关于建立健全生态产品价值实现机制的意见》，通报了全市生态经济化工作情况及调研情况，审议了《市政协主席会议成员履职培训报告》和《市政协委员工作室管理办法》。', '高健指出，加快生态产品价值实现，是贯彻习近平生态文明思想的重要举措，是推动绿水青山变为金山银山的重要途径。各级各方面要深刻认识加快生态产品价值实现的重大意义，转变观念思维，凝聚生态共识，充分调动各方积极性，合力推动试点工作稳步发展。', '高健强调，各级各部门要坚持以“两山”理论为指引，处理好“保护”与“发展”的关系，使生态绿色成为一种社会发展的新理念、新风尚。要坚持以生态产业为核心，处理好“存量”与“增量”的关系，使生态绿色成为一种经济发展的新方式、新业态。要坚持以改革创新为动力，处理好“借智”和“借力”的关系，使生态经济成为一种发展的新动能、新增点。要坚持以制度体系为保障，处理好“当前”和“长远”的关系，使生态价值成为一种新行动、新能量。要坚持以生态文化为支撑，处理好“局部”和“整体”的关系，使生态发展成为一种新追求、新需求。', '高健要求，各级政协组织要规范委员工作室管理，定期把界别和辖区内的市民群众请到工作室里来，提高意见建议的质量和成果转化的实效。要通过现场咨询等活动，切实为界别和辖区百姓解疑释惑、疏导情绪。要充分发掘界别优势和委员自身优势，力所能及地为群众办实事。要突出抓好党史学习教育、上半年工作总结、庆祝建党100周年系列活动、三季度各类协商等重点履职，确保各项目标任务顺利完成。', '胡宏表示，市政府将认真听取意见建议，充分采纳协商成果；紧盯短板不足，全力推动成果转化；转变工作作风，提高政府行政能力，切实把商洛绿水青山的“好颜值”转化为金山银山的“好价值”。', '会前，市政协组织调研组远赴浙江安吉县、德清县考察学习，并同步开展市内实地调研。会中，市发改委、农业局、文旅局等3个部门，李浴溱、于亚斌、李泓波等3名委员代表作了议政交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>274</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>柞水积极探索立德树人新路径区县资讯</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-11-19</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/62077.htm</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['柞水县将乡村少年宫建设和文明校园创建工作有机结合起来，按照“合资源、建队伍、显特色、强机制”的工作思路，积极探索立德树人的新路径，为青少年健康成长、全面发展营造了良好的环境。 该县按照“省上支持一点、市上补助一点、县上拨付一点、社会募集一点”的方式，积极落实项目建设资金，实现9个镇办乡村少年宫全覆盖。根据教师专业情况和学生兴趣爱好，有针对性购置设施设备，开设相应社团，充分满足学生多元化兴趣爱好需求。坚持“一室多用”，通过对老旧校舍再利用、升级改造多功能室、添置相关设施等方式，花有限的钱，办更多的事，让乡村学生享受优质教育资源。按照“校内为主、专业为辅、社会参与”的原则，强化乡村学校少年宫师资力量建设。依托现有师资力量，建立专职辅导员队伍。定期选送骨干辅导员到省、市、县培训，造就一批一专多能的复合型教师队伍，用活用好校内教师资源。从文艺团体、省市高校、学生家长中，发掘聘用专业辅导员，弥补校内辅导员专业能力和创新能力不足的短板。广泛吸纳有专长的文化志愿者、民间艺人、“五老”人员到学校少年宫兼职辅导员，常态化开展文艺支教、心理辅导、道德实践等活动。广泛开展“开学第一课”“做一个有道德的人”“学习美德少年”“清明祭英烈”“向国旗敬礼”等系列主题教育实践活动。坚持“以乐促智”，结合柞水特色和学校实际，在少年宫开办渔鼓兴趣班、根雕特色课。结合实施“中华文化基因传承工程”，把传承、弘扬民族优秀传统文化融入乡村少年宫办学中，广泛开展中华经典诵读、规范汉字书写、小小百家讲坛等活动。 建立了“255”研学旅行工作体系，组织学生走出校园、走进社会、走进自然，开展各类社会实践活动。建立乡村学校少年宫、文明校园和青少年校外活动中心的学习交流机制，定期组织开展考察学习会、现场观摩会、成果展示会，着力提升乡村学校少年宫建设水平。', '该县按照“省上支持一点、市上补助一点、县上拨付一点、社会募集一点”的方式，积极落实项目建设资金，实现9个镇办乡村少年宫全覆盖。根据教师专业情况和学生兴趣爱好，有针对性购置设施设备，开设相应社团，充分满足学生多元化兴趣爱好需求。坚持“一室多用”，通过对老旧校舍再利用、升级改造多功能室、添置相关设施等方式，花有限的钱，办更多的事，让乡村学生享受优质教育资源。按照“校内为主、专业为辅、社会参与”的原则，强化乡村学校少年宫师资力量建设。依托现有师资力量，建立专职辅导员队伍。定期选送骨干辅导员到省、市、县培训，造就一批一专多能的复合型教师队伍，用活用好校内教师资源。从文艺团体、省市高校、学生家长中，发掘聘用专业辅导员，弥补校内辅导员专业能力和创新能力不足的短板。广泛吸纳有专长的文化志愿者、民间艺人、“五老”人员到学校少年宫兼职辅导员，常态化开展文艺支教、心理辅导、道德实践等活动。广泛开展“开学第一课”“做一个有道德的人”“学习美德少年”“清明祭英烈”“向国旗敬礼”等系列主题教育实践活动。坚持“以乐促智”，结合柞水特色和学校实际，在少年宫开办渔鼓兴趣班、根雕特色课。结合实施“中华文化基因传承工程”，把传承、弘扬民族优秀传统文化融入乡村少年宫办学中，广泛开展中华经典诵读、规范汉字书写、小小百家讲坛等活动。', '建立了“255”研学旅行工作体系，组织学生走出校园、走进社会、走进自然，开展各类社会实践活动。建立乡村学校少年宫、文明校园和青少年校外活动中心的学习交流机制，定期组织开展考察学习会、现场观摩会、成果展示会，着力提升乡村学校少年宫建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>274</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>洛南加快推进西商融合区县资讯</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/131999.htm</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['近年来，洛南县积极借鉴东南沿海城市发展经验，以循环交通为基础、以外向产业为支撑、以营商环境为重点、以创新平台为阵地、以人才队伍为保障，千方百计抢占开放型经济发展制高点。', '打造循环交通。县上以推进“西商融合”、融入关中城市群和中原城市群为主攻点，向西加快洛灞路二期建设，向东抓好洛卢高速建设，向北谋划澄商高速项目，向内创建“四好公路”县；加快支线机场、货运铁路等重大基础设施项目前期工作，着力构建“省域大循环、县域小循环”内联外通的交通体系，推动洛南加快融入西安的生活圈、生产圈、生态圈。', '培育外向产业。县上以建设产业聚集区为抓手，有序推进北部新材料基地、东部特色农业基地、西部康养产业基地建设，充分发挥西北核桃物流园“买全国、卖全国”优势，推动形成商品、服务、资金、人才等要素流动型开放格局。洛南核桃搭乘“中欧班列”热销欧洲、岭南生物袋装菌棒远销美国、巧手草编畅销东南亚，外贸出口总额达到4915万元。', '优化营商环境。县上以“大抓招商、抓大招商”为抓手，全面推行“容缺受理+承诺制”，坚持为企业送好“政策礼包”，多设“加油站”、减少“收费站”，定期召开政银企对接会、企业家“早餐会”，成功举办乡党回乡发展大会，引进煌朝集团、卫岗乳业、华钼集团等一批龙头企业，落地项目50个，其中投资亿元以上项目11个，落户总部经济4个，招商到位资金178.31亿元。', '用好创新平台。县上依托商洛经开区、宁洛产业园、“洛味缘”品牌、“汉字故里·康养洛南”等资源和品牌优势，充分发挥秦创原、丝博会、农高会等国内知名平台在产业创新支撑、科技人才培养、创新要素集聚等方面的虹吸效应，用好“争取、招引、兼并”等方式，建成环亚源生态岛环保科技产业园、省级羊肚菌科技创新试验示范站1个、农业科技园区1个、星创天地1个，推动全县22家科技型企业与高校达成合作。', '建强人才队伍。洛南县建立高层次人才跟班学习、挂职历练等制度，有计划选派优秀人才赴东南沿海城市外出考察、学习经验，强化吸纳高端人才的政策举措，落实县级领导联系专家人才制度，从政治、生活、感情等多维度关心关爱人才，为人才干事创业保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>274</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>寺坪村发展壮大集体经济区县资讯</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2020-09-17</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/62647.htm</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['近年来，丹凤县寺坪镇寺坪村积极推行“三建三带”和“三加三联三促”活动，通过选优配强“领头雁”、科学规划育产业、引育并举强“龙头”、挖掘资源聚“资本”、创新模式促带动，形成了村集体经济多元化、规模化发展格局，实现了村集体经济和群众增收的双赢效果。 寺坪村从选优“领头雁”抓起，在全面完成农村产权制度改革和村党支部书记、村委会主任、村集体经济法人“一肩挑”的基础上，通过集中培训、外出考察学习，指导谋划产业，帮助引进企业，先后有3名村干部领办或参股村集体经济发展。依托辖区资源，确定了“传统产业提效升级、优势产业发展壮大、特色产业品牌培育、绿色产业循环发展”的思路，初步形成了以黑毛驴养殖加工、杂粮种植加工、中蜂养殖、食用菌种植为主的“四大主导产业”，带动以寺坪村为重点的6个村集体经济发展。依靠龙头企业带动村集体经济发展，先后引进陕西秦聊牧业、商洛海维、丹凤红绿蕈3家企业，扶持发展中蜂养殖合作社，实现了龙头带动、村集体经济多元化发展的格局。积极发挥部门帮扶优势，盘活闲置村集体资产折资6万元，先后争取发展村集体经济资金230万元、部门帮扶资金13万元，建成了600头标准化黑毛驴繁育场、200箱中蜂养殖场、杂粮加工厂和蘑菇种植基地。 寺坪村探索形成了“龙头企业+村集体经济+农户”模式，先后带动210户农户通过订单发展、进场劳务、入股分红等形式，户均年增收2900元，村集体经济累计收益29.6万元。同时，由陕西秦聊牧业、商洛海维等企业先后注册了“龙顺源”驴肉、聚珍流岭石磨杂粮、流岭蜜哥土蜂蜜等品牌，产品备受市场青睐，实现线上线下销售，红绿蕈蘑菇远销西安、南阳等城市，寺坪绿色无公害农特产品品牌效应日益显现。', '寺坪村从选优“领头雁”抓起，在全面完成农村产权制度改革和村党支部书记、村委会主任、村集体经济法人“一肩挑”的基础上，通过集中培训、外出考察学习，指导谋划产业，帮助引进企业，先后有3名村干部领办或参股村集体经济发展。依托辖区资源，确定了“传统产业提效升级、优势产业发展壮大、特色产业品牌培育、绿色产业循环发展”的思路，初步形成了以黑毛驴养殖加工、杂粮种植加工、中蜂养殖、食用菌种植为主的“四大主导产业”，带动以寺坪村为重点的6个村集体经济发展。依靠龙头企业带动村集体经济发展，先后引进陕西秦聊牧业、商洛海维、丹凤红绿蕈3家企业，扶持发展中蜂养殖合作社，实现了龙头带动、村集体经济多元化发展的格局。积极发挥部门帮扶优势，盘活闲置村集体资产折资6万元，先后争取发展村集体经济资金230万元、部门帮扶资金13万元，建成了600头标准化黑毛驴繁育场、200箱中蜂养殖场、杂粮加工厂和蘑菇种植基地。', '寺坪村探索形成了“龙头企业+村集体经济+农户”模式，先后带动210户农户通过订单发展、进场劳务、入股分红等形式，户均年增收2900元，村集体经济累计收益29.6万元。同时，由陕西秦聊牧业、商洛海维等企业先后注册了“龙顺源”驴肉、聚珍流岭石磨杂粮、流岭蜜哥土蜂蜜等品牌，产品备受市场青睐，实现线上线下销售，红绿蕈蘑菇远销西安、南阳等城市，寺坪绿色无公害农特产品品牌效应日益显现。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>274</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>我市举行第四场优化营商环境新闻发布会优化营商环境</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2021-12-15</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1845/107605.htm</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['12月10日，我市在市行政中心举行第四场优化营商环境系列新闻发布会。市住建局、市自然资源局、市水利局相关负责人介绍我市在办理建筑许可和招投标等方面工作开展情况、亮点做法及取得的成效，并回答记者的提问。', '今年以来，我市持续推进工程建设项目审批制度改革工作，全面实施并联审批，开发完成审批系统平台及施工许可电子证照，在系统平台中增加咨询模块，建立一次性告知机制，提高审批一次性通过率，目前系统平台配置入库八大类项目流程共计220多个事项，现已入驻企业2062家，申报项目4030个，办件量为4436件。加强信息资源跨层级、跨部门按需共享、交换、互认，对服务事项数据进行“全打通、全归集，全共享、全对接”；实行事中事后监管，设立红黑名单，与信用商洛系统互联互通，实现统一联合惩戒；减少工程建设项目预审环节，合并建设项目用地预审和规划选址，将法定审批时限缩减到13个工作日，现已办理市级预审和选址意见书项目8宗；集中开展业务培训10场，4次赴省内、省外考察学习，多次召开工作会议，重点解决一批审批堵点问题。持续优化招投标营商环境，破除服务痛点、堵点、难点，采用“互联网+”招标采购方式进行工程建设招标，不断提升全流程电子化交易水平；打破区域市场准入壁垒，简化招投标前期审批手续，对公共服务建设项目审批实施“容缺管理”办法，截至目前，今年外地企业参与项目的中标率为49%；对全市招标代理机构实行动态管理，集中开展“双随机、一公开”检查，规范招标代理的市场行为，净化市场环境；加强放管结合、优化营商服务，降低投标企业交易成本，切实减轻市场主体负担，取得了显著成效。', '下一步，我市将以打造“一都四区”为目标，压减审批事项，精简规范技术审查、中介服务事项，压缩企业投资项目落地时间，简化优化招投标，为企业提供更优质的服务，为实现营商环境最优区贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>274</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>商州扎实整治农村人居环境区县资讯</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/64802.htm</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['今年以来，商州认真贯彻落实中央关于开展农村人居环境整治工作的决策部署和省委、市委工作要求，围绕“六有”“八无”“一改”行动目标，大力实施村庄清洁行动，推动整治工作持续深入，村容村貌得到了较大改善。', '快速行动。成立以区委书记为第一组长，区长为组长，区委副书记和分管副区长任副组长，相关部门主要负责人为成员的全区农村人居环境整治工作领导小组，并迅速召开会议进行安排部署。同时，组织区直相关部门主要负责人和各镇办镇长(主任)赴大荔县4个村实地考察，学习借鉴先进经验，对照查找差距不足，进一步厘清工作思路，明确努力方向。', '广泛动员。充分利用广播电视、宣传标语、乡村大喇叭、微信公众号等媒介广泛宣传，积极动员群众参与。截至目前，共印制倡议书4000多份，组建宣传车14台，巡回宣传200多次。先后发动群众5.2万多人次，组织保洁专业宣传队296个，出动机械130多台次，清理河道118公里、垃圾240多吨、河塘沟渠46公里，清理整治残垣断壁520多处、乱堆乱放3180多处、畜禽粪污380多吨，在全区形成了人人参与、个个动手的良好工作局面。', '带动示范。在对全区273个行政村全面开展“八清一改”集中整治的同时，重点对辖区内8个高速路出入口、国省道沿线环境卫生进行综合整治，对312国道东龙山至夜村镇与丹凤县交界两侧约32公里，进行绿化美化提升改造。在每个镇办优先选择一个基础条件好、村“两委”班子强、群众积极性高的行政村，同步推进农村生活垃圾治理、生活污水治理和农村改厕，将其打造成示范样板村，以点带面推动全区农村人居环境整治工作。', '强化督导。成立4个督导检查组，采取分片包抓的方式，巡回各镇村开展明察暗访，对整治不彻底、不到位的死角死面，现场督促限期整改。同时将农村人居环境整治工作与脱贫攻坚工作深度融合，一并纳入各镇办年度目标责任考核，推行“区级领导包镇办包路段、区直部门包村、镇办包组、干部包户”的包抓工作责任制，以责任落实确保任务落实。通过定期不定期召开环境整治反面教育现场会，教育引导广大干部群众提高环保意识，齐心协力推动全区农村人居环境整治工作。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>274</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>省委党校中青年干部培训班学员赴山阳调研区县资讯</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/132637.htm</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['3月29日至31日，省委党校中青年干部培训三班学员45人赴山阳县开展“巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作”主题社会调研，通过现场考察学习、座谈交流等方式，增强培训学习的针对性和实效性。', '培训班学员先后深入山阳县十里铺街道移民搬迁安置点、城关街道丰东新区社区、高新区迈思普公司、陕西和丰阳光食用菌产业园、茶创小镇、漫川新时代文明实践中心、法官镇法官庙村等地，对移民搬迁后续扶持、产业发展、美丽乡村建设、基层党建、现代农业园区发展等情况进行了实地调研。在十里铺街道移民安置点和城关街道丰东新区社区，学员们认真了解山阳县易地扶贫搬迁后续帮扶工作和城市党建引领移民搬迁社区社会治理工作的有效做法，与镇村干部深入交流，随机访谈群众，详细询问他们的就医就业、子女就学等生活情况，认真了解搬迁社区在基层党组织作用发挥、群众就业技能培训、日常便民服务等方面的详细情况。在高新区迈思普公司、瑞通隆公司、陕西和丰阳光食用菌产业园和南宽坪镇甘沟村茶创小镇，学员们深入到工厂车间和茶园地头，详细了解产业布局、企业入驻、工业园区和茶园管理等情况，与企业负责人交流生产经营、政策扶持、带动群众就业情况，向厂区工人和茶农们了解工资收入和生活状况等情况。', '在省级乡村振兴示范镇漫川关镇和法官镇，学员们深入到村组街巷实地感受基层在推动农旅融合建设和美乡村工作上的探索与成效，深入基层新时代文明实践所和法官庙村邻里中心详细了解农村精神文明建设和移风易俗工作，深入村组院落随机走访入户，与农户交流座谈产业发展和收入情况、倾听原汁原味的社情民意，深入到法官中学的课堂、食堂和学生宿舍实地查看乡村教育发展现状、与师生们互动交流并现场协调解决学校发展中的实际困难。', '在座谈调研会上，与会人员集体观看了山阳县巩固拓展脱贫攻坚成果同乡村振兴有效衔接专题片，听取了山阳县经济社会发展情况、巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作介绍。全体学员认为山阳县在巩固拓展脱贫攻坚成果同乡村振兴有效衔接中的具体举措实、有益经验多、工作成效好，尤其是在产业发展、招商引资、移民搬迁后续帮扶、乡村治理、培树文明乡风等方面的探索和经验具有重要借鉴意义，表示要将调研中所受到的启发和思考转化为调研成果，转化为推动高质量发展的务实举措，以实际行动践行大兴调查研究之风、增强学习实效、提高为民服务能力。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>274</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>加快秦岭智谷数字商洛建设我市力促信息化赋能高质量发展商洛要闻</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/132736.htm</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['今年以来，我市突出通信基础设施建设、数字乡村建设、智慧城市建设三项重点，全力加快“秦岭智谷·数字商洛”建设，助推经济社会高质量发展。', '通信基础设施建设加快。召开了2023年通信基础设施建设工作座谈会，对“十四五”重点任务和秦岭云等项目建设工作进行了安排部署。截至一季度末，全市累计建成5G基站4644个，5G用户发展到58.5万人；累计光纤到户端口165.9万个，千兆宽带用户数达到7.97万户；全市固定宽带网络端到端、骨干网及重点数据中心的IPv6改造任务全部完成，所有家庭宽带用户可同时获取到IPv4和IPv6双栈地址，所有入驻秦岭云客户已具备IPv6接入能力。秦岭云大数据中心完成投资1.5亿元，主体已封顶，移动过渡机房已入驻31家单位46个业务系统。', '数字乡村建设不断深化。围绕乡村通信基础设施建设、数字农业、信息化惠民、乡村数字治理等，赴丹凤县许家沟村、洛南县陶岭村等地开展数字乡村调研，召开数字乡村建设标准讨论会，制定印发了《商洛市数字乡村建设标准（暂行）》。由县区筛选申报，市级支持指导，今年拟建设数字乡村标杆村10个以上。', '智慧城市建设加速推进。组团赴江苏省南京市、扬州市、常州市和浙江省嘉兴市，就大数据管理机构、智慧城市建设进行了考察学习，形成了考察报告。组织召开了数字政府建设工作座谈会，邀请省信息工程研究院副院长、省数字政府专家库成员、高级工程师曹银强答疑解惑，进一步明晰了数字商洛和智慧城市建设工作思路，并对《商洛市智慧城市建设实施意见》（审议稿）进行了修改完善。对接四大运营商、中国电子集团、大数据公司等，收集智慧城市数字化应用场景案例，分批反馈各委办局，启发思路，引导谋划项目，征集市县项目65个。推进全市人员信息库智能化管理平台建设，组织市、县区两级分别开展数据采集和应用培训，全市人员信息库智能化管理平台试运行，填补了我市基础信息库的空白。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>274</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>洛南头雁领飞同奔富路党员驻村共建家园区县资讯</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/108149.htm</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['6月15日下午，洛南县古城镇中联村的大棚基地热浪滚滚，烈日下，吴向阳带着几名工人铺设地砖。旁边有村民劝说，天太热，先停一停。“剩不多了，还是尽快铺完，把基地的基础设施弄完善，我们才能吸引来更多种植户。”吴向阳被晒得黢黑的脸上，汗水从额头淌进衣领里。', '中联村以前名不见经传，村里经济基础薄弱，但是，今年，中联村建成的一座座现代化大棚，引来了从各地来的种植户，小西瓜、甜瓜、西红柿等蔬果“住”进了大棚，给当地村民带来了实在的“票子”，也给村集体带来了年近50万元的收益。中联村一下子成了周边村镇艳羡的对象，也成了各地考察学习取经的地方。', '其实，中联村的“出圈”一点都不意外。今年，洛南县在落实市委、市政府“三百四千”工程奋力赶超行动中，及时研究制定工作方案，建立头雁带富领飞台账，以“党旗飘扬强堡垒·奋进商洛当先锋”党建主题活动为抓手，扎实开展村(社区)党组织标准化建设三年提升行动，不断加强村级党组织书记和农村党员致富带头人队伍建设，鼓励有能力、有担当的能人发展产业带动群众致富，把敢做事、想做事的创业大户、经商人员、返乡大学生发展为党员，将他们镶嵌在村里发展的链条上，目前，全县培育带领群众致富的“头雁”247名，农村党员致富带头人1245名。', '古城镇党委副书记杨荣表示，中联村越来越好，和村“两委”班子齐心协力为群众办实事分不开。“尤其是村党支部书记吴向阳，多年前甘愿放弃自己红火的生意，挑起村上的重担，这两年又千方百计想办法兴产业、搞发展。”杨荣说。', '“我们这支书做事认真，也认死理，他就是一心想把我们这村子发展好。”在中联村监委会主任唐会林眼中，村党支部书记吴向阳是个有决心的人。2014年，吴向阳当选村党支部书记后，一边学习管理一边摸索着搞产业发展。在他的带领下，中联村的村民人均收入逐年提升。而吴向阳的决心和目标不仅如此，什么路子能让群众长久而稳定地增收？什么产业能带来大效益？怎样让群众过上富裕日子？他一直在思考。', '2021年年初，吴向阳带领村“两委”班子通过多方学习考察之后，决定发展大棚产业。当年发展小西瓜大棚80个，西红柿大棚25个，集体经济纯收入8万多元，务工群众人均纯收入增加了4000元，全村人均收入10723元。这一有益的尝试，给中联村探好了新路子，也让大家尝到了甜头。', '今年以来，村里又流转土地500亩，新建大棚240个和各类配套设施，“为了让大棚真正发挥作用，我们把建好的大棚以每年每个棚2000元的租金，承包给懂技术、善管理的职业农民，这既为有技术发展产业的职业农民提供了平台，也提升了产业规模效益和集群效应。”吴向阳说，目前，大棚基地发展有横溪西瓜、五色圣女果、奶油草莓等蔬果品种，可为市场提供优质蔬果2万公斤，产值将超过2000万元，为助力乡村振兴提供了坚强的产业支撑。', '在洛南县，像吴向阳一样甘愿付出的“领头雁”比比皆是，他们有能力、有胆识，更重要的是有带领群众致富的初心和决心。三要镇罗村的吴凡，自从去年把村党支部书记和村委会主任“一肩挑”后，一下子觉得自己有了压力。“有压力才有动力，不管困难多大，心里始终记着要真正让群众得实惠，就有干劲了。”今年刚30岁的吴凡脑子活、敢做事，他依托三要镇有种植西瓜的传统基础，决定发展现代果蔬综合产业园。去年，他带领村班子到江苏考察学习后，决定引进大棚“礼品小西瓜”。今年春季，村上成立了以吴凡为法人的洛南县春晖农民种植专业合作社，修建了30座大棚，种植了21棚小西瓜、5棚传统西瓜和4棚水果玉米。', '“这个吊蔓小西瓜，瓜皮薄、瓤脆甜汁多，我们选的是走高端水果路线，已经和西安的3家水果超市签了订单，西瓜采收后就直接装盒送走了。”在第一茬西瓜进入成熟期前，吴凡就为小西瓜找到了买家。他介绍，拿目前的西瓜长势来看，一亩地产值近3万元，今年仅西瓜这一项预计村集体收入60多万元。', '村集体经济收入明显提升在洛南县并不是个例。今年以来，洛南县积极创建“头雁带富领飞”示范村16个，建立“五面红旗、六星书记”评选机制，评定乡村振兴红旗村4个，并通过“月推介季观摩年考评”机制和干部补贴奖励机制，定期开展现场观摩、擂台赛等，刺激和鞭策16个镇（街道）“头雁”积极发挥作用。截至目前，全县“头雁”承诺领办的实事1054件，践诺完成612件，10个村集体经济积累突破10万元，乡村振兴的奋斗画卷正在徐徐展开。', '“头雁带富领飞”是我市在全面推进乡村振兴舞台上的重要角色之一。角色不同，但初心和使命却是一致的。在实施“三百四千”工程奋力赶超行动中，洛南县紧盯主业，全面推进落实，在“党员驻村兴农”方面，注重选优配强，建立“定期研究决策、观摩评比、五强化五确保、暗访督导、考核奖惩”等五项机制，通过常态化调度部署，激励先进、鞭策后进、奖优罚劣、推动各项工作落实落细。全县共配第一书记159名，88名驻村工作队长和541名驻村队员。', '市农科所王凯作为第二次赴洛南县驻村的第一书记，他没有忘记自己驻村的初心和目标，积极发挥党员驻村兴农作用，坚持把建强村“两委”班子，带强村支部书记，夯实村组织作为硬任务，从产业发展到村级基础设施灾后重建，王凯始终想在前、做在前。', '去年夏季，洛南县突降暴雨，致使多镇办受灾，房屋、道路、农田水毁严重。王凯所在的包扶村洛源镇涧坪村也受了灾。王凯作带领村“两委”班子积极推进灾后重建工作中，他协调完成2条通组路的路面硬化，修复农田400多亩、河堤11.6公里。“这第一书记有责任心，脚勤手勤，把我们这村发展得越来越好。”说起王凯，涧坪村的群众的言语中满是赞赏。', '王凯在驻村工作中，充分发挥自己的专业所长，带领帮助涧坪村找到适宜的产业发展路子。他一边鼓励有发展产业意愿的4名群众发展产业，帮其协调落实贷款，一边争取50万元项目资金，新建大棚17个，种植平菇8.9万袋，发展壮大村集体经济。', '在洛南县上半年“党员驻村兴农”承诺事项台账表中，王凯承诺的6项实事已完成了5件。“建立脱毒马铃薯良种繁育试验基地、邀请专家为良种繁育进行田间管理指导、开展技术培训指导等，都一一落实了，只要有决心，再大的困难都能克服。”王凯说。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>274</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>全市推进森林资源保护管理长效机制建设商洛要闻</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-01-11</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/18553.htm</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近年来，我市以保护发展森林等生态资源为目的，坚持生态环境保护和经济发展两手抓、两不误，构建党委领导、党政同责、属地负责、部门协调、全域覆盖、源头治理的森林资源管理工作长效机制，积极当好秦岭生态卫士，不断推进林长制改革试点、森林城市创建巩固和美丽乡村建设等工作，为省上提出的陕南城市森林化、“陕西绿”、“陕西美”贡献了商洛力量。 生态美一直是商洛的优势，市委、市政府高度重视生态建设，坚持高起点、严要求、细落实、严奖惩。市委常委会、市政府常务会多次专题听取林业部门专题汇报，主要领导、分管领导亲自安排，为全市森林资源安全做好组织保障。坚持每年组织开展打击破坏森林资源违法犯罪专项行动，及时发现和查处了一批破坏森林资源的违法犯罪行为。去年以来，扎实组织开展打击整治破坏秦岭野生动物资源违法犯罪专项行动，成立了以市委书记为组长的领导小组，市委分管领导为组长的工作专班，以专项打击为重点，强化社会化管控和宣传，震慑了犯罪，达到了预期的效果。为进一步加强森林资源保护工作，市政府成立考察组，赴安徽滁州、陕西咸阳考察学习，回来后立即组织在柞水县开展试点工作，市政府分管领导多次听取试点工作汇报，为在全市全面推行“林长制”奠定了基础。 机构改革后市县区林业部门机构基本保持不变，镇办林业站撤并之后基层工作力量削弱，市林业局通过积极汇报沟通协调，取得了相关部门的重视和支持，大部分县区在镇办设立了林业分站，明确了干部力量，进一步加强了基层工作力量。形成了市、县、镇、村、组五级网络保护体系，基本实现了山有人管、林有人护、责有人担，守护着全市2539万亩森林资源的安全，推动着林业事业健康发展，在生态文明建设中发挥了主力军和先锋队的作用。 为了积极改变一直以来林业部门单兵作战力量弱的问题，积极谋划市域内森林保护发展整体工作，做好政府的参谋助手，组建了森林资源专项整治协调工作机构、打击整治破坏野生动物专项行动工作专班，成立林长制会议制度。通过林长制的试点成功和全面推进，体现了职责明确、分工协作、密切配合，进一步形成了跨部门协作体系，将林业部门的“单打独斗”转变为部门联动的“大合唱”，构建了林业事业大保护、大发展的良好格局。 我市先后制定了《商洛市林地林木野生动植物保护管理办法》《保护和发展森林资源目标管理责任制》《商洛市森林资源管理督查办法》《专项行动案件验收销号办法》等，将森林资源目标管理责任制纳入县区、镇办年度目标责任管理，严格考核奖惩。按照“政府主要负责同志是保护和发展森林资源的第一责任人，分管负责同志是主要责任人，林业部门主要负责同志是直接责任人”的要求，明确和落实了政府、林业部门的责任，对各级政府、工作部门以及基层村组就加强森林资源保护工作提出具体要求，市上对县区每半年督查一次，县区对镇办每季度检查一次，镇办对村组社区每月至少检查一次，这些制度、办法的出台，为进一步加强森林资源保护管理工作提供了有力保障。', '生态美一直是商洛的优势，市委、市政府高度重视生态建设，坚持高起点、严要求、细落实、严奖惩。市委常委会、市政府常务会多次专题听取林业部门专题汇报，主要领导、分管领导亲自安排，为全市森林资源安全做好组织保障。坚持每年组织开展打击破坏森林资源违法犯罪专项行动，及时发现和查处了一批破坏森林资源的违法犯罪行为。去年以来，扎实组织开展打击整治破坏秦岭野生动物资源违法犯罪专项行动，成立了以市委书记为组长的领导小组，市委分管领导为组长的工作专班，以专项打击为重点，强化社会化管控和宣传，震慑了犯罪，达到了预期的效果。为进一步加强森林资源保护工作，市政府成立考察组，赴安徽滁州、陕西咸阳考察学习，回来后立即组织在柞水县开展试点工作，市政府分管领导多次听取试点工作汇报，为在全市全面推行“林长制”奠定了基础。', '机构改革后市县区林业部门机构基本保持不变，镇办林业站撤并之后基层工作力量削弱，市林业局通过积极汇报沟通协调，取得了相关部门的重视和支持，大部分县区在镇办设立了林业分站，明确了干部力量，进一步加强了基层工作力量。形成了市、县、镇、村、组五级网络保护体系，基本实现了山有人管、林有人护、责有人担，守护着全市2539万亩森林资源的安全，推动着林业事业健康发展，在生态文明建设中发挥了主力军和先锋队的作用。', '为了积极改变一直以来林业部门单兵作战力量弱的问题，积极谋划市域内森林保护发展整体工作，做好政府的参谋助手，组建了森林资源专项整治协调工作机构、打击整治破坏野生动物专项行动工作专班，成立林长制会议制度。通过林长制的试点成功和全面推进，体现了职责明确、分工协作、密切配合，进一步形成了跨部门协作体系，将林业部门的“单打独斗”转变为部门联动的“大合唱”，构建了林业事业大保护、大发展的良好格局。', '我市先后制定了《商洛市林地林木野生动植物保护管理办法》《保护和发展森林资源目标管理责任制》《商洛市森林资源管理督查办法》《专项行动案件验收销号办法》等，将森林资源目标管理责任制纳入县区、镇办年度目标责任管理，严格考核奖惩。按照“政府主要负责同志是保护和发展森林资源的第一责任人，分管负责同志是主要责任人，林业部门主要负责同志是直接责任人”的要求，明确和落实了政府、林业部门的责任，对各级政府、工作部门以及基层村组就加强森林资源保护工作提出具体要求，市上对县区每半年督查一次，县区对镇办每季度检查一次，镇办对村组社区每月至少检查一次，这些制度、办法的出台，为进一步加强森林资源保护管理工作提供了有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>274</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>商洛市召开年农村改厕工作推进观摩会乡村振兴</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1069/13825.htm</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['近期，商洛市农业农村局、商洛市卫生健康委联合召开全市2020年农村改厕工作推进观摩会，考察学习先进经验，培训改厕技术，通报改厕进度，对全市农村厕所革命及农村人居环境整治工作进行再安排、再部署、再推进。市农业农村局副局长洪亮主持会议并讲话，市创卫办副主任罗来良出席会议并安排部署农村改厕技术培训与指导服务工作。', '会议组织与会代表，赴渭南市合阳县考察学习农村改厕工作先进经验，先后深入到城关街道办白灵村、坊镇北渤海村、甘井镇城后村、金峪镇浪后村、王村镇北蔡村等地，现场学习了三格化粪池式、双瓮化粪池式、微生物降解式及完整上下水冲式农村户厕改建模式，详细了解合阳县在群众组织发动、技术模式选择、组织施工建设、项目档案管理、粪污资源化利用、后期维护运营等方面的先进经验。', '会议邀请全省农村改厕技术专家、原西安未央区爱卫办常务副主任曹平，专题培训农村改厕技术。曹平详细讲解了农村户厕改造的原则标准和技术模式，系统培训了三格化粪池厕所的原理结构、设计原则、技术关键、施工方法、技术流程等农村无害化卫生厕所建设技术，并结合自己多年的改厕工作经验，从户厕建设、竣工验收、监督管理、管护运维等方面，对农村改厕工作进行了全面培训。', '罗来良指出，农村改厕工作意义重大，影响深远，必须探索科学方法，规划实施路径，合理调度安排，有序推进落实。罗来良强调，卫健部门作为农村厕所革命专项工作成员单位，配合做好业务培训和技术指导，责无旁贷、义不容辞。罗来良要求，各县区卫健局重点抓好三方面工作：一要强化技术服务把准改厕方向。做好业务培训，聘请理论过关、经验丰富的改厕专家，层层开展培训；组建技术队伍，实行持证上岗制度；落实包干责任，签订质量保证合同。二要抓住关键环节，提高改厕质量。实地勘察改厕环境，选好建厕地址；坚持因地制宜，选好改厕类型；测算厕体容积，合理划分三格，把好改厕环节。三要突出工作重点，加快改厕进度。抓党政机关、抓村组干部、抓重点行业，建样板，做示范，用心用力用情把这项利民惠民工程抓实抓好、抓出成效。', '洪亮指出，厕所革命是一项惠及农村农民、造福广大群众的民生工程、民心工程、德政工程，农村改厕工作是党中央关注的民生大事、影响全面建成小康社会质量和成色的难点重点、阻碍农民群众生活品质改善的短板痛点，回顾总结了今年全市改厕工作取得的成效，深刻分析了当前改厕工作中存在的困难和问题，全市各级农业农村部门要从强化“四个意识”、践行“两个维护”高度，提高思想认识，切实增强做好农村改厕工作的责任感和紧迫感，持续用力推进农村改厕工作。洪亮强调，各县区农业农村局要聚焦重点，加快进度，不折不扣推进农村改厕工作。一是抓进度、保任务。要剖析欠账原因，对标全年任务，加快进度，奋力追赶，力争10月底前全面完成目标任务。二是抓质量、促实效。要找准适用技术模式，严把改厕质量关，公开透明实施奖补，强化作风建设，确保“建一口、成一口、群众满意一口”。三是抓示范、创样板。要大力实施示范项目，积极开展整村推进，强化技术服务，抓点示范，梯次推进，持之以恒把农村改厕“办实办好”。四是抓配套、建机制。要加强后续管理服务，落实农户主体责任，探索创新管护方式，持续抓好问题排查整改。洪亮要求，各县区要坚持目标导向、问题导向和结果导向，进一步强化组织领导，聚焦重点难点，按时保质完成农村人居环境整治各项任务，确保三年行动圆满收官。重点抓好四方面工作：一要聚焦村容村貌提升，巩固阶段性成果，全面启动实施秋冬战役，抓好城乡环境卫生整洁，深入推进村庄清洁行动；二要聚焦三年行动收官，全面吃透验收指标，扎实开展“回头看”和自查自验，全面迎接国务院大检查；三要聚焦牵头统筹协调，进一步强化组织领导、资金保障、督查督导、考评问责，加大支撑保障力度；四要聚焦教育宣传引导，深入开展流动小红旗、红黑榜、文明家庭、“五美”庭院等评比创建活动，激发群众的积极性、主动性，实现“干干净净迎小康”，为市委、市政府交上一份满意的答卷。', '各县区农业农村局、卫生健康局分管局长、业务股长，商洛高新区社区管理办事处分管局长、业务股长，以及市农业农村局农村社会事业科、市卫生健康委健康促进科工作人员50余人参加会议。（市农业农村局 任勇 杨雷）']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>274</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>丹凤县四个三力促农民专业合作社乡村振兴</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1069/11642.htm</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['丹凤县坚持把发展农民专业合作社作为“三农”工作的重要抓手、产业扶贫的重要举措、村集体经济发展的重要载体，按照“整合资源、政策引导、资金扶持、培育壮大”的思路，探索形成了“支部+党员+农民专业合作社+农户”、“公司＋农民专业合作社＋农户”等多种农民专业合作社发展模式，推动了全县产业提质增效、村集体经济发展壮大、群众持续稳定增收，被列为全国农民合作社质量提升整县推进试点县、全国农村创新创业典型县。', '一是坚持组织、规划、政策“三个引领”，推动合作社建设高效化。制定农民专业合作社质量提升整县推进试点《方案》，将包抓指导合作社发展列为县级领导包镇、镇办科级领导包村和“第一书记”驻村工作的重要内容，纳入对镇村和包扶单位脱贫攻坚成效考核指标。实施农民专业合作社培育“123”行动，从2018年起，在核桃、肉鸡、食用菌、中药材等八个重点产业链上至少各培育1个有影响力的龙头合作社，每个镇（街道）每年至少培育2个带动能力强的合作社，利用3年时间实现农民专业合作社村级组建全覆盖。开辟绿色通道，实行首问首办、限时办结、一站审批、不见面审批制度，推行刻印章、复印资料、寄送审批结果“三个免费”服务，简化用地、用电、用水审批程序，最大限度为合作社登记注册、经营发展创造便利条件、提供高效服务。', '二是健全资金投入、人才支撑、过程监管“三个机制”，推动合作社经营规范化。出台了支持农民专业合作社发展与规范化建设《实施意见》，采取以奖代补、发展扶贫产业、实施扶贫项目等方式，多渠道投入资金，目前，全县农民专业合作社复工复产100%。选聘懂经济、善管理、农村工作经验丰富的30名机关干部担任农民合作社辅导员，下派46名科技特派员为农民合作社送政策、帮技术、带骨干，集中培训农民合作社理事、财务人员700余人次，组织80余名农民合作社带头人赴延川县等地考察学习，组织农技人才服务团开展指导活动360场次，加大合作社人才培养。从规范注册登记、出资设置、组织机构、章程制度、经营行为、盈余分配等方面加强规范化建设，采取问合作伙伴、问入社群众、问周边四邻、问村组干部，看是经营场所、看章程制度、看生产经营、看会计账目“四问四看”方法，每季度对合作社经营状况排查一次，确保规范运行。', '三创新“两社”联合、“抱团”联合、“龙头”联合“三个联合”，推动合作社发展系统化。坚持农民专业合作社与村级集体股份经济合作社联营发展，在激活农民发展潜能、增加农民收入的同时，壮大村集体经济。坚持集聚化、集群化、集约化，引导同一产业链上的合作社、同区域合作社抱团发展，形成了丹凤秦跃农特产品专业联合社、丹凤土门金钟古镇农牧专业联合社等一批产业链条长、抵御风险能力强的联合社，有效提升了合作社自身竞争力和辐射带动力。引导华茂牧业、夏雨食用菌等龙头企业，围绕发展肉鸡、食用菌等产业领办农民合作社，采取“公司+合作社+基地+农户”模式，以统一种苗、统一原料、统一技术、统一管理、统一销售的方式，吸纳社员参与生产经营，形成了种养加销为一体的全产业链，社员生产成本平均降低20%，经济效益大幅提高。', '四是突出带动产业持续振兴、带动农产品品牌建设、带动合作社发展“三个带动”，推动合作社效益最大化。出台优惠政策，引导农民专业合作社因地制宜发展产业，带动全县“五大主导产业”“五大新兴业态”扩规提质发展，“八大重点支持产业”延链补链建链增效，形成的“贫困户+合作社”新型经营发展模式，成为贫困群体抱团发展、稳定增收脱贫的有力支撑。加强农产品质量安全管理，鼓励注册商标品牌，对成功申报无公害农产品、绿色食品的农民专业合作社给予奖励。坚持质量标准、效益导向，修订完善合作社评定办法，大力开展示范社创建活动，全县共创建示范社61个，其中国家级示范社5个、省级示范社9个、市级示范社18个，树立了一批可学可鉴的典型，示范带动全县合作社规范化发展。（张少杰）']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>274</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>宁洛协作助推洛南教育稳步发展区县资讯</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-12-02</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/1551.htm</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['近年来，洛南县和南京市江宁区积极抢抓国家东西部扶贫协作战略机遇，不断拓宽教育协作途径，搭建教育交流平台，实施强优教育协作项目，深化教育帮扶成果，强化结对帮扶学校协作措施，全面助推洛南教育事业稳步发展。 积极搭建宁洛扶贫协作和人才支援工作桥梁，江宁区9所园校与洛南县9所园校签订结对帮扶合作协议，制定合作帮扶方案，全面开展教师培训、园校长培训、送教交流、专业支持等活动。洛南县每年暑期组织园校长、骨干教师赴江宁区教育系统考察学习两周；每年组织优秀教研员、骨干教师30人次赴江宁区跟岗学习30天。江宁区每年组织专家、骨干教师40人次来洛送教一次，结对学校每年组织两次互动交流活动。双方通过专题讲座、观摩课、听课评课、教研活动、课题研究、集体备课等形式相互学习，搭建教学交流平台，着力推动基础教育课程改革背景下的课堂教学改革。协作开发研究课题和校本课程，全面促进双方教育教学质量提升和教育管理经验交流推进，实现合作教学、教科研、信息交流、考核评价等方面的共赢共进，为洛南教育事业发展注入了新的活力和新鲜血液。 江宁区积极实施捐资助学，先后援助洛南县教育系统700万元，新建洛南县宁洛幼儿园，并出资30万元为该园购置了体育器材等设施设备，2018年9月开园办教。为石坡中学新校建设援助500万元，解了项目建设资金困难的燃眉之急。通过苏陕协作项目，江宁区先后援助资金2500万元，援助洛南县新建宁洛小学，今年9月该校投入使用，有力解决了城区上学难和大班额问题。同时，针对全县18个深度贫困村835名建档立卡贫困学生，江宁区又出资74.76万元，在享受教育扶贫政策的基础上，再次帮助这些贫困学生解决上学困难问题。并捐赠45万元，资助不能享受教育扶贫政策的180名省外大学生，帮助洛南县实现建档立卡贫困大学生资助全覆盖。 积极实施“扶智工程”和“启智教育”，由江宁区教育局牵头，江宁区科技局、妇联会出资24万元，先后成功举办两期“宁洛帮贫助困创新圆梦STEAM科技研学夏令营”活动。洛南40名青少年学生飞出大山，前往南京中山陵，接受革命历史教育；参观南京科技馆，感受科技创新带来的震撼；做一次模型设计，激发青春的梦想；完成一项手工任务，体验成功的喜悦和奋斗历程的艰辛；走进南京大学，感受高等学府氛围，坚定学习信念。通过两个项目的实施，让洛南学生近距离接触前沿的教育文化，开阔了视野。同时帮助更多贫困学生实现梦想，助推洛南教育事业发展再上新台阶。', '积极搭建宁洛扶贫协作和人才支援工作桥梁，江宁区9所园校与洛南县9所园校签订结对帮扶合作协议，制定合作帮扶方案，全面开展教师培训、园校长培训、送教交流、专业支持等活动。洛南县每年暑期组织园校长、骨干教师赴江宁区教育系统考察学习两周；每年组织优秀教研员、骨干教师30人次赴江宁区跟岗学习30天。江宁区每年组织专家、骨干教师40人次来洛送教一次，结对学校每年组织两次互动交流活动。双方通过专题讲座、观摩课、听课评课、教研活动、课题研究、集体备课等形式相互学习，搭建教学交流平台，着力推动基础教育课程改革背景下的课堂教学改革。协作开发研究课题和校本课程，全面促进双方教育教学质量提升和教育管理经验交流推进，实现合作教学、教科研、信息交流、考核评价等方面的共赢共进，为洛南教育事业发展注入了新的活力和新鲜血液。', '江宁区积极实施捐资助学，先后援助洛南县教育系统700万元，新建洛南县宁洛幼儿园，并出资30万元为该园购置了体育器材等设施设备，2018年9月开园办教。为石坡中学新校建设援助500万元，解了项目建设资金困难的燃眉之急。通过苏陕协作项目，江宁区先后援助资金2500万元，援助洛南县新建宁洛小学，今年9月该校投入使用，有力解决了城区上学难和大班额问题。同时，针对全县18个深度贫困村835名建档立卡贫困学生，江宁区又出资74.76万元，在享受教育扶贫政策的基础上，再次帮助这些贫困学生解决上学困难问题。并捐赠45万元，资助不能享受教育扶贫政策的180名省外大学生，帮助洛南县实现建档立卡贫困大学生资助全覆盖。', '积极实施“扶智工程”和“启智教育”，由江宁区教育局牵头，江宁区科技局、妇联会出资24万元，先后成功举办两期“宁洛帮贫助困创新圆梦STEAM科技研学夏令营”活动。洛南40名青少年学生飞出大山，前往南京中山陵，接受革命历史教育；参观南京科技馆，感受科技创新带来的震撼；做一次模型设计，激发青春的梦想；完成一项手工任务，体验成功的喜悦和奋斗历程的艰辛；走进南京大学，感受高等学府氛围，坚定学习信念。通过两个项目的实施，让洛南学生近距离接触前沿的教育文化，开阔了视野。同时帮助更多贫困学生实现梦想，助推洛南教育事业发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>274</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市公安局打造特色警营文化部门动态</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-04-19</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/139283.htm</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['近年来，市公安局创新形式、拓展内容、丰富载体，在深化警营文化内涵、增强队伍软实力、树立良好公安形象方面进行了有益探索，形成了“文化育警、文化砺警、文化律警、文化强警”的警营文化品牌，有力提升了民警思想道德、文化素养、身心素质，为全市公安工作和队伍建设提供了有力的思想保证和强大的精神动力。', '抓体制机制，打造阵地高地。市公安局制定下发了《公安文化建设五年规划》，形成“市局主导，县局主抓，队所主建，齐抓共管，百花齐放”的工作体系和格局，使公安文化建设在组织领导、队伍组建、业务发展、考核考评、奖励激励等方面形成较为完备的工作机制。建立完善考评激励机制，把公安文化工作纳入公安业务工作考核考评范围。采取“抓点示范、以点带面”的方法，确定洛南、丹凤和柞水县公安局为全市公安文化建设示范点，各县区公安局确定2至3个所队为县级公安文化建设示范点。持续办好《商洛公安》杂志，该杂志已成为全市公安机关公安文化建设的一张名片。', '抓人才队伍，打造人才高地。市公安局充分发挥公安文联作用，建立了“商洛公安文化人才库”。组织举办一系列公安文化方面的培训，先后组织开展了“三秦书月·书香警营”主题读书和“送教送书下基层”活动，举办公安文学座谈会、视频拍摄制作及摄影系列培训活动，组织赴文化先进地市考察学习，逐步实现公安文化队伍规模不断壮大。截至目前，全市公安机关共组织开展各类公安文化方面交流培训活动17场次，发展各类文体组织54个。', '抓文化活动，打造平台高地。市公安局积极为广大民警打造各类平台，不断提高民警的综合素质。通过组织全警开展书法、绘画、摄影比赛，打造“警营文化长廊”、编印优秀摄影作品集。每年确定一个读书主题，组织开展系列活动，落实文化建警、文化惠警工作的新举措。组织开展系列征文活动，共收集优秀公安文学作品1200多篇。目前，市局机关及洛南、丹凤、柞水县已全面完成“警察书屋”建设并已投入使用。', '抓精品力作，打造创作高地。不断加强文化骨干的管理和培养，邀请名家、专业人士进行指导，不断推进公安民警创作精品力作。聘请4名市级主流媒体资深编辑记者为全市公安机关公安文化建设暨公安文学创作特邀培训教官。不定期组织开展摄影及视频拍摄制作培训、文学征文、诗歌朗诵等文化活动。组织编印《商洛公安》“探案说法”专刊、抗击疫情专刊和文学专刊，多角度展现商洛公安精神、公安力量、公安担当。', '抓评先树优，打造典型高地。在全市公安机关组织开展“标兵能手”“老黄牛”式民警及特优辅警评选活动，编印《商洛公安》英模专刊，制定印发《“老黄牛式民警”七项激励措施》和《全市公安机关“老黄牛式民警”评选办法》，掀起了崇尚英模、学习英模、争当英模的浓厚氛围。加大与新闻媒体合作力度，相继推出了“商洛警事厅”“探案故事”等多个宣传专栏，有效推动了我市公安典型的挖掘力度。注重在公安民警、辅警队伍中评议和推荐“陕西好人”“商洛好人”，为宣传报道奠定良好基础。截至目前，2个单位、3名个人在全国公安系统英雄模范立功集体表彰大会上受到表彰，1人被表彰为全国“最美基层民警”，1人当选为全国人大代表，全市公安机关先后推出先进集体和先进个人200多个，其中中央级表彰24个、省级表彰39个、其他评选活动表彰130多个。', '抓内外宣传，打造品牌高地。在坚持运用好主流传统媒体的基础上，成立融媒体创新发展中心，发挥好传统媒体的深度报道、正确导向和新媒体传播作用，不断扩大公安宣传的影响力。与商洛日报社合办《商洛公安》专栏，开设《走进基层警营》《警营故事》和《探案故事》等系列专题栏目；与市电视台合作开设《法治在线》栏目。依托全市公安机关57个新媒体账号，构建了以今日头条、微信、微博、抖音为核心的商洛公安新媒体宣传矩阵。重点培养和推动“商洛公安”“永乐微警”系列新媒体账号的快速发展，“永乐微警”抖音账号粉丝量169万多人，连续两次入选中央政法委“四个一百”优秀账号；“商州公安”抖音号，视频点击量3.7亿多人次，曾入选中央政法委首届“四个一百”优秀账号。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>274</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>洛南加快豆腐产业提质升级区县资讯</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/134968.htm</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['今年以来，洛南县抓住有利时机、乘势而为，加快推动豆腐产业规模化发展，着力做大做强豆腐产业，为打造康养之都赋能助力。', '该县加大政策扶持力度，成立工作领导小组，组建洛南县豆腐产业发展办公室，制定《豆腐产业发展规划》，紧紧抓住被列为国家大豆单产提升行动整建制推进县机遇，积极对接支持豆腐产业发展政策，印发了文件，不断强化目标索引和政策供给，加大土地流转、良种引进和技能培训，着力建设高品质大豆生态种植示范基地。投入600万元，完成大豆扩种8万亩，在石门、保安、四皓、古城等地创办高品质大豆生态种植示范基地1万多亩，累计带动农村剩余劳动力5200多人就业，户均年增收2.3万元。坚持龙头企业带动，按照“协会+公司（合作社）+基地+农户+电商”模式，大力开发豆制品休闲产品，提升产品附加值，打造集“种植、加工、包装、冷藏、销售、餐饮”于一体的新兴产业供应链，实现产品结构转型升级。先后开发豆制系列产品20多种，带动1万多名群众就业，累计增加村级集体经济收入14万元。目前，全县豆腐产业遍布16个镇（街道），发展豆腐制品生产、销售及餐饮企业780多家，含市级龙头企业4家、豆腐干加工主体26家、鲜豆腐加工户378户，注册登记的豆制品加工市场主体76家等，年产豆腐产品1.2万吨，实现综合产值2亿多元。', '为加快推进园区建设，洛南县围绕“豆腐产业一体化、产品标准统一化、生产经营自主化、升级改造规范化”目标，着力推动豆腐产业标准化、规模化、品牌化发展。投资3000万元，加快推进融加工、体验、销售、文旅于一体的洛南县现代豆腐产业园建设，计划将于今年10月份建成投产。组建了洛南豆腐加工销售运营公司，加快整合豆制品加工企业和合作社，取缔环保不达标的小作坊，建立现代企业标准及管理制度，力促豆腐产业提档升级。以“大走访大调研”活动为抓手，组织企业开展外出考察学习，助力企业转型升级、跨越式发展。组织县内豆制品龙头企业参加了中国豆制品行业年会，组团参加了“中国豆腐宴上海争霸赛”并荣获金奖和金厨奖。组织开展洛南豆腐品尝推介系列活动及以“传承非遗励心志、劳动实践育新人”为主题的“青少年豆腐制作体验及文化传承”豆腐文化节活动。大力实施“品牌”驱动，创立“百年王家”“洛源老刘家”等5个特色品牌，4家企业获市级龙头企业称号，5家企业获“SC”认证，拥有“洛南豆腐”用标企业3家。加快推进洛南豆腐地理标志商标注册工作，不断加大“洛味缘”农产品公用品牌营销力度，拓展“线上+线下”营销模式，洛南豆腐、洛源豆腐干等洛南特色农产品从县城“小餐桌”不断走向全国“大市场”，知名度和美誉度不断提高。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>274</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>商南城关创新方法实施三百四千工程区县资讯</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-04-03</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/106226.htm</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['近日，商南县城关街办创新方法，大力实施“三百四千”工程奋力赶超行动，加快高质量发展。 该街办想方设法运用“人才+”模式，引领人才创新创业。街办实行“人才+协会”模式，聘用企业家顾问2名、农业人才45名，指导组建5个产业协会和16个扶贫协会，由村集体经济以资金、基础设施等入股合作经营，发展食用菌200万袋、茶叶1.1万亩、羊肚菌1000亩、苗木5000亩；实行“人才+技能”模式，积极对接行业部门和职业院校，组织开展茶叶栽培及加工、食用菌种植、生猪养殖等技能培训5期，培训650人次；实行“人才+公益”模式，在东岗村、五里铺村、金福湾社区建起“慈善幸福家园”，吸引企业专家技术人才累计捐款110万元，捐赠价值10万多元的种猪、书籍等，并免费为群众提供技术指导；实行“人才+项目”模式，与长安大学等高校开展社会实践基地合作，与商洛学院、商洛质检所等单位的7名专家签约，对土壤改良、金银花种植、茶叶加工、红仁核桃种植等项目进行指导和跟踪服务。 同时，城关街办细化“八项职责”，推动党员驻村兴农。街办依托“人盯人+”基层社会治理平台，推动各村（社区）党员干部当好“八大员”，即：当好惠民政策的宣传员，利用党群服务中心摆放产业发展、社会保障等材料向村民宣传，并在日常走访摸排时上门发放宣传材料，提升群众政策的知晓率；当好防汛救灾的安全员，通过广播、微信群等及时传达气象预警信息，做好人员紧急疏散和转移安置等工作，守护群众生命安全；当好返贫监测的调研员，利用全国防返贫监测信息系统，强化“三类户”的防返贫动态监测和联系帮扶，走访排查20个村84户306人，坚决守住不发生规模性返贫的底线；当好矛盾纠纷的调解员，开展党员干部接访活动，倾听群众诉求，协调解决群众难题40件，确保群众反映的问题件件有落实、事事有回音；当好治安管理的联防员，组建治安联防队，定期开展治安巡逻，关心特殊人群，守好关键区域，及时发现并消除社会治安隐患，保障辖区安宁；当好护林防火的战斗员，开展森林火灾扑救应急演练20多次，确保山有人管、林有人护；当好风险防控的服务员，严格落实疫情中高风险地区来商返商人员的排查管控措施，广泛宣传最新防疫政策，督促群众做好个人防护，筑牢疫情防线；当好秦岭生态的保护员，联合行业部门成立了5支工作队，发动党员干部580人、群众1500人，拆除乱搭乱建238处、清运垃圾约540吨，切实呵护生态家园。 城关街办实施“三项行动”，强化头雁带富领飞。街办实施“头雁领航”行动，组织16名党支部书记就带头引领发展、建设美丽乡村等工作现身说法，推荐政治素质好、履职尽责能力强的村党支部书记担任县级以上党代表、人大代表，提升了党支部书记的领航力；实施“头雁孵化”行动，按照政治素质强、党建业务强、带动能力强的“三强”标准，储备了村级党组织书记后备人才23名、“两委”干部后备人才76名，组织这些后备人才参与党组织建设、产业发展、项目管理等，通过“试岗”见习锻炼，已从中选拔9名想干事、能干事的优秀人才充实到村“两委”班子中；实施“头雁提能”行动，利用“党课开讲啦”“书记大讲堂”等载体，对村级党组织书记进行法律法规、项目管理等培训，选派7名党组织书记外出考察学习，进一步提升他们的带富能力。', '该街办想方设法运用“人才+”模式，引领人才创新创业。街办实行“人才+协会”模式，聘用企业家顾问2名、农业人才45名，指导组建5个产业协会和16个扶贫协会，由村集体经济以资金、基础设施等入股合作经营，发展食用菌200万袋、茶叶1.1万亩、羊肚菌1000亩、苗木5000亩；实行“人才+技能”模式，积极对接行业部门和职业院校，组织开展茶叶栽培及加工、食用菌种植、生猪养殖等技能培训5期，培训650人次；实行“人才+公益”模式，在东岗村、五里铺村、金福湾社区建起“慈善幸福家园”，吸引企业专家技术人才累计捐款110万元，捐赠价值10万多元的种猪、书籍等，并免费为群众提供技术指导；实行“人才+项目”模式，与长安大学等高校开展社会实践基地合作，与商洛学院、商洛质检所等单位的7名专家签约，对土壤改良、金银花种植、茶叶加工、红仁核桃种植等项目进行指导和跟踪服务。', '同时，城关街办细化“八项职责”，推动党员驻村兴农。街办依托“人盯人+”基层社会治理平台，推动各村（社区）党员干部当好“八大员”，即：当好惠民政策的宣传员，利用党群服务中心摆放产业发展、社会保障等材料向村民宣传，并在日常走访摸排时上门发放宣传材料，提升群众政策的知晓率；当好防汛救灾的安全员，通过广播、微信群等及时传达气象预警信息，做好人员紧急疏散和转移安置等工作，守护群众生命安全；当好返贫监测的调研员，利用全国防返贫监测信息系统，强化“三类户”的防返贫动态监测和联系帮扶，走访排查20个村84户306人，坚决守住不发生规模性返贫的底线；当好矛盾纠纷的调解员，开展党员干部接访活动，倾听群众诉求，协调解决群众难题40件，确保群众反映的问题件件有落实、事事有回音；当好治安管理的联防员，组建治安联防队，定期开展治安巡逻，关心特殊人群，守好关键区域，及时发现并消除社会治安隐患，保障辖区安宁；当好护林防火的战斗员，开展森林火灾扑救应急演练20多次，确保山有人管、林有人护；当好风险防控的服务员，严格落实疫情中高风险地区来商返商人员的排查管控措施，广泛宣传最新防疫政策，督促群众做好个人防护，筑牢疫情防线；当好秦岭生态的保护员，联合行业部门成立了5支工作队，发动党员干部580人、群众1500人，拆除乱搭乱建238处、清运垃圾约540吨，切实呵护生态家园。', '城关街办实施“三项行动”，强化头雁带富领飞。街办实施“头雁领航”行动，组织16名党支部书记就带头引领发展、建设美丽乡村等工作现身说法，推荐政治素质好、履职尽责能力强的村党支部书记担任县级以上党代表、人大代表，提升了党支部书记的领航力；实施“头雁孵化”行动，按照政治素质强、党建业务强、带动能力强的“三强”标准，储备了村级党组织书记后备人才23名、“两委”干部后备人才76名，组织这些后备人才参与党组织建设、产业发展、项目管理等，通过“试岗”见习锻炼，已从中选拔9名想干事、能干事的优秀人才充实到村“两委”班子中；实施“头雁提能”行动，利用“党课开讲啦”“书记大讲堂”等载体，对村级党组织书记进行法律法规、项目管理等培训，选派7名党组织书记外出考察学习，进一步提升他们的带富能力。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>274</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>商洛市文化和旅游局对市五届人大一次会议第号议案的答复函人大代表建议办理</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2061/112462.htm</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['您的建议很好，感谢您对全市康养产业发展、康养之都建设工作的关注和支持。将商洛市打造为中国康养之都是在深入学习贯彻习近平总书记三次来陕考察重要讲话重要指示，紧紧把握省委、省政府工作要求，认真分析商洛资源禀赋和比较优势的基础上，2021年7月商洛市委四届十一次全会、2022年3月市第五次党代会上提出并持续推进中国康养之都建设，并得到省委、省政府肯定。', '今年以来，市打造中国康养之都工作专班聚焦建设“中国康养之都”的重点和难点，以健康医养、健康养老、健康文旅、健康体育、健康医药、健康食品六大产业为支撑，以全域旅游示范市、森林康养示范市、“美丽中国·深呼吸小城”“国际慢城”“健康中国·养生农业示范区”等系列创建为抓手，以特色民宿、特色餐饮、特色产品三大提升工程为重点，积极构建康养产业体系、培育康养产业集群，持续唱响“22℃商洛·中国康养之都”品牌。先后召开工作部署会4次、推进会4次、协调会15次，信息发布会2次、康养产业重点项目协调会2次，专班碰头会20余次，持续推动各项工作落地见效。针对您提出的建议，我们将一以贯之地做好以下工作，有力助推中国康养之都建设。', '一是不断提升康养之都规划。结合国家和省级有关专家意见建议，以及赴四川、重庆、攀枝花等康养产业做得强的城市考察学习康养产业发展的先进经验，邀请国内外著名康养专业把脉问诊，持续提升规划，科学推进康养之都建设。', '二是加快康养之都建设基础性研究。抢抓国家政策机遇，深入学习文旅康养政策，扎实开展基础性研究，进一步深化认识，明确发展思路、目标要求和保障措施，积极借鉴先进省市经验，加快推动康养产业深度融合发展。依托有关科研院所和职能部门，加快对我市生态环境指数、医疗健康指数、康养政策指数等事关康养之都建设的重要参数的基础性研究，通过数据挖掘，发现问题，扬优补短，更加有针对性地开展工作。', '三是抓推康养之都建设突破口。坚持政府主导、企业主体、市场运作、社会参与，以点带面、点面结合，着力培育和激发市场活力，不断丰富康养之都建设内涵。加强沟通协调，形成工作合力，做实做细各项工作，不断提升提案办理实效。结合后疫情时代休闲度假和康养发展的趋势，以文旅康养为重点，以民宿、森林康养、中医药康养、乡村旅游为突破口，聚集更多力量予以突破，形成特色。确定云山湖森林康养度假区、金凤山康养新城、金山养老公寓等康养标杆项目为六大产业的链主企业，加强政策支持和协调服务，抓重点、抓龙头，示范带动康养之都建设。', '四是持续推进全域环境提升。持续推进爱我商洛活动，加快实施全市236个城市品质提升项目和城市建设管理312工程，全力提升城市品质和乡村环境，持续推进全域景区化。结合特色餐饮提升工程建设城市特色街区，大力发展夜间经济。加大小户型住房供给，合理控制房价，吸引更多人来商购房旅居、康养度假。', '五是全力抓好康养品牌创建。加快推进高A级景区、国省旅游度假区、最美休闲乡村、森林康养基地、水利风景区、体育旅游示范基地、中医药旅游示范点等“康养+”品牌创建，确保年内创成省级全域旅游示范市。持续跟进“美丽中国·深呼吸小城”、国际慢城等创建，不断增强商洛康养产品的品牌吸引力。', '六是持续抓好22℃商洛宣传营销。围绕22℃商洛·中国康养之都，结合康养基础数据研究、三大提升工程等常态化、矩阵化、分众化做好新媒体营销。创新推进“五个一”文艺精品创作工程，持续做好四季主题营销活动，依托丝博会、旅博会、中国特色旅游商品大赛等大平台，积极组展参展，宣传推介康养之都建设成效和产品特色，吸引更多人走进商洛，养身养老养心境，避暑避霾避喧嚣。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>274</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>我市全力创建生态文明建设示范市商洛要闻</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2022-11-26</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/130271.htm</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['近年来，我市深入践行习近平生态文明思想，立足商洛生态优势，围绕打造“一都四区”，坚持“六个突出”，牢牢守住生态底线，创新生态制度体系，我市生态环境质量持续改善，绿色发展成效明显。', '突出主题主线，明确目标任务。我市始终坚持“生态优先、绿色发展”和“生态惠民、生态利民、生态为民”原则，紧紧围绕“治污、保护、发展”三大任务，科学编制创建规划，明确创建目标分三步走：2021年全面启动创建工作，到2023年创建成省级生态文明建设示范市区，到2025年创建成国家生态文明建设示范市区。坚持市县同创目标，全面推进市级及7县区创建工作科学、正确、有序开展。', '突出主责主业，充实创建力量。市委、市政府将生态文明建设示范区创建纳入“军令状”，主要领导多次过问、谋划推动；成立创建工作推进专班，专职负责创建日常工作，指导督促各县区同步开展创建。自上而下，层级负责，为创建扎实深入开展提供了坚强组织保障。', '突出特色特点，强化亮点打造。我市在完成创建规定动作的同时，聚力推动“打造秦岭生态环境保护示范平台、生态产品价值实现示范平台、秦岭生态文化示范平台；建设秦岭生态博物馆和商洛秦岭生态植物园；实施城周绿化提质、蓝天巩固、碧水改善、青山保卫、农村清洁、绿色低碳建设、环保能力提升、绿色产业转型八项工程”，指导各县区进行亮点精品工程打造，开展生态价值实现路径创新性探索，全方位展示“22℃商洛·中国康养之都”的魅力，柞水县荣获第五批“绿水青山就是金山银山”实践创新基地命名。', '突出高质高效，严格过程管理。市政府与各县区和创建专班成员单位年初签订年度创建目标责任书，全面落实创建责任和工作任务。建立周通报、月调度、季督查、年考核制度，考核结果按分值权重计入年度考核综合评定成绩，作为年终目标责任考核依据，以强有力制度推动创建工作高质高效开展，商州区、柞水县创建第六批国家生态文明建设示范区获得生态环境部命名。', '突出协力协同，联动同向发力。市政府将生态文明建设示范市区创建纳入“六城联创”内容，定期召开政府常务会、工作推进会督促创建任务落实；市政协组成视察调研组，深入县区、市级部门视察指导创建工作；市决咨委赴贵州省贵阳市、六盘水市考察学习创建工作经验，形成考察报告报市委、市政府参阅；邀请行业专家开展业务培训10余次，不断拓宽视野创新思路，为创建工作源源不断注入生机活力。市级创建陕西省生态文明建设示范区指标经自查全部达标，市县创建规划全部编制完成，为省上核查验收抢得了主动，赢得了先机。', '突出共建共享，加强宣传教育。我市举办秦岭生态文化旅游节、22℃商洛四季营销活动等，全方位展示商洛生态文明建设成效。创新载体、突出特色、深入开展生态文明示范创建宣传活动，不断拓宽公众参与渠道，全面提升公众生态自觉，将创建工作由“政府推动型”转向“社会推动型”，加快形成共治共创共享的良好格局，“秦岭最美是商洛”生态形象品牌和市场影响力进一步提升。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>274</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>商洛市人民政府办公室关于印发市政府系统改进作风十八条措市政府办文件</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-08-10</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1113/44202.htm</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['商洛市人民政府办公室关于印发《市政府系统改进作风十八条措施》的通知-商洛市人民政府', '为了贯彻《中共商洛市委关于开展“提士气强担当建机制促发展”作风建设的意见》（商字〔2021〕58号）精神，特就市政府系统改进作风制定18条具体措施。', '1.凡法律、法规和规章已有明确规定的不再发文；中、省级已发至县团级的文件不再转发；已公开播发或见报的不再大面积发文；已召开会议安排部署或无实质性内容的，一律不发文。', '2.属部门职责范围事务由部门自行发文；能以部门联合发文或议事协调机构名义发文的，不以市政府或市政府办公室发文。', '5.副市长原则上不能随意召集县区负责同志到市上开会，协调事项直接到县区、到部门、到现场。', '6.市政府召开的会议，原则上时间控制在1小时之内；议程较多或特殊情况的，时间不超过2小时。', '7.提交市政府常务会审议的议题，会前须充分征求意见，原则上会上不再讨论，汇报时间严格控制在3至5分钟。确需延长汇报时间的，在申报议题时注明。', '8.各级政府及部门、单位主要负责人要亲力亲为，对各项工作亲自研究部署、亲自抓好落实，对各种情况要全面掌握、了然于胸，在急难险重任务面前要深入一线、靠前指挥、亲自指挥。', '9.副市长、副秘书长及各县区、部门和单位负责同志对重点工作要实行清单管理，建立周台账；当天的工作任务要做到日清日结。', '10.市政府或市政府办公室下发工作部署类的文件，起草单位同步提供县区、市级部门和单位的任务和责任清单；各县区、部门和单位对各项工作任务要明确具体的责任领导、责任单位、责任人和具体时限要求，按期上报办理结果。', '11.市政府副秘书长要当好督办员，按照职责分工抓好各项任务事项的跟踪督办落实，及时向市政府分管领导反馈结果。', '12.市政府领导到县区、部门检查工作，原则上不召开汇报会，不准备书面汇报材料；对基层反映的问题要及时协调解决，对检查发现的问题要及时交办、限期解决。', '13.各县区、部门和单位需上报或对外发布涉及经济社会发展主要指标完成、重要汛情灾情、重大事故事件等重要信息的要真实准确，并报经市政府核准同意。', '14.各县区、部门和单位对市政府或市政府办公室要求上报的有关资料或信息要按时上报，未按内容或时限要求上报的，一次提醒、二次警示、三次通报。', '15.汛期或疫情防控、承办十四运会等特殊时期，领导干部原则上不能外出考察学习交流；确因特殊情况需外出的，要严格履行报批程序。', '17.各级干部工作日不得饮酒，周末、节假日有极端天气或重大活动等特殊情况的，也不得饮酒。', '18.严格落实八项规定及其实施细则，领导干部下基层调研或会议用餐，原则上在机关灶就餐，并对就餐人数、就餐标准等提前细化明确，不得超标准、超规格接待。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>274</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>楼上居住楼下就业山阳社区工厂拓宽易地搬迁群众就业渠道区县资讯</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2020-07-30</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/63390.htm</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['盛夏七月，青林实业板岩木工板社区工厂一派繁忙景象：原材料剥皮的、晾晒的，压板车间内流水线铺板的、操作机器高温覆膜压板的、裁边的、打包包装的，百余名工人正有序忙碌着。青林实业板岩木工板社区工厂，位于山阳县西南近40公里的板岩镇元门移民小区，计划总投资7000多万元，建设日产木板6000张加工厂，年加工木板4.5万立方米，可提供就业岗位400多个。目前已经开通2条生产线，可提供就业岗位100多个。学徒工吴宁说：“我来上班已经一个多月了，现在月工资3000元。出师后若能当上技术工，月工资就可以拿到5000元以上。” 山阳县共有104个移民搬迁安置点，目前已建成运营的有8个产业园区、32家社区工厂、11家扶贫车间、95家就业扶贫基地，覆盖60个移民搬迁安置点，带动就业5882人，其中贫困劳动力1981人。社区工厂主要涉及饮品、服饰、建材、电子、农产品等加工产业，与产业园区、扶贫车间、就业扶贫基地融合相生、优势互补。青林实业板岩木工板社区工厂只是32家社区工厂的一个缩影。 为写好移民搬迁“后半篇文章”，2017年初，山阳县安排人社局等有关部门组织外出考察学习，探索如何解决移民搬迁群众就业难问题。经过考察，结合实际探索出社区工厂等就业新载体，2018年10月，专门成立了由常务副县长任组长，人社、扶贫、移民等部门负责人任副组长的扶持社区工厂工作领导小组。通过动员外出创业成功人士返乡创业、出台优惠政策招商引资，迅速在全县掀起就业扶贫社区工厂、扶贫车间和就业扶贫基地建设热潮。计划在3000人以上的大型安置点，建成1个社区工厂，再配套建设1个扶贫产业园；在800至3000人的中型安置点，至少建设1个社区工厂；在800人以下的小型安置点，至少配套建设1个扶贫车间，或者就业扶贫基地。今年5月，山阳县委、县政府“两办”又印发了《山阳县易地搬迁安置点社区工厂扶贫车间建设实施方案》，对具备建设条件的28个安置点统筹规划，规划新建社区工厂12家、扶贫车间10家。对16个分散安置点，依托村集体经济组织，将搬迁群众镶嵌在地方特色产业链上，力争年底实现易地搬迁安置点社区工厂、扶贫车间全覆盖，确保易地搬迁户每户至少有1人稳定就业。 县人社等有关部门从建设培育、运营发展、认定授牌、政策扶持等方面作了详细安排，出台了系列实施办法和就业补贴政策，鼓励增强就业容量。着眼解决搬迁户“三无”劳动力和“零就业”家庭稳定就业，逐步实现“下山上楼”、安居乐业。多渠道扶持鼓励社区工厂安置贫困户劳力就业。全面落实岗位、房租、水电、以工代训、以奖代补等各项补贴政策。为解决疫情给企业带来的生产困难，山阳县政府整合项目建设、苏陕协作、企业结构调整奖补等各项资金，共兑付2亿多元，鼓励企业、工厂、车间、基地早日复工复产，有效解决搬迁群众就地就近就业。 社区工厂建设让搬迁群众从泥地里摸爬的农夫，跨越到工厂上班的工人。南宽坪镇下坪安置点，建起了社区服装厂，吸纳本地乡亲130多人就业，让乡亲们楼上居住、楼下上班，取得了群众就业、产业发展、社区繁荣、乡风和谐、社会稳定的良好效果。社区服装厂建成以来，积极开展技能大比武，不断提升员工技能熟练度和工作效率。在服装厂就业的袁作秀现已经成了熟练的技术工，月工资3000多元。她说：“过去年年外出打零工，年年攒不住钱。如今好了，下楼就进厂上班，下班上楼就到家，挣钱、顾家两不误。”']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>274</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>西商融合发展第二次党政联席会议召开方红卫讲话赵璟主持赵商洛要闻</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/138499.htm</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['西商融合发展第二次党政联席会议召开方红卫讲话 赵璟主持 赵孝和文全吕来升等出席-商洛市人民政府', '3月7日，省委常委、西安市委书记方红卫率西安市党政代表团一行，到我市调研西商融合发展工作并召开西商融合发展第二次党政联席会议。市委书记赵璟陪同调研并主持会议。市委副书记赵孝，西安市委常委、市委秘书长和文全，商洛市委常委、市委秘书长张国瑜参加活动。西安市委常委、常务副市长吕来升通报西安市2023年推进西商融合发展工作开展情况及2024年合作发展重点事项清单，商洛市委常委、常务副市长李波通报商洛市2023年推进西商融合发展工作开展情况。', '方红卫指出，在考察学习过程中，切实感到商洛的发展变化很大，商洛的干部知行合一，我们为商洛当前的生动局面感到由衷高兴和敬佩，将积极学习借鉴商洛推动高质量发展的好经验好做法。他说，推进西商融合发展既是服务和落实国家区域协调发展战略的必然要求，也是西安和商洛高质量发展的现实需要，更是两市人民的共同期盼。过去一年来，在两市共同努力下，西商融合发展取得了实实在在的明显成效，我们要按照既定的方向，聚力推进创新资源共享、产业生态共建和文化旅游串点成线、连线成面，让西商融合发展结出更加丰硕的成果。', '赵璟代表市委、市政府对方红卫一行来商调研指导工作表示诚挚欢迎。她说，自去年两市签订《西商融合发展战略合作框架协议》以来，双方围绕产业发展、科技创新、民生事业、环境保护等方面开展了许多务实合作，西商融合协同发展开创新局面。商洛将深入实施西商融合协同发展战略，聚力共建西商同城化“生活圈、生产圈、生态圈”，携手为“谱写陕西新篇、争做西部示范”贡献更大力量。突出产业联建，强化链群互补，加强与西安六大支柱产业深度对接，促进产业共兴、项目共建、园区共营。突出创新联动，强化科技赋能，积极承接西安“双中心”城市辐射带动，推动企业融通创新，促进人才双向流动，加速科技成果转化。突出资源联通，强化互动共享，拓展旅游消费合作空间，扩大公共服务互通范围，健全生态资源共护机制，在更宽领域实现深度融合协同发展。', '会前，代表团一行先后前往丹凤东凤葡萄酒庄、棣花古镇、比亚迪零部件产业园、三一绿色建材示范产业园、两河口城市运动公园、南秦河生态公园、商洛北站、莲湖公园提升改造项目、市体育运动中心、秦岭博物馆等地，考察调研了特色产业发展、文旅融合发展、基础设施建设、生态环境保护等情况。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>274</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>千名人才创新创业赋能高质量发展商洛要闻</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2022-05-14</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/107214.htm</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['“在巩固拓展脱贫攻坚成果同乡村振兴有效衔接的重要时期，能参加这样高水平的培训是幸运的，通过学政策、学技术、学方法，不仅加深了对科技特派员制度的理解和认识，更开阔了科技创新创业的眼界和思路，坚定了履行好科技特派员使命职责的决心和信心。”近日，市科技特派员孟燕感慨道。', '4月19日至22日，科技部中国农村技术开发中心和中国食用菌协会共同组织了全国食用菌产业骨干科技特派员专题培训班，我市组织孟燕等70多名科技特派员参加了培训学习，目的是推动全市食用菌产业高质量发展。', '全市“三百四千”工程奋力赶超行动实施以来，各级各相关部门加强人才引育和队伍管理，优化服务激励机制，主动融入秦创原创新驱动平台，切实推动“千名人才创新创业”行动落实落细，为全市高质量发展提供强有力的人才支撑。', '市上突出健全人才数据台账，细化分解任务，明确科技、农业、人社等部门职责，分类建立了12个人才数据库和平台数据库，市级入库科技人才500名，创新人才336名。制定“千名人才创新创业”工作制度和考核实施细则，夯实包抓责任，健全责任到人、链条闭环的工作机制，对重点团队、重点项目做到所在企业有人管、主管部门有人包、所在县区有人联。围绕“3+N”产业集群和20条重点产业链布局创新链，确定首批重点创新团队15个、重点项目30个，支持人才领衔技术攻关、领办创办企业。主动对接国家乡村振兴5个重点帮扶县科技特派团服务工作，组织开展“院士专家商洛行”活动，围绕“科技创新助力‘一都四区’建设”建言献策。', '同时，市上整合支持鼓励人才创新创业的相关政策，制定《“千名人才创新创业”服务管理办法》，将“千名人才创新创业”项目作为全市人才工作年度重点任务，将领军人才、骨干专家纳入各级党委、党组联系服务专家人才范围。整合人才项目、资金等资源，强化跟踪服务，指导县区组建创新团队82个，创新创业项目110个。完善关爱机制，各级党委定期与各类专家人才联系，主动慰问和服务，积极解决专家人才实际困难，真正尊重人才、尊重创造。', '我市还组织37名科技型企业负责人及部分科技业务骨干赴秦创原平台总窗口考察学习，在秦创原立体联动孵化器总基地争取到3000平方米飞地孵化平台，加强产学研协同创新中心建设，推动校企、院企开展技术合作，与商洛生物医药、健康食品、新材料等领域10家企业达成入驻协议，推进“飞地创新、离岸孵化、回迁发展”新发展模式。推动陕西中泰材料科技有限公司与中建材蚌埠玻璃工业设计研究院、成都理工大学等院校合作，攻克利用石英砂岩加工太阳能硅材料、电子级硅微粉、高纯石英砂等六项工艺技术。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>274</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>商洛市货币化安置圆了棚户区居民住房梦保障性住房</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2016-04-22</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1076/98929.htm</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['棚户区改造是各级政府高度重视、人民群众高度关注的重要民生工程，而棚户区居民安置又是人们关注的焦点。在桃花盛开的季节，在商洛中心城区，采访了商洛的棚改货币化安置情况。', '商洛市中心城区现有开工的棚户区改造项目15个，棚户区居民安置分就地新建安置房安置和货币化安置两种形式，货币化安置又分一次性货币安置和选购商品房异地安置（居民选房、在产权置换面积内政府买单）两种形式，选哪种形式完全取决于居民自愿。在位于繁华地段的商运片区棚改项目区管理处，记者正好碰上前来办理异地选购商品房手续的张建国、王秀群、张燕3户棚户区居民，他们分别选购了怡翠山庄小区7号楼601、603和10号楼一单元1703商品房安置。问起为什么要选商品房时，他们回答说，虽然从繁华的地段迁到相对僻静的地方居住，但旧房换成新房，且每套房政府奖补十几万元，装修买家具基本就够了，就能入住，很实惠。', '在北新街东延片区棚户区，走访居住在原商洛栲胶厂院内的棚户区职工，和他们拉起了安置话题。大伙经过比较后普遍认为，选货币化安置比较划算。因为建回迁安置房需要两三年，居民就得等待两三年，货币化安置可以让他们这些动迁居民马上住到自己心仪的小区、户型和楼层，圆了渴望已久的住房梦，免受了过渡阶段租房居住的不便和辛苦。这个居民点共80户职工，其中34户选择一次性货币安置，46户与房屋征收主体单位签订了选择商品房异地安置协议，并选定了房子开始装修，货币化安置率达到100%。', '商洛市中心城区有待售商品房4000余套。为了让棚户区住房困难的居民早日住进宽敞明亮、设施配套的新房子，市政府把棚改安置和房地产去库存衔接起来，把货币化安置作为棚改安置工作的首选，采取得力措施，不断提高货币化安置比例。', '商洛市率先在全省出台了《中心城市棚户区改造项目选购商品房异地安置暂行办法》规范性文件，用优厚的惠民政策提高棚户居民自愿选购商品房异地安置的积极性。如异地安置奖励面积最高可达1\U001003d11.5，对一类区被征收户到二、三类区或二类区被征收户到三类区选房安置补偿基准价差价部分。同时设立了商洛市中心城区棚户区改造安置房选购大厅，组织10家房源企业入驻，并制作商品房小区模型供居民自由选房。对选定房子的被征收户由政府统一聘请评估机构评估房屋价格，一房一价，并统一结算选购安置房资金。', '市政府积极鼓励安置户选择一次性货币安置，大力引导棚户居民自愿自觉选购商品房异地安置，规定对选择货币补偿的被征收户给予房屋评估总价30%的奖励标准。同时广泛宣传货币化安置的好处，书记、市长深入棚改一线，上门宣讲政策规定，给被征收户吃了定心丸。', '在走访中了解到，2015年全市棚户区改造开工10562户，其中货币化安置6470户，货币化安置率61%，比全国平均水平高出31%，先后有铜川、渭南、安康等市县到商洛考察学习货币化安置的做法。（来源：西部网）']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>274</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>共享互通促转型商州区打造专业化电子信息产业高地侧记区县资讯</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/137044.htm</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['进入四季度以来，作为全市重点项目之一和商州区标志性特色园区的电子信息产业园马不停蹄大抓建设进度，全力冲刺全年目标任务。目前，园区规划用地421亩，已入驻电子信息企业7家。其中，建成5家、试生产1家、在建1家，租用标准化厂房4.7万平方米，带动就业450人。预计园区全面建成后，可实现年产值14.4亿元、利税1.755亿元，标准化厂房每平方米产值达34285元、利税4225元，带动就业780人。', '近年来，商州区深入贯彻落实苏陕、宁商协作工作部署，锚定“产业集群化、园区专业化、发展差异化”目标，在原脱贫攻坚产业示范园基础上，与南京市栖霞区携手共建专业化电子科技产业园，通过走好“转”“建”“引”“育”关键四步，与栖霞区招商信息共享、项目引荐互通，打造“江苏研发+西部产业”模式，优化政企合作模式，商州区电子科技产业实现了从“散乱无序”到“精准专业”、从“单船捕鱼”到“舰队出海”升级转变。', '今年5月，商州区和栖霞区两地“四步走”共建专业化电子信息产业高地经验做法被中办国办印发的《关于2022年度巩固拓展脱贫攻坚成果同乡村振兴有效衔接考核评估情况的通报》中以清单形式通报，全国范围推广。', '围绕五大产业集群和12条产业链发展，对商州区工业园区以及周边产业基础、资源禀赋和企业状况深入调研，明确园区定位和主导产业发展方向，学习借鉴栖霞区“产业集群+产业基地”产业空间布局模式，确定将电子信息产业作为商州区原产业脱贫示范园转型发展的主导产业，着力打造“企业集聚、产业集群、要素集约、服务集中”的专业化电子科技产业园。', '大力实施“退、提、扩”三大工程，有效拓展发展空间，提升园区承载能力。清理不符合园区发展定位、技术含量低、产出效益差企业3家，安排800万元苏陕协作资金，完成4.7万平方米标准化厂房制热制冷和通风管道建设。紧盯龙头企业厂房定制化需求，储备土地20亩，建设标准化厂房3.4万平方米，现已签约国飞工业级无人机制造基地二期、赛鲲鹏智能单车二期项目。', '建立招商资源共享渠道，邀请南京招商专家开展专题培训，依托栖霞高新区广泛搜集项目信息，对接企业考察洽谈。采取厂房租赁“三免三减半”、投资参股激励方式，融资4150万元，促成总投资16.2亿元的LED半导体封装及应用、新维视光电显示、动力储能PACK封装、国飞工业级无人机制造基地一期、赛鲲鹏智能单车一期等5个项目，实现当年招引、当年落地、当年建设。', '与栖霞高新区签订结对合作协议，建立常态化联络联系机制，选派园区工作人员赴栖霞高新区考察学习先进发展经验和经营管理服务理念，园区内3家链上企业达成产业耦合发展合作，构建起产业循环生态圈。依托江苏科研院所先进技术和创新资源优势，探索“江苏研发+西部产业”发展模式，搭建产业链供需平台，国飞工业级无人机制造基地项目与南京航空航天大学达成“产学研”合作，有效激发园区产业发展动能。', '下一步，商州区将紧扣市委“打好园区建设提标扩容攻坚战”部署，坚持“亩均论英雄”理念，强化产业联动，注重双向互惠，加快建设“企业集聚、产业集群、要素集约、服务集中”的专业化电子科技产业园，加速释放新动能，打造商州区乃至商洛市经济高质量发展新引擎。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>274</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>商洛市年城镇建设工作纪实保障性住房</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018-03-09</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1076/98772.htm</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['2017年，商洛市按照“产业绿色化、城镇景区化、田园景观化”发展路径，突出规划引领，强化项目带动，全市城镇建设再创佳绩。全年城镇建设完成投资123.971亿元，占全年任务111.5亿元的111.2%。“一体两翼”中心城市随着提升改造等一批城市基础设施建设工程的相继竣工，中心城区和丹凤、洛南县城面貌焕然一新；各县县城建设高歌猛进，县城面貌日新月异；重点镇建设如火如荼，与脱贫攻坚、全域旅游、改善农村人居环境等工作相得益彰，捷报频传。', '中心城市建设步伐加快。围绕建设“山水园林、休闲宜居”城市目标，坚持“秦岭休闲之都、丝路产业新城”城市定位，“一体两翼”中心城市品位提升速度加快，完成投资85.85亿元。滨江银杏公园建成开放；环城南线西段项目东、西隧道贯通；马莲峪道路商中引线工程竣工；西门户区景观大桥车行桥主体工程已于12月13日全面合拢；丹凤县老君丹江大桥和城区综合市场项目完成主体建设；洛南县华阳民俗文化老街及栖凤湾民俗村一期项目建成。', '县城建设突飞猛进。按照“完善功能、突出特色、聚集人气”的要求，加快县城扩容提质工程建设，完善县城基础设施和配套服务设施，把县城建成具有很强的人口聚集能力和辐射带动能力的县域经济发展中心。商南、山阳、镇安和柞水4县县城建设完成投资18.63亿元。商南县火车站停车场建设项目主体工程完工；商南县协和医院建设项目主体工程完工，城区垃圾中转站及公厕项目竣工并投入使用；山阳县丰阳明珠二期竣工，城市公园工程顺利开工；镇安县金台山公园建成对外开放，银洞湾亮化工程竣工；柞水县百里长廊绿化项目竣工，西川综合广场主体完工。', '小城镇建设如火如荼。2017年全市村镇建设完成19.491亿元，占全年任务16.6亿元的117.4%。其中2个省级重点示范镇和4个省级文化旅游名镇共实施重点项目63个，完成13.851亿元，占省考指标任务12.207亿元的113.4%。沙河子镇商丹广场创业孵化基地全面投入使用；竹林关镇移民搬迁、“五个一”建设项目完成；漫川关镇漫川人家二期、老街保护修复工程竣工；云盖寺镇景观桥新建改造完工，四级客运站建成运营；凤凰镇亮化、绿化、蓄水景观二期工程建成并投入使用；棣花镇景区提升改造、丹江综合治理、河堤排洪渠等重点镇建设项目竣工；四皓街办栖凤一路、二路完工，能容纳6000至万余人的露天音乐广场、景观步道及凉亭、停车场、垃圾中转站、污水处理站项目全面建成。', '今年以来全市城镇建设硕果累累，亮点频现，得到省上的充分肯定：2017年12月26日，商洛市成功争取省发改委、住建厅、财政厅下达商洛市省级城镇建设专项资金5000万元；商洛市丹凤县被省政府授予“全省县城建设先进县”称号；2017年3月份格尔木市副市长率领的格尔木市考察团一行11人，来商考察学习商洛市的重点示范镇和文化旅游名镇建设工作；2017年4月21日，省住建厅在商洛市丹凤县棣花镇召开了2017年一季度全省文化旅游名镇观摩推进会，会议获得圆满成功，并获得省上领导及参会的兄弟地市高度肯定和赞誉；商洛市“省级文化旅游名镇”漫川关镇、棣花镇、云盖寺镇在最新的考核中名列全省第一方阵，分别位列全省第2、5、8名；商洛市“省上跟踪指导考核市级重点镇”四皓街办音乐小镇轰轰烈烈、扎扎实实、大干快上，在十一月份全市重大项目观摩总结会上受到市委主要领导的充分肯定；商洛市山阳县漫川关镇荣膺第四批国家“美丽宜居小镇”称号，丹凤县棣花镇万湾村、山阳县法官镇法官庙村荣膺第四批国家“美丽宜居村庄”称号；商洛市漫川古镇、棣花古镇文化旅游景区新晋升为国家4A级景区；2017年5月，商洛市商州区沙河子镇王山底村、柞水县下梁镇石瓮子社区被国家住建部公布为第一批全国“绿色村庄”；2017年7月份，山阳县漫川关镇和镇安县云盖寺镇入选第二批“全国特色小镇”；2017年9月份漫川关镇前店子村被住建部公示为“全国改善农村人居环境示范村”。（来源：商洛市住房和城乡建设网）']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>274</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>山阳打造扶贫开发高速路区县资讯</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2008-10-11</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/98356.htm</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['国务院批复同意在沈阳等6个城市暂时调整实施有关行政法规和经国务院批准的部门规章规定', '关于2023年国民经济和社会发展计划执行情况与2024年国民经济和社会发展计划草案的报告（全文）', '中共中央 国务院关于学习运用“千村示范、万村整治”工程经验有力有效推进乡村全面振兴的意见']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>274</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>关于报送年商洛市公共资源交易平台建设重点工作落实情况市政府办文件</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017-02-23</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1113/44924.htm</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['关于报送2016年商洛市公共资源交易平台建设重点工作落实情况的报告-商洛市人民政府', '按照你委《关于报送2016年公共资源交易平台建设重点工作落实情况的通知》（陕发改项目〔2017〕176号）的精神和要求，经认真总结梳理，现将我市有关情况报来，请审定。', '（一）精心制定工作方案。牵头拟定上报了《商洛市整合建立统一公共资源交易平台实施方案》，并经省发改委审核同意。纳入市级公共资源交易平台的业务范围包括政府采购、建设工程招标投标、土地使用权、矿业权出让。', '（二）稳步开展机构整合。会同市编办，对分散设置在各相关部门的交易机构、人员编制、机构性质等进行摸底调查。在此基础上，制定机构整合方案，经市编委会审定后，已报省编办待批。我市参照省上公共资源整合机构设置模式，成立“一委一办一中心”。在上报省上的机构整合方案中，计划成立商洛市公共资源交易中心管理办公室，下设在市发改委，副县级机构，行政编制3人；成立商洛市公共资源交易中心，市政府直属事业单位，由市发改委代管，事业编制29人。', '（三）不断健全工作机制。成立了由市级相关单位负责领导组成的商洛市公共资源交易中心筹备处，并实现对外挂牌办公，统筹做好全市公共资源整合工作。', '（四）加快落实办公场所。对现有各单位交易场所进行调研，对整合后拟设立的市交易中心办公场所进行反复考察论证，初步确定方案。商洛市公共资源交易中心计划与长安银行商洛分行进行意向性合作，由长安银行出资810万元购置陕西同城置业有限责任公司新建的写字综合楼第五层作为市交易中心办公场所，总建筑面积1970.6平方米，场地装修方案已完成，将通过招标确定施工单位。在此过程中，我们赴西安市招标办考察学习，按照省上要求合理布设开标室、评标室、竞价区等功能区。', '（五）全面进行制度清理。我市按照省上通知要求开展了制度清理和完善工作，建议保留《商洛市国有建设用地使用权和矿业权网上交易规则》一项制度，已以商发改字〔2016〕388号文件上报省发改委。拟定了《商洛市市级公共资源交易目录》，并征求市级各相关部门意见，待进一步修改完善后，提请市政府研究审定并上报省联席会办公室审核备案。同时，我们组织市级各交易主管部门，分别完善国有土地使用权和矿业权、政府采购交易、工程建设招投标交易等方面的交易实施细则。加快研究制定市级公共资源交易平台服务管理细则、服务流程和标准。', '（六）认真做好数据填报。围绕做好数据填报工作，我委召集市政府采购中心、市建设工程招标投标管理办公室、市土地收储中心、市矿产资源开发服务中心等单位进行了精心安排部署，并参加了省上的业务培训会。按照省上工作要求和通报反馈的情况，我委将进一步加强督促，确保各单位认真做好数据填报工作。', '一是机构组建方案有待批复。我市上报的机构组建方案省编办尚未批复，致使机构整合工作推进缓慢，现有各相关单位的交易机构人员无法整合到位，给整个资源整合工作形成很大的制约。目前，急需尽快批复编制，把交易中心人员整合到位。二是公共资源交易平台建设资金不足。尽管我们做了大量工作，基本与长安银行达成协议，可解决办公和交易场所的资金问题，但后期房屋装修约需298万元、电子交易设备约需150万元，目前尚未落实。三是思想认识不足。从总体整合工作推进来看，各有关单位对整合工作的紧迫性和重要性认识还不到位，工作缺乏积极性和主动性，存在对改革工作的畏难情绪。四是数据填报有待加强。由于交易数据实行网上填报，各单位有关工作人员普遍业务不熟，且人员不固定，现有各交易机构的历史交易数据无法完全满足上报要求，按月报送的数据有时不够及时，数据合格率低较低。', '（一）加快推进机构组建方案批复和落实。我市的公共资源交易平台机构组建方案已于去年6月份上报省编办。我们将加强与省编办的沟通衔接，力争在能够尽快批复。同时，加快开展各单位交易机构的摸底调研等具体工作，制定人员调整分流计划，确保方案批复后，具体整合工作迅速开展，机构实现良性运转。', '（二）尽快启动交易中心办公场所装修。我市交易中心办公场所装修方案和装修资金概算已编制完成，待市政府批准后，我们将尽快完善相关手续，迅速开展室内分隔装修。', '（三）加快电子交易服务系统平台建设。电子交易前置服务器由省联席会议办公室统一提供配置，我市需提供电子政务外网的全局业务IP地址和1个2U式服务器设备的机架和空间及其他相关设备，供前置服务器安装运行。我委在编制装修方案过程中已充分考虑，待办公场所完善后，将与省上抓紧联系，确保电子交易服务系统平台建设按期顺利完成。', '（四）认真做好交易制度制定完善工作。进一步做好交易制度清理工作，加快修订完善市级公共资源交易目录，并组织市级各交易单位制定完善各类交易实施细则。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>274</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>商洛市民政局对市五届人大三次会议第号建议的答复函人大代表建议办理</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2061/136818.htm</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['随着社会的发展，殡葬行业乱埋乱葬的问题在社会中比较突出，习近平总书记多次作出重要指示批示，关于“青山白化”问题，总书记十分关注，特别指出了问题的严重性，要求各级各方面都要采取有力有效的措施，予以整改，打造绿水青山就是金山银山。', '为加强和规范全市农村公益性公墓建设管理，节约殡葬用地，保障土地集约高效利用，有效治理乱埋乱葬现象，保护生态环境，推动我市殡葬事业健康有序发展，我局按照《陕西省人民政府关于推进城乡殡葬改革和公益性公墓建设的意见》（陕政发〔2012〕28号）和《陕西省殡葬管理办法》（2012年修订）以及陕西省民政厅《关于开展农村公益性公墓建设试点工作的通知》（陕民办发〔2013〕105号）等，积极采取多方措施加强殡葬政策宣传，积极教育引导，推进殡葬改革工作的实施。', '2013年，我市实际起草并报请市政府印发了《商洛市人民政府关于推进城乡殡葬改革和公益性公墓建设的意见》（商政发〔2013〕15号）。对文明节俭办丧事、火葬和生态安葬、文明低碳祭扫、广大党员干部带头倡导殡葬改革提出了具体要求，同时就加强农村公益性公墓建设、规范殡葬服务市场秩序、营造良好的殡葬服务环境等也做了要求。为了加强和规范农村公益性公墓建设管理工作，节约殡葬用地，保护生态环境，有效治理乱埋乱葬现象。截至目前，《商洛市持续深化乱埋乱葬专项治理工作实施方案》正在积极推行当中，为打好秦岭生态环境保卫战，巩固殡葬治理成果，切实推进殡葬改革提供了坚实可靠的依据。', '2022年市民政局印发了《关于开展“豪华”墓碑和“大坟头”整治工作的紧急通知》，联合市直11部门印发了《商洛市巩固和深化“活人墓”等突出问题整治规范工作实施方案的通知》，成立由市政府主管副市长任组长，市政府副秘书长、市民政局局长任副组长，市民政局、市委文明办、市中级人民法院等11部门主要负责同志为成员的全市巩固和深化“活人墓”“硬化大墓”等突出问题整治规范工作专班。与市政府签订了“全面开展‘豪华’墓碑和‘大坟头’整治并取得成效”的军令状”，并将整改工作列入全市重点工作予以督办，认真排查，建立台账，销号管理。', '2023年，在全市范围内开展为期60天全市墓地专项治理行动工作，由分管市长亲自挂帅，县区委政府一把手亲自抓，扎实开展集中攻坚行动，推动宣传动员、摸底建档、绿化遮挡、成效巩固等各项工作有力有序开展。同时，市民政局联合市资源局下发《关于在村庄规划编制中统筹布局村级公益性公墓通知》，要求各县区在编制村庄规划时，将村级公益性公墓建设列入重点规划内容，进行统筹布局规划。建立新建墓地报备制度，对新建墓地实行个人申请、村级审核、镇办备案，有效解决农村乱埋乱葬问题。市民政局联合市发改、科技、财政、自然资源、环境保护、住建、农业、林业等9部门，印发了《关于推进节地生态安葬的实施意见》，明确农村公益性公墓建设面积，行政村单独建设的公墓规划用地不宜超过5亩，联办公墓规划用地不宜超过20亩。骨灰公墓单（双）穴占地面积不得超过0.8平方米，遗体公墓单穴占地面积不得超过4平方米，双穴不得超过6平方米。火化区提倡建设骨灰公益性公墓，土葬改革区建设遗体公益性公墓，倡导遗体深埋、地表不留坟头。墓碑一律采取卧碑方式，碑长不超过60厘米，碑宽不超过50厘米，厚度不超过15厘米，倾斜度不超过15度。墓穴要统一规格，整齐划一，实行标准化；墓区要整体规划，做到“三季有花、四季常青”，实现园林化。', '一是通过多种形式强化文明殡葬宣传氛围，在微信公众号等媒体开设专栏、利用多媒体平台大力宣传《陕西省殡葬管理办法》、《商洛市区干部丧事处理规定》等殡葬法律法规。', '二是利用各种宣传活动和时机，通过设立宣传咨询台、发放宣传资料、现场问答解疑等形式开展殡葬政策宣传，倡导群众文明殡葬、文明祭祀、禁止乱埋乱葬。今年，市民政局联合市委文明办向全市干部群众发出《“爱我商洛 文明殡葬”倡议书》，各县区多形式多渠道持续深入开展宣传动员，共计印发宣传册、倡议书10.4万余册，制作横幅、标语1千余条，出动宣传车980余辆，利用大喇叭、微信公众号等加强宣传，充分发挥红白理事会、村民议事会等群众性组织作用，引导群众不攀比、不奢华，不大操大办，树牢“厚养薄葬、文明节俭”的殡葬新风尚。', '三是在传统重大祭祀节日期间，倡导广大市民朋友用低碳、安全、节俭祭祀鲜花祭扫方式代替传统的习俗来表达对逝去亲人的追思和缅怀，大力推广火葬，倡导群众对逝者进行花坛葬、草坪葬等节地生态型安葬。', '四是全市各村（居）委会将殡葬改革纳入村规民约，联合“红白理事会”教育和引导群众文明治丧，严禁大操大办;严禁使用明火进行祭祀活动，有效杜绝因祭祀发生森林火灾的发生，保护了生态环境。', '为进一步推动我市的殡葬改革工作，结合我市实际制定《商洛市党员干部带头推动殡葬改革的意见》充分发挥党员和干部在推动殡葬改革中的模范带头作用，要求其提高思想觉悟广泛向身边工作人员、家庭成员和亲朋好友宣传殡葬改革的重大意义、革除丧葬陋习、提倡绿色环保、文明节俭办丧事，推动殡葬改革工作。我市根据《陕西省关于困难群众的殡葬救助制度实施意见》，对救助对象、标准和程序提出了明确的要求，切实发挥殡葬改革在保障和改善民生中的重要作用。严格执行城乡低保户、流浪乞讨人员、无名尸、农村特困人员和重点优抚对象等五类人员的殡葬救助政策，即此类人员去世火化后，每人享受1000元的殡葬救助资金，惠民殡葬政策落地生根，对促进和谐社会建设起到重要作用。', '依照殡葬法规，村级公益性公墓建设应按照节约用地、美化环境、保护山林、保护水源地、统一规划、科学选址的原则。城乡公益性公墓建设选址应优先选择荒山、瘠地，不占用耕地、林地;禁止在铁路、公路主干线两侧可视范围内，水源保护区和水库、河流附近及景点景区和居民居住区等区域建设公墓。', '下一步，我局将按照“因地制宜、合理布局、方便群众”的原则，加大村级公墓建设力度，加强管理、加大殡葬宣传和执法力度，进一步规范农村群众的治丧行为，梳理总结农村殡葬问题，及时回应群众关切。', '（一）巩固治理效果。开展专项治理“回头看”，加强绿化苗木管护，提高苗木成活率。排查工作漏点，对整治不到位、不达标的墓地，夯实责任、加快进度，确保按期全面治理到位。同时，持续抓好新建墓地的控制，严格备案制度，确保全域违规墓地“零增长”。', '（二）抓好示范引领。在全市探索试点林地生态葬，结合县区实际，因地制宜采取小规模、多点位的方式，选择合适的林地开展试点，打造不同类型的村级林地公益性墓地示范点。加快补齐城乡公益性殡葬服务设施建设短板，完善火葬、殡仪服务功能。每个县区完成至少1个传统墓地绿化改造区域示范点、1个县级生态公园式公墓示范点、3个村级林地生态葬公益性公墓示范点建设。', '（三）持续深入宣传。持续宣传开展墓地治理工作的目的意义、政策要求，提高群众的知晓率、参与率。发挥村（居）委员会、红白理事会等组织作用，引导群众自觉抵制修建“活人墓”“硬化大墓”“隆丧重葬”等不良习俗，形成人人支持、人人参与墓地治理的良好氛围。', '（四）组织观摩学习。6月组织市、县区民政部门负责同志，在前期调研准备的基础上，带着问题有针对性地前往全国林地生态葬先进地区考察学习相关经验做法，破解推进林地生态葬难题。', '（五）开展移风易俗。对全市农村办理丧事进行改革和规范，成立农村办理丧事领导机构，出台管理办法，明确有关标准，革除丧事操办中的不良陋习，宣传文明殡葬新风，普及惠民殡葬政策，彻底把群众负担降下来。', '（六）探索长效机制。坚持长短结合、疏堵并举，在深入调研、多方征集民意基础上，制定出台村级公墓建设标准；结合考察学习成果和前期试点探索经验，制定林地生态葬实施方案；在统筹抓好墓地治理和示范点建设的同时，系统考虑拿出全市殡葬改革和殡葬服务机构优化管理的意见。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>274</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>培育电子信息产业链打造商州制造新名片区县资讯</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1126/130159.htm</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['今年以来，商州栖霞两地以园区共建为抓手，坚持高起点规划、高标准建设、高水平管理、高质量服务，盘活原有苏陕协作项目，转型创建商州区电子科技产业园，成功招引4家东部企业入驻园区，并落地建设，使得商州产业向高端化、智能化、绿色化转型升级。', '立足实际，挖潜拓新，走稳转型升级基础步。随着乡村振兴战略全面推进，发展壮大地区产业至关重要。过去脱贫阶段，为拓展贫困群众务工收入渠道，投入苏陕协作资金2500万元，建成了拥有7栋9.5万平方米标准化厂房的商州区产业脱贫示范园，主要引进劳动密集型企业，助力群众就近就业。由于园区缺乏科学的产业规划，早期引进入驻的企业质量参差不齐，产业类别五花八门，且技术含量低、市场竞争力低、生存能力弱，益贫带贫效果不佳。今年栖霞区对口帮扶商州区联络组坚持规划先行、东为西用，围绕商州五大产业集群和12条产业链发展，对园区以及周边产业基础、资源禀赋和企业状况进行深入调研，确定将电子信息产业作为产业园主导产业，建设商州区电子信息科技产业园。围绕打造产业集聚化、类型专业化产业园目标，园区还与栖霞高新区签订结对协议，建立常态化联络机制，积极学习借鉴栖霞高新区专业园区发展经验和管理服务理念。栖霞高新区紧盯辖区乃至东部企业投资动向，定期为园区推送所需的精准招商信息，今年已成功推送并招引4家东部企业入驻园区。', '专业定制，完善功能，走优载体建设固基步。园区原有厂房为通用型标准化厂房，配备了满足基本生产生活的水电，劳动密集型企业可以直接进驻生产。而联络组在对电子信息类企业生产特征进行研究后发现，此类企业对厂房的电气、通风、供暖有着较高要求，尤其一些高精尖项目对厂房的洁净程度要求更严。为此，园区深入实施“退、提、扩”三大工程，不断提升平台承载力。清退低质低效企业，用活用好园区退出机制，加快腾笼换鸟、资源整合，盘活低效用厂房，今年将3家不符合园区定位、技术含量低、产出效益差的企业清退出园区，为以后招引发展前景好、效益高的优质电子信息企业腾出环境空间。提升厂房功能性，今年支持苏陕协作资金800万元实施标准化配套设施提升工程，完成园区标准化厂房1.2万平方米制热制冷管道及设备安装和3.5万平方米厂房的消防通风设施建设，建设供热管道450米、支管道200米，保障入驻企业生产经营所需。扩展产业发展空间，坚持空间留白，对园区标准化厂房建设总量进行严格把控，紧盯龙头企业、高精尖产业厂房定制化、个性化需求，储备土地20亩，规划建设电子信息产业园二期工程，便于龙头企业的引进和入驻。', '主动出击，精准对接，走实招引落地关键步。两地围绕“东部企业+西部资源”“东部市场+西部产品”“东部总部+西部基地”“东部研发+西部制造”，着力提升专业招商队伍建设，邀请南京专家开展专题招商培训，破解“招什么、怎么招、如何落”难题。坚持“请进来”和“走出去”结合，邀请南京青企会等企业和组织来商对接考察，并多次赴南京等东部地区开展叩门招商、以商招商、园区招商，引进工业级无人机生产基地项目、LED半导体封装及应用项目、动力储能PACK封装锂电项目、半导体复合材料项目。目前，4个项目已经全部落地园区，总投资额达10亿元以上，可解决就业岗位550多个，其产品分布在电子信息产业链上下游各环节，园区产业链初具雏形。', '优化环境，协同发展，走好产业培育长远步。商州区在建好园区“硬件”的同时，还不断提升企业“软件”服务水平，园区选派人员赴栖霞高新区考察学习，转换思路、提升理念，更加靠前、更加精准、更加贴心服务企业，变企业“跑”政府转为政府“跑”企业，平均在2天内企业能完成备案、立项、办证等手续，极大为企业节省时间成本。完善联系服务企业制度，积极帮助企业协调解决建设生产中遇到的各类问题，保障生产要素不受疫情影响，跑出项目落地建设加速度，LED半导体封装及应用项目6个月建成投产。加强企业后期培育，构建园区“内外循环”的生态系统，充分利用园区企业产品资源，搭建企业合作平台，促进工业级无人机生产基地项目与动力储能PACK封装锂电项目达成合作意向。发挥企业宣传作用，通过落地企业的亲身经历和自发宣传推介，更好塑造园区对外形象和服务品牌，吸引链上企业进驻园区，经工业级无人机生产基地项目负责人介绍，园区正在对接洽谈深圳电动车制造项目。', '栖商产业园区给商州带来了一批发展前景广、效益好的产业项目的同时，通过不断夯实上游、壮大中游、拓展下游，构建了电子信息全产业链生态，打造了“商州制造”的新名片。（商州区发展改革局供稿）']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>274</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>我市开展林长制改革试点工作的探索商洛要闻</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-12-29</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/18678.htm</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['党的十八大以来，随着全社会对生态环境问题重视程度的不断提高，森林资源保护管理工作日益成为社会关注的热点，也成为行业管理工作的难点。多年来，森林资源保护和发展工作主要是林业部门在抓，林业部门一家的力量过于单薄，特别是机构改革后，林业部门在管理体制机制上存在诸多困难和问题，已不能适应中省对生态保护和发展工作的要求。森林资源保护发展已经进入由数量快速增长向高质量转变、由保护为主向保护经营并重转变、由传统管理手段向以信息化为支撑的现代化管理转变的新阶段。', '2016年4月，习近平总书记视察安徽时作出“要把好山好水保护好，着力打造生态文明建设的安徽样板，建设绿色江淮美好家园”的重要指示。2017年，安徽省全面推行建立林长制。紧接着，山东、江西等省份也全面推行林长制。2019年，国家林草局和省林业局分别提出，将着力构建最严格的森林资源保护发展制度体系，尽快出台林长制工作方案，全面推行林长制；同年2月，商洛市将建立林长制工作写入市政府工作报告；11月，市政府组成考察组赴安徽省滁州市考察学习林长制工作经验，随后在柞水县先行试点。', '今年4月20日，习近平总书记深入陕西考察秦岭生态环境保护和脱贫攻坚工作，首站来到柞水县，对位于秦岭山脉东段的牛背梁国家级自然保护区进行视察，称赞这里是“养在深闺人未识的天然氧吧”。习近平总书记强调，秦岭和合南北、泽被天下，是我国的中央水塔，是中华民族的祖脉和中华文化的重要象征。保护好秦岭生态环境，对确保中华民族长盛不衰、实现“两个一百年”奋斗目标、实现可持续发展具有十分重大而深远的意义。', '柞水县委、县政府为进一步贯彻落实习近平总书记来陕考察重要讲话精神，守护好秦岭绿水青山，当好秦岭生态卫士，加快推进改革试点，在全县全面推行林长制，取得了较好的成效。', '加强组织领导。成立了由县委书记任第一组长、县长任组长、县委副书记和常务副县长任副组长、相关部门负责人为成员的“柞水县林长制工作领导小组”，县委、县政府下发《柞水县推行建立林长制工作方案》，建立健全以党政领导负责制为核心的森林资源管理体系，实行党政主要领导同志总负责、同级领导同志分区负责、部门各负其责，逐级明确职责、层层压实责任。', '构建三级林长体系。按照“分级负责”原则，一是构建县、镇、村三级林长组织体系。总林长由县委主要领导担任、副总林长由政府主要领导担任；镇办林长、副林长由镇办党委、政府主要负责同志担任；村(社区)林长、副林长由村党支部书记和副书记分别担任。二是设立总督察长、督察长。总督查长由县政府分管副县长担任；督察长由县林业局局长、县环境局局长担任。三是建立“责任在县、运行在镇办、管理在村(社区)”的森林资源管理新机制，探索具有柞水特色、系统完整的生态文明建设制度体系，为全县经济社会发展提供良好的生态保障。', '明确职责目标。在推行林长制过程中，为了发挥各级“长”作用，一是明确县、镇、村三级林长工作职责。二是明确发展目标。按照“明确目标、落实责任、长效监管、严格考核”的要求，明确总体目标和阶段性目标，全面建成森林资源防御体系、森林生态修复体系，使森林资源的环境功能和生态功能得到充分释放，使全县林业创新能力明显增强，发展活力明显提高，产业结构明显合理，发展方式明显优化，质量效益明显提升，生态强县地位初步建立，实现绿水青山与金山银山有机统一，建设成为天更蓝山更绿水更清的美丽柞水。', '完善工作制度。县林长办印发柞水县县级林长五项制度，编制《柞水县森林资源管理工作指南》，从建立森林资源目标责任制、推行林长制、实行森林督查等三个方面建立起完整的森林资源管理体系，对各级林长在林地、林木、野生动植物、森林防火、森林病虫害防控、护林员上岗履职及巡山工作的落实等情况进行检查督查，发现问题及时督办，签发督办单，解决森林资源管理中的具体问题，要求下级林长及时纠正和整改。', '加强舆论宣传。县林长制办公室建立林长制工作微信群，及时了解镇、村级林长制工作新动态；在全县9个镇办、2个国有林场、森林公园、地质公园、重点经济林、重点生态修复区域设立林长公示牌101块，公布县、镇、村各级林长姓名、职务、职责和联系方式、管辖范围，接受群众监督和举报，在林区主要路口设立护林哨所23处。', '党政同责，履职尽责。县委、县政府聚焦三级林长，紧扣干部责任，拧紧责任螺丝，让各级林长知责明责、履责尽责，对标对表、督查督导，问效问责，推进林长制改革向基层延伸。有效调动各级干部兴林护林积极性，解决理念淡化、职责虚化、权能碎化、举措泛化等问题。各镇办各部门根据各自职责，突出抓重点、补短板、强弱项，林业工作举措更加精准务实，施策更加精准到位。', '组织健全，齐抓共管。传统的林业管理属于党委、政府领导下的林业部门单兵作战模式。林长制通过建立三级林长队伍体系和部门协同工作机制，全县共设立总林长、副总林长各1名，县级林长10名，镇级林长18名，村级林长162名，配备护林员1100名，责任民警81名，设立各级林长公示牌101块，将责任体系延伸至村级，打通资源管理责任落实的“最后一公里”，较好解决了责任不明确、管护不及时的问题。', '统筹治理，提升内涵。在推行林长制工作中，各镇办立足本地资源情况，各有侧重做好林与山、林与水、林与田、林与草的统筹文章，促进自然生态系统整体提升。同时把林长制与其他重点工作，特别是与全域旅游、脱贫攻坚、乡村振兴有机结合，同谋划、同推进、同落实，达到事半功倍的效果。县政府要求必须跳出林业抓林业，注重林业与其他工作的协同，不断赋予林业生态建设新的内涵，有效提升了整体工作水平。', '增绿护绿，富民强县。全面建立林长制绝不是“搞花样”“出新词”，重点在“增绿、护绿、用绿、活绿”上下功夫、做文章。突出抓好资源保护，加快推进绿化步伐，加强保护地体系建设，提升森林质量效益，发展绿色生态经济。鼓励林区农民自主经营，开展林下种植养殖、发展特色经济林及绿化苗木等，实现了“资源变资产、资产变资本、资本变资金”的可喜转变。采取“企业+合作社+基地+农户”模式，通过森林生态效益补偿、林地租金、劳务收入、合作分成及聘用生态护林员等多种形式，最终达到百姓富、生态美的有机统一。', '产业发展，效益彰显。建立林长制后，各级林长牵头谋划林业保护发展，将林业生态的产业链向下延伸、向服务业延伸，充分释放了林业的生态、经济和社会效益。林业效益显著提升，林业重点工程建设成效显著，区域绿化亮点纷呈，林果产业迅速发展，生态文化旅游康养成为柞水的又一张亮丽的名片。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>274</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>商洛市人民政府办公室印发关于进一步加强全市地方志工作的实市政府办文件</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1113/103634.htm</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['商洛市人民政府办公室印发关于进一步加强全市地方志工作的实施方案的通知-商洛市人民政府', '《关于进一步加强全市地方志工作的实施方案》已经市政府同意，现印发给你们，请认真贯彻落实。', '为深入贯彻落实习近平总书记作出的“要高度重视修史修志，把历史智慧告诉人们”的重要指示精神，进一步提高全市地方志工作质量，结合当前工作实际，特制定本实施方案。', '坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大、十九届历次全会和习近平总书记来陕考察重要讲话重要指示精神，认真落实市委四届十二次全会要求，围绕打造“一都四区”总目标，充分发挥地方志存史镜鉴、资政辅治、教化育人作用，不断提高志鉴编修质量，传承弘扬优秀传统文化，促进全市地方志事业再上新台阶，为全市经济社会发展贡献力量。', '1.推进地方志法治化建设。深入贯彻落实国务院《地方志工作条例》，精心编制“十四五”地方志事业发展规划，进一步建立健全地方志法治体系，强化地方志法治意识，规范志鉴编纂流程，严格执行编修制度，确保政治观点正确、结构合理、资料翔实、内容恰当、行文规范、印刷合规。', '2.规范地方志书审验流程。探索科学规范的审验方法，建立大纲审查验收机制，各县区地方志鉴编纂大纲经市地方志工作部门审定后报省地方志办公室验收，严格落实初审、复审和终审的“三审”制度，严把志鉴质量关。', '3.全面做好地方志书编修。系统总结评估二轮修志经验，科学研究制定三轮修志规划，为启动三轮修志做好资料收集、人员培训及理论准备等工作。积极组织推进部门志、行业志、专题志等编纂，努力打造精品志书。', '4.持续推进综合年鉴全覆盖。不断健全市、县区综合年鉴“一年一鉴、公开出版”长效机制，确保当年卷当年出版，支持和鼓励年鉴工作创新，开展年鉴质量评比活动，以及各类地方志优秀成果评选活动，全面提高年鉴编纂水平和质量，全力打造“精品年鉴”。', '5.深入开展旧志整理工作。编制旧志整理规划，分类整理旧志资料，加强与高校、档案馆等单位的交流与合作，认真开展旧志点校、提要、考录、辑佚等工作，留存和传承历史、鉴古资今，保持志书的延续性。', '6.加强资料收集整理常态化。建立健全资料收集整理常态化机制，提升志鉴组稿效率和质量，每年6月30日前各县区向市方志办提交上年度及本年度上半年经济、社会、人文、自然、重大项目及重点工作等方面图片资料不少于5类50张，图片应为原图，像素要求500万以上（或大于等于1MB）。', '1.积极融入资政文化服务。推出一批高质量的资政报告，为党委政府决策提供方志智慧。鼓励精编地方史、概览等地情书籍，为地方经济、形象宣传、学习培训服务。推动名山、名水、名街、名镇、名村等特色志书编纂，打造商洛地情文化品牌，为推动创建全国文明城市、国家全域旅游城市和经济社会发展服务。', '2.充分发挥方志存史价值。积极为地理原产地标识认证、名优土特产品牌塑造等提供佐证资料，助力脱贫攻坚和乡村振兴有效衔接。加强对商洛农耕文化和孝道文化等研究开发，鼓励指导有条件的村整理编纂村志村史，探索编纂乡土文化读物，指导镇办建设村史馆等，记录历史，留住乡村记忆。', '3.深入开展读志用志活动。围绕“我为群众办实事”，开展“方志六进”活动（进机关、进农村、进社区、进校园、进企业、进军营），通过摄影采风、主题展览、调研交流等多种形式，促进方志成果走向大众，增强百姓文化获得感。开展“志说商洛”活动，大力宣传方志文化，鼓励和倡导全社会知志、读志、用志，用方志语言讲好“商洛故事”。', '1.着力推进方志馆建设。按照《方志馆建设规定（试行）》（中指组字〔2017〕3号）要求，整合各类文化资源，采取新建、合建、融入等多种途径建设方志馆、图书角、村史馆等。通过交换、购买等方式，不断丰富和开发馆藏资源，逐步实现方志数据信息与图书等资源融合。', '2.完善方志信息化建设。健全完善全市地方志信息化工作机制，建设数字地情资料库，推进网上方志馆进程，提高志鉴数字化和编纂数字化水平。各县区地方志工作部门积极开设新媒体传播平台，加大与现代媒体合作力度，借助知名媒体平台每月向市方志办提供不少于2篇原生信息稿件，聚力弘扬商洛文化，传播方志强音。', '3.构建方志智能化服务平台。加强商洛地方志网站、“方志商洛”微信公众号建设，打造有影响力的市、县区微信公众号，不断为方志事业注入新的时代内涵。鼓励开发志鉴衍生产品，积极推出手机版、网络版智能化方志服务平台，把“大部头”变为“口袋书”，满足广大群众不同层次、不同类型的文化需求。', '1.提升干部队伍建设水平。建立常态化学习机制，大力提倡干部潜心钻研业务，采取自主培育、走出去、引进来等措施培养复合型人才。强化学术交流，着力培养一批理论精通、业务精湛的方志学科带头人，打造一支政治素质高、业务能力强、具有奉献精神，与新时代地方志事业相适应的人才队伍。', '2.探索建立方志专家库。整合动员社会力量为方志事业转型提质献计出力，鼓励文史专家、地情爱好者、文化传承人积极参与地方志工作，推进多层次、多形式的方志理论、地情文化研讨交流及考察学习活动，积极参加国家和省级各类地方志理论研讨会、培训会，开阔研究视野，提升工作水平。', '3.营造干事创业良好氛围。持之以恒推进党史学习、总结、教育、宣传等活动，坚定文化自信、筑牢历史记忆。健全干事创业的激励机制，开展地方志工作先进评比表彰活动，大力弘扬“勤快严实精细廉”的作风，汇聚起人心思齐、人心思进、人心思干的强大合力。', '（一）加强组织领导。地方志工作坚持党委统一领导、政府主持、地方志工作机构组织实施、社会各界广泛参与的工作体制，积极落实“一纳入、八到位”，健全“一年一鉴，公开出版”长效机制。强化市、县区地方志工作力量，结合实际创造性开展地方志工作，确保各项任务落实到位。', '（二）坚持依法治志。推动《地方志工作条例》贯彻落实，依法履行好组织、指导、督促和检查地方志工作职责，真正做到依法修志、用志、管志，不断提升地方志工作的法治化水平。强化依法治志意识，面向社会广泛宣传有关地方志工作法规规章，大力营造依法治志的良好社会氛围。', '（三）强化工作保障。健全完善地情资料收集管理制度、修志编鉴业务制度和主编责任制度，确保史志编纂有章可循、有序推进。建立督查通报机制，围绕“一纳入、八到位”情况、篇目设计、编纂进度、志稿质量、主编统稿等工作，组织编辑定期到各县区、各部门单位进行业务指导、过程督查，每半年全市通报进度，确保修志质量和进度，推动多出精品和佳志。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>274</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>新起点再出发奋力谱写商医高质量发展新篇章商洛市中部门动态</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/131420.htm</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['新起点 再出发 奋力谱写商医高质量发展新篇章 ——商洛市中心医院发展纪实-商洛市人民政府', '商洛，养在秦岭深闺的一方荟萃精华、聚合灵秀的生态宝地，商山之伟岸、洛水之清怡，孕育了中国康养之都的秀美。在这片美丽的土地上，有一所拥有80多年历史的三级甲等综合医院——商洛市中心医院。医院始建于1939年，集医疗、急救、预防、康复、教学和科研为一体，下辖一院三区，商洛市急救中心、传染病医院、精神卫生中心依托该院设置运营，是一所具有深厚历史底蕴和人文素养的医院。市委、市政府高度重视市中心医院建设发展，2022年，医院成功搬入新院区，医院发展就此驶入新赛道、跑出加速度、实现大跨越！', '1939年，陕西省卫生处派往商县的5人卫生队成立了商洛专署卫生所。5人卫生队的星星之火，于中华人民共和国成立前便为商医撒下希望的种子。80多年风雨兼程，商洛市中心医院扎扎实实抓业务，勤勤恳恳谋发展，学科架构日益健全，专业人才大量引进，医疗设备不断更新，医疗技术持续提升。在各级领导的大力支持下，历经几代商医人的不懈努力，2018年，全院上下一心，众志成城，一举通过三级甲等医院评审，实现了商洛三甲医院“零的突破”，迈上跨越式发展的快车道。', '市中心医院是我市医疗卫生服务体系的龙头，在引领全市卫生健康事业发展方面发挥着不可替代的重要作用。由于北新街院区地处城市老城区，占地面积狭小，建设用地枯竭，发展空间严重受限，医院的建筑规模、基础条件、基本功能、布局流程不符合国家综合医院建设标准和规范管理的要求，用地相差187亩、用房相差7.43万平方米，医院环境、设施条件、服务能力与广大人民群众的就医需求，与全市经济社会发展的要求不相适应，实施新院区建设重任在肩、迫在眉睫。', '进入新时代，习近平总书记指出：“要把保障人民健康放在优先发展的战略位置，推动公立医院高质量发展，为人民提供全方位全周期健康服务。”近年来，市委、市政府始终高度关心和支持市中心医院的建设发展，就新院区建设选址问题，曾多次进行现场调研、考察、征询意见。在各级领导的鼎力支持和推动下，2021年8月，市中心医院新院区建设被列入全市“双九”项目计划推动实施。', '大道如砥，大势如潮。在研究讨论项目建设方案的过程中，市上围绕“一都四区”建设，立足于商洛市情实际，着眼于合理配置医疗资源，加快改善人民群众就医环境、提升医疗服务水平，提出了购置商洛国际医学中心医院、整体搬迁市中心医院的建设办法。在多轮次沟通洽谈的基础上，2022年2月11日，市政府常务会议研究确立了购置方式、资产评估、资金筹措、人员安置等事项，新院区搬迁的宏图正式展开。', '医院要搬新家了！喜讯传来，全院上下闻令而动、情绪高昂，各项准备工作全面有序推进。新院区医疗功能布局、流程安排是一项基础性工作，商洛市中心医院高度重视，多次召开专题会议讨论研究，成立专门工作小组，开展调研论证、考察学习、意见拟定等工作。与此同时，市交投公司与西安国医签订股权转让框架协议，完成资产评估和财务、审计、法务尽职调查，谈判并签署转让合同等工作也同步进行。', '为保障业务科室搬入新院区后第一时间启动运行，后勤管理、设备维护、治安保障、网络调试、标识变更等基础支持性工作提前进驻开展。新院区搬迁攻坚时期，恰逢商洛本地疫情反复，全体商医人再次展现出不畏艰辛、勇往直前的奋斗精神，坚持疫情防控、新院区搬迁两手抓、两不误。“大干40天，顺利搬新院”不单是一句口号，更是一股坚强力量，引领全院上下同心前行。', '2022年11月5日上午9点，4辆大巴车、6辆救护车沿着文卫路北段一字整齐排开。肿瘤科、儿科、中医科等13个临床科室，医学检验科、医学影像科、医保办等11个医技科室及辅助保障部门，150多名住院患者全部安全、顺利入驻新院区。11月14日，超过90%的门诊在新院区开诊，其余业务科室也在医院的统筹安排下，有序、高效开启搬迁工作。2022年11月20日，所有科室及门诊全部搬迁到位，老院区正式停止运行，商洛市中心医院昂首迈入发展新纪元。', '搬入新院区不久，全国疫情防控工作进入新阶段。商洛市中心医院加快推进“保健康、防重症”各项举措，充分发挥新院区环境、空间、资源等优势，及时做好人员调配、物资储备、医疗救治等各项工作，以高昂的斗志和必胜的决心迎来第一波就诊高峰。2022年12月7日至2023年1月17日，市中心医院门急诊60550人次，累计入院患者5897人次，医院单日住院患者最高达到1953人。面对汹涌而来的就诊人潮，市中心医院领导班子统筹安排、精心部署，充分挖掘医院潜能，给予患者最好的医疗救治。与此同时，广大医务人员发扬轻伤不下火线的大医精神，即使自己还发着高烧，即使家里的老人、小孩没有人照顾，他们依然白衣执甲，坚守岗位，迎难而上，忘我奉献，全力以赴救治患者，为最大程度保护人民生命安全和身体健康作出了突出贡献。', '市中心医院新院区坐落于商鞅大道与朝阳路交会处，三面临街，占地201亩，总建筑面积22.7万平方米，规划床位1800张，是一所无围墙的大型现代化园林式医院。是国家级胸痛中心示范点和省级危重孕产妇救治中心、卒中中心、创伤中心，现有省级临床重点专科6个，市级重点专科及医疗质量控制中心45个。主诊疗区单体建筑面积18.2万平方米，由三幢呈三足式分布的12层单体楼组成，楼宇间通过四层连廊建筑相连，构成门诊医技区，五层以上为住院区。空中俯瞰，院区呈现以1号楼为中心、2至9号裙楼“C”形环绕的结构布局，功能完备，流程合理，处处体现着安全人性、舒适便捷、节能环保的设计理念。院区环境优美，郁郁葱葱、鸟语花香，充满盎然生机与健康活力。', '迁入新址后，市中心医院按照“以人为本、方便患者、学科整合、资源集中”的理念，对新院区进行总体规划布置，推行全院一张床服务模式。增设核医学科、高压氧科等新学科。引进了3.0T核磁、PETCT、直线加速器等大型医疗设备，基础办医条件显著改善，为实现医院高质量发展奠定了坚实基础。', '日月开新元，万象启新篇。市中心医院将以新院区搬迁投用为新的起点，围绕硬件一流、设备一流、技术一流、服务一流建设目标，大力实施新院区建设带动基础设施提档升级、五大中心建设带动学科技术提能强基、绩效考核与等级复审带动精益管理提质增效、党的建设带动医院发展提速扩容“四大工程”，持续推动医院高质量发展。站在新起点，奋进的商洛市中心医院再次扬帆起航，踏上新征程，攀登新高峰，谱写新辉煌。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>274</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>让中药成为大健康产业发展的千金方商洛要闻</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022-07-23</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/108691.htm</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['围绕如何构建完善中药产业链，助力大健康产业发展？7月19日至22日，市政协依托“政协·院校”合作交流平台，组织市政协委员和商洛学院教授，会同市直相关部门，深入山阳县、洛南县开展调研协商，赴铜川市高新区和耀州、宜君等地考察学习，望闻问切聚共识，把脉建言助发展。', '种子种苗是中药产业发展的命脉所在，要提升“商药”知名度，关键在于强苗固本、提升药材品质。', '这些年，全市划定中药材野生资源保护区，探索珍稀濒危野生中药材人工、半人工种植方法，推进丹参、连翘、天麻等大宗道地中药材良种选育，实施“商药”拳头产品国家地理标志认证……这些务实举措的落实，初步实现了全市道地药材的原种保存、传统品种的提纯复壮和良种的培育扩繁。', '育好苗，才能种好药。市政协常委寇立亚建议，实施中药材种子种苗生产经营许可制度，制定“商药”种子种苗市场准入办法，组织认定一批生产经营企业，注重生产、经营、流通等节点的监管，着力强化“商药”种子种苗源头工程。', '应开展轮作倒茬，保证药材品质。商洛学院生物学院副院长、副教授梁旭华认为，中药材连作会影响土壤中养分的平衡和酶活性的高低，可发挥市场“无形之手”的推动作用，推行适合当地药材品种的倒茬措施，实现种植基地的休养生息，巩固扩大标准化示范基地规模，提升商洛道地中药材产量和品质。', '采收时机直接影响药材品质。市中药产业发展中心副主任曹小军说，以连翘为例，近年来抢采收青现象比较突出，对药材的产量和质量影响较大。他建议，应根据“商药”的不同特性，组建研发专家团队，联合开展技术攻关，提高机械化种植范围，保证药材按最佳时机采收归仓。', '在商洛学院讲师贾朝看来，应聚焦中药材品质这个核心，在健全“商药”种植、加工等技术标准体系和技术规范，以及药材综合信息网和统计系统的基础上，进一步完善重点“商药”品种全过程质量管理和追溯体系，倒逼进行绿色化、生态化种植，努力提高“商药”的市场知名度和影响力。', '大健康产业是什么？商洛学院科技处处长、教授程敏认为，大健康产业涉及医疗产品、保健品、营养食品等多个与人类健康紧密相关的生产和服务领域。她建议，应加快中药材产业链与创新链、价值链的融合，以“十大商药”为重点，发展超临界二氧化碳萃取、超微粉碎、膜分离等技术，推进传统名优中成药品种二次开发及产业化技术升级，开发更多具有自主知识产权的新型医药保健产品，逐步满足群众对健康生活的需求。', '那么，怎样做好中医药文化的传播？市政协常委、研究室主任陈俊清建议，支持县区建设中医药文化特色街区和洛南“韦善俊药王庙”、柞水“药王堂”等历代名医纪念馆，引导必康、香菊、盘龙、泰华等企业建立“旗舰中医馆”或“中医堂”“中医阁”，鼓励商洛中医药企业优先加工利用道地“商药”，医疗机构优先使用“商药”中药饮片和中成药，推动中医中药协同发展，促进中医药文化传播和中医药品牌宣传推介。', '商洛学院讲师李世玺认为，随着老龄化社会的到来，人们越来越青睐药食同源的健康产品。他说，应充分发挥“商药”优势，加快富硒资源基础研究和应用开发，鼓励研发药酒、药茶、食用钙片等保健食品产业，支持餐饮企业联合科研机构、中医医疗机构开展药膳的研发推广。', '中医药健康旅游也是大健康产业的重点。市林业局副局长王敏表示，坚持以商洛丰富的中药材资源和中医药文化底蕴为载体，开发中医药观光旅游和养生保健、健康养老等项目，推动中医药文化、科技、产品等融入全域旅游产业，纳入国家级全域森林康养试点市建设内容，打造一批中医药特色小镇、养生体验馆、观赏基地等，努力使商洛成为“秦岭桃花源、深闺康养吧”。', '发挥政策引导作用，对于构建“大中药、全产业”模式，助力大健康产业发展，服务“一都四区”建设尤为重要。', '人才是产业发展的基石。市中药产业发展中心科长林伟锋建议，市县各类人才计划应加大对中药领域创新型科技领军人才和团队的资助力度，定期组织专业技术人员到省以上中医药、农林科技高等院校学习深造，支持商洛学院和必康、香菊、盘龙、泰华等医药企业联合培养专门人才，并将老药工炮制加工经验纳入中医药传承创新计划，着力培育实用型高端“中药工匠”。', '如何用好“资金”这味“药引”？程敏建议，设立政府引导、社会资本参与、市场化运作的中医药发展基金，提高市县财政中药产业发展专项扶持资金额度，倡导信贷资源优先向中药重大项目、重点种植户、重要企业倾斜，支持商业保险投资中医药大健康产业，努力使带着“药味”的各类资金发挥好“乘数效应”。', '“酒好也怕巷子深。”梁旭华认为，应加强“商药”品牌和中药产业的宣传力度，举办各种展销会、推介会，加快中药交易市场建设，推进“互联网+”行动计划，建立中药材大数据平台，努力让更多人知晓“商药”、投资“商药”、发展“商药”。', '健全中医药工作联席会议制度，培育壮大链主企业，实施产业准入负面清单，保障大型中医药企业用地需求，完善监管体系，优化营商环境……调研协商座谈会上，大家纷纷提出意见建议。', '中药产业既是乡村振兴的“助推器”，又是大健康产业发展的“千金方”。市政协副主席杨建军认为，应围绕中药产业链部署创新链、围绕创新链布局产业链，深化校企院企合作，壮大传统医药企业，引进新型现代化中药加工企业，加快“双链融合”步伐，推动中药产业高质量发展。他表示，应充分发挥政协智库和院校课研优势，提出可行性对策，形成最优化建议，为助力大健康产业发展、助推“一都四区”建设作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>274</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>产业驱动富百姓记全国脱贫攻坚先进集体山阳县农业农村局商洛要闻</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-03-16</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/17878.htm</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['阳春三月气象新，丰阳大地春耕忙。 3月8日，在山阳县延坪镇枫树村，种茶大户洪帮县和家人正在茶园里忙着松土、施肥、修剪茶树枝。茶树已吐出了嫩芽，碧绿苍翠，展现出一片勃勃生机。洪帮县是一位老党员，他当过兵，复员后担任村干部，为了帮助村民找到产业奔富路，他率先种植茶叶50多亩，严格按照国家绿色农产品标准，精细化管理茶园。在他的带领下，村上的茶园面积不断扩大，村民的腰包也鼓了起来，他的茶叶被认定为绿色产品并多次获奖，枫树村被评为全国“一村一品”示范村。 近年来，山阳县农业农村局在脱贫攻坚工作中以绿色循环发展为理念，坚持把产业扶贫作为稳定脱贫的根本之策，推动全产业链发展，念“山字经”，打“生态牌”，大力实施药菌果畜“4+X”特色产业工程，狠抓“十大脱贫产业”，大力推行“三带三创”产业扶贫和“2+X”村集体经济发展模式，2.67万户9.98万人通过产业扶贫受益，2.28万户9万多人通过产业扶贫实现精准脱贫。 产业带就业，贫困人口稳增收 3月5日，在高坝店镇过风楼村金鸡扶贫产业园入口，来自石桥村的程小波按照规范要求，用喷水枪给进入园区的车辆进行消毒。程小波今年53岁，年轻时在矿山打工时右胳膊致残，2016年被认定为贫困户。在政府部门和包扶单位的安排下，程小波进入金鸡扶贫产业园当保安，公司管吃住，月工资2500元，就业让他有了稳定的收入，一家人很快脱贫。 在金鸡产业园蛋鸡舍内，来自该镇鹃岭村沟口组的樊晓会正推着料车给鸡喂料。樊晓会是建档立卡贫困户，2018年被安排到园区当饲养员。“我们家原来也养过中蜂，但收效不大，一家人生活没有着落。到了产业园后，每天工作八小时，也不是很累。感谢政府引进的这个产业园，让我在家门口就能打工，既照看了老人和孩子，也有了经济来源。”樊晓会说。 据山阳县农业农村局局长任建宏介绍，金鸡扶贫产业园是山阳县采取政府投资建设施、企业租赁搞经营、资产收益带村、带贫困户的方式，与国务院扶贫办推荐的北京德青源公司合作建成的大型资产收益扶贫项目。县政府主要负责园区水、电、路、厂房等固定设施建设，北京德青源公司租赁经营15年。项目所在地过风楼、鹃岭、石桥3个村村集体每年各分红15万元。德青源公司目前直接提供就业岗位600多个，带动全县6719户无劳动能力贫困户和238个村集体经济组织收益分红，还开发设置公益性岗位2312个。 “金鸡扶贫产业园项目总投资5.13亿元，共建成120万只蛋鸡养殖区、150吨鸡粪翻抛车间、1万立方米沼气发电厂和5万吨有机肥厂、5.9兆瓦农光互补基地、10万吨饲料加工厂、2.3万吨蛋品深加工厂和100万套蛋托厂等项目。形成了闭环型全循环产业链。”德青源公司总经理张建峰补充说道。 突出特色，大力发展脱贫产业 在山阳县高坝店镇黄土凸村，回乡创业人员刘代筠多年前到福建、河南、山西等柿叶茶发源地考察学习，回乡把黄土凸村小沟的2000多亩荒山建成绿油油的柿叶茶基地。研发出的柿叶茶受到消费者青睐，成为山阳农业绿色发展的新秀，也为山阳脱贫产业做出了榜样。 “在山坡地种茶比种粮收入高多了，靠着茶产业，我们的日子越过越有奔头了。”漫川关镇莲花池社区农民许宏军说，自己依托山阳金桥茶叶公司种植茶叶1亩多，年收入4000多元。在该公司带领下，公司周边的甘沟、莲花等5个村3000多户村民共发展茶叶2万多亩，户均增收5000多元。 脱贫攻坚期间，山阳县农业农村局按照“部门扶持、镇办规划、村组组织、农户实施、技术干部指导”的模式，每年筹措资金统一采购茶叶种子500吨，免费分发到贫困户手中，有效激发了贫困户积极性，有力促进了产业发展。今年，全县新建茶园1.002万亩，茶园总面积达到16.91万亩，可采摘面积9.56万亩。据不完全统计，全县茶叶基地、企业及合作社通过带动发展、土地流转、吸纳就业、入股分红等方式，带动贫困户大约5000多户，户均增收1500元以上。全县累计发展中药材54.29万亩、林果133.68万亩、食用菌7000万袋、天麻2000亩、畜禽493.36万头(只)、中蜂6.48万箱、水产1250亩，建成光伏扶贫电站110处38.221兆瓦，4A级旅游景区3个、3A级旅游景区3个，国家级“一村一品”示范村3个，建成社区工厂、就业扶贫基地129个，镇村电商服务站133个。 招引培建，不断壮大经营主体 “自木耳产业园开工以来，我就在园区务工，平均月收入2000元，我们家在2019年就脱贫了。”3月8日，在位于山阳县高坝店镇的和丰阳光食用菌基地里，贫困户周希富一边干活一边说。像周希富一样，在食用菌产业园务工的贫困户占到了务工人员的89%以上。大力发展食用菌产业带动群众增收，成为山阳县脱贫攻坚的一大亮点。 山阳县把木耳产业作为打造特色现代农业增长极的重要支撑，按照强药、扩菌、稳果、优畜的思路，制定出台了《山阳县食(药)用菌产业扶持办法》，设立了1000万元产业发展基金，安排财政扶贫资金4000万元，落实黑木耳综合收益保险资金150万元。全县整合各类扶贫资金6000多万元，采取资产收益扶贫模式，由县扶贫投资公司统一建设标准化黑木耳大棚，租赁给各木耳企业经营。目前9个吊袋黑木耳基地的1500个大棚，全部由9家木耳企业租赁经营，每年可收回资产收益300万元，连同社区工厂资产收益项目，带动全县6719户特殊困难贫困户户均年分红500元，其中村集体100元，贫困户400元。目前，全县发展黑木耳3000多万袋，产值9000多万元，带动8000多户贫困户实现脱贫增收。 县上还立足山、水、林、矿等自然生态资源，古镇、古迹、民风、民俗等人文资源，以及丰富的人力资源、良好的区位优势，积极打好政策、资源、亲情和营商环境“四张牌”，招商引进中利腾晖、德青源、和丰阳光等外地企业，扶持培育陕西诚惠、商洛优源、山阳络亿等本地公司，回乡兴建基地、拓展业务，带动贫困户发展，促进经营主体做大做强。全县扶持培育市级以上龙头企业26家，发展农民专业合作社1215个、专业大户202个、家庭农场169个、职业农民1224人，累计建成现代农业园区34个(其中市级以上农业园区16个)、种植业扶贫基地292个、养殖业扶贫基地127个、林草业扶贫基地109个、农产品加工业扶贫基地51个、休闲农业和乡村旅游扶贫基地34个、特色手工业和其他扶贫基地149个、标准化食用菌大棚1500个。 “下一步，我们要以特色现代农业增长极为目标，围绕全县“4+X”特色产业工程和乡村振兴规划，持续推进脱贫产业发展壮大。同时，有效盘活农村闲散资源、资产，不断激发农业农村发展活力，促进山阳农业农村经济取得更多更好的发展。”山阳县农业农村局局长任建宏说。', '3月8日，在山阳县延坪镇枫树村，种茶大户洪帮县和家人正在茶园里忙着松土、施肥、修剪茶树枝。茶树已吐出了嫩芽，碧绿苍翠，展现出一片勃勃生机。洪帮县是一位老党员，他当过兵，复员后担任村干部，为了帮助村民找到产业奔富路，他率先种植茶叶50多亩，严格按照国家绿色农产品标准，精细化管理茶园。在他的带领下，村上的茶园面积不断扩大，村民的腰包也鼓了起来，他的茶叶被认定为绿色产品并多次获奖，枫树村被评为全国“一村一品”示范村。', '近年来，山阳县农业农村局在脱贫攻坚工作中以绿色循环发展为理念，坚持把产业扶贫作为稳定脱贫的根本之策，推动全产业链发展，念“山字经”，打“生态牌”，大力实施药菌果畜“4+X”特色产业工程，狠抓“十大脱贫产业”，大力推行“三带三创”产业扶贫和“2+X”村集体经济发展模式，2.67万户9.98万人通过产业扶贫受益，2.28万户9万多人通过产业扶贫实现精准脱贫。', '3月5日，在高坝店镇过风楼村金鸡扶贫产业园入口，来自石桥村的程小波按照规范要求，用喷水枪给进入园区的车辆进行消毒。程小波今年53岁，年轻时在矿山打工时右胳膊致残，2016年被认定为贫困户。在政府部门和包扶单位的安排下，程小波进入金鸡扶贫产业园当保安，公司管吃住，月工资2500元，就业让他有了稳定的收入，一家人很快脱贫。', '在金鸡产业园蛋鸡舍内，来自该镇鹃岭村沟口组的樊晓会正推着料车给鸡喂料。樊晓会是建档立卡贫困户，2018年被安排到园区当饲养员。“我们家原来也养过中蜂，但收效不大，一家人生活没有着落。到了产业园后，每天工作八小时，也不是很累。感谢政府引进的这个产业园，让我在家门口就能打工，既照看了老人和孩子，也有了经济来源。”樊晓会说。', '据山阳县农业农村局局长任建宏介绍，金鸡扶贫产业园是山阳县采取政府投资建设施、企业租赁搞经营、资产收益带村、带贫困户的方式，与国务院扶贫办推荐的北京德青源公司合作建成的大型资产收益扶贫项目。县政府主要负责园区水、电、路、厂房等固定设施建设，北京德青源公司租赁经营15年。项目所在地过风楼、鹃岭、石桥3个村村集体每年各分红15万元。德青源公司目前直接提供就业岗位600多个，带动全县6719户无劳动能力贫困户和238个村集体经济组织收益分红，还开发设置公益性岗位2312个。', '“金鸡扶贫产业园项目总投资5.13亿元，共建成120万只蛋鸡养殖区、150吨鸡粪翻抛车间、1万立方米沼气发电厂和5万吨有机肥厂、5.9兆瓦农光互补基地、10万吨饲料加工厂、2.3万吨蛋品深加工厂和100万套蛋托厂等项目。形成了闭环型全循环产业链。”德青源公司总经理张建峰补充说道。', '在山阳县高坝店镇黄土凸村，回乡创业人员刘代筠多年前到福建、河南、山西等柿叶茶发源地考察学习，回乡把黄土凸村小沟的2000多亩荒山建成绿油油的柿叶茶基地。研发出的柿叶茶受到消费者青睐，成为山阳农业绿色发展的新秀，也为山阳脱贫产业做出了榜样。', '“在山坡地种茶比种粮收入高多了，靠着茶产业，我们的日子越过越有奔头了。”漫川关镇莲花池社区农民许宏军说，自己依托山阳金桥茶叶公司种植茶叶1亩多，年收入4000多元。在该公司带领下，公司周边的甘沟、莲花等5个村3000多户村民共发展茶叶2万多亩，户均增收5000多元。', '“自木耳产业园开工以来，我就在园区务工，平均月收入2000元，我们家在2019年就脱贫了。”3月8日，在位于山阳县高坝店镇的和丰阳光食用菌基地里，贫困户周希富一边干活一边说。像周希富一样，在食用菌产业园务工的贫困户占到了务工人员的89%以上。大力发展食用菌产业带动群众增收，成为山阳县脱贫攻坚的一大亮点。', '山阳县把木耳产业作为打造特色现代农业增长极的重要支撑，按照强药、扩菌、稳果、优畜的思路，制定出台了《山阳县食(药)用菌产业扶持办法》，设立了1000万元产业发展基金，安排财政扶贫资金4000万元，落实黑木耳综合收益保险资金150万元。全县整合各类扶贫资金6000多万元，采取资产收益扶贫模式，由县扶贫投资公司统一建设标准化黑木耳大棚，租赁给各木耳企业经营。目前9个吊袋黑木耳基地的1500个大棚，全部由9家木耳企业租赁经营，每年可收回资产收益300万元，连同社区工厂资产收益项目，带动全县6719户特殊困难贫困户户均年分红500元，其中村集体100元，贫困户400元。目前，全县发展黑木耳3000多万袋，产值9000多万元，带动8000多户贫困户实现脱贫增收。', '县上还立足山、水、林、矿等自然生态资源，古镇、古迹、民风、民俗等人文资源，以及丰富的人力资源、良好的区位优势，积极打好政策、资源、亲情和营商环境“四张牌”，招商引进中利腾晖、德青源、和丰阳光等外地企业，扶持培育陕西诚惠、商洛优源、山阳络亿等本地公司，回乡兴建基地、拓展业务，带动贫困户发展，促进经营主体做大做强。全县扶持培育市级以上龙头企业26家，发展农民专业合作社1215个、专业大户202个、家庭农场169个、职业农民1224人，累计建成现代农业园区34个(其中市级以上农业园区16个)、种植业扶贫基地292个、养殖业扶贫基地127个、林草业扶贫基地109个、农产品加工业扶贫基地51个、休闲农业和乡村旅游扶贫基地34个、特色手工业和其他扶贫基地149个、标准化食用菌大棚1500个。', '“下一步，我们要以特色现代农业增长极为目标，围绕全县“4+X”特色产业工程和乡村振兴规划，持续推进脱贫产业发展壮大。同时，有效盘活农村闲散资源、资产，不断激发农业农村发展活力，促进山阳农业农村经济取得更多更好的发展。”山阳县农业农村局局长任建宏说。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>274</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>商南县人民政府年政府信息公开工作年度报告县区政府信息公开年度报告</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/3044/138190.htm</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》（以下简称《条例》）规定，按照《国务院办公厅政府信息与政务公开办公室关于印发&lt;中华人民共和国政府信息公开工作年度报告格式&gt;的通知》（国办公开办函〔2021〕30号）要求，现将商南县人民政府2023年政府信息公开工作年度报告予以公开发布。本报告所列数据的统计时间自2023年1月1日到12月31日。', '2023年，商南县人民政府坚持以习近平新时代中国特色社会主义思想为指导，认真学习领会党的二十大精神和习近平总书记重要讲话精神，坚定捍卫“两个确立”、坚决做到“两个维护”，聚焦县委、县政府中心工作，全面深化政府信息公开各项任务，以《政府信息公开条例》为遵循，通过线上线下多种渠道，圆满完成了政府信息公开各项工作任务。', '（一）主动公开政府信息情况。2023年，通过商南县人民政府网站、政务新媒体等平台，主动发布更新各类信息11796条，主要涉及组织机构、重要会议、乡村振兴等内容。其中通过“商南县人民政府”网站公开信息1543条、政务新媒体公开信息6617条、LED显示屏发布信息427份、其他报刊杂志发布信息1796条。', '（二）依申请公开情况。2023年全县共受理公民依申请公开政府信息51件，办结51件，办结率100%，均按照接收、登记、办理、答复、归档的规范流程，高质高效回复申请人，因政府信息公开引起的行政复议3件，行政诉讼案0件。', '（三）政府信息管理情况。一是规范政务公开属性。按照“谁起草、谁负责，谁审签、谁负责”要求，拟制公文时明确主动公开、依申请公开、不予公开等属性，随公文一并报批。二是严格落实公开前保密审查机制。定期对不予公开的信息以及依申请公开较为集中的信息进行全面自查，发现应公开未公开的信息应当公开，可转为主动公开的应当主动公开。三是完善公开后管理。对政务信息进行全生命周期的规范管理，根据立、改、废等情况动态调整更新，系统化管理政务信息，促进政务公开。', '（五）加强监督保障。建立健全政府信息公开审查机制,明确审查的程序和责任,指定一名分管领导负责审查信息,一名信息员负责发布信息。借助陕西省政府网站与政务新媒体监管平台，对政府网站、政务新媒体更新情况开展日常检查和重点抽查，对发现问题立即督促整改，确保信息内容准确规范。强化考核监督力度，将政务公开纳入全县各镇办、各部门年度目标责任考核，明确考核内容和评分标准，全面提升全县政务公开工作水平。', '（一）存在问题：一是部分镇办和部门工作力量薄弱，人员变动频繁，业务能力参差不齐；二是政务公开相关制度还需进一步规范和完善，信息审核把关仍需加强；三是一些部门对政府信息公开工作理解狭隘，导致工作动态公开的多，行业政策、部门文件公开的少，不能充分发挥政府信息公开对人民群众生产、生活和经济社会活动的服务作用。', '（二）改进措施：下一步,我县将按照省市要求从以下三个方面下功夫，推进政务公开工作再上新台阶。一是持续强化培训。通过集中培训、交流发言、座谈讨论、考察学习等形式，切实提高业务人员工作能力；二是严把公开质量。严格要求各部门坚持“三审三校”原则，充分利用“第三方平台+人工复核”方式，加强错别字、敏感词、等方面检测，确保公开内容准确规范。三是提升公开质效。按照《条例》规定及有关工作要求，重点加大对污染防治、居民就业、土地征收、安全生产、食品药品监管等重点领域的过程性政府信息公开力度，妥善处置依申请公开，高效处置群众的诉求，全面提升政务公开工作水平，以政府信息公开助力经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>274</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>西商融合情意浓医疗共享惠民生部门动态</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1125/138671.htm</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['市中心医院首批加入西京医院军民融合医联体，被授予“中华健康快车糖尿病视网膜病变筛查示范医院”，启动国家“光明中心”项目，开展眼科手术3140例，同比增长近10倍；市中医医院成功创建“三甲”医院并挂牌，同步开工建设国家重点中医特色项目，加入“西安市中医脑病专科联盟”，肛肠科、脑病科住院人次同比分别增长52.07%、46.32%；市妇幼保健院加入“西北辅助生殖专科联盟”，被评为国家区域中医儿科诊疗中心联盟成员单位，填补我市不孕不育技术空白，建成全市首家智慧孕产妇管理系统，能够提供个性化诊疗服务……2023年，市直3家医院综合服务能力大幅提升，门急诊、出院人次同比增长24.2%、55.4%。', '2023年，在市委、市政府的坚强领导下，市卫健委紧跟“一都四区”建设总步伐，抢抓西商融合机遇，立足卫健系统行业实际，与西安市卫健委协作实施西商医疗“技术同城、服务同质、资源同享”计划，推动西安市优质医疗资源辐射商洛地区，让两市群众共享西商融合协同发展成果。', '2023年2月23日，商洛市卫健委与西安市卫健委在西安签订西商医疗“三同计划”框架协议。市中心医院积极寻找突破口，结合工作实际，主动与西安市人民医院（西安市第四医院）、西京医院、西安交通大学第一附属医院等省内知名医院进行对接，达成共融、共进、同发展的共识。同时，研究制定《商洛市中心医院西商医疗三同计划工作实施方案》，按照“三同计划”的目标，成立工作专班，设立西商医疗融合发展办公室，安排专人负责具体办公，持续精准做好各项工作任务。', '在商洛市第二届乡党回乡发展大会上，市中心医院同西京医院、西安交大一附院签订合作协议。2023年2月底，与西安市人民医院（西安市第四医院）签订帮扶合作协议，确定将眼科作为重点帮扶项目，指导医院眼科学科建设。2023年5月，市中心医院院长李银山带领眼科、产科、泌尿外科等学科带头人，赴西安市人民医院进行深度对接，双方医院敲定下一步的互通互融工作计划，确定通过邀请专家来院坐诊、手术指导、人才培养、学术交流、远程诊疗等一系列帮扶协作机制，进一步增强学科影响力及知名度，更好地服务商洛群众。', '主动出击换来了双向奔赴。2023年6月8日，西安市人民医院院长石胜彬带领医院眼科、妇产等学科9位带头人来到市中心医院，召开座谈会，开展教学查房、现场培训，并向市中心医院授予“西安市人民医院（西安市第四医院）协作单位”牌匾。通过与省内医院建立战略协作关系，市中心医院的西商医疗融合工作迈出了坚实的步伐。', '2023年以来，在全市深度开展西商融合工作中，市中心医院主动作为，与西安市人民医院（西安市第四医院）、西京医院、西安交大一附院等医院建立协作关系，通过送出去、请进来、建立绿色通道等多种方式，主动融、深度融，有针对、有方向地提升相关科室业务技术能力，让商洛群众在家门口享受到省会医院的优质医疗服务。', '2023年12月28日，市中医医院国家三级甲等中医医院正式揭牌成立。由此，我市再添一家“三甲”医院，市中医医院也正式成为全市中医系统第一个、卫健系统第二个三级甲等医院。', '“创‘三甲’期间，我们医院先后引进西安市中医医院院内制剂30种1506盒投入临床应用，由于临床药效明显，获得广大患者的好评与支持。”市中医医院副院长马开颜说。马开颜分管医院的医疗、教学、科研工作，为积极考察交流，提升制剂水平，他带领药剂科同志前往西安市中医医院，就院内制剂研发和应用进行考察学习，并深入制剂室学习院内制剂的申报、加工等流程，为进一步促进医院院内制剂研发工作奠定了基础。', '2023年，在市委、市政府的领导和市卫健委的指导下，市中医医院成立西商医疗融合发展工作领导小组，制定《西商医疗融合发展工作方案》，并与西安市中医医院签订医疗合作协议，确定在专科建设、技术指导、人才培养、学术交流、远程会诊5个方面对市中医医院进行医疗帮扶协作，与陕西中医药大学第一附属医院、西安交通大学第一附属医院签订战略合作协议。医院成功加入了“西安市中医医院医联体”，签订“医联体协议”，建立了良好的沟通机制，为实现深度融合，持续提升商洛区域公共医疗服务水平。', '为进一步推动西安优质医疗资源下沉，市中医医院持续邀请陕中附院、陕西中医药大学、陕西省中医医院等4名专家定期来院坐诊，强化学术交流，让商洛百姓能够在家门口享受到西安专家的高质量医疗服务。同时，市中医医院共派出肛肠科、脑病科、针灸科、内分泌科、呼吸科、临床药学、产科、急诊科等15个科室的19名专业技术人员前往西京医院、唐都医院、西安交大一附院等医院进修学习，进一步提高了医院相关专业技术人员的诊疗技术和综合能力。', '2023年11月12日，8岁患儿小熙（化名）因肺炎入住市妇幼保健院儿科治疗满一周，根据病情需转上级医院进一步行支气管镜灌洗治疗。征得家长同意后，科室医生积极联系西商融合合作单位西安市儿童医院相关负责人，通过转诊绿色通道，当天将患儿小熙顺利转至西安市儿童医院，行气管镜灌洗治疗。', '“两家医院结成对子，无缝衔接给孩子看病，节省了我们转院的时间，减少了费用，给我们带来了实实在在的便利。”当小熙父亲张先生回想起孩子的这次就诊经历时特别感慨，尤其是带孩子复查时，西安市儿童医院专家还专门进行视频会诊，了解小熙康复情况，让他心里更加踏实了。', '市妇幼保健院把推进西商医疗融合发展工作作为贯彻落实市委、市政府重大决策部署，打破医院发展瓶颈、实现医院高质量发展的具体行动，抓住机遇，全力实施。组建西商医疗融合发展工作领导小组，制定印发《商洛市妇幼保健院2023年西商医疗三同计划工作实施方案》，还改造了专家公寓，配备基本生活设施、设备等，增添了办公设施设备及医疗设施，为专家在商工作提供食宿及生活保障。市妇幼保健院院长周宝玉说，在西安专家的指导与支持下，医院新设中西医结合科、不孕不育中心、中医科等科室，共建儿童呼吸哮喘共建专科、中西医结合共建专科、儿童保健共建专科等6个科室，采取师带徒形式培养骨干医师8名，选送医务人员37人进修学习，同时开展子宫内膜癌根治手术、中西医结合治疗腺样体肥大等新技术新项目13项，快速提高了医疗技术水平和服务能力。', '推进西商融合协同发展既是服务和落实国家区域协同发展战略的必然要求，也是西安和商洛高质量发展的现实需要，更是两市人民的共同期盼。', '为持续推进西商医疗融合协同发展，市卫健委高度重视，成立领导小组，夯实工作责任，形成主要领导亲自抓、分管领导具体抓、职能科室重点抓、相关科室配合抓的工作格局，全力推动落实西商两市政府《框架协议》。西商两市卫健委签订《西商医疗三同计划框架协议》，明确“三同”目标，建立联席会商、协作发展、互访交流三项机制，实施引育“名医”、共建“名科”、铸就“名院”计划，不断拓宽西商医疗融合的广度和深度，力争将我市“三甲”医院打造成省内有位次、市内一流的三级甲等医院。', '“2024年，我们将认真贯彻西商融合发展第二次党政联席会议精神，深入实施西商融合协同发展战略，做实‘名院、名科、名医’工程，优化协作交流机制，增强特色专科能力，不断提升综合服务水平。同时，积极拓展与各医院在综合管理、信息化建设、运营管理、科研创新等方面协作，助力市中心医院通过‘三甲’复审、市中医医院建成康养公园式医院、市妇幼保健院推进‘三甲’创建。”市卫健委主任马建琦表示，将积极实施“553”人才引培工程，引进领军人才10—13名，通过“师带徒”、外派进修等方式培育骨干人才20名，着力建强我市医疗人才队伍体系，持续加强学术交流，全力提高综合医疗服务能力，奋力开创西商融合协同发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>274</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>厚植新时代政协情怀书写高质量履职答卷商州区政协商洛要闻</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/131663.htm</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['厚植新时代政协情怀 书写高质量履职答卷 ——商州区政协2022年工作回顾-商洛市人民政府', '2022年6月30日，区政协主席会议成员、部分政协委员等组成视察组对商州区工业园区建设及发展情况进行带案视察。', '栉风沐雨，春华秋实。政协商洛市商州区第十五届委员会第二次会议于2月13日召开，来自全区的216名政协委员肩负责任和使命，齐聚一堂建真言、谋良策。', '时间记录前行足印、镌刻奋斗年轮。回首旧岁，履职、服务、担当成为区政协及其常委会工作的最美基色。2022年，全体委员围绕区委、区政府中心工作和群众关心关注的热点难点问题，提出政协提案231件，围绕政府、法检“两院”等工作报告，广泛协商议政，提出意见建议98条，梳理归纳为5方面33条；各党派团体和各族各界人士向区政协提交大会发言9篇、集体提案62件，撰写调研报告7篇，反映社情民意信息18条；主席会议成员赴项目现场督导检查100多次，协调解决困难问题140多个……', '数字无言，行动有声。翻开2022年的区政协履职日历，围绕中心、服务大局，关注民生、反映民情的一张张履职答卷，浓墨重彩、亮点纷呈。', '2022年，是中共二十大胜利召开之年，也是十五届区政协履职开局之年。一年来，区政协及其常委会坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻中共二十大精神，认真贯彻落实区第十九次党代会部署，坚持发扬民主和增进团结相互贯通、建言资政和凝聚共识双向发力、自身建设与能力提升协同推进，实现了本届政协履职的良好开局。', '区政协坚持重大事项向区委请示报告、重大活动报区委批准，累计报送请示报告、调研成果16次（篇）。全年召开政协党组会24次、主席会13次、常委会4次，做到区委有部署、', '全年组织中心组学习32次，举办委员全员培训班1期，依托委员工作室宣讲中共二十大精神5场次，通过多层次、多形式的政治理论学习，教育引导广大政协委员和政协干部旗帜鲜明讲政治、凝心聚力跟党走。', '依托5个专委会党支部，在全区政协组织创新开展“四带头四争做”党建主题活动，引领政协工作高质量发展。', '一年来，区政协协商议政的触角不断延伸，委员们参政议政的身影活跃在城市发展的各个领域。', '先后围绕全区重点项目建设、基层社会治理、防汛应急管理机制建设、旅游事业与康养之都建设融合发展、普惠性幼儿园建设、工业园区转型升级、企业用工难等专题开展视察调研协商工作，提出意见建议150多条，9篇调研成果受到区委、区政府领导高度重视。', '聚焦2022年一季度新开工项目建设，开展“聚焦项目·助力发展”集中视察，提出意见建议30多条。聚焦中心城区民生项目建设，开展专题视察，有力推动环城南路商州段、金凤山花海公园等一批民生项目建成投用。聚焦发挥委员个体监督作用，先后为区法院、检察院等相关部门单位，选派36名委员参与听证、监督等工作，发挥委员的监督职能，进一步扩大了政协民主监督的社会影响。', '围绕区委、区政府中心工作和群众关心关注的热点难点问题，提出政协提案231件，围绕政府、法检“两院”等工作报告，广泛协商议政，提出意见建议98条，梳理归纳为5方面33条。围绕“后疫情时代民营经济发展”“市政供暖进小区”“加强和完善小区物业管理”“禁止连翘掠青”开展微协商，提出意见建议33条，为推动民生问题解决提供了参考。', '一年来，各党派团体和各族各界人士向区政协提交大会发言9篇、集体提案62件，撰写调研报告7篇，反映社情民意信息18条，共同营造了团结和谐、助力发展的浓厚氛围。', '一年来，区政协始终坚持关注群众冷暖，谋利民之策、献安民之计，促进民生改善共享发展成果，在履职为民中彰显政协情怀。', '主席会议成员积极投身“三百四千”工程，联系包抓4个产业链和10个重点项目，赴项目现场督导检查100多次，协调解决困难问题140多个。10名常委、52名委员一线参与项目建设，发挥委员作用。', '越是困难时刻，越要冲锋到一线。围绕“8·15”等突发疫情，主席会议成员主动承担重点人群应急服务、隔离点管控、物资保障、“两站一口”管理值守，16名机关干部下沉小区值班值守，209名政协委员全员参与“外防输入、内防反弹”，组织委员捐款捐物30多万元，充分体现了非常时期政协委员、政协干部的政治担当。', '听民意、解民需，把实现人民对美好生活的向往作为政协履职的出发点和落脚点一直是政协坚持的工作方向。动员经济、工商联等界别委员积极捐款10.8万元，为困难群众购买生活必需品，支持困难农户生产生活改善提升。组织科技、医卫、文艺、特邀等界别委员开展关爱留守老人、资助困难大学生、文艺演出、普法宣传等活动19场次，惠及群众2万多人。', '研究出台《关于推动政协工作提质增效助力“五区”建设的意见》，探索搭建“四大平台”，开通“四个直通车”，不断拓宽履职渠道。积极与商洛学院、市委党校沟通联系，选聘10名专家教授担任协商顾问，为政协协商提供智力支撑。编报委员建言献策直通车7期、社情民意信息28条。区政协荣获市政协反映社情民意信息先进集体。', '围绕“一号”提案《关于实现工业园区转型升级，助推经济高质量发展的建议》，先后组织委员深入商州区工业园区相关企业和山阳县、洛南县相关产业园区，进行带案视察、考察学习和常委会专题协商。全年提案办复率、回访率均为100%，满意率达98%，推动了一批关乎经济发展、民生改善的重点工作得到落实。区政协“四个三”工作法在新闻媒体刊发推广，商州区荣获市政协提案工作先进单位。', '召开十五届区政协文史工作会议，编制《十五届区政协文史资料征集大纲》，编辑出版的第35辑《商州文史资料》被省、市、区图书馆作为重要地方文献资料重点收藏。向社会层面交流发放书籍500多册，向中华版本保藏国家馆西安分馆、榆林市府谷县政协赠送《商州文史资料》图书107册。编发的39篇视察、调研等信息，被省市等媒体刊发18篇，政协工作影响力不断扩大。', '打铁还需自身硬。一年来，区政协坚持把提升政协工作制度化、程序化、规范化水平摆在重要位置，积极探索实践，健全完善机制，为推动政协工作提质增效提供了坚强保障。', '进一步修订完善政协履职、内部管理等制度规则，推动政协履职工作有序高效。结合区政协工作实际，对政协常委会、主席会、委员管理办法等6项工作规则和制度进行修订完善，形成了以协商制度为骨干，以委员管理、服务保障、党建等为支撑的制度体系，夯实政协工作创新发展的制度基础。', '成立5个专委会学习组，印发《“书香政协”建设暨委员读书活动实施方案》，扎实开展委员读书活动，在学习交流中增长学识、拓宽视野、增强本领、凝聚共识。邀请市政协、市委党校专家教授，对全体委员和政协干部进行政治理论和政协业务知识培训，引导政协委员和机关干部知责于心、担责于身、履责于行，推动“两支队伍”扎实履职。', '印发《关于进一步规范十五届政协委员管理机制的意见》，把209名政协委员划分到5个专委会，成立5个工作组，加强委员教育管理和履职考核，探索建立结果运用机制，20名委员被区委表彰为优秀政协委员、6名委员被表彰为政协工作先进个人、10件政协提案被表彰为优秀提案。', '一年来，区政协及其常委会坚持把加强组织建设摆在更加突出的位置，着眼政协工作新方位新使命，着力抓弱项、补短板、优服务、强保障，全面强化政协组织建设。', '印发《委员工作室建设实施方案》，建成5个委员工作室，开展各类学习、协商活动23场次，使委员工作室成为委员学习交流的新园地、协商民主的新渠道、为民办事的新平台、联系群众的新纽带、汇智聚力的新舞台。', '研究制定巩固提升方案和《镇（街道）政协联络组活动指导办法》，巩固提升政协联络组7个，全区18个镇（街道）政协联络组全部达标，开展活动67场次，履职规范化水平有效提升，阵地、平台作用不断发挥。', '修订《专委会工作通则》，制定各专委会年度工作计划，明确工作任务和重点，实施清单化履责。主席会议定期听取专委会工作汇报，研究解决具体问题。发挥专委会基础性作用，组织开展走访委员181人次，协调解决委员生产生活困难和问题230多件，春节前夕走访慰问委员20名，有效激发了委员的履职主动性、积极性。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>274</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>集体经济大发展乡村振兴劲更足商洛要闻</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/17096.htm</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['五月的丰阳大地，苍山叠翠，碧水环流。食用菌大棚里，村民忙着采摘新长出的香菇、木耳；社区工厂里，机声隆隆，工人忙着加工产品；田间地头，产业基地到处都是一片忙碌的景象。 近年来，山阳县坚持把发展壮大村集体经济作为提升农村基层党组织组织力、推动乡村振兴的基础性工程来抓。结合当地资源禀赋和产业发展实际，制定出台了《山阳县发展壮大农村集体经济实施意见》等一系列支持村集体经济发展政策措施。依托县金鸡扶贫产业园、农光互补产业园项目输血和各村资源禀赋，探索推行“2+X”孵育村集体经济“造血”功能，创新推出城镇带动、资源资产、乡村旅游、政策依托、组织带动、产业发展等村集体经济发展“十大模式”，形成了一大批“食用菌产业”“高山有机茶产业”“服装加工”“电子产品组装”“农家乐”等村集体经济产业典型，带动全县村集体经济稳步发展。全县244个村每年获得收益2000多万元，聘请公益性岗位2312个，年工资总额970多万元。2020年年底，全县村集体经济总收入达到4647万元，村集体经济全部达到5万元以上。全部消除了村集体经济“空壳村”，舞动村集体经济大龙头，驱动村集体经济“蝶变”，有力增强了村党组织为民服务能力，为乡村振兴打下了坚实基础。 “五项措施”破解发展瓶颈 面对村集体经济薄弱、发展后劲不足、规模小等问题，山阳县委、县政府创新工作思路，积极探索村集体经济发展路径。经过县级领导的多次调研和考察学习，结合全县地理资源禀赋，确定了该县“2+X”集体经济的发展思路，2即：县级统筹财政资金给村集体经济组织配资入股到效益收入稳定的光伏电站和金鸡扶贫项目，以定额分红的形式带动集体经济收益稳步增长，X即各村结合地理资源优势，因地制宜发展“一村一品”，或“一镇一业”带动集体经济长远有效发展。 为进一步助推村集体经济发展，制定出台《山阳县激励村级干部发展壮大集体经济“五项措施”》。一是推行绩效考核。把村级集体经济收益列入村级班子和干部年度考核内容，对完成年度收益目标任务并且账务管理规范、资金支出合规、运行安全的村(社区)，经镇办考核，择优对村(社区)干部实行定额奖励。二是实行差异奖励。对生产经营类村级集体经济增加幅度较大(超任务50%以上)的村(社区)实行按比例奖励。奖励额度不超过超任务部分的20%，奖励资金按贡献大小分配。三是规范账务审核。由专业机构对村级集体经济项目属性、年度收入情况进行审核认定，明确县农业农村局、镇办对收入账务的监督责任，确保资金使用符合相关规定。四是丰富激励方式。对在发展村级集体经济方面作出突出贡献的村(社区)干部，优先推荐参加县级以上各类评优表彰，优先推荐作为各级“两代表一委员”人选，优先推荐招考公务员、事业单位工作人员。设立山阳县村级集体经济增收贡献奖。五是强化监督管理。严格村级集体经济发展项目的评估论证、决策管理，探索多元化发展模式和增收渠道，建立投资决策风险防控机制，切实降低经营风险。 五项措施的实施，产生了巨大效能，激励了干部担当作为。发展集体经济成效突出的3个镇、10个村、74名村级干部受到表彰奖励，全县244个村级党组织负责人全部兼任村级集体经济组织负责人，680多名村级干部参与到集体经济发展之中。五项措施强化了造血功能，鼓励村级集体经济大力发展经营性项目，全县244个村(社区)集体经济收入达5万元以上、131个村达到10万元以上，培育集体经济示范村30个。村级集体经济发展壮大，为村级党组织开展便民服务、表彰奖励、慰问帮困提供经济保障，切实增强了基层组织政治功能和组织力。 姚自国支书说：“现在，村里依托山阳天竺风景绿化苗圃公司，每年给村里分红12.4万元，咱村干部在人面前腰杆子也硬帮多了，说话也有分量了。村里有10多人长期在苗圃务工，4户从别村搬来的移民户进苗圃务工，有了稳定收入，苗圃每年为务工人员发工资15万元以上。” 村企共建凝聚发展活力 在发展村集体经济工作中，实行村(社)企共建、企企联建等模式，走抱团发展之路，逐步形成产业集群。依托法官64个移民搬迁安置点所在村(社区)，建成电子厂、玩具厂、工服加工厂、肠衣加工厂等扶贫车间，带动村级集体经济发展，带动搬迁群众就地就业，增加收入。依托漫川、法官、延坪、宽坪等镇丰富的茶叶资源，大力发展村集体茶叶产业，带动群众增收致富；依托和丰阳光龙头企业，在全县建设一个中心、十条流域、一百个园区的“一十百”工程，打造中国富硒黑木耳之乡，全县5000户贫困户发展食用菌产业，户均年增收1.2万元。 5月21日，笔者走进位于板岩镇庙台村的移民搬迁社区工厂——陕西青林实业有限责任公司车间，工人们正忙着加工板材。机声轰鸣中，一张张薄薄的木板被有序铺上流水线，通过压实、刷胶、烘烤成型，就变成了一张张生态木工板材。2018年年底，庙台社区依托当地资源优势，积极推行“社企共建”“村村联建”，推进“一企两厂带三村”抱团发展，实现了村集体经济稳定增收和当地群众就近就业的目标。 来自庙台社区的移民搬迁户冯定贤高兴地对记者说：“我家里有7口人，3个孩子两个老人，原来居住在石庄子村，日子过得很艰难。自从搬到了庙台社区移民搬迁安置点，被优先安排到社区工厂上班，月收入3000多元，还能享受到村集体经济分红，感谢党的好政策！感谢社区工厂让我们家脱了贫！” 庙台社区党支部书记卢满权说：“社区工厂现在已安置移民搬迁户50户，其中36户是贫困户，月工资在3000元至5000元之间，社区工厂每年可给社区分红13.8万元，我们将分红所得的收入拿出4万元救助社区30户贫困户，让他们的生活多一份保障。这要是在过去，村集体经济没有一分钱收入，咱村干部是看着群众有困难，但就是没办法。现在发展村集体经济，切实解决了很多过去没法解决的困难和问题。” 青林实业公司董事长党升林说：“公司给村上集体分红，让集体有了经济能力，基层党支部工作就好开展多了。我们公司和石庄子村合作，栽植速生杨400多亩，每年可给石庄子村分红5万多元，给青梁寨村分红5万元。” 为强化指导培训，不断规范运行。制定了《山阳县农村集体经济组织登记管理办法》《山阳县农村集体经济组织资金资产资源管理制度》，理顺了村股份经济合作社(集体经济合作社)与村办有限责任公司、农民专业合作社关系，针对村集体经济组织账务处理，专门为全县244个村购置了《农村集体经济组织会计培训教材》和会计账簿。先后召开镇村业务干部培训70多场次，每个季度深入镇、村进行业务指导，逐步规范集体经济运行。 大力实施“十百千”乡村产业振兴带头人培育工程，按照一个村10名、一个镇办100名、全县2000名产业发展带头人的思路，围绕培育构建现代农业产业体系、巩固脱贫攻坚成果、村级集体经济发展等内容，培养一批懂农业、善经营、会管理的乡村产业发展带头人队伍，推动村集体经济产业发展成规模、提档次、树品牌。先后组织村(社区)党组织书记、产业发展带头人、职业农民、第一书记赴浙江、南京、西安等地开展专题培训，拓宽视野，学习先进，提升发展村集体经济能力和水平。 兴办企业增添发展后劲 5月21日，在山阳县十里铺街办高一社区的陕西金翼服装有限公司车间，身着统一工装的产业工人正在生产服装。 山阳县十里铺街办人大主席、高一社区包村干部郭真权向我们介绍，金翼服装公司于2018年招商引资建设，作为易地搬迁移民、十二五规划搬迁移民和因地质灾害搬迁移民就业安置社区工厂，一期社区工厂已安排移民小区50岁以下86人就业，人均月收入2300元左右。二期计划投资1.3亿元，征地50亩，建筑厂房4万多平方米，建成后，可安置移民小区2000多人实现就业。 李小红一家4口人原住在高坝店镇赵家河村，搬到十里街办高一社区移民安置点后，她于2020年5月进社区工厂上班，现在月工资2700多元。高一社区李书慧家有6口人，属贫困户，到社区工厂工作后，月收入2000元至3000多元。 山阳县城关街办下河村利用财政扶持资金和农户入股资金在商州区购置门面房，每年给村集体带来近20万元的集体收入。法官镇法官庙村依托独特的山水田园风光，坚持产景融合、农旅一体化发展，成立乡村旅游开发公司，实行统一管理运营，大力发展乡村旅游业，2018年带动集体持续增收10万元、村集体提留公共积累3.3万元，贫困户分红4.8万元，非贫困户分红1.9万元。 山阳县在发展村集体经济中，加大财政扶持，撬动社会融资，累计投入村集体发展资金30913万元，其中：中央扶贫专项资金11000万元，中央扶持壮大村集体经济资金1300万，苏陕扶贫协作资金3000万元，省农业专项资金320万元，金鸡扶贫项目给村集体配资2297万元，光伏项目给村集体配资12996万元。坚持以“三变”改革为动力、以“三带三创”模式推广为举措，大力实施“百企联百村带万户”精准扶贫，创造条件，吸引在外创业成功人士返乡创业，招商引资各类经营实体76家，融资6080万元，参与集体经济发展。', '近年来，山阳县坚持把发展壮大村集体经济作为提升农村基层党组织组织力、推动乡村振兴的基础性工程来抓。结合当地资源禀赋和产业发展实际，制定出台了《山阳县发展壮大农村集体经济实施意见》等一系列支持村集体经济发展政策措施。依托县金鸡扶贫产业园、农光互补产业园项目输血和各村资源禀赋，探索推行“2+X”孵育村集体经济“造血”功能，创新推出城镇带动、资源资产、乡村旅游、政策依托、组织带动、产业发展等村集体经济发展“十大模式”，形成了一大批“食用菌产业”“高山有机茶产业”“服装加工”“电子产品组装”“农家乐”等村集体经济产业典型，带动全县村集体经济稳步发展。全县244个村每年获得收益2000多万元，聘请公益性岗位2312个，年工资总额970多万元。2020年年底，全县村集体经济总收入达到4647万元，村集体经济全部达到5万元以上。全部消除了村集体经济“空壳村”，舞动村集体经济大龙头，驱动村集体经济“蝶变”，有力增强了村党组织为民服务能力，为乡村振兴打下了坚实基础。', '面对村集体经济薄弱、发展后劲不足、规模小等问题，山阳县委、县政府创新工作思路，积极探索村集体经济发展路径。经过县级领导的多次调研和考察学习，结合全县地理资源禀赋，确定了该县“2+X”集体经济的发展思路，2即：县级统筹财政资金给村集体经济组织配资入股到效益收入稳定的光伏电站和金鸡扶贫项目，以定额分红的形式带动集体经济收益稳步增长，X即各村结合地理资源优势，因地制宜发展“一村一品”，或“一镇一业”带动集体经济长远有效发展。', '为进一步助推村集体经济发展，制定出台《山阳县激励村级干部发展壮大集体经济“五项措施”》。一是推行绩效考核。把村级集体经济收益列入村级班子和干部年度考核内容，对完成年度收益目标任务并且账务管理规范、资金支出合规、运行安全的村(社区)，经镇办考核，择优对村(社区)干部实行定额奖励。二是实行差异奖励。对生产经营类村级集体经济增加幅度较大(超任务50%以上)的村(社区)实行按比例奖励。奖励额度不超过超任务部分的20%，奖励资金按贡献大小分配。三是规范账务审核。由专业机构对村级集体经济项目属性、年度收入情况进行审核认定，明确县农业农村局、镇办对收入账务的监督责任，确保资金使用符合相关规定。四是丰富激励方式。对在发展村级集体经济方面作出突出贡献的村(社区)干部，优先推荐参加县级以上各类评优表彰，优先推荐作为各级“两代表一委员”人选，优先推荐招考公务员、事业单位工作人员。设立山阳县村级集体经济增收贡献奖。五是强化监督管理。严格村级集体经济发展项目的评估论证、决策管理，探索多元化发展模式和增收渠道，建立投资决策风险防控机制，切实降低经营风险。', '五项措施的实施，产生了巨大效能，激励了干部担当作为。发展集体经济成效突出的3个镇、10个村、74名村级干部受到表彰奖励，全县244个村级党组织负责人全部兼任村级集体经济组织负责人，680多名村级干部参与到集体经济发展之中。五项措施强化了造血功能，鼓励村级集体经济大力发展经营性项目，全县244个村(社区)集体经济收入达5万元以上、131个村达到10万元以上，培育集体经济示范村30个。村级集体经济发展壮大，为村级党组织开展便民服务、表彰奖励、慰问帮困提供经济保障，切实增强了基层组织政治功能和组织力。', '姚自国支书说：“现在，村里依托山阳天竺风景绿化苗圃公司，每年给村里分红12.4万元，咱村干部在人面前腰杆子也硬帮多了，说话也有分量了。村里有10多人长期在苗圃务工，4户从别村搬来的移民户进苗圃务工，有了稳定收入，苗圃每年为务工人员发工资15万元以上。”', '在发展村集体经济工作中，实行村(社)企共建、企企联建等模式，走抱团发展之路，逐步形成产业集群。依托法官64个移民搬迁安置点所在村(社区)，建成电子厂、玩具厂、工服加工厂、肠衣加工厂等扶贫车间，带动村级集体经济发展，带动搬迁群众就地就业，增加收入。依托漫川、法官、延坪、宽坪等镇丰富的茶叶资源，大力发展村集体茶叶产业，带动群众增收致富；依托和丰阳光龙头企业，在全县建设一个中心、十条流域、一百个园区的“一十百”工程，打造中国富硒黑木耳之乡，全县5000户贫困户发展食用菌产业，户均年增收1.2万元。', '5月21日，笔者走进位于板岩镇庙台村的移民搬迁社区工厂——陕西青林实业有限责任公司车间，工人们正忙着加工板材。机声轰鸣中，一张张薄薄的木板被有序铺上流水线，通过压实、刷胶、烘烤成型，就变成了一张张生态木工板材。2018年年底，庙台社区依托当地资源优势，积极推行“社企共建”“村村联建”，推进“一企两厂带三村”抱团发展，实现了村集体经济稳定增收和当地群众就近就业的目标。', '来自庙台社区的移民搬迁户冯定贤高兴地对记者说：“我家里有7口人，3个孩子两个老人，原来居住在石庄子村，日子过得很艰难。自从搬到了庙台社区移民搬迁安置点，被优先安排到社区工厂上班，月收入3000多元，还能享受到村集体经济分红，感谢党的好政策！感谢社区工厂让我们家脱了贫！”', '庙台社区党支部书记卢满权说：“社区工厂现在已安置移民搬迁户50户，其中36户是贫困户，月工资在3000元至5000元之间，社区工厂每年可给社区分红13.8万元，我们将分红所得的收入拿出4万元救助社区30户贫困户，让他们的生活多一份保障。这要是在过去，村集体经济没有一分钱收入，咱村干部是看着群众有困难，但就是没办法。现在发展村集体经济，切实解决了很多过去没法解决的困难和问题。”', '青林实业公司董事长党升林说：“公司给村上集体分红，让集体有了经济能力，基层党支部工作就好开展多了。我们公司和石庄子村合作，栽植速生杨400多亩，每年可给石庄子村分红5万多元，给青梁寨村分红5万元。”', '为强化指导培训，不断规范运行。制定了《山阳县农村集体经济组织登记管理办法》《山阳县农村集体经济组织资金资产资源管理制度》，理顺了村股份经济合作社(集体经济合作社)与村办有限责任公司、农民专业合作社关系，针对村集体经济组织账务处理，专门为全县244个村购置了《农村集体经济组织会计培训教材》和会计账簿。先后召开镇村业务干部培训70多场次，每个季度深入镇、村进行业务指导，逐步规范集体经济运行。', '大力实施“十百千”乡村产业振兴带头人培育工程，按照一个村10名、一个镇办100名、全县2000名产业发展带头人的思路，围绕培育构建现代农业产业体系、巩固脱贫攻坚成果、村级集体经济发展等内容，培养一批懂农业、善经营、会管理的乡村产业发展带头人队伍，推动村集体经济产业发展成规模、提档次、树品牌。先后组织村(社区)党组织书记、产业发展带头人、职业农民、第一书记赴浙江、南京、西安等地开展专题培训，拓宽视野，学习先进，提升发展村集体经济能力和水平。', '5月21日，在山阳县十里铺街办高一社区的陕西金翼服装有限公司车间，身着统一工装的产业工人正在生产服装。', '山阳县十里铺街办人大主席、高一社区包村干部郭真权向我们介绍，金翼服装公司于2018年招商引资建设，作为易地搬迁移民、十二五规划搬迁移民和因地质灾害搬迁移民就业安置社区工厂，一期社区工厂已安排移民小区50岁以下86人就业，人均月收入2300元左右。二期计划投资1.3亿元，征地50亩，建筑厂房4万多平方米，建成后，可安置移民小区2000多人实现就业。', '李小红一家4口人原住在高坝店镇赵家河村，搬到十里街办高一社区移民安置点后，她于2020年5月进社区工厂上班，现在月工资2700多元。高一社区李书慧家有6口人，属贫困户，到社区工厂工作后，月收入2000元至3000多元。', '山阳县城关街办下河村利用财政扶持资金和农户入股资金在商州区购置门面房，每年给村集体带来近20万元的集体收入。法官镇法官庙村依托独特的山水田园风光，坚持产景融合、农旅一体化发展，成立乡村旅游开发公司，实行统一管理运营，大力发展乡村旅游业，2018年带动集体持续增收10万元、村集体提留公共积累3.3万元，贫困户分红4.8万元，非贫困户分红1.9万元。', '山阳县在发展村集体经济中，加大财政扶持，撬动社会融资，累计投入村集体发展资金30913万元，其中：中央扶贫专项资金11000万元，中央扶持壮大村集体经济资金1300万，苏陕扶贫协作资金3000万元，省农业专项资金320万元，金鸡扶贫项目给村集体配资2297万元，光伏项目给村集体配资12996万元。坚持以“三变”改革为动力、以“三带三创”模式推广为举措，大力实施“百企联百村带万户”精准扶贫，创造条件，吸引在外创业成功人士返乡创业，招商引资各类经营实体76家，融资6080万元，参与集体经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>274</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>商洛市人民政府印发关于建立粮食生产功能区实施方案的通知市政府文件</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1112/42911.htm</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['《关于建立粮食生产功能区实施方案》已经市政府2018年第8次常务会议审议通过，现印发你们，请认真贯彻执行。', '为进一步优化农业生产布局，推进粮食产区精细化管理，根据《陕西省人民政府关于建立粮食生产功能区的实施意见》（陕政发〔2017〕56号），结合我市实际，特制定本方案。', '认真贯彻落实党的十九大精神，牢固树立创新、协调、绿色、开放、共享发展理念，坚持藏粮于地、藏粮于技战略，以确保粮食安全为目标，以深入推进农业供给侧结构性改革为主线，以永久基本农田为基础，选择水土资源条件较好、相对集中连片、生态环境良好、农业基础设施完善和具有粮食种植优势的耕地划定为粮食生产功能区，优化区域布局和要素组合，提高粮食综合生产能力和市场竞争力，为实现乡村振兴，全面建成小康社会奠定基础。', '2018年完成划定任务，全部建档立卡、上图入库，实现信息化和精准化管理；力争用5年时间基本完成建设任务，形成布局合理、数量充足、设施完善、产能提升、管护到位、生产现代化的粮食生产功能区，粮食安全的基础更加稳固，农业产业安全显著增强。', '（1）制定工作方案（2018年4月）。依据《商洛统计年鉴》2014-2016年三年平均粮食播种面积和现有永久基本农田面积等因素，分解各县区划定任务；组织编制粮食生产功能区划定工作方案，明确目标任务、工作步骤和时间安排，规范工作流程。各县区在2018年4月20日前将任务划分到镇办村组，并将工作方案分别报送市农业局、市国土局、市发改委。', '（2）开展技术培训（2018年4月）。组织相关人员认真学习全省粮食生产功能区划定技术规程，对县、镇业务人员进行技术培训，组织赴外地考察学习，确保准确掌握划定的内容、方法和程序，熟练技术规程、硬件设备和应用软件操作。', '（3）基础资料收集（2018年4月）。基础资料实行多部门分工协作联合收集。国土部门提供永久基本农田划定、最新土地利用变更调查成果、高标准农田建设相关资料等；农业部门提供农村承包土地确权登记颁证成果形成的最新图件、数据库、遥感影像、文本、说明以及耕地质量等资料；发改部门提供农产品主体功能区、高标准农田相关规划等文件资料。各部门将资料收集后，交由县区领导小组办公室统一汇总，在确保数据安全不泄密的基础上，做到信息互通、资源共享。', '（4）招标确定技术单位（2018年4月）。招标确定有资质的第三方技术支撑和测绘作业单位，采购划定所需的软件及必需的设施设备。', '（5）实地调查摸底（2018年5月）。各县区按照划定标准和任务，开展实地调查摸底，初步确定粮食生产功能区地块边界、片块和整体分布。', '（6）绘制工作底图（2018年6月-8月）。以永久基本农田划定、农村土地承包经营权确权登记形成的图件、数据等为基础，通过底图制作、统一编码、实地勘查、面积量算、图面整饰、分布图编制等，形成完整体现全县区图廓内外要素、数学基础、行政区划要素、地形要素以及粮食生产功能区要素的图件。对划定地块的农业基础设施状况、作物类型、承包经营主体、土地流转情况等相关信息进行全面登记造册。', '（7）公示公告（2018年9月）。公示公告实行两轮公示制，每轮公示不少于7天。将所划定功能区的图件和说明形成公示公告材料，经镇办、村核实后，张榜公示公告。公示公告过程中提出异议的，应及时进行踏勘、测量、核实、修正，并再次进行公告公示。公示无异议后，进行整理入档。', '（8）检查验收（2018年10月）。按照粮食生产功能区划定质量检查细则，采取县区级自查、市级核查、省级终验的程序，开展数据资料和图件质量检查。县区级按照划定面积100%的比例进行自查自验，市级按照每县区划定面积50%以上比例进行核查。', '（9）归档管理（2018年11月）。建立档案管理制度，各县区及时会同档案管理部门，按照相关要求明确粮食生产功能区划定档案的整理、归档、管理和使用。', '（10）数据汇交（2018年12月）。以县区为基本单元，按照数据库成果汇交要求，对划定工作成果进行全面汇总，确保图件、数据、资料的完整性和有效衔接，并向市农业局报送任务完成进度情况和划定成果。市农业局与市国土局、市发改委组成联合考核组对各县区上报数据库进行质量检查，并及时汇总有关文档、电子数据等资料，报省农业厅、省国土厅和省发改委备案。', '粮食生产功能区划定应同时具备以下条件：水土资源条件较好的永久基本农田；相对集中连片，丘陵地区连片面积不低于20亩；农田灌排工程等农业基础设施比较完备，生态环境良好，未列入退耕还林还草范围；具有粮食和重要农产品的种植传统，近三年播种面积基本稳定。光、热、水、土质量好的优质地块，已建成或规划建设的高标准农田，生产潜力较大的地块优先划入粮食生产功能区。', '1.强化综合生产能力建设。按照统筹规划、因地制宜、集中连片、旱涝保收、稳产高产、生态友好的要求，加强粮食生产功能区综合生产能力建设，实现“田成方、渠相连、路相通、涝能排、旱能灌”目标。要以高标准农田建设和土地整治为依托，加强骨干水利工程和中小型农田水利设施建设，因地制宜兴建“五小水利”工程，大力发展节水灌溉，打通农田水利“最后一公里”。', '2.发展适度规模经营。以粮食生产功能区为平台，培育种粮大户、家庭农场、农民合作社、产业化龙头企业等新型经营主体，健全农村经营管理体系，加强对土地经营权流转和适度规模经营的管理服务。鼓励采用土地股份合作、土地托管、代耕代种等多种方式发展适度规模经营，力争5年内，粮食生产功能区适度规模经营率高出全市平均水平5个百分点以上。支持新型农业经营主体按项目管理规定申报和实施财政支农项目，优化生产结构，增加优质粮食供给。', '3.提高农业社会化服务水平。适应现代农业发展的要求，着力深化粮食生产功能区的基层农技推广机构改革，构建覆盖全程、综合配套、便捷高效的农业社会化服务体系，提升农技推广和服务能力。立足全产业链开发，加强良种繁育基地、粮食收储中心、加工中心和社会化服务主体建设，提高粮食产前、产中、产后综合社会化服务水平，推进规模经营、结构调整，促进精深加工、品牌打造、市场营销，提升粮食产业效益。以粮食生产功能区为重点，深入开展绿色高产高效创建，加快优良品种、高产栽培技术普及应用。', '1.坚持依法保护。根据农业法、土地管理法、基本农田保护条例、农田水利条例等法律法规要求，完善粮食生产功能区保护相关制度。根据当地实际需要，积极推动制定粮食生产功能区监管方面的规章制度，健全功能区资产管护机制。加强粮食生产功能区内永久基本农田管理，确保数量不减少、质量有提高。粮食生产功能区的耕地原则上不得占用，因重大项目确需征占的耕地，必须按“占优补优、先补后占、占补平衡”的要求执行。', '2.落实管护责任。各县区要按照“谁使用、谁受益、谁管护”的原则，将粮食生产功能区地块的农业基础设施管护责任落实到经营主体，督促和指导经营主体加强设施管护。创新建管机制，鼓励农民、农村集体经济组织、农民用水合作组织、新型经营主体等参与粮食生产功能区建设、管理和运营。建立激励约束机制，将各地粮食生产功能区资产管护情况作为分配财政支农相关专项资金的重要因素。管护经费原则上由管护主体负责筹集，财政可给予适当补助。', '3.加强动态监测。综合运用现代信息技术，建立粮食生产功能区监测监管体系，定期对其范围内农作物品种和种植面积等进行动态监测，深入分析相关情况，实行精细化管理。建立粮食生产功能区信息报送制度，及时更新电子地图和数据库。建立健全数据安全保障机制，落实责任主体，在保证信息安全的前提下，开放电子地图和数据库接口，实现信息互通、资源共享。', '1.增加基础设施建设投入。把粮食生产功能区作为农业固定资产投资安排的重点领域，高标准农田、土地整治、新增千亿斤粮食生产能力田间工程、农业综合开发、农业生产发展项目、水利发展项目、大中型灌区续建配套及节水改造等建设投资要倾斜安排。逐年提高财政资金投入，集中项目资金整镇推进高标准农田建设。积极探索利用PPP模式等投融资新机制，吸引社会资本投入，加快粮食生产功能区建设步伐。', '2.完善财政支持政策。认真落实粮食主产区利益补偿机制，进一步优化财政支农结构，创新资金投入方式和运行机制，推进粮食生产功能区各类涉农资金整合和统筹使用。以粮食生产功能区为重点，率先建立以绿色生态为导向的农业补贴制度。落实粮食功能区划定、上图入库等经费，确保相关划定和建设工作顺利开展。', '3.创新金融支持政策。鼓励金融机构完善信贷管理机制，创新金融支农产品和服务，拓宽抵质押物范围。鼓励金融机构在粮食生产功能区内探索开展粮食生产规模经营主体营销贷款试点，加大信贷支持力度。健全大灾风险分散机制，完善政府、银行、保险公司、担保机构联动机制，在粮食生产功能区探索农产品价格和收入保险试点，推动粮食生产功能区农业保险全覆盖。', '市发改委要加强统筹协调，支持粮食生产功能区农业基础设施建设，适时组织第三方评估。市财政局要加强财政资金统筹和整合，优化使用方向，安排必要的工作经费，加大对粮食生产功能区划定、建设工作的支持力度。市农业局、市国土局要会同有关部门确定各县区划定任务，制定相关划定、验收、评价考核操作规程和管理办法，共享现有的耕地资源一张图及永久农田划定成果，做好上图入库工作。市金融办、人民银行商洛分行、商洛银监局、商洛保监局等单位要积极探索创新和督促落实相关金融支持政策。', '各县区要认真做好信息报送工作，每月5日以前通过监测系统报送工作进展情况，坚决杜绝迟报、漏报、错报问题发生。市农业局要会同市国土局、市发改委等部门，对各县区粮食生产功能区划定、建设和管护工作进行评价考核，评价考核结果与粮食生产功能区扶持政策相挂钩。各县区要切实抓好粮食生产功能区建设的监督检查，将相关工作作为地方政府绩效考评的重要内容，并建立绩效考核和责任追究制度。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>274</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>履职尽责显担当凝心聚力谱新篇市政协年工作综述商洛要闻</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021-02-01</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/18327.htm</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['岁序常易，万象更新。回望2020年，注定是一个被历史铭记的特殊年份。与全省各级政协组织一道，市政协也走过了极不平凡的一年。', '这一年，市政协始终牢记习近平总书记来陕考察的殷殷嘱托，深入贯彻中央和省委、市委的决策部署，紧扣做好“六稳”工作、落实“六保”任务等中心工作，认真履行职能，广泛凝聚共识，交出了一份不负新时代政协使命的履职“成绩单”。', '这一年，市政协把旗帜鲜明讲政治放在首位，全力贯彻落实中央、省委和市委各项部署要求，协助市委及时召开市委政协工作会议，出台《若干措施》，切实将党的各项要求贯彻到政协工作的各个方面、各个环节。', '这一年，市政协在抗击疫情的关键时刻，第一时间动员各级政协委员、市县经济协作联谊会及各界爱心济困协会会员，参与联防联控、助力生产保供、踊跃捐款捐物，充分展现了新时代人民政协的时代担当。', '这一年，市政协把助力脱贫攻坚作为政协履职重要任务，充分发挥政协协商作用、委员智力密集作用、政协机关包扶作用，为商洛决战决胜脱贫攻坚、全面建成小康社会，贡献了政协人的智慧和力量。', '这一年，市政协把创新履职方式作为推进政协履职提质增效的重要抓手，积极探索远程协商等新方式，充分发挥“六大平台”载体作用，有力推进政协履职提质增效，奏响“人民政协为人民”的时代最强音。', '2020年，市政协再次作为全省唯一市级代表，在全国地方政协工作经验交流会上交流经验。提案工作、新闻宣传工作获得省政协表彰。市政协联动协商、六大平台建设、委员工作室建设、发挥专委会作用等做法受到省政协充分肯定……', '始终坚持中国共产党的领导是人民政协事业沿着正确方向前进的根本保证。市政协把坚持党的领导贯穿于政协履职全过程，持续强化理论武装，淬炼政治能力，夯实党建责任，推进履职效能持续提升。', '坚持把贯彻落实中央政协工作会议精神作为首要政治任务，通过委员“读书班”、党校教授专题辅导、主席会议成员带队集中宣讲等方式，让党的“好声音”飞进千家万户；在市委政协工作会上，出台的《中共商洛市委加强和改进人民政协工作若干措施》，为市县政协工作注入强大动力。', '坚持以建设“学习型政协”为抓手，将交流研讨、专题辅导、主题党日、“在线解读”和会前学习半小时、周一学习日制度有机结合，累计开展学习活动60多场次、研讨交流4次，引导政协组织、政协委员和政协干部进一步树牢“四个意识”、坚定“四个自信”、做到“两个维护”，推进理论武装规范化、常态化、全覆盖，进一步夯实了团结奋斗的共同思想政治基础。', '坚决贯彻落实新时代党的建设总要求，召开政协系统全面从严治党工作会，深入开展赵正永严重违纪违法案以案促改工作，纵深推进“转作风、夯责任、抓落实、促发展”专项整治，充分发挥政协党组的领导作用，累计召开党组会36次，开展警示教育4次，为各项履职工作提质增效提供了坚强支撑。', '创新是增强政协工作活力的动力源泉。市政协在创新履职方式上展开一系列探索，进一步提升“建”的质量、体现“专”的水平、突出“商”的特色，让政协履职“活起来”。', '在常态化疫情防控的新形势下积极探索开展远程协商，围绕“公共卫生安全”专题，组织100名委员开展网上调研协商，为充分运用互联网、有效拓展协商议政新路径提供了经验，做法受到《人民政协报》的关注和点赞。', '在提高协商质量上积极探索，组建政协“智库”，以智力密集、专业特长为依托，首批选聘融协商、资政、合作、参与于一体的26名政协协商资政员，统筹组织参与调研视察、对口协商，为提升建言资政质量和水平提供了智力支撑。', '在延伸基层履职方式上积极探索，率先在丹凤、洛南县建设委员工作室试点，以镇办政协联络组和城市社区为重点，建成界别、区域、个人3类委员工作室34个，实现两县委员全覆盖，有效延伸了政协履职触角，受到省政协充分肯定，商洛市被确定为2021年全省委员工作室建设试点市。', '在提高提案工作实效上积极探索，聚焦提案选题、调研、撰写、审核等关键环节，首次建立“六个一”提案工作机制，即总结推行一次会议研究、一次部门座谈、一次业务培训、一次协商调研、一次集中讨论、一次集体审核，有力推进了提案工作质量显著提升，受到省政协通报表扬。', '为国履职、为民尽责，是全市1500多名各级政协委员的光荣，更是一份沉甸甸的参政责任。', '工作中，坚持把服务大局作为政协履职的首要任务，聚焦党委政府关注的重点、社会各界关注的难点，充分发挥建言资政和汇聚合力作用，党和人民关心的一个又一个重大问题，在人民政协议得更深、做得更实。 各级政协委员、市县经济协作联谊会及各界爱心济困协会会员，累计捐助资金1104万元、物资价值724万元，其中市各界爱心济困协会收到捐款270万元，全部用于疫情防控。充分发挥提案、社情民意信息“直通车”作用，收到助力疫情防控和经济社会发展提案210件、社情民意信息1320条，为疫情防控和经济社会发展汇聚了强大合力。', '聚焦冲刺脱贫摘帽，围绕“决战决胜脱贫攻坚成果巩固转化落实”，开展常委会专题监督协商，推进脱贫攻坚成效持续巩固提升；组织委员积极开展“三进一访”活动，累计投入资金2500多万元、领办实事1260件，15名政协委员助力脱贫攻坚受到省政协通报表彰；充分发挥机关包扶作用，机关包扶的兴隆村顺利通过国家第三方评估、省市抽查验收，拍摄的扶贫微电影《扶》荣获中央统战部“脱贫攻坚、奋斗有我”活动三等奖。', '聚焦“十四五”规划编制资政建言，联合民主党派、院校及政协委员、协商资政员，开展党派团体联动专题协商，提出“推动实现生态产品价值转换”“加快大秦岭博物馆建设”等建议32条，引起社会各方面强烈共鸣，得到市委市政府的重视、采纳和落实，为商洛“十四五”规划编制提供了有益参考。', '聚焦民生保障勤献务实之策，围绕“加强中心城区公共交通建设保障”开展常委会专题协商，提出的“开通19路公交车”等意见建议得到迅速落实；围绕“加快城镇老旧小区改造及物业管理改革”开展联动协商，撰写的《调研报告》被省政协评为优秀调研成果；围绕“大力发展实体经济”等专题开展政协院校合作协商，为经济社会发展提供有益之策；围绕提升全民健身水平、孝廉文化弘扬与传承、老龄社会服务保障体系建设等课题开展专题协商，为推动民生问题解决提供决策参考。', '2020年，市政协共安排主题协商、专题协商、对口协商、视察监督等活动14次，累计撰写调研报告36篇、提出意见建议53类198条，为服务全市发展大局贡献了政协智慧。', '如何更好地履行民主监督职能，做到寓监督于服务支持之中，在参与中开展监督、在监督中服务发展，是市政协孜孜不倦的追求。', '围绕助力经济高质量发展，组织委员开展“走进企业·助力发展”主题协商，深入乡村社区、工厂车间一线，解决企业实际问题132个，有效助力了经济发展。', '围绕发挥民主监督作用，选派160名政协委员，“戴证”参加年度考核测评、行政案件审理、检察开放日等活动19场次，开展个体监督130次，有效提高了委员监督的社会影响力。', '围绕中心城区创建国家卫生城市，组织委员开展模拟验收视察调研，为创国卫工作提供正能量支持，倡导的“创卫精神”成为社会普遍共识，赢得各方面的一致好评。', '围绕四届四次会议的提案办理，联合市委督查室开展专项督办督查62次，对46个承办单位逐一进行提案办理考核，实现提案办结率100%、采纳落实率98%、委员满意率98%。', '围绕全市经济社会发展、《陕西秦岭生态环境保护条例》贯彻执行和县区政协履职，开展委员年度集中视察活动，为促进助力县区之间竞相发展、当好秦岭生态卫士贡献了智慧。', '这些举措的实施，不仅促进了市委、市政府决策部署的贯彻落实，而且促使群众关注的一些民生问题得到了及时解决，更提高了政协协商式监督的社会影响力。', '要把人民政协制度坚持好、把人民政协事业发展好，必须正确处理一致性和多样性的关系，寻求最大公约数，画出最大同心圆，汇聚最大正能量。', '积极支持和保障各民主党派和无党派人士参与政协履职活动，主动密切与少数民族和宗教界人士的联系，形成了团结民主议政、凝心聚力履职的良好局面。一年来，各民主党派、工商联和无党派人士积极作为，累计提交大会发言21篇、提案105件，撰写调研报告13篇。', '积极配合省政协来商专题调研、专题协商活动，积极参加汉江流域城市政协联系协作会议，热情接待北京、南京、河南等15个省市政协领导来商调研考察学习，加强对县区政协的联系指导，营造了团结和谐、致力发展的浓厚氛围。', '积极征集出版《孝廉文化》文史专辑，编印《商洛政协》4期，编发《政协快报》62期，收集《社情民意信息》49篇，市政协连续4年被省政协表彰为新闻宣传发行工作先进单位。', '紧扣提高委员“四种能力”，严格落实委员履职管理办法和“六个一”要求，建立了委员履职考核评价和结果运用机制，积极引导委员在政协工作中履职尽责、在本职岗位上建功立业、在界别群众中示范引领，先后有65名政协委员受到表彰，充分彰显了新时代政协委员的新样子。', '紧扣履职制度建设，紧跟新时代人民政协工作新要求，先后修订完善《常务委员会工作规则》等16项制度，紧贴机关实际，规范了机关办文、办会、办事的相关制度和程序，构建起了权责清晰、程序规范、关系顺畅、运行有效的制度体系，有力推进了政协履职效能提升。', '紧扣发挥专门委员会作用，及时对4个专门委员会机构设置名称进行调整，优先保障专委会配备干部需要，专门委员会联系界别委员、对口部门的作用得到有效发挥。', '紧扣提升机关工作效能，严格落实季度工作汇报点评制度，深化开展作风建设专项整治，认真落实“三项机制”操作办法，重视支持派驻市政协机关纪检监察组履职职能，市政协机关建设得到省政协充分肯定。', '扬帆起航自奋楫，不负韶华更向前。2021年是“十四五”规划开局之年，也是全面落实市委政协工作会议精神之年。在中共商洛市委的坚强领导下，市政协将以更加昂扬的姿态，更加奋发的精神，勇于担当，倾力履职，为奋力谱写陕西新时代追赶超越新篇章贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>274</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>商洛市文化和旅游局对市政协五届一次会议第号提案的答复函政协委员提案办理</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022-09-26</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2062/130202.htm</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['您的建议很好，感谢您对商洛市打造中国康养之都工作的关注和支持。将商洛打造为中国康养之都是在深入学习贯彻习近平总书记三次来陕考察重要讲话重要指示，紧紧把握省委、省政府工作要求，认真分析商洛资源禀赋和比较优势的基础上，2021年7月商洛市委四届十一次全会、2022年3月市第五次党代会上提出并持续推进中国康养之都建设，并得到省委、省政府肯定。', '今年以来，市打造中国康养之都工作专班聚焦建设“中国康养之都”的重点和难点，以健康医养、健康养老、健康文旅、健康体育、健康医药、健康食品六大产业为支撑，以全域旅游示范市、森林康养示范市、“美丽中国·深呼吸小城”“国际慢城”“健康中国·养生农业示范区”等系列创建为抓手，以特色民宿、特色餐饮、特色产品三大提升工程为重点，积极构建康养产业体系、培育康养产业集群，持续唱响“22℃商洛·中国康养之都”品牌。先后召开工作部署会4次、推进会4次、协调会15次，信息发布会2次、康养产业重点项目协调会2次，专班碰头会20余次，持续推动各项工作落地见效。', '按照康养产业六大产业体系分类，健康文旅方面，截至目前，全市文化旅游企业491家，有国家5A级景区1家、4A级景区16家、3A级以上景区44家，1个国家全域旅游示范县，4个省级全域旅游示范县，3个省级旅游示范县，4家省级旅游度假区，14个省级旅游特色名镇，39个省级乡村旅游示范村，4个省级文化旅游名镇以及7个中国美丽休闲乡村。今年上半年，全市共接待游客1502.23万人次，实现旅游综合收入89.69亿元。健康医药方面，截至2021年全市中药材基地面积256万亩，药材年产量21.03万吨，中医药企业达到15家，其中上市企业一家，中医药实现产值154.92亿元（现代医药实现产值133.55亿元，增长19.1%，占规上工业总产值的10%）。健康食品方面，核桃、板栗人均占有量全省第一，香菇产量全省第一，畜禽标准规模养殖走在全省前列。截止2021年，商洛累计认证绿色食品89个，有机农产品38个，认证总面积达到42.56万亩、0.53亿袋（食用菌），较2020年分别增长8%和19%。全市从事健康食品生产的规模以上企业94户，实现规上工业总产值300亿元，占全市规上工业总产值23%。健康医疗方面，全市共有各类医疗机构2738家，开放床位3525张，在职职工3109人，其中三级医疗机构2家，二级医疗机构29家，医养结合机构4家，争取全国医养结合远程协同服务试点机构1个，省级医养结合示范基地2个，建设医养结合服务中心7个。健康养老方面，现有非营利性营敬老院73家，床位数7498张，其中护理型床位1063张，共收住院民4431人；福利院2个，床位数284张，其中护理型床位32张，共收住院民171人。有民办养老机构现有10个，床位数2138张，护理型床位1161张，共入住老人662人。累计培育医养结合示范点14个，商南老年护理院、山阳丰阳老年养生公寓为省级医养结合示范基地。健康体育方面，全市已正规注册的单项体育协会76个，社会投资开办的体育俱乐部、健身房、游泳馆（池）、乒乓球等培训机构等26家，以公园广场为聚集地的健身站点达到2000多个，社会体育指导员7000余人，柞水营盘终南山寨运动休闲小镇被国家体育总局评定为“中国体育旅游精品景区”。', '提案交办后，我局主要领导第一时间将提案有关情况向市打造中国康养之都工作推进专班组长、市人大陈宁主任以及专班副组长、市政府温琳副市长做了专题汇报，并就提案涉及内容初步分工从专班办公室角度提出分解意见。在随后召开的专班月度调度会上，同专班各成员单位完整地学习了一号提案的主要内容，并结合成员单位工作职责进行了任务分解，确保提案办理任务分解到位、责任落实到位。及时召开局党组会议，全面仔细研究提案中涉及文旅部门工作任务，成立市文旅局一号提案办理工作专班，对标制定一号提案办理工作方案，将所有任务逐项分解落实到局属科室、下属单位、所在县区，明确了时限进度、质量要求，并纳入到年度军令状和考核任务之中。在接到市政协一号提案跟踪督办通知后，我局又及时对提案办理情况进行了自查梳理，发现问题、查漏补缺。', '一是关于强化工作力量的建议。我局就此及时向市编办进行了专题汇报并就成立商洛市康养产业发展中心形成专门报告，建议同步成立市县两级事业性质康养产业发展中心，专职专责做好康养之都建设专班办公室各项工作。6月中旬，市编办已经就此问题到我局和七县区开展了专题调研，形成了调研方案待编委会审定。我们采取跟班学习的方式，从六县一区选派4人充实到康养之都专班办公室，保证了各项工作正常推进。', '二是关于强化统筹协调的建议。首先是抓领导。针对康养之都建设工作头绪多、牵涉部门多、推动难度大等问题，及时提请市委强化对该项工作的领导。7月11日，在市四套班子联席会议上，市委主要领导已经明确要求，康养之都建设工作将由市县区委主要领导任专班组长，人大主要领导任专班执行组长，自上而下形成了打造康养之都“一把手抓、抓一把手”的工作推进体制。其次是抓督办。坚持“月调度、季通报、年考核”工作推进机制，传导压力，推动工作落实。今年以来，专班主要领导已经亲自主持召开了近20次工作推进会、协调会或专题会，督促康养之都建设年度任务落实、一号提案办理，协调解决康养之都大数据平台建设、柞水云山湖项目土地申报等问题。刚刚完成对七县区、高新区以及十二个成员单位上半年工作任务完成情况考核，正在汇总考核情况进行打分排名，并计划在本月调度会上由专班主要领导进行点评。第三是抓协调。及时协调工信、农业、商务、卫健、市监等有关部门和县区，突出抓好景区民宿、特色餐饮、特色产品三大提升工程，截至目前已开展民宿等级评定两批次，评定柞水马房子民宿、丹凤花筑·荷塘畔民宿、洛南花溪弄民宿、镇安骊水山庄民宿为商洛市精品民宿，评定柞水终南印象花园民宿、沐与·绵兮簌民宿、南山里民宿、三道井·春花的院子民宿，山阳丹青吊脚楼民宿、丹凤文修谷民宿、镇安塔云山客栈、古月山庄民宿为商洛市特色民宿，阳坡院子国家甲级民宿已通过省文旅厅初审并上报国家文旅部。截至目前全市已建成民宿40余家，评定精品民宿、特色民宿26家。同时近期市农业部门正在对全市乡村闲置房屋资源进行全面摸底，计划结合三个一百秦岭山水乡村建设更大范围、更大规模推进我市民宿产业发展。成功举办了“22℃商洛·中国康养之都”美食大赛和首届电商直播促消费大赛，先后在西安、商州举办了两次三大提升工程产品发布会，大力推介精品景区、特色民宿、丹凤红酒、商南茶叶等我市康养产品，尤其是今年秦岭生态文化旅游节丹凤红酒品鉴活动及西安康养产品发布会后，丹凤红酒销量大幅增加。积极协调七县区大力推进“美丽中国·深呼吸小城”、“国际慢城”创建，全市6县1区全部入选2022年美丽中国·深呼吸小城预备名单，棣花镇、金丝峡镇等4镇入选2022年建制乡镇美丽中国·深呼吸乡镇预备名单，数量占比位居第一。协调十余个部门对接数据，初步搭建了康养之都大数据平台（一树：康养事业+产业树、一库：全市康养产业市场主体数据库、一图：康养六大产业大数据分析图、一轴：产业融合发展数字化推进轴），目前正在进行数据调试和分析，计划八月份上线试运行。', '三是关于强化重点支撑的建议。在康养项目支撑方面，我们协调各成员单位通过抓策划、抓招商、抓落地等措施，共策划储备“十四五”投资5000万以上重点康养项目532个，总投资2867.8亿元。确定68个项目列入市级年度重点项目建设计划，年度计划投资115.62亿元，上半年完成投资68亿元，完成年度计划的59.1%。将柞水云山湖森林康养度假区、商州区金凤山康养新区、高铁康养新城、丹凤金山大健康城等11个项目确定为市级康养标杆项目，由专班主要领导每月一调度，及时掌握项目进度，协调解决有关问题，示范引领全市康养产业项目快速推进。目前，柞水飞跃终南极限运动公园一期工程、丹凤鱼岭水寨山水田园综合体、镇安侏罗纪公园等一批重点康养项目基本建成，柞水云山湖森林康养度假区项目儿童游乐园部分今年八月份对外开放，金凤山康养新区正在加紧完成前期土地征收、配套基础设施建设以及招商引资工作。在提升康养技术研发能力方面，正在协调商洛学院依托“秦岭康养大数据陕西省高校工程研究中心”，开展“康养+旅游”“康养+养生”等智慧康养服务模式研究，同时协调商洛学院、商洛职业技术学院推动建设商洛市大健康研究中心、商洛市智慧体育服务与研究中心，着力提升商洛康养产业服务体系规范化、标准化水平。在加强康养人才队伍建设方面，市政府已经结合国家级康养高技能人才培训基地建设以及全市职业教育高质量发展，制定了国家级康养高技能人才培训基地建设工作方案，依托商洛学院、商洛职业技术学院开展母婴护理员、育婴员、营养膳食员、保育员、失能老人照护员、保健调理师、保健刮痧师、保健艾灸师、保健拔罐师等职业培训，年培训不低于2000人次。正在积极筹建商洛学院医学院和商洛学院附属医院，在增强我市医疗保障能力的同时更好为构建全域康养新格局提供人才保障。', '借市委、市政府强力推进“六市联创”机遇，及时提请市政府召开创建国家全域旅游示范市工作推进会议，全力推进全域旅游示范市和商州、洛南省级全域旅游示范县创建，江山景区被评为省级研学旅行基地，柞水营盘镇、商南后湾村入选全国乡村旅游重点镇、村，推荐镇安县丰收村创建全国美丽休闲乡村，柞水朱家湾村创建世界旅游组织最佳旅游乡村。组织省级专家对拟创建的4家4A级景区和4家3A级景区进行了创建指导和验收。借势中心城区“两拆一提升”，中心城区40个重点城市建设项目加速推进，两河口城市运动公园、黄沙河河道悬挑步行道及干线入地等工程部分完工，城市环境持续改善。借势“爱我商洛”主题活动，围绕“22℃商洛·中国康养之都”宣传主题，开展主题歌曲和城市LOGO全国征集，举办原创歌曲MV专辑首发并发动全市交通、教育、城管等行业广泛宣传。围绕“山水园林城市·旅游康养之都”城市定位，结合“年味商洛、花开商洛、避暑商洛、多彩商洛”四季主题营销活动，制作数十部系列短视频并构建省市县融媒矩阵宣传商洛，洛南夜塬遗址、锦绣大地和木王山杜鹃花视频登上央视新闻。创新举办第13届秦岭生态文化旅游节等十余项宣传营销活动，“22℃商洛·中国康养之都”秦岭康养清凉之旅入选全国乡村旅游精品线路。', '一是加快提升康养之都规划。结合国家和省级有关专家意见建议，以及赴四川、重庆、攀枝花等康养产业做得强的城市考察学习康养产业发展的先进经验，持续提升规划，科学推进康养之都打造。', '二是加快康养之都建设基础性研究。抢抓国家政策机遇，深入学习文旅康养政策，扎实开展基础性研究，进一步深化认识，明确发展思路、目标要求和保障措施，积极借鉴先进省市经验，加快推动康养产业深度融合发展。依托有关科研院所和职能部门，加快对我市生态环境指数、医疗健康指数、康养政策指数等事关康养之都建设的重要参数的基础性研究，通过数据挖掘，发现问题，扬优补短，更加有针对性地开展工作。', '三是明晰康养之都建设突破口。坚持政府主导、企业主体、市场运作、社会参与，以点带面、点面结合，着力培育和激发市场活力，不断丰富康养之都建设内涵。加强沟通协调，形成工作合力，做实做细各项工作，不断提升提案办理实效。结合后疫情时代休闲度假和康养发展的趋势，以文旅康养为重点，以民宿、森林康养、中医药康养、乡村旅游为突破口，聚集更多力量予以突破，形成特色。确定云山湖森林康养度假区、金凤山康养新城、金山养老公寓等康养标杆项目为六大产业的链主企业，加强政策支持和协调服务，抓重点、抓龙头，示范带动康养之都建设。', '四是持续推进全域环境提升。持续推进爱我商洛活动，加快实施全市236个城市品质提升项目和城市建设管理312工程，全力提升城市品质和乡村环境，持续推进全域景区化。结合特色餐饮提升工程建设城市特色街区，大力发展夜间经济。加大小户型住房供给，合理控制房价，吸引更多人来商购房旅居、康养度假。', '五是全力抓好康养品牌创建。加快推进高A级景区、国省旅游度假区、最美休闲乡村、森林康养基地、水利风景区、体育旅游示范基地、中医药旅游示范点等“康养+”品牌创建，确保年内创成省级全域旅游示范市。持续跟进“美丽中国·深呼吸小城”、国际慢城等创建，不断增强商洛康养产品的品牌吸引力。', '六是持续抓好22℃商洛宣传营销。围绕22℃商洛·中国康养之都，结合康养基础数据研究、三大提升工程等常态化、矩阵化、分众化做好新媒体营销。创新推进“五个一”文艺精品创作工程，持续做好四季主题营销活动，依托丝博会、旅博会、中国特色旅游商品大赛等大平台，积极组展参展，宣传推介康养之都建设成效和产品特色，吸引更多人走进商洛，养身养老养心境，避暑避霾避喧嚣。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>274</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>下属单位下属单位</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1666/99448.htm</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为决策咨询顾问、委员进行课题研究和开展咨询活动搞好服务并办理相关的事务工作，完成市决咨委、市政府办公室交办的其他工作。', '1.综合科。负责党务和政务的综合协调工作;负责机要、文秘、档案、人事、财务及网络管理与信息宣传等工作;负责重大活动和调研工作的组织协调工作;负责特邀顾问、委员、联络员的日常联络服务及管理工作。', '2.咨询研究科。负责决策咨询研究课题的选题和计划安排;负责审核上报课题研究报告，编审报送《决策咨询信息》﹔负责专业研究组日常活动的对口服务工作;负责重要会议及文件的起草工作;负责编发《决策咨询年刊》﹔负责向市决策咨询委员会及专业研究组提供重要资料、信息等工作。', '市政府驻北京办事处，为商洛市人民政府派驻北京的办事机构，正县级规格，隶属市政府办公室管理。', '1.根据商洛市委、市政府的安排或工作需要，与中央、国家有关部委以及北京市党政机关和企事业单位、有关省、市政府驻京办事机构、中央级各新闻媒体、商洛籍在京人士加强联络。', '2.为市委、市政府及其各部门、单位及时传递信息，为各部门在北京开展各项事务提供服务，为引进项目、资金、技术和人才咨询、搭桥，积极引进、争取外部资金到商投资。', '3.协调、指导北京商洛企业商会工作。为商洛在京工作人员搭建联络平台，为商洛在京经商人员搭建信息平台，为商洛绿色产品推广搭建销售平台，形成商洛特色品牌，打造商洛在京绿色产业。', '4.与商洛劳务输出机构加强联络，建立务工人员信息资源库，提供在京劳务需求信息，保障在京务工人员合法权益。', '5.配合北京市政府做好维护首都稳定的工作。加强与中央各部门及国家信访局的联系，巩固与省驻京信访处及省级各部门驻京机构的联络，及时协调、化解、甄别进京非正常上访。', '1.综合协调科。加强与国家有关部委和单位的联系，协助搞好项目争取工作；认真收集各方面信息，服务商洛经济社会发展；加强对京劳务输出工作，推进商洛对外开放。负责市政府驻北京联络处日常事务的综合协调，承担文电、会务、机要、档案、财务管理和信息报送工作；搞好机关人事管理、机构编制、教育培训、考核奖惩和精神文明建设工作。', '2.信访接待科。加强与中央各部委及国家信访局、省政府驻北京办事处的联系，及时协调、化解、甄别进京非正常上访；做好商洛进京上访人员的排查、接访、稳控、疏导教育及劝访工作。', '市政府驻西安办事处，为商洛市人民政府派驻西安的办事机构，正县级规格，隶属市政府办公室管理。', '1.服务商洛经济建设。参与、协助在省会城市招开的招商引资、项目洽谈、文化交流等会议的筹备、接待服务工作;推介、宣传商洛，促进商洛与省会城市的经济合作;参与对口援助相关服务工作，联系西安商洛商会。', '2.参与社会管理和公共服务。协助处置突发事件;协助做好信访维稳工作。加强与驻地相关职能部门的沟通协调，为商洛籍的外出务工人员提供服务;协助办理民族事务。', '3.加强流动党员和流动团员的管理服务。协助做好流动党员管理服务工作，建立健全流动党员党组织，为流动党员提供组织关系接转、组织生活、教育培训、关爱帮扶、权益保障等服务;建立健全流动团员团组织，协助做好流动团员的管理服务工作。', '4.开展政务联络和信息沟通。加强与省委省政府相关部门的政务联络工作;收集、汇总、传送经济社会发展的政策、经验等信息。', '1.办公室。负责单位综合协调工作;拟订管理规章制度并组织实施;承担综合性文件起草、文秘、机要档案、保密工作;负责人事编制、绩效管理、车辆管理、计划生育、公务接待、安全保卫、离退休人员管理等工作;负责流动党员、团员组织关系、组织生活、教育培训、关爱帮扶、权益保障等工作。', '2.财务科。负责单位资产管理、财务管理、工资福利等工作;负责医疗保险、住房公积金等管理及各项规费收交工作;配合做好公务接待工作。', '3.信访科。协助省、市、县(区)信访部门处置在省会城市的信访突发事件;负责驻省委、省政府信访接待大厅的日常值班，做好赴省上访群众的接访、劝返;负责管理县(区)派驻省会开展信访维稳的工作人员。', '4.劳务协作科。加强与驻地有关职能部门的沟通协调，为商洛的外出务工人员提供服务;协助县(区)处理外出务工人员的突发事件;协助做好接访劝返工作;协助办理民族事务。', '5.经济协作科。负责联系西安商洛商会;负责在省会召开的招商引资、项目洽谈、文化交流等会议的筹备、接待活动等工作:负责推介、宣传商洛，促进商洛与省会城市之间的经济合作;收集、汇总、传送驻地经济社会发展的相关信息;积极参与对口援助工作。', '市政府住南京办事处，为商洛市人民政府在南京的派出办事机构，副县级规格，隶属市政府办公室管理。', '1.促进宁商协作，负责加强与驻地党委、政府及有关方面的沟通联系，做好扶贫协作、经济合作相关事项的协调、联络和服务保障，促进宁商协作工作顺利进行。', '2.深化扶贫协作，加强与南京市扶贫协作重点任务部门和项目牵头单位的沟通对接，做好产业、劳务、旅游协作和人才交流、助医助学等扶贫协作重点工作的协调推进。', '3.加强经济合作，负责拓展与南京及周边地区的经济合作渠道，协助引进资本、技术、人才和管理经验，为南京及周边地区单位、企业来商投资项目、合作交流搭建平台、提供服务。', '4.负责市委、市政府领导赴南京及周边地区考察学习、访问交流以及招商引资活动的协调服务和后勤保障工作。协助有关部门做好市政府签约项目的跟踪落实工作。', '5.负责商洛经济社会发展成效及优质资源、优势产业的宣传展示工作。协助有关部门做好重点招商引资项目和特色优质产品的推介、营销工作。', '6.协助组建南京市商洛商会，并做好日常联络工作。收集分析南京及周边地区经济合作方面政策、科技信息，为市委、市政府科学决策提供依据。', '综合科。负责办事处日常事务的综合协调，承担文件、会议、财务、印鉴、档案管理工作；负责市委、市政府领导赴南京及周边地区考察、交流活动的协调服务和后勤保障工作；负责拓展经济合作渠道，搭建南京及周边地区单位、企业来商投资合作平台，协助我市相关单位、企业引进资本、技术、人才和先进管理经验；收集南京及周边地区政治、经济、科技、文化方面的新政策、新动态，梳理汇总我市在宁相关工作、活动取得的成效，定期编发工作简报，提供决策参考。（科室负责人空缺）', '商洛市政务信息服务中心，为副县级规格事业性质财政全额拨款单位，隶属于市政府办公室管理。', '1.综合协调科。负责中心日常事务综合协调，负责中心党建、文秘、档案、机要、保密、接待等工作；负责市政府及市政府办公室有关会议、活动的摄影。', '3.网络和数据科。负责全市电子政务外网规划、建设和管理，指导县级电子政务外网建设；负责市级电子政务公共平台（机房）、市级政务数据共享交换平台、市政府和市政府办公室共用应用系统的建设、运行和服务保障。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>274</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>月商洛经济运行情况简析统计数据</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2021-07-13</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1060/7722.htm</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['开年以来，我市认真贯彻习近平总书记来陕考察重要讲话精神，全面落实省委书记刘国中来商调研工作要求，扎实做好“六稳”“六保”各项工作，统筹疫情防控和经济社会发展，倾力打造特色农业、大健康、大旅游、新材料“四大产业增长极”，全市经济呈现逐月向好稳中加固的可喜变化，主要经济指标有望实现“双过半”。', '聚焦特色现代农业培育，调结构、兴产业，一手抓菌果药畜茶等特色产业发展，一手抓重大动物疫病和病虫害防控，稳定生猪生产，全力保障粮食安全和重要农副产品有效供给。', '夏粮增产增收在望。扎实推进藏粮于地、藏粮于技战略，积极落实种粮补助、农资补贴、灾害保险等相关扶持政策，狠抓小麦条锈病、马铃薯晚疫病防控，科学有效防灾减灾。上半年，全市夏粮播种面积841659亩，预计总产量169913吨，平均亩产202公斤，同比分别增长1.9%、5.6%、3.6%，属较好收成年份。', '新型农业发展给力。坚持用“二产的理念、三产的思维”全面激活市场主体和保障要素，建立健全企业、集体、群众之间的利益联结机制，做强做优木耳香菇等特色产业。全市发展食用菌2.28亿袋，新建茶园1.2万亩，春茶产量8300吨、产值15亿元。商洛名特优新农产品数量累计达到58个，位居全国地级市之首。', '项目接续取得突破。丹宁高速丹凤至山阳段征迁工作已全面启动，西康高铁将于6月29日开工建设。镇安县与国网新源公司、山阳县与三峡新能源公司分别签订了抽水蓄能电站项目合作协议，总投资185亿元。', '住宿餐饮快速恢复。随着疫情防控形势持续稳固，越来越多游客开启“观田园风光、吃农家小菜、品乡土风情、住旅游民宿”小长假模式，住宿餐饮消费增速明显加快。1-5月全市实现限上餐饮收入1.2亿元，同比增长56.8%。', '石油制品销售回升。伴随4、5月以来全市开工建设项目的大幅增加，重点行业石油及制品类商品消费回升，实现零售额3.9亿元，较上月回升5个百分点，当月完成1.1亿元，拉动限上消费品零售额增长6.3个百分点。', '扎实落实“保增长、扩消费、调结构”政策，持续在挖掘生态、区位、资源、文化“四大潜能”上下功夫，探索生态优市、实业强市、文旅活市、城镇兴市“四条路径”的步伐不断加快。', '招商引资成绩斐然。精心组织参加丝博会等重大招商活动，积极邀请国家能源、延长石油、陕西交通控股集团等企业来商考察洽谈，省际项目到位资金359.74亿元，同比增长102.51%。', '投资结构不断优化。第一产业投资同比增长74.6%，主要是随着国家全面推进乡村振兴，一批特色农业项目相继开工，带动第一产业投资高速增长；民间投资同比增长33%，占固定资产投资的比重达到57%。', '全市上下通过每月市长或主管副市长牵头召开的多部门高规格有深度经济形势分析会、经济工作专班会商等多途径剖析影响经济增长的矛盾和症结，市情分析更加务实中肯，对标补短、打好经济“翻身仗”的工作决心和力度进一步加大。', '践行“绿水青山就是金山银山”理念，积极探索“政府主导、企业和社会各界参与、市场化运作、可持续”的生态产品价值实现路径。高位推进，市委副书记、常务副市长武文罡带队赴浙江丽水、湖州市考察学习。制定《商洛市生态产品价值实现机制试点重点任务分工方案》，成立11个专项小组，明确重点任务分工，修订完善《商洛市生态产品价值实现机制试点方案》，形成“1+11”协调推进机制。高点谋划，委托中国科学院地理科学与资源研究所编制《商洛市生态产品价值实现机制研究》，各项前期工作顺利推进。', '一是工业恢复的后劲还不够足。截止5月底，全市新增规上工业企业7户，3-5月均没有新增，全市规上工业企业退库16户，停产17户。50个市级重点工业项目还有4个未开工，其中镇安龙鼎年产1万吨镁合金、中西矿业高端石材综合利用产业园等2个项目矿山手续尚未到位，商南万达汽车配件智造产业园项目入园手续尚未完成，秦岭云计算大数据中心项目正式机房建设用地正在进行文勘。', '二是投资增长的基础还不够牢。1-5月，亿元以上在建项目个数为232个，同比下降10.1%，亿元以上施工项目占全部施工项目个数39%，占比同比下降8%。个别县区投资增速很不稳定，下行风险仍然很大。基础设施、大旅游等一些行业领域投资欠账较大，市博物馆等个别项目前期工作还比较滞后。二季度全市集中开工的30个投资5000万元以上项目，部分还存在手续不全、开而未动、时建时停、进展不明显、完成实物工作量较少等问题。', '三是消费复苏的步伐还不够快。受多种等因素影响，成品油经营企业销售额大幅下降，其中中石油零售额减少1.6亿元，同比下降47.1%。我市在库限上企业绝大多数刚达到统计入库标准，带动能力较弱。受统计制度、网购、地域等因素影响，服装、日用百货、建材家居、汽车等大宗消费分流严重；万达广场、永辉超市等集团企业统计不在我市，也对消费增速产生一定的冲击。', '此外，我市还存在秦岭生态环境保护任务艰巨，产业转型升级缓慢，工业、建筑业、投资、消费等尚未恢复到2019年同期水平，主要经济指标与全省及其他兄弟地市相比，仍有较大差距等问题。但是从有利因素看，随着国内需求加快恢复，“十四运”在全省举办，我市延长氟硅电子级氢氟酸、海恩动力锂离子电池、润联诚新型环保建筑材料等项目产能的释放，以及丹宁高速丹凤至山阳段、全域生活垃圾焚烧发电等项目的全面开工建设，都将极大促进我市经济的发展，全市经济有望延续稳定恢复的良好态势。', '下一步，我们将围绕立足新发展阶段、贯彻新发展理念、构建新发展格局要求，大力弘扬“勤快严实精细廉”的作风，切实把各项任务抓紧抓实抓到位，确保“十四五”开好局，以优异成绩庆祝建党100周年。', '一是抓纾困全力稳定工业生产。围绕原材料采购及运输、资金紧张、用工难等问题纾困解难，积极创造条件，推动企业开足马力、满负荷生产。牢牢把握今年产品价格持续回暖的机遇，积极开拓新市场，推动企业多产多销，不断扩大企业生产规模。提升商洛高新区、山阳高新区、各县区县域工业集中区产业配套能力，加大标准化厂房建设力度，推动要素、项目、产业向园区集中，提升园区发展效益。', '二是抓开工全力扩大有效投资。针对29个未开工和25个欠进度重点项目，落实专人，加快选址、征地、资金筹措等前期工作，尽快办理用地、环评、文勘、立项等前期手续，力争三季度全部开工建设。紧抓新开工项目建设，重点围绕全市二季度集中开工的30个项目持续跟踪督办，推动加快形成实物工作量，同步做好投资入统工作。持续跟踪推进已签约项目，确保早日建成投产达效。', '三是抓促销全力挖掘消费潜力。积极举办家电、成品油、建材、商超等市民有消费需求的促销活动，进一步活跃消费市场、激发消费活力，拉动消费快速增长。推出面向全省乃至全国的旅游优惠政策，发放旅游专用消费券和星级酒店专用消费券，刺激旅游消费。依托电子商务进农村综合示范项目，继续用好直播电商发展新机遇，积极开展直播带货活动，促进农民增收、农业增效、农村发展。(来源：商洛市统计局网站）']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>274</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>推动绿色低碳发展厚植高质量发展本底我市着力提升生态生态环境</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1095/134759.htm</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['推动绿色低碳发展 厚植高质量发展本底 ——我市着力提升生态文明建设水平综述-商洛市人民政府', '深入贯彻习近平总书记在听取陕西省委和省政府工作汇报时的重要讲话精神 为谱写中国式现代化建设的陕西新篇章 贡献商洛力量', '时值夏日，秦岭的山更绿了。走进牛背梁国家级自然保护区，只见溪水潺潺、满目葱绿，98.56％的森林覆盖率让这里空气含氧量充足。随着暑期到来，这里适宜的温度吸引了不少省内外游客前来避暑游玩。站在海拔1700米的月亮垭，远眺秦岭，绿意盎然，秦岭的生态底色愈来愈浓。山脚下的朱家湾村，炊烟袅袅、溪水潺潺，特色民居错落有致，美丽乡村尽收眼底。', '2020年4月，习近平总书记来陕考察，首站就来到商洛。在牛背梁国家级自然保护区，总书记强调，保护好秦岭生态环境，对确保中华民族长盛不衰、实现“两个一百年”奋斗目标、实现可持续发展具有十分重大而深远的意义。今年5月，习近平总书记在听取陕西省委和省政府工作汇报时强调，陕西生态环境保护，不仅关系自身发展质量和可持续发展，而且关系全国生态环境大局，是“国之大者”。要着力推动发展方式绿色低碳转型，提升生态文明建设水平。', '近年来，全市上下认真践行习近平生态文明思想，深入学习贯彻习近平总书记历次来陕重要讲话精神，持之以恒把绿水青山建得更美，把金山银山做得更大，以良好生态环境助力商洛高质量发展、现代化建设取得了新成效。特别是今年以来，我市持续用力保护生态环境，继续重拳整治秦岭“五乱”和破坏生态环境突出问题，侦办涉生态环境类刑事犯罪案件187起，问题图斑整改率全省第一。完成造林绿化42.29万亩，全市森林覆盖率达69.56%，40万株古树名木得到有效保护。荣膺全国首个“美丽中国·深呼吸之都”的地级城市，“22℃商洛·中国康养之都”美誉度和影响力持续提升。积极开展“秦岭生态卫士行动日”“牢记殷殷嘱托、当好秦岭生态卫士”党性教育、秦岭生态保护主题党日等活动，在商州区丹鹤楼广场进行集中宣传活动，形成了全社会共同参与秦岭生态保护工作的浓厚氛围。', '绿满矿山满目春，金山银山日时新。近日，走进柞水县小岭镇大西沟矿区，浮现在眼前的是满目青翠、绿树成荫、生机盎然，以前废渣遍布的山体经过复绿后形成了一层层绿色的梯台，过去污染严重的小、散、乱矿山已然消失不见。“去年我们栽种了144万棵苗木，总体覆绿面积约1500亩。下一步，我们打算把矿区做成一个3A级工业旅游景区，达到四季有绿、三季有花效果，最终实现建成绿色矿山目标。”陕西大西沟矿业有限公司副总经理程青毅表示。', '大西沟矿区的“蝶变”，是我市深入推进矿业“五化”转型发展，实现“金山银山”与“绿水青山”共赢的一个缩影。近年来，我市紧扣绿色循环发展，大力推进工业清洁化、循环化、低碳化改造，一手推进矿山规模化、绿色化、延链化、安全化、数字化“五化”转型，把矿产品转化成新材料、新化工、新能源、新高科技产品；一手抓尾矿资源“吃干榨净”综合利用，着力打造新材料、绿色食品和健康医药等“3+N”产业集群。2022年，我市清理整合矿权41个，新建标准化厂房50万平方米，新入园企业40户。商州岭南佳泰、洛南鑫磊恒达等尾矿利用企业发展壮大，工业结构不断优化。洛南县环亚源产业园以废旧资源循环利用为核心，聚集43家企业和研发机构，建成全国大宗固体废弃物综合利用示范基地和有色金属全产业链“生态岛”，年处理危废40万吨、减碳3000万吨以上。与此同时，我市按照“谁开发谁保护，谁污染谁治理，谁破坏谁恢复”原则，明确绿色矿山建设实施标准等，通过政府引导、政策扶持、企业主体、标准规范、示范引领、机制创新、严格监管等机制，使科学有序性、环境可控性、生态可持续性成为各矿山企业的共识。', '矿业“五化”转型的同时，我市还利用生态优势，大力发展了清洁能源、康养等绿色产业。我市聚焦打造国家清洁能源基地，谋划抽水蓄能电站11个，其中镇安月河抽水蓄能电站已于7月12日正式下闸蓄水，预计8月底达到正常蓄水位，并计划于2024年首台机组调试发电，这也是西北地区的第一个抽水蓄能电站。依托青山、绿水、蓝天、气候、区位等资源优势，打造具有商洛特色的医、养、游、体、药、食协同发展的康养产业体系，以及吃、住、行、游、购、娱文旅康养产业链，云山湖森林康养度假区等66个康养项目完成投资130亿元，金山康养产业园建成试运营，洛南、商南、镇安、柞水入选“健康中国·康养旅游百强县”，商州、洛南、丹凤、商南入选“美丽中国·深呼吸小城”，牛背梁创建为国家级旅游度假区。', '抬头，是醉人的“商洛蓝”，四顾，是怡人的“生态绿”，蓝天白云、水清岸绿、生态和美，宛若美丽画卷。在市民看来，商洛的生态环境越来越好了，随手一拍都是大片。', '我市横跨长江、黄河两大流域，守护好水生态环境，确保“一泓清水永续北上”至关重要。近日，在市区二龙山水库，工作人员正在对水面漂浮物进行清理打捞，确保水质干净。“二龙山水库作为国家南水北调中线工程水源涵养区和城市地下水水源地，确保水质安全是我们的工作职责，近年来，我们不断加大库区巡查，探索建立长效机制，采取物理隔离、设立地理标志和警示标志等，切实保障‘一泓清水永续北上’和市区群众饮水安全。”二龙山水源保护管理站站长周文表示。', '不仅是生态越来越好，在全市各个县区，一大批生态修复治理、城市更新等项目的实施，也让身处秦岭腹地的群众幸福感成色更足。中心城区黄沙河、柳家沟、南秦河等生态治理工程，两河口·城市运动公园等民生项目，丹凤县、镇安县健身步道建设等项目，既补齐了城市基础设施短板，又进一步改善了区域生态环境，也为市民群众提供了更多的休闲娱乐场所，赢得了大家的广泛赞誉。', '我市拥有丰富的生态资源，如何在保护的前提下实现绿色、可持续发展？习近平总书记提出的“绿水青山就是金山银山”理念，为我市发展指明了方向。', '我市在秦岭地区率先开展国家生态产品价值实现机制试点工作，积极探索由政府主导、企业和社会各界参与、市场化运作、可持续的生态产品价值实现路径，加快生态产业化、产业生态化步伐，推动绿水青山“好颜值”向金山银山“好价值”转变，着力构建守护秦岭“中华祖脉”和“中央水塔”的长效机制。', '2022年4月，由市委、市政府联合中科院地理科学与资源研究所、中国气象服务协会碳汇与生态价值评估技术委员会主办的商洛市生态产品价值实现机制成果发布会在柞水县圆满举办。发布会上，中科院院士于贵瑞发布了商洛生态产品价值实现机制成果，包括两个评估指南、一个评估报告与一个核算平台。其中，根据评估报告显示，2020年我市生态产品价值达到3132亿元，为同期GDP的4.2倍；碳汇总量达到280万吨，为同期碳排放的80%。商洛成为全省乃至西北地区首个摸清并公布生态产品价值家底的市，得到社会各界广泛认可。', '2022年11月，我市党政代表团又赴浙江省丽水市考察学习，对丽水生态产品价值实现机制建设成果以及试点建设工作进行了系统了解。作为全国首个生态产品价值实现机制试点市，丽水聚焦建立健全生态产品价值核算与应用体系、价值转化政策体系、价值实现路径等方面，拓展了“绿水青山就是金山银山”转化通道。这次考察活动，代表团成员一路学习交流，一路思考感悟，受益匪浅、深受启发。大家纷纷表示，要加快生态产品价值实现机制试点，有前瞻性地探索完善我市价值核算、转化、交易路径和体系，推动生态产品从“无价”向“有价”转化，积极参与全国市场竞争，切实打通“绿水青山”与“金山银山”转化通道。', '走出去开阔视野、学习先进经验，回过头结合商洛实际、创新开展工作，商洛的生态产品价值实现工作正有力有序推进。我市把破解生态产品价值实现“变现难”“抵押难”作为破题方向，与中国科学院地理科学与资源研究所合作，建立了全国首个生态产品价值与碳汇评估平台，联合破解了生态产品价值实现中最基础的“度量难”问题。出台了《商洛市金融支撑生态产品价值实现十一条措施》，推动开展绿色信贷、生态保险、绿色担保等业务。其中，镇安县探索建立省内首个生态价值转化中心，积极开发“生态贷”金融产品，目前已支持8家绿色企业贷款6940万元，264户绿色产业户发放贷款3660万元，成为陕西首个开展“生态贷”金融业务的县。2022至2023年我市已推出两批生态产品价值实现创新典型案例29个。其中，2022年首批7个创新案例中的2个案例入选国家发改委生态产品价值实现经典案例，2个案例被国家《改革内参》刊登，2个案例获评为全省优秀改革案例。', '下一步，我市还将在破解生态产品价值实现度量难、交易难、变现难、抵押难“四难”问题上狠下功夫，加快转化通道的创新实践，不断推进生态产品价值实现。加快推进商洛市生态产品价值交易服务平台建设，推动生态产品价值核算结果在生态补偿、环境损害赔偿、经营开发、生态资源权益交易等方面的综合应用；制定出台GEP考评办法，发挥考核指挥棒作用，推动GDP、GEP双增长；成立市县生态资产运营管理公司，做实市场主体，用好秦岭地理标识，打造“秦岭+”系列区域公共品牌；探索开展一批碳排放权、排污权、用能权、用水权等权益交易，加快“两山”转化步伐，努力让商洛的生态优势更多地变为发展优势，争取进入国家生态产品价值实现机制试点名单，努力打造国家生态产品价值实现机制示范基地。', '良好的生态是商洛最大的资源，呵护最美蓝天、保护一泓清水、守护秦岭生态已成为全市人民的共识。持续向好的生态环境，也为加快打造“一都四区”，推进高质量发展、现代化建设厚植了绿色发展本底。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>274</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>商洛市决策咨询委员会办公室年部门决算说明部门级财政决算</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-10-15</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2015/101506.htm</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['按照《商洛市机构编制委员会办公室关于市决策咨询委员会办公室增设内设科室的通知》（商市编办发〔2018〕111号），市决策咨询委员会办公室现设综合科和咨询研究科2个内设机构，主要职责是：负责党务和政务的综合协调工作；承担机要、文秘、档案、人事、财务及网络管理与信息宣传等工作；负责重大活动和调研工作的组织协调；负责特邀顾问、委员、联络员的日常联络服务及管理。负责决策咨询研究课题的选题、计划安排；审核上报课题研究报告，编审报送《决策咨询信息》；负责专业研究组日常活动的对口服务工作；负责重要会议及文件的起草工作；负责编发《决策咨询年刊》；负责向市决策咨询委员会及专业研究组提供重要资料、信息等工作。', '（一）换届工作平稳顺利。2017年12月，市委对二届市决咨委组成人员调整后，领导班子立即召开主任办公会议，对换届后的各项工作进行了扎实安排。一是重新修订章程。为适应新时代新要求，新一届决咨委结合实际，对《商洛市决策咨询委员会章程》进行了重新修订。二是调整充实人员。遵照章程规定，坚持优化决策咨询队伍知识结构、专业结构和整体素质原则，对市决咨委聘请的顾问、委员和联络员进行了调整充实。经市委、市政府审定同意，共聘请特邀顾问21名、决咨委委员21名、县区联络员7名。其中：特邀顾问有赵德全、陈再生、刘维隆、吴前进、周一波、徐宗本等老领导和专家以及在省上部门、高校工作过的商洛籍领导同志；委员组成包括退休或退居二线的市直有关部门负责同志和市委党校、商洛学院、商洛职业技术学院的教授和学科带头人，以及我市部分著名企业家；联络员作为县区调研的协调人，由各县区委研究，市决咨委确定了7名县区人大、政协退休的领导干部。三是明确责任分工。依照委员的工作经历和专业特长，对21名委员进行编组，分别编入农业农村与城乡建设、工交财贸与环境保护、社会民生与法制三个专业研究组。同时，对研究组的职责进行了再明确、再要求，切实做到人人肩上有担子、个个身上有责任。', '（二）课题研究扎实开展。一是精心谋划课题。按照市委、市政府主要领导的指示精神，市决咨委不断创新工作思路，精心谋划酝酿课题，在积极征求社会各界方方面面意见的基础上，充分结合各县区、各有关部门实际，经决咨委主任办公会议多次讨论研究，确定了以“巩固脱贫成果，建立治理返贫长效机制”“总结经验教训，探索商洛矿产开发新途经”“做精做强职业教育，为新时代商洛发展培养社会主义劳动者”和“结合商洛实际，科学发展水产业”为主要内容的4个研究课题，并明确了包抓领导及课题组成人员。二是深入一线调研。决咨委把认真开展调查研究作为做好课题的保证举措来抓，采取多种形式，广泛调查研究，全面掌握情况，多方搜集资料，为课题报告的起草撰写提供了依据。今年以来，先后赴七县区召开座谈会10次，深入41个企业、6所学校、26个单位（村）召开座谈会47场次，收集意见建议345条。三是注重外出考察效果。按照市委、市政府主要领导指示，我们今年共组织外出考察两次，在对比中感受到了巨大差距，在参观中学到了有益经验，达到了学习经验、开阔眼界、增长见识、启迪思维的目的。6月24日至30日，农业农村与城乡建设组及有关部门负责同志赴重庆市、四川省2016年脱贫摘帽的万州区、武隆区、广安区、南部县等地，就巩固脱贫成果、建立返贫长效机制问题进行了考察学习。期间，先后实地察看了电商扶贫、旅游扶贫、创艺农业、柑橘产业、移民搬迁、脱贫奔康产业园等，并分别与四县区有关领导以及扶贫、农业、卫计、教育、财政等部门负责人进行了座谈交流。考察组每到一处都带着问题虚心请教，认真查看求取真经，在题为《脱贫更需防返贫》的考察报告中，考察组总结了两省市五个县区在脱贫攻坚工作中的6方面主要经验和4条有益启示，并在此基础上提出了保障脱贫攻坚的“三个统筹”“四个重点”“五项机制”等三方面建议，为我市脱贫攻坚以及治理返贫长效机制建立提供了很好的参考，此报告已在《商洛工作》上予以刊发。9月8日至14日，组织部分委员赴浙江省湖州市学习考察乡村振兴及美丽乡村建设情况，并形成考察报告。在湖州市及县区先后召开3次座谈会，与湖州市咨询委班子成员，吴兴区、德清县、安吉县政府领导，市县区农办、农业局、规划局、供销社等有关部门负责人进行了座谈交流。在考察报告中，全面总结了湖州坚持以生态环境治理为突破口，以农村综合改革为动力源，以城乡百姓得实惠为落脚点，以实施新农村建设、美丽乡村建设、乡村振兴战略为主线，在农业增绿、农民增收、农村增美上下功夫的“湖州经验”。结合我市实际提出了以振兴乡村产业为重点，加快推进农业高质量发展；以美丽乡村建设为抓手，全面打造生态宜居的农村环境；以农民素质提升为内容，大力推进乡风文明建设；以乡村治理为主线，打造更加和谐的乡村生活；以农民增收为目标，大力推动农民生活富裕；以农村改革发展为动力，推动体制机制创新；以脱贫攻坚为突破，实现农村均衡发展；以乡村规划为统领，一张蓝图干到底等八方面建议，为我市实施乡村振兴战略、建设美丽乡村提供了很好的借鉴。四是认真撰写课题报告。各课题组及时召开会议，讨论课题研究报告提纲，明确分工，认真细致撰写课题报告。课题报告初稿形成后，相继召开了报告修改讨论会，并送各县区和有关部门征求意见，经过半年多的工作，4个课题研究报告全部完成，并于11月初上报市委、市政府。', '（三）咨政能力显著提升。今年以来，市决咨委特邀顾问、委员从自己熟悉的领域和关注的问题出发，下基层，到农村，进单位，入学校，搜集整理资料，调查论证数据，认真撰写咨询建议，全年共提交各类意见建议21篇，审定后编发《决策咨询信息》16期。其中涉及脱贫攻坚4篇、社会民生热点问题5篇、城市规划与建设2篇、畜牧业特种养殖1篇、医药康养2篇、文物遗址博物馆建设1篇、有色金属矿产资源开发1篇。一是顾问积极主动参与。3月26日，省决咨委副主任陈再生同志、省政府办公厅巡视员郭卫东同志对决咨委全体委员和联络员作了关于履职培训的专题辅导，与会同志受益匪浅。7月16日至17日，“第二届商洛市决策咨询委员会第一次特邀顾问座谈会”在商州隆重召开。特邀顾问先后到商州区杨峪河镇吴庄村、森弗健康养生产业园、中心城市等地视察了解脱贫攻坚、移民搬迁、产业发展、城市建设等工作，陈再生、刘维隆、吴前进、徐宗本等老领导和专家在座谈会上发表了热情洋溢的讲话，为推动商洛追赶超越发展、加快“三个商洛”建设把脉问诊、建言献策，提出了许多宝贵的意见建议。会议的成功举办得益于顾问们主动担当，体现了新一届顾问们对商洛发展的关心支持，也营造了社会各界重视支持特色新型智库建设的良好氛围。二是委员认真履职尽责。年初，我们对二届决咨委委员进行了重新选聘，决策咨询工作对于新聘的绝大多数委员而言，既具有新使命，也充满着许多挑战。一方面，各专业研究组组长发挥了重要的纽带与桥梁作用。农业农村与城乡建设组王林斌同志、公交财贸与环境保护组候高社同志、社会民生与法制组陈知武同志，作为今年课题组的负责人，从课题方案的制定到专题调研的开展，从课题报告的撰写到征询意见的座谈，无不倾注着他们认真负责、严谨细致的工作作风。另一方面，委员都能积极参加各类活动，白天忙完工作，晚上加班加点撰写修改报告建议。涌现出了像张金良、李建设、杨守国、张国春、崔旭东等不负组织重托、不忘一名决咨委委员担当，诚实做人、低调干事、兢兢业业履职尽责的好典型。三是咨询领域不断拓宽。今年以来，我们在做好课题研究的基础上，还先后参与了市政府组织的《政府工作报告（修订稿）》征询意见座谈会和省决咨委关于脱贫攻坚工作的专题调研，协助发改委和商洛学院邀请省决咨委领导来商就“乡村振兴”“生态文明建设”作专题报告，协助榆林市决咨委开展历史文化古迹调查工作，配合北京大学数字中国研究院开展水资源专题调研活动。今年以来，共召开主任办公会议10次，决咨委全体会议4次，特邀顾问座谈会1次，向省决咨委和市委、市政府主要领导对接汇报工作7次，配合省、市及其他研究机构调研、座谈4次，协助发改委、商洛学院邀请省决咨委领导开展专题讲座2次。', '（3）本年度我单位年初结转结余资金13.05万元，比上年的30.44万元减少17.39万元。上年度结转结余资金属于年度尚未列支，结转到当年按原规定用途继续使用的资金，本年度不存在此类问题，故有所减少。', '（1）本年度我单位总收入共计141.31万元，其中一般公共预算财政拨款收入128.26万元，年初结转结余资金13.05万元。一般公共预算财政拨款为市级财政当年拨付的公共预算资金，包含一般行政管理事务80万元，事业运行48.26万元。', '（6）上年结转和结余13.05万元，为上年度尚未列支，结转到本年仍按原规定用途继续使用的资金。', '（1）基本支出54.47万元，主要是为保障市决咨委办的正常运转、完成日常工作任务而发生的各项支出。工资福利支出43.14万元，商品和服务支出6.9万元，对个人和家庭的补助支出4.42万元。', '（2）项目支出83.84万元，主要是为完成特定工作任务或事业发展目标，在基本支出之外发生的支出，均为课题支出。', '人员经费支出47.57万元，主要用于职工工资、津补贴、社会保障缴费、住房公积金、生活补助、医疗费等支出；', '公用经费支出6.9万元，主要用于日常办公费、印刷费、差旅费、会议费、招待费、劳务费、工会经费和公车补贴个人部分等支出。', '2018年购置车辆0台，支出0万元，公务用车运行维护费支出5.88万元，比上年增长了0.94万元，主要原因是根据《商洛市人民政府办公室关于市决咨办公车改革实施方案的批复》（商政办函〔2018〕279号）文件，按规定保留2辆业务车辆，领取公务交通补贴共2人。', '2018年单位日常公用经费支出为6.9万元，较上年公用经费支出9.58万元，减少了2.68万元，下降率为28%。主要原因是实际在职人数减少，其他相关费用标准也有所下降。', '3.“三公”经费：指部门使用一般公共预算财政拨款支付的因公出国（境）费、公务用车购置及运行费和公务接待费。', '4.智库：又称智囊团，是指专门从事研究的咨询研究机构，它将各学科的专家学者聚集起来，运用他们的智慧和才能，为社会经济等领域的发展提供满意的方案或优化方案，是现代领导管理体制中的一个不可缺少的重要组成部分。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>274</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>商洛市工商业联合会年部门决算说明部门级财政决算</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019-10-15</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2015/101520.htm</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['1、引导非公经济人士学习贯彻党的路线方针政策，遵守国家法律法规，培养拥护党的领导、走中国特色社会主义道路的非公有制经济人士队伍；引导会员践行社会主义核心价值观，做合格的中国特色社会主义事业建设者；组织和引导会员参与光彩事业和公益慈善事业，积极履行社会责任。', '2、参与我市政治、经济、社会等重大决策的协商，发挥民主监督作用；反映非公经济人士意愿和要求，参与有关法规、政策的制定和贯彻执行；做好有关代表人士政治安排的推荐工作。', '3、协助市政府做好公有制经济管理和服务工作，为商非公有制企业提供服务，推进企业结构调整和自主创新，加快企业发展方式转变和产业优化升级。', '4、促进行业协会商会改革发展，履行社会团体业务主管单位职责，指导和推动商会组织完善法人治理结构、规范内部管理、依照法律和章程开展活动，发挥宣传政策、提供服务、反映诉求、维护权益、加强自律的作用。', '5、推动劳动关系协调机制建设；协调处理投资者利益和劳动这么权益的关系，引导在商非公有制企业积极创造就业岗位，严格遵守国家相关法律法规和政策措施，尊重和维护员工合法权益，依法建立工会组织，开展工会活动。', '6、开展法律咨询服务，维护会员的合法权益；参与经济纠纷的调解、仲裁；反映会员的意愿和要求，营造有利于非公有制经济健康发展和非公有制经济人士健康成长的良好社会氛围。', '8、增进与外地工商社团及工商界、经济界人士的交流合作，为的非公有制企业开展合作提供服务。', '一是以政治教育为引领，强化非公经济人士思想认识。邀请省委党校教授就党的十九大报告中“贯彻新发展理念，建设现代化经济体系”作了专题辅导；组织全市40余名民营企业家赴南京大学参加 “南京-商洛-西宁民营企业家高级研修班”；开展纪实文学《梁家河》赠书诵读分享活动，向会员企业赠送《梁家河》书籍100多本，组织县区工商联、商会共15个单位40余人参加诵读分享活动；召开常委扩大会议，对习近平总书记给“万企帮万村”行动中受表彰的民营企业家的回信和习近平总书记在民营企业座谈会上的重要讲话进行专题学习。今年以来，共举办企业家专题培训10场次，培训非公经济人士及非公企业管理人员1000多人次，通过QQ群、微信群编发有关非公经济发展政策措施50余条。及时将党中央重大会议和习近平新时代中国特色社会主义思想宣传到非公企业中，确保非公经济人士在思想上、政治上、行动上与党中央保持高度一致。二是以现场观摩为引导，增强非公经济人士法治意识。组织非公经济人士和机关干部赴商州监狱开展警示教育活动，赴南京雨花台烈士陵园开展爱国主义教育；赴丹凤县马炉村开展主题党日活动。使非公经济人士知敬畏、存戒惧、守底线，遵纪守法，公平竞争，争当践行“亲”“清”新型政商关系的典范。三是加强光彩精神教育，动员和组织民营企业家开展扶危济困、奉献爱心等公益活动。联系陕西省沧州商会向商州区6名贫困学生捐助资金3.8万元，向杨底小学捐赠物资总价值4万余元。联系北京长顺邓氏制冷设备有限公司为商州区30名贫困大学生每人每年3000元的爱心资助。据不完全统计，今年以来，全市非公经济人士向社会各界捐资捐物达1614万元，资助学生308人、开展社会公益项目105个。', '一是积极参政议政。发动工商联界别政协委员，积极议政协商、建言献策。2018年市政协四届二次会上，工商联界别提交团体提案15件，个人提案60件，总共立案66件；其中《关于发展电子商务助推精准脱贫的建议》《关于加快商洛核桃产业发展及市场营销的建议》等8件被列为重点提案。二是开展专题调研。配合全国“万企帮万村”调研组深入镇安调研督导精准扶贫行动开展情况；深入七县区对“万企帮万村”精准扶贫工作和“四好”商会建设工作开展情况进行专项督导。三是积极配合全国工商联和省工商联完成了“新的社会阶层”、“营商环境”、“民营企业运行情况”等7项调研活动。', '以“万企帮万村”精准扶贫行动工作为抓手，组织引导企业实施产业帮扶、就业帮扶、金融帮扶、技能帮扶、公益帮扶等“五项帮扶”，带动贫困群众增收。2018年底，全市共组织非公企业767家，帮扶580个贫困村共计12.33万贫困人口。民营企业累计为贫困户提供就业岗位2260个,开展技术培训200余场次，受惠群众1.22万人。实施各类帮扶项目1647个,累计投入资金4.9亿元，为助力商洛脱贫攻坚做出了积极贡献。商洛市镇安雪樱花、陕西森弗等7家民营企业被授予“三秦帮扶善星”荣誉称号；陕西盘龙药业荣获全国“万企帮万村”精准扶贫行动先进民营企业称号。', '一是加强商会组织建设。指导西安市商洛商会、商洛市浙江商会、市工商联直属商会完成换届任务，充实和完善了商会领导班子，使商会的凝聚力和战斗力进一步提升。积极推进“四好”商会建设，集中时间深入7县区对“四好”商会建设情况进行调研督导，在山阳县召开了全市“四好”商会建设推进会。二是积极壮大会员队伍。2018年，全市新建基层、行业商会组织7个，新增会员245个；全市基层组织累计168个，会员累计8016个。三是加强机关自身建设。始终把机关自身建设作为工商联履行职能服务发展的首要任务来抓，积极配合完成了市委对机关开展的第四轮巡察任务，并积极开展巡查后的反馈整改活动；深入开展纪律作风整顿活动，全面查找领导班子和干部在廉政纪律、不担当不作为乱作为和慵懒散慢虚等方面存在的突出问题，并开展整改活动；加强机关文化建设，开展了《中国共产党纪律处分条例》、“保密知识”学习和考试，组织参加了党的十九大精神知识竞赛和市直机关工间操比赛；认真落实“三项机制”，严格遵守八项规定及其实施细则精神，加强机关廉政建设，树立了工商联机关的良好形象。', '基本支出132.56万元。主要是为保障商洛市工商联机构正常运转、完成日常工作任务而发生的各项支出。包括人员经费支出和公用经费支出。', '项目支出16.86万元。主要是为完成特定工作任务或事业发展目标，在基本支出之外发生的支出。包括一般行政管理事务支出和参政议政支出。', '2018年一般公共预算财政拨款基本支出总计132.56万元，其中人员经费支出113万元,主要是工资福利支出及对个人和家庭的补助支出；公用经费支出19.56万元，全部为商品和服务支出。', '2018年一般公共预算财政拨款安排的“三公”经费预算0.5万元。其中因公出国费用0元；公务用车购置及运行维护费0元;公务接待费0.1元。', '2018年一般公共预算财政拨款“三公”经费支出共计0.1万元。其中因公出国费用0元；公务用车购置及运行维护费0元;公务接待费0.1元。年度“三公”经费开支与2017年相比基本持平。', '2018年公务接待1批7人次,支出0.1万元，为陕西省“万企帮万村”精准扶贫督导考核领导小组来商，对我市“万企帮万村”精准扶贫工作进行督导考核活动支出。年度公务接待费支出与2017年相较基本持平。', '2018年“三公”经费年初预算0.5万元，实际支出0.1万元，短当年预算支出0.4万元。主要原因是市工商联落实中央八项规定，厉行节约、严格控制、压缩了经费开支。', '2018年会议费预算共计13.5万元，实际支出14.14万元，超预算0.64万元，主要原因是2018年市工商联组织召开了三届二次执委会和商洛市“四好商会”建设推进会等会议，会议总支出超出了年初财政下达的会议费定额预算标准。', '、“三公”经费：指部门使用一般公共预算财政拨款支付的因公出国（境）费、公务用车购置及运行费和公务接待费。', '、机关运行经费：指行政单位和参照公务员法管理的事业单位使用一般公共预算财政拨款支出的日常公用经费。', '2015年的10月17日，全国工商联、国务院扶贫办、中国光彩会正式发起"万企帮万村"。该行动以民营企业为帮扶方，以建档立卡的贫困村、贫困户为帮扶对象，以签约结对、村企共建为主要形式，力争用3到5年时间，动员全国1万家以上民营企业参与，帮助1万个以上贫困村加快脱贫进程，为促进非公有制经济健康发展和非公有制经济人士健康成长，打赢脱贫攻坚战、全面建成小康社会贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>274</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>政府工作报告年月日在商洛市第五届人民代表大会第商洛要闻</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/1124/138111.htm</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['政府工作报告——2024年2月2日在商洛市第五届人民代表大会第四次会议上-商洛市人民政府', '现在，我代表市人民政府向大会报告工作，请予审议，并请市政协委员和其他列席人员提出意见。', '过去一年十分艰难，大家都下了大苦，但也难中求成、收获满满，干成了一大批实事：一是总投资105亿元的镇安月河抽水蓄能电站首台机组并网发电，总投资107亿元的柞水曹坪抽水蓄能电站开工建设，总投资96亿元的山阳色河抽水蓄能电站获得核准，总投资51亿元的商洛电厂二期开工建设。二是我们仅用四个月建成商洛北客站，开通了西商城际列车，到年底累计运送旅客60万人次。三是秦岭博物馆主体基本完工，成为中心城区“新地标”。四是市生活垃圾发电厂、污水处理厂三期、交通综合物流园一期等城市补短板项目建成投用。五是刘湾大桥建成通车，民主西路、金凤二路、文博路顺利贯通，南秦河生态公园、东龙山公园、四皓公园、九鱼公园及七巧马莲、丹江源等一批休闲健身公园和滨水休闲设施建成开放，城市更新经验被住建部在全国推广，省内外120批次3000多人前来考察学习。六是皇冠假日、南山花园和山阳隆元基曼斯、商南运通逸云、洛南嘉宏、丹凤棣花携程农庄等一批高品质酒店相继建成开业。七是圆满举办了全国沙滩排球锦标赛等体育赛事，尤其是成功申办了2024国际沙滩排球U19世界锦标赛。八是国家排球训练基地、“一带一路”国家青少年排球高水平训练基地两个国家级、国际级的永久体育项目落户商洛。九是市中心医院完成了全面搬迁并步入正常运行，市中医医院搬迁运营并成功创成了“三甲”，市级三大公立医院的硬件环境发生了根本变化。十是秦韵高级中学和商州区十五小、十三幼等16所学校建成招生，新增学位13280个。十一是全省首条由地方政府主导、社会资本合作建设的丹宁高速东段提前建成通车，我市被评为全省唯一县县达标的“四好农村路”省级示范市。十二是柞水朱家湾被联合国世界旅游组织授予“世界最佳旅游乡村”，牛背梁景区晋升为国家旅游度假区，各县区都创建成了省级全域旅游示范区。十三是商洛被授予全国首个“美丽中国·深呼吸之都”，并和海南省、浙江丽水市一道成为全国首批气候生态产品价值实现试点市。十四是果断彻底圆满地处理了秦岭违建整治遗留问题，赢得了全盘工作主动。十五是城乡居民人均收入增速持续高于全省平均水平，群众获得感不断增强。', '一年来，我们紧扣“中国康养之都”总目标，认真落实市委五届四次全会精神，推动高质量发展取得了新成效。', '二是产业转型提质增效。新建高标准农田16.75万亩，“柞水木耳”“洛南豆腐”入选国家地理标志保护产品和证明商标，丹凤葡萄酒入选“中华老字号”，商洛果蔬装进沪粤港澳“菜篮子”，被授予全国首个“名特优新农产品高质量发展样板市”。商洛经开区、商南工业集中区创建为省级经开区，商洛化工产业园被批准为陕南首个省级化工产业园区。抽水蓄能和尾矿资源综合利用两大产业持续推进，重点产业链条不断延伸，比亚迪汽车零部件产业园二期、国蜂蜜水产业园等20个重点工业项目建成投产，新纳规工业企业38户。全市旅游人数和收入分别增长75.2%、82.5%，成功入选“中国特色气象旅游城市”，仓颉小镇、云盖寺古镇晋升4A级景区，丹凤留仙坪被授予“中国美丽休闲乡村”，柞水营盘镇入选全国乡村旅游重点镇，商州、洛南、山阳、镇安获评“中国天然氧吧县”，七县区都被纳入国家全域森林康养建设试点。成功举办了全国沙滩排球锦标赛、首届龙舟赛、全国钓鱼锦标赛、“秦岭传奇”八国拳击金腰带争霸赛、丹凤首届国际红酒节等大型赛事和主题营销活动170余场次。提升改造夜间餐饮、购物聚集区86个。限上消费品零售总额增长8.3%。', '三是城乡面貌焕然一新。“干净商洛”创建纵深推进，“两拆一提升”三年行动圆满收官，中心城区“2+7”和县城“1+N”水生态修复治理、线缆落地、“白改黑”、城市风貌提升等基本完成，城市公园、休闲长廊、公厕凉亭、健身步道建设和人性化、智慧化改造成效明显，中心城区和各县县城面貌发生了根本性变化。“两改两转三促进”持续推进，改造农村户厕7.74万座、土坯（石板）房1.04万户，建成秦岭山水乡村300个，集体经济“薄弱村”全部清零，全省农村饮水安全保障、科技赋能乡村振兴等现场会议在我市召开。', '四是生态优势持续扩大。深化“双查”和“快查快处”，有效保护秦岭生态环境。恢复整改和异地补划耕地6.8万亩，修复矿山生态3517亩。完成营造林77.4万亩，普查保护古树名木40.8万株。中心城区空气质量综合指数全省第一，主要河流监测断面和城市饮用水水质全面达标，农村生活污水治理率50%，高出全省平均水平13.6个百分点，丹凤被评为国家水土保持示范县，商南小流域治理成为国家示范工程，商州、柞水入选国家生态文明建设示范区。“发展气候康养经济”做法入选中国改革典型案例，生态产品价值实现机制经验在全国交流。', '五是创新发展活力增强。西商融合协同发展持续深化，55项合作事项深入推进，与关中平原城市群14个城市住房公积金互认互贷，外地人在商购房贷款477笔2.2亿元。全市新增瞪羚企业3家，入库科技型中小企业518家。173个审批服务事项实现规范化容缺受理，市公共资源交易中心正式运营。市县两级政府债务风险等级全部降至黄色以下。招商引资签约项目397个。外贸出口增长58.2%。非公经济占比53.5%。', '六是民生福祉可感可及。新增城镇就业1.6万人，农村劳动力转移就业49.8万人，城乡居民人均可支配收入分别增长6%和8.5%。巩固衔接工作成效显著，在中国农业大学为我市培训“乡村CEO”500名。引进名校长、名教师15名，招聘高中优秀教育人才147名，培训康养技能人才1.37万人。豪华墓地治理取得阶段性成效。纪录片《丹江》开机拍摄，花鼓戏《若河》荣获省第十届艺术节“文华大奖”。成功举办丝绸之路气象赋能高质量发展论坛，气象防灾减灾经验全国推广。推行“人盯企业”单一包联责任制，安全生产形势比较稳定。建立了法治工作“双126”机制，镇安被评为全国信访示范县，我市入选全国首批社会治安防控体系建设示范市。', '一年来，我们扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，驰而不息换脑子、转作风，大力弘扬务实之风、清廉之风、俭朴之风，持续整治形式主义、官僚主义，锤炼干部作风能力，想干事、能干事、干成事的氛围日益浓厚。强化法治政府建设，主动接受舆论监督，自觉接受人大依法监督和政协民主监督，办理市人大代表建议278件、市政协委员提案303件。国防动员、外事侨务、民族宗教、咨询调研、审计、统计、电力、烟草、邮政、老龄及妇女儿童、慈善、残疾人、红十字会、关心下一代、地方志等工作，都取得了新的成绩。', '各位代表！过去一年，商洛发生的每一个变化、取得的每一份成绩，都凝聚着全市干部群众的智慧和汗水，是大家一道拼出来、干出来、奋斗出来的！在此，我谨代表市人民政府，向广大干部群众，向各位人大代表和政协委员，向各民主党派和社会各界人士，向商洛的在外乡党们，向驻商部队、武警官兵、公安干警和消防指战员，向所有关心支持商洛发展的各级领导和同志们，表示衷心的感谢！', '奋进之路无坦途。我们也清醒认识到发展中的短板和不足：传统产业转型步履艰难，新兴产业尚在蓄能起势；重大项目支撑不足，消费和投资增长动力偏弱；秦岭生态保护压力持续加大，镇区建设相对滞后，就业、教育、医疗等民生领域还有不少短板；财政收支矛盾较为突出，少数干部作风不实，等等。对此，我们将靶向施策、逐项破解，让商洛发展更有质量、让商洛人民更加幸福！', '今年是新中国成立75周年，是实现“十四五”规划目标的关键一年。政府工作的总体要求是：以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大和习近平总书记历次来陕考察重要讲话重要指示精神，认真落实中央经济工作会议部署、省委十四届五次全会暨省委经济工作会议要求，坚持稳中求进、以进促稳、先立后破，完整准确全面贯彻新发展理念，更加主动融入和服务构建新发展格局，统筹扩大内需和深化供给侧结构性改革，统筹新型城镇化和乡村全面振兴，统筹高质量发展和高水平安全，深化拓展“三个年”活动，大力发展县域经济、民营经济、开放型经济、数字经济，打好“四提攻坚战”，实现“六个做示范”，加快打造“一都四区”，推进富民强市，奋力谱写商洛高质量发展、现代化建设新篇章。', '主要预期目标是：生产总值增长6%以上，固定资产投资增长8%以上，规模以上工业增加值增长7.5%以上，社会消费品零售总额增长7.5%以上，城乡居民收入分别增长6%、8%以上，一般公共预算收入增长5%，城镇新增就业1.6万人以上，城镇调查失业率5.5%以内，居民消费价格涨幅3%左右，粮食总产量48万吨以上。单位生产总值能耗降低3%以上。', '当前，外部环境复杂多变，我市也处于结构调整、转型升级的紧要关头。实现全年发展目标，我们必须按照市委五届五次全会的总体部署，紧紧围绕打造“中国康养之都”总目标，深挖生态资源优势，推动重点产业延链集群，支撑工业经济转型突破；学习“千万工程”经验，推动乡村全面振兴；统筹发展数字消费、绿色消费、健康消费，培育赛事节会经济新的消费增长点；持续提升城乡宜居品质，加快建设美丽中国先行区；深入实施西商融合协同和“双对标、双50”战略，全力迎接高铁时代，切实把高质量发展这一首要任务全面落实到商洛大地上。', '更高质量推项目。实施省市重点项目121个，年度投资190亿元，确保6月底前开工率达85%，9月底前达100%，年底前全部入库纳统，力争西十和西康高铁、洛卢高速、商洛电厂二期年内完成投资110亿元以上。全力保障国家电网补强升级项目建设，完成年度投资15.76亿元。加快丹宁高速镇安至宁陕段、西合高铁、750千伏输变电等重点项目前期工作。紧盯中央预算内投资、地方专项债、特别国债重点支持领域，策划包装一批新型基础设施、新兴产业项目，全年谋划储备重大项目620个、总投资3800亿元。', '更大力度抓招商。狠抓精准有效招商，在京津冀、长三角、粤港澳等重点地区设立招商联络处，实行市域统筹，建立招商项目“共享池”、跨区域流转和利益共享机制。积极承接东部沿海产业转移，大力发展“乡党”经济、“归雁”经济。主要负责人要带头外出招商，全年引进链主企业不少于7家。', '更高标准优服务。“一专班一政策”推动重点项目建设，加强“六库两线一码”管理，实施绿色通道、容缺受理，开展“亩均效益”评价，加大批而未供、闲置低效用地和僵尸企业、僵尸项目处置力度，全市供应土地6000亩、盘活存量土地3000亩，市本级储备土地2000亩，省级开发区60%以上新增工业用地实现“标准地”供应。清理整顿整合市级各类平台公司。狠抓社会资本投资，讲求投资有效性。', '促进工业提档升级。大力支持现有企业技改扩张，抓好陕西锌业锌基合金等115个工业项目建设，完成年度投资120亿元。力促比亚迪混合式气体发生器、西冶科技集团智能制造等50个工业项目建成投产，力争新增工业产能100亿元，培育规上工业企业30户。加快矿业“五化”转型，推进陕西五洲、洛南九龙等企业绿色化、数字化改造，加快尾矿资源全量化利用示范项目建设，全面创建绿色矿山。力促镇安月河抽水蓄能电站全面投产、山阳色河抽水蓄能电站上半年开工，加快柞水曹坪抽水蓄能电站建设进度，力争丹凤鱼岭抽水蓄能电站获得核准。发展以正太能源绿氢制储、陕西国飞无人机制造为代表的氢能、无人机等未来产业，培育壮大新质生产力。', '推进园区提标扩容。大力支持高新区、经开区发展，加快高新区创“国高”，抓好天士力产业园二期等24个新建项目建设，盘活跃迪、大圣王、众鑫、创新大厦等僵尸企业和闲置资产。完善商洛经开区园区路网、燃气管道等基础设施，续建和新开工项目15个，新增产值10亿元以上。推进商洛化工园区建设，加快氟精细化工项目落地。支持镇安、柞水工业集中区创省级经开区，提升商南经开区、山阳高新区、商州和丹凤工业集中区功能配套，全市标准化厂房入驻率达到80%以上。', '建设特色农业强市。实施“品牌强农”行动，加快“商洛山珍”注册，用好“秦岭记忆”商标，整合“秦岭泉茗”品牌。建设高标准农田6万亩，确保耕地面积174万亩、粮食播种面积238万亩以上。促进“菌果药畜茶酒”全链条升级、产加销贯通、农文旅融合，发展食用菌4.7亿袋、优质中药材10万亩、烤烟8.3万亩，改造提升林果低产园40万亩、茶园3万亩，肉蛋产量分别达到17.5和10.5万吨，葡萄酒综合产值达到12亿元以上。在西安、南京等地设立商洛名优特产实体店，推动优质农产品进大型商超、上直播平台。', '打造高品质赛事品牌。树立“赛事＋”理念，以赛引流、以赛聚人、以赛促旅、以赛招商。举全市之力办好来自全球50多个国家参加的国际沙滩排球U19世界锦标赛，让世界在商洛看见美丽中国，让22℃商洛走向全世界。按照商业运营、社会投资、产权明晰的原则，高标准建设国家排球训练基地，争取建成“一带一路”国家青少年排球高水平训练基地，加快市体育公园和商州排球文化运动公园建设，常态化开展排球、气排球联赛，力争用3—5年建成“国际排球名城、中国赛事名城”。大力培育“秦岭传奇”赛事品牌，办好全国钓鱼锦标赛、全国航空航天模型锦标赛、全省青少年排球锦标赛、水上游泳公开赛、丹江龙舟大赛等10余项赛事，大力发展群众性体育，做到周周有活动、月月有赛事，建设赛事经济样板市。', '创建最佳旅游目的地。加快商南金丝峡、山阳漫川关、镇安木王山创国家级旅游度假区，柞水溶洞、镇安塔云山创5A级景区，商南北茶文化旅游区、柞水秦楚古道创4A级景区。持续办好中国秦岭生态文化旅游节和四季主题营销系列活动，打造全域全季节特色旅游产品线路。抓好棣花古镇、终南山寨等示范性夜游景区建设，推出夜游、夜宴、夜购、夜娱等夜间经济新业态，编排一批文旅演艺节目在景区、公园常态化演出。办好第二届丹凤国际红酒节和中国西部红酒博览会、秦岭山珍美食大赛、秦岭民歌大赛等活动120场次，激活有潜能的文旅消费。继续加大高品质酒店的招商和建设。', '全域发展民宿康养产业。乡村旅游和民宿产业是我市促进农民增收、乡村振兴的重要路径。推广“运营企业+县区平台公司+村集体经济组织”模式，引进头部民宿运营品牌，盘活闲置农房等资源，全年建成10个村落农庄特色民宿、10个野奢帐篷精品民宿。抓好云山湖森林康养度假区、金鸡塬康养新城、盘龙养生谷和金山康养城等21个康养项目的建设和运营。办好第八届中国森林康养产业发展大会，争创全国森林康养示范市。', '树牢“经营城市”理念，提升中心城区承载力。持续改善城市宜居品质，带动城市资产升值。加快莲湖周边棚改，打通视觉廊道，还湖于民、还景于民，让莲湖成为又一个新的城市“会客厅”。抓好北客站、龟山周边区域规划开发，改造老旧小区114个。持续推进市政道路、线缆落地、绿化美化、桥下空间改造提升，做好两河口等核心区域夜景提升和日常维护。加快推进全域污水处理项目，实施排水管网普查改造、燃气管道更新、集中供暖延伸等“平急两用”公共基础设施项目。利用闲置空间、“退役”公交车建设小菜店等便民驿站，在公园补建演艺小舞台，布设健身器材，增加直饮水、休闲亭等人性化、便民化设施，不仅让公园看起来美丽，更要让市民和游客更方便、更舒心、更幸福。编制中心城区“老记忆”再现规划，着手启动修复老城墙、老商店、老邮局等历史建筑，改造大云寺、城隍庙周边环境。高质量发展“改善型”“订制式”房地产，改善市民居住品质，吸引西安人在秦岭安家、置业、度假、康养、消费。坚持“四精”标准，强化城市管理，为城市IP注入文化、体育、康养、文明“基因”。狠抓城乡公共卫生间管理服务，让卫生间成为“干净商洛”的又一张名片。', '发展壮大县域经济，提升县城镇区聚集力。优化县域产业结构和空间布局，推进棚户区改造，补齐县城基础设施和公共服务短板，构建以县城为枢纽、小城镇为节点的县域经济体系，力争全市县域首位产业总产值突破300亿元。开展和美镇区建设，编制镇区规划，强化功能配套，大力解决占道经营、交通混乱、乱搭乱建等问题，加快文化注入和商业培育，让各个镇区宜居干净、产业明晰。9个省级示范镇和7个重点帮扶镇年度投资不少于10亿元。', '学习运用“千万工程”经验，提升山水乡村吸引力。毫不放松巩固拓展脱贫攻坚成果，抓好乡村振兴重点帮扶县涉农资金统筹整合试点，确保不发生规模性返贫。抓住“干净”这个根本，持续建设康养、旅游、宜居秦岭山水乡村，完成农村改厕2.52万座，土坯（石板）房改造7500户，创建市级以上“千万工程”示范村100个，力争新型村集体经济收入50万元以上的村达到60个左右。稳步推进“新三通”，升级改造农村公路200公里，完善农村寄递物流体系。新建农村供水工程100处以上，创建清洁小流域15条、幸福河流21条。继续开展“乡村CEO”专题培训，每村至少培养一名新型乡村人才。', '当好卫士坚决守好秦岭。持续保持“双查”高压态势，确保秦岭“五乱”整治和存量问题动态清零，坚决保护好秦岭青山绿水，坚决守护好我们的美丽家园。开展农家乐和民宿规范整治。治理恢复废弃矿山1800亩。实施丹江口库区上游水保项目52个，治理山洪沟18条。完成国土绿化和森林质量提升50万亩，做好松材线虫病等防治，强化古树名木和生物多样性保护管理。', '建设美丽中国先行区。推进美丽蓝天、美丽河湖、美丽山川、美丽城乡建设，深入开展大气污染治理、利剑治污和环境突出问题大整治行动。加快补齐城乡垃圾污水收集处理设施短板，大力整治农业面源污染，全链条治理塑料污染。商州、洛南、商南、丹凤、山阳的生活垃圾停止填埋，要焚烧发电，启动柞水生活垃圾焚烧发电厂建设，2026年起全市垃圾填埋场全部关停。', '深度挖掘利用生态资源。气候和生态是我市取之不尽、用之不竭的最大优势资源，必须持续培育挖掘。抓好全国气候生态产品价值实现和国家气候适应型城市试点，启动秦岭气候经济研究院、秦岭小气候博物馆和金丝峡气候博物谷建设，办好全国气候康养经济大会、第六届“中国天然氧吧”产业发展大会，确保“中国天然氧吧市”创建成功。抓好“百万亩绿色碳库”示范项目、林业碳汇开发和国家储备林基地、商州丹江流域EOD项目建设，搭建生态产品价值交易服务平台，推动“绿水青山”真正转化为“金山银山”。', '提早布局全力迎接高铁时代。2026年高铁要开通，我市即将进入高铁时代。要加快6个高铁站场的基础设施配套和产业规划布局，启动市区高铁康养新城、西商科创生态康养园区建设，打造集创新创业、康体养生、高品质住宅于一体的城市综合体，发展“双栖型”企业，吸引更多外地人来商洛边创业边度假、边置业边康养，共建西商“生产圈、生活圈、生态圈”。', '科技数智赋能高质量发展。加快秦创原科技企业融通创新示范区建设，科技型中小企业、高新技术企业分别突破650家、160家。加快数字商洛建设，秦岭云计算大数据中心上半年投入运行，政务信息系统上云率提高到90%。实施“互联网＋”农产品出村进城工程和“数商兴农”行动。', '深化改革开放优化营商环境。推行集成化并联审批，建立覆盖企业全生命周期的集成服务和精准响应机制。实施国有企业改革行动，持续推进宅基地改革试点，深化集体林权制度改革，抓好新一轮财政体制改革。支持民营经济发展壮大，强化中小企业公共服务，新注册市场主体8000户以上。谋划推进陕西飞舟、商南中剑实业等铁路物流项目，常态化运行“商西欧”专列，进出口总值增长8%。', '千方百计稳就业促增收。促进高校毕业生、农民工、退役军人、脱贫劳动力、就业困难人员等重点群体就业，支持技能人才、在外乡党返乡就业创业。培养康养人才1万人，打造更多特色劳务品牌。建设“家门口”就业服务站20个，农村劳动力就近就地就业16万人。深入实施城乡居民收入稳定增长行动，持续扩大居民增收渠道，缩小城乡收入差距。', '不断提高公共服务水平。做好义务教育优质均衡和学前教育普及普惠“两项创建”，完善校点布局，巩固“双减”成效，推进“1+8”职教联盟建设。推动市妇保院创“三甲”，提升市中心医院医护水平，建成市中医医院门诊综合楼，把市中医医院改建成康养公园式医院。引进高层次医护人才30名、专业技术人才400名。加快秦岭博物馆展陈布局，争取上半年对外开放。盘活市文化艺术中心，与西安演艺集团合作运营市文化艺术中心大剧院，全年举办大型演出80场次。同时，推动戏曲舞蹈、民歌民谣、音乐会进公园、进社区，实现“天天有表演、周周有演出”，活跃市民生活，带动夜间经济，拉动文化旅游。纪录片《丹江》“十一”前在央视播出。推行“体育+”战略，实施“户外运动活力山水”计划，抓好体育馆、游泳馆、全民健身中心建设，推动群众体育、竞技体育、青少年体育、体育产业、体育文化“五位一体”高质量发展。', '健全完善社会保障体系。健全基层医保经办体系，推进医保支付方式改革，加快紧密型县域医共体建设，完善多层救助体系，建设市养老中心，搬迁市社会福利院，建成市精神卫生社会福利院，加快交投医养结合项目建设。发展银发经济，启动社区“老年食堂”试点，打造旅居养老基地11个。推动县区殡仪馆、城乡公益性公墓建设。', '提高基层社会治理效能。坚持和发展新时代“枫桥经验”，全面推进信访工作法治化。持续优化人防审批，加强质量监督，加快国防重点项目建设。推进“八五”普法，常态化开展扫黑除恶斗争，确保社会大局和谐稳定。', '守住守牢安全发展底线。开展安全生产“治本攻坚”三年行动，盘活烂尾多年的市气象大厦资产，建设市本级和洛南、镇安、柞水气象防灾减灾“三合一”平台，做到防灾减灾和趋利避害“两手抓”。加强水库除险加固和防洪工程建设，做好森林防灭火和地质灾害防治，确保群众生命财产安全。', '注重防范化解各种风险。积极做好保交楼工作。夯实财政“三保”兜底机制，稳妥化解债务存量。严格市级平台公司监管。严打非法金融和电信网络诈骗活动，守护好人民群众幸福安宁。', '各位代表！商洛近年来发生的可喜而深刻的变化，得益于市委的坚强领导，也得益于全市上下持续换脑子、转作风。商洛发展已经上了路子，到了加快追赶的关键时期，来不得半点的骄傲自满，我们一定要再换脑子、再转作风，再下大苦抓落实。', '时刻不忘“忠诚”的政治本色。把学习贯彻习近平总书记重要讲话重要指示精神、党中央的决策部署，以及省委、市委的工作要求，同高效履行政府职责使命融合贯通起来，用实干实绩实效，坚定拥护“两个确立”、坚决做到“两个维护”。', '牢记政府前面“人民”二字。始终站稳人民立场，拜人民为师、向人民学习，始终牢记所有下苦付出的根本目的就是让人民高兴和满意。做决策、抓落实，必须时时回应人民关切，顺应人民意愿，想人民之所想，解人民之所难，努力让商洛百姓过上更好的日子、活得更有尊严。', '在履职尽责中担当作为。事不避难、知难而进，可以办、应当办的事要马上办、办到位，不能办、不好办的事要创造条件办，在完成急难险重任务中显担当、在解决群众急难愁盼问题上求作为。绝不允许以不担当、不作为、没审批、不审批来逃避责任、追求安稳。对那些不干事、怕担事，凡事推诿扯皮、推三阻四的，坚决予以轮岗换岗或者歇岗。', '在反对形式主义上再下功夫。坚决反对和打破一切形式主义、官僚主义的陈规陋习和惯性思维，下大气力精文减会，整治数字留痕，继续坚持少开会、开小会、多会合一，开短会、开视频会、开现场会，支持基层、呵护基层，真正把基层干部从一天到晚陪检查、跑会场、报材料、填表格、应付暗访中解放出来，卸掉包袱、放开手脚，专心干实事、干有效能的事。领导干部要“手插面盆亲自干”，在实干中发现解决问题，在实干中总结经验教训，在实干中锤炼能力作风。', '树立长期“过紧日子”思想。严格落实市政府出台的“过紧日子”二十条、减支出转作风提效能十条、节俭办节会八条等措施，盘活利用闲置国有资产，清理临时聘用人员，原则上停止一切办公场所装修和建设，推广使用纯电动公务车辆，禁止制作非必要的文件汇编、宣传画册、展牌展板，各类节会赛事活动原则上实行市场化运作、经费自求平衡。该花的钱一定要花到位，不该花的钱一分都不能乱花。', '各位代表，百舸争流，奋楫者先；千帆竞发，勇进者胜。让我们更加紧密地团结在以习近平同志为核心的党中央周围，在省委、省政府和市委坚强领导下，在市人大、市政协的监督支持下，始终牢记商洛两字，心中装着人民两字，同人民群众想在一起、干在一起，先人一步谋发展，快人一拍抢机遇，胜人一筹抓落实，奋力谱写商洛高质量发展和现代化建设新篇章！']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>274</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>商洛市供销合作社年部门决算公开情况说明部门级财政决算</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2019-10-15</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2015/101544.htm</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['（一）宣传贯彻党和国家有关农村供销社事业工作的方针、政策；研究提出全市合作经济的发展战略和发展规划，参与有关规范性文件的拟定；指导全市供销社的改革和发展，促进合作经济的发展。', '（二）研究拟定供销社企业改革措施；负责供销社企业资产的运行监督；指导供销社企业建立现代企业管理制度。', '（三）发展化肥、农药、农用物资的储备、管理工作；开展“秦岭泉茗”茶叶品牌整合；组织、协调全市重要农业生产资料以及涉农商品的经营；负责烟花爆竹的统一归口经营管理和系统废旧物资再生资源的经营管理。', '（四）管理运营本地社有资产，对直属企业单位行使出资人的职能；监督管理事业单位资产；指导全市各级供销社社有资产的管理。', '（五）指导全市供销合作社发展专业合作社和消费合作社；参与和推动农业产业化经营，开拓城乡市场。', '（七）指导市供销合作社系统的组织队伍建设和人才开发工作；组织指导对各级供销社干部和职工的教育培训。', '（八）依照规定，受有关部门委托，对有关行业、学科或业务范围内的全市性社会团体履行业务主管单位的监督管理职能。', '（九）根据有关规定，代表系统内经济组织与市内外其他经济组织、社会团体、学校等开展经济、贸易、技术、人才交流，签订合资协议，接受捐赠、资助；组织协调和指导本系统的外经外贸工作。', '根据上述职责，市供销合作社设6个内设机构：办公室、劳动人事科、经济发展科、财会审计科、基层工作科、农产品促销科。', '2018年，全系统实现商品总购进120.45亿元，其中农副产品购进35.7亿元，商品总销售127.36亿元，汇总利润3656.45万元，同比分别增长13.25%、15.34%、11.4%、10.2%。新建镇村级电商服务站88个，累计达到174个；新建专业合作社15个，成立开放办社企业16个，创建国家级示范专业社3个、省级基层社标杆社7个、星级综合服务社13个，荣获合作经济年度奖项5个；妥善解决了市生产资料公司2688万元历史遗留债务问题；成功举办了全省基层组织建设暨综合改革（陕南片）现场会；主要领导被授予全市优秀共产党员称号；党的建设、脱贫攻坚工作成绩优异，荣获全市2017年度目标责任考核和脱贫攻坚工作成效考核“双优秀”；市供销社驻村工作队被评为“全市优秀驻村工作队”；荣获安全生产、信访维稳先进单位，招商引资、园林城市创建等各项工作均完成全年目标任务；产业扶贫和部门驻村包扶等扶贫经验，被新华社、陕西日报、商洛日报以《打造数字供销 抒写为农新篇》《赵沟村的脱贫致富经》等专题报道。', '（一）贯彻落实中省精神，深化全系统综合改革。市县区《供销社综合改革意见》全部出台；12月6日-7日，全省基层组织建设暨综合改革（陕南片）现场会在我市胜利召开；商州、洛南、柞水县成立资产经营管理公司；市社主要领导撰写的《深化供销改革 服务乡村振兴》考察报告被市委《商洛工作》刊登。', '（二）紧抓宁商协作机遇，通过商产入宁助力脱贫攻坚。市社主要领导带领7县区供销社及部分企业负责人，多次赴南京市考察学习交流，与当地供销、农业、物流管理等部门积极对接，签订了“1+7”扶贫协作和农产品促销协议等10多份，构建了“优势互补、长期合作、聚焦扶贫、实现共赢”的新机制；在南京建成商洛秦岭农产旗舰店8个，全年销售商洛特产2600多万元，其中销售柞水木耳50多吨；主办“最受南京市民欢迎的商洛农产品”招标大会，优选58家农产品加工企业为商洛秦岭农产旗舰店供货；举办2018陕西名优农产品（南京）展销推介会，展会上我市8家供销企业与南京、上海等地企业签订了8262万元的销售协议。', '（三）发挥供销职能优势，助农增收成效显著。充分发挥供销经营网点多、覆盖面广的优势，开展以种养加技术及务工技能为主的培训班100余场次、培训贫困户8136人次。成功举办了“2018年陕西供销（商洛）年货大展销”活动、商洛市商南县农特产品春季展销推介会、十二届“茶博会”招商推介活动、“最受南京市民欢迎的商洛农产品”招标采购会、2018陕西名优农产（南京）展销推介会等5次活动，组织参加了青岛、长春、无锡、海口农博会等6次活动。累计参展企业128个，展销商洛农产58大类300余种，签订协议38份，协议金额6.9亿元，活动现场销售8310万元，其中促销贫困户农产品3620多万元；全系统培育了“秦岭泉茗”、栗香美、柞八珍、大秦岭牛伯伯等省级著名商标8个，带动销售1400多万元。', '（四）聚焦驻村精准帮扶，通过扶持产业助力脱贫攻坚。为包扶村—丹凤县赵沟村积极争取各项资金175万元，修建基础设施10多处，发展中药材、花卉产业200多亩，发展散养鸡3000多只，年产值达600多万元，惠及211户贫困户436人；市供销社驻村工作队被评为“全市优秀驻村工作队”，驻村第一书记焦华被评为“丹凤县优秀第一书记”，驻村工作队员屈景辉被评为“全市优秀驻村工作队队员”。', '（五）加强合作组织建设，完善基层服务体系。通过共同出资、共创品牌、共享利益等方式，领办创办农民专业合作社15个，新发展农民专业合作社联合社2个，新建村级综合服务社12个，成立开放办社企业16个，创建国家级示范专业社3个、省级基层社标杆社7个、星级综合服务社13个，荣获合作经济年度奖项5个。', '（六）创新为农服务方式，开展土地托管等农化服务。商南、山阳、洛南县供销社分别依托秦岭泉茗公司、瑞君生态农业公司和宏泰金银花种植专业社开展了11000亩茶叶、中药材种植土地托管服务，覆盖3镇10村538户农户，实现人均增收2600元；截至目前，全系统累计开展土地托管11.7万亩，建设托管服务中心10个，庄稼医院11个，测土配方2万亩，购置农机具2084台（件），建设农资、农产品加工仓储设施4万平方米。土地托管直接带动贫困户1126户3218人户均增收1865元，为贫困户提供就业岗位1023个，每人每月平均增加收入1300多元。', '（七）紧抓“新网工程”建设，重点项目推进顺利。以信息化改造为核心，强力推进“新网工程”五网融合发展，争取扶持资金1620万元，新建“新网工程”连锁网点50个，其中镇安县新建智慧超市2家，洛南县新建社区便利店13家，智慧超市8家。全市“新网工程”连锁企业实现连锁销售额8.6亿多元。建成了商洛电商仓储物流中心，镇安高山农产整理链项目、镇安万吨有机肥生产加工项目、山阳县秦岭农产配送中心项目、陕西供销柞水木耳服务中心项目等5个重点项目进展顺利。', '（八）壮大供销电商队伍，线上线下协同发展。我市供销社成为全省供销社电子商务进农村建设示范市，新建镇村级电商服务站88个，累计达到174个。开展供销电商助力脱贫攻坚“春季攻势”活动，活动期间实现线上销售商洛山地农产7500万元，其中帮助贫困户销售土鸡蛋、土蜂蜜、木耳、中药材等各类农产品1120万元。全年实现线上销售额8.78亿元，其中带动销售商洛名优农产品1.8亿元，收发快递包裹130多万件，孵化电商创业者300多人，提供金融服务40多笔。', '（九）党建引领全面发展，不断提升系统实力。以学习领会习近平新时代中国特色社会主义思想为核心，落实“两学一做”学习教育常态化制度化；打造“供销惠农促脱贫”党建特色品牌；组织党员干部赴马炉村、梁家河开展“不忘初心、牢记使命”主题教育；充分利用“三项机制”，充实中层干部队伍。', '（十）开展以案促改，顺利完成产业精准扶贫试点移交工作。6户产业精准扶贫试点企业共带动1132户贫困户，实现户均增收2300元；按照省政府主要领导的批示精神和省总社的安排部署，配合省第三工作组赴洛南、丹凤、镇安县，与县政府和6户试点企业召开产业扶贫试点工作移交座谈会，顺利签订移交协议，将6户试点企业的产业扶贫试点工作、扶贫档案资料和1.2亿股权移交至县政府指定的企业，并按期完成了工商注册变更登记。我市的产业扶贫试点移交工作走在全省的前列。', '2018年，全市供销工作虽然取得了阶段性成果，但还存在一些问题。一是个别县改革创新意识不强，工作进展不平衡。二是基层组织发展进展较慢，部分县区未完成基层组织建设目标任务。三是“三会”制度建设等综合改革推进缓慢，各县区社均没有实质进展。', '商洛市供销合作社属于一级部门，单位性质为参照公务员管理的事业单位，经费管理形式为全额财政拨款单位。', '2、本年度收入总计507.54万元。包括：一般公共预算财政拨款收入466.69万元，为市级财政当年拨付的公共预算资金财政拨款。上年结转和结余22.84万元，为以前年度尚未列支，结转到本年仍按原规定用途继续使用的资金。其他收入18.01万元，主要为水、电费等收入。', '3、本年度支出总计499.94万元，包括：①基本支出312.82万元，主要是为保障商洛市供销合作社机构正常运转、完成日常工作任务而发生的各项支出。②项目支出187.12万元，主要是为完成特定工作任务或事业发展目标，在基本支出之外发生的支出：其中包括：农民专业合作经济组织等培训经费5万元，农产品促销业务费6万元，新农村现代流通服务网络工程工作经费10万元，茶博会专项资金50万元，山地农产推介工作经费30万元，茶产业发展工作经费60万元，南京推介会经费20万元。', '2018年度一般公共预算财政拨款安排的“三公经费”支出21.46万元，其中：因公出国（境）费用3.42万元，公务接待费0.32万元，公务用车购置费0万元，公务用车运行维护费17.72万元。2018年度，公务用车保有量为0辆，原因为参加车改，机关无车辆。2018年度国内公务接待5批，34人次，产生公务接待费0.32万元，较2017年相比增加0.24万元，主要为召开培训会议，县区参会人员就餐；与2017年度相比，因公出国（境）费用增加3.42万元，主要为单位领导组团参加了2018年莫斯科国际食品展览会陕西农产品展并对外投资合作活动任务；公务用车购置费均无增减；公务用车运行维护费减少0.42万元，主要为18年度开展的推介减少，租用平台公司车辆次数减少，公务用车租赁费减少。', '因公出国（境）支出年初部门预算未列支，因参加2018年莫斯科国际食品展览会陕西农产品展并对外投资合作活动任务组团1个，4人次，支出34200元。比上年增加34200元，主要原因为2017年度无因公出国境事项，未产生该项费用。', '公务用车购置及运行维护费支出年初未列部门预算，2018年购置车辆0台，支出0万元，与上年持平，无增减变化。公务用车运行维护费支出17.72万元，与上年相比减少0.42万元，主要为18年度开展的推介减少，租用平台公司车辆次数减少，公务用车租赁费减少。', '2、培训费支出情况。培训费年初预算为0元，2018年实际支出培训费0.98万元，超预算0.98万元。参加的培训有中省干部教育培训、公务员网络培训、安全管理人员培训、会计继续教育培训、新任职科级干部培训、党的十九大精神宣讲培训等活动。与2017年相比，培训费支出减少0.22万元，主要原因为18年度培训减少，致使培训费用减少。', '3、会议费支出情况。会议费年初预算为2.5万元，2018年实际支出会议费0.06万元，主要为召开县区业务培训会议时产生的租用会议室费用，与2017年度相比会议费支出持平。短预算2.44万元，主要原因为精简各项会议，压缩会议费用。', '2018年度本部门公用经费支出67.35万元，与2017年度相比增加32.09万元，主要原因为统计口径有所调整,相关经济分类支出调整到公用经费支出项中。', '3、“三公”经费：指部门使用一般公共预算财政拨款支付的因公出国（境）费、公务用车购置及运行费和公务接待费。', '4、机关运行经费：指行政单位和参照公务员法管理的事业单位使用一般公共预算财政拨款支出的日常公用经费。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>274</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>原商洛市老龄工作委员会办公室年部门决算说明部门级财政决算</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-10-12</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2015/101548.htm</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['商洛市老龄工作委员会是市政府主管的全市老龄工作的议事协调机构。商洛市老龄工作委员会办公室是市老龄工作委员会的办事机构。设内设机构1个：综合科加挂维权科牌子。根据市委市政府机构改革方案，本部门2019年拟划转至商洛市卫生健康委员会，相关内设机构随之调整。', '主要职责是为维护老年人合法权益提供服务。老龄事业发展规划制定；维护老年人合法权益；老年人高龄补贴资金管理；老年优待政策落实；人口老龄化调查研究；基层老年协会建设指导；敬老爱老助老主题教育评选表彰活动组织实施。', '一年来，我们通过强化组织部署，落实部门责任，开展督促检查等措施，切实做好各项老龄工作，保障老龄规划文件落实到位。一是召开全市老龄工作会议。4月11日，市政府召开全市老龄工作会议，传达学习了中省关于老龄工作的部署要求，回顾总结了近两年我市老龄工作成绩，安排部署了今年重点工作任务。市委常委、常务副市长李豫琦出席会议并讲话，强调要积极构建大老龄工作格局，夯实各涉老部门工作职责。会上表彰了全市老龄系统先进集体和先进工作者，洛南、丹凤县老龄委和市人社局、卫计局分别作经验交流发言。二是建立老龄委成员单位联络员工作制度。为进一步加强市老龄委各成员单位的联络沟通和协作关系，建立了市老龄委成员单位工作联络员工作制度，25个成员单位分别确定一名科级干部作为本单位的老龄工作联络员，并明确了联络协调工作的内容、工作机构及职责，制定了工作相关制度。三是落实“十三五”规划部门责任。市老龄委根据各部门单位职责和“十三五”规划各项目标任务，印发了《〈商洛市老龄事业发展和养老体系建设“十三五”规划〉任务分解方案》，明确了任务责任单位，市老龄委各成员单位及相关单位根据任务分解方案，制定了部门落实目标任务工作计划。各县区结合实际，制定出台了本地《规划》。四是出台老年人照顾服务项目实施意见。根据省政府办《关于制定和实施老年人照顾服务项目的实施意见》精神要求，市老龄办认真调研，在征求了25个单位意见基础上，起草了我市实施意见，经市政府常务会议审议后，市政府办印发了《关于加快推进老年人照顾服务项目的实施意见》，市政府确定在中心城市择优筛选条件相对成熟的住宅小区，试点推进居家养老，为全市推广积累经验、奠定基础。五是完成《规划》中期评估。根据省统一安排，市老龄办组织开展了老龄事业发展和养老体系建设“十三五”规划中期评估，评估以老年社会保障、养老服务、老年健康、老年宜居环境、老年社会参与、老年人权益保障、老龄工作基础和保障为重点，各涉老部门认真履职，通过评估，全面掌握了规划完成情况，如期完成中期目标。', '围绕精准脱贫中心工作，扎实做好以高龄补贴发放为重点的脱贫工作任务。一是做好配套资金预算下拨工作。今年省级补助资金3425万元、市级配套资金884.9万元已全部下拨到各县区，截至11月底，全市前三季度高龄补贴资金已全部发放到位，预计全年共为15.3万名70岁以上老人发放补贴1.15亿元。二是加强补贴资金绩效评价。与市财政局印发《商洛市高龄老人生活保健补贴项目资金绩效评价方案》，制定了评价考评表，11月底对高龄补贴发放工作进行了评价考评，确保补贴资金管理规范、发放精准。三是认真做好高龄补贴复审工作。开通了商洛市高龄补贴复审系统和手机复审平台，印发了《关于在全市开展老年人信息采集及老年人生活保健补贴复审工作的通知》，组织各县区积极开展高龄补贴年审工作，杜绝补贴资金错发冒领现象。截至11月底，共12.1万人通过年审。四是加强监督检查。认真做好自然减员核查工作，共核减死亡人员10064人，定期进行电话抽查，抽查了8个县区73个镇办110个村居565名高龄老人，并对抽查情况进行了通报。市、县区老龄办深入村组30多批次核查高龄补贴发放情况。五是做好包扶点的精准脱贫工作。根据市民政局统一安排部署，投入1万元改善腰岭村基础设施。“敬老月”期间，慰问10名贫困老年人。两名县级领导每月进村入户，对包扶的6个贫困户进行脱贫政策宣传，协助他们确定和落实产业发展规划。', '今年以来，我们以《老年法》《省实施办法》《商洛市老年人权益保障办法》为重点，积极做好老年人优待和权益保障工作。一是认真开展“七五”普法中期工作评估。对“七五”以来老年法律法规执行情况进行了全面自查总结，找出了存在的问题和不足，提出下一步工作打算。二是落实好老年人免费乘坐市区公交车优待政策。针对年初老年人来信来访反映持老年优待证乘车难问题，及时向市政府汇报，积极与市交通局、市公交公司协调，促进问题妥善解决。柞水县将65岁以上老人免费乘坐公交作为民生“十大实事”之一，使这一惠老政策得到有效落实。三是扎实推进老年人意外伤害保险工作。转发了《中国人寿商洛分公司2018年“孝善为先 爱满商洛”关爱老年人活动方案》，对全市老年人意外伤害保险工作进行了安排部署。各级老龄办联合人寿保险公司积极宣传老年人意外伤害保险政策。全年共办理保险1554份，保费9.34万元，赔付案件3件，赔付金额4.27万元。四是开展养老院服务质量建设专项行动。与市民政局、公安局、卫计局、质监局5部门联合印发《商洛市开展养老院服务质量建设专项行动实施方案》，根据部门责任分工，在全市养老机构开展了“敬老文明号”创建活动，促进养老机构服务质量提升。各县区老龄办在各类养老机构公布了举报电话，接受欺老、虐老举报投诉。五是认真做好陕西省敬老优待证办理等工作。截至11月底，共为8279名老年人办理了《陕西省敬老优待证》，落实了持证减免旅游景区门票、免费乘坐市城区内所有公交车等优惠政策。商南、柞水、山阳县积极联合旅游部门协调落实老年人持证优惠旅游政策。', '今年以来，各级涉老部门积极开展以老年法规政策宣传为重点的宣传教育，认真组织、积极参与各类评选创建活动，弘扬敬老爱老优良传统，引导全社会关注关心老年人。一是扎实开展人口老龄化国情教育。市老龄办、市委组织部等13个部门转发了《关于开展人口老龄化国情教育的通知》，各级各部门积极行动，通过各种方式开展教育活动。“敬老月”期间，市老龄办主任应邀做客陕西广播电视台《枫叶正红》栏目，介绍了全市老龄工作相关情况。二是加强老龄法规政策宣传。以《商洛市老年人权益保障办法》为重点，不断加强老年法律法规宣传力度，组织各级各单位在国家宪法日、老年节等节点在城区繁华地段进行老年法律法规政策宣传，集中宣传老年政策30余场，发放资料2万余份。各基层老年协会也通过刷写板报、集中宣讲等形式，积极扩大老龄法律法规宣传。三是加强各种媒介宣传。各级各单位积极投稿，将开展敬老活动和工作亮点通过电视台、报纸、网络和杂志进行广泛宣传，全年共播发信息100多条，在《商洛日报》开辟“商洛十大孝子”先进事迹专栏，图文并茂宣传孝子的感人事例。向陕西老年报社报送丹凤县陈家社区、鹿池社区、柞水县仁和社区先进协会和个人材料，商州区杨峪河镇老年协会谢喜全和丹凤县陈家社区先进材料在《陕西老年报》进行了交流。利用手机短信平台，将敬老问候和老龄政策编写成简明扼要的短信在市民中进行广泛宣传，共发送短信20万条。印发《商洛老年学通讯》2期。四是扎实开展老龄调研。认真开展了老龄政策、“十三五”规划、医养结合等专题调研活动，形成有质量的调研报告20多篇，向省老龄办报送10篇优秀调研成果。根据省老龄办调研工作安排，配合完成了老年人意外伤害保险工作和老年人社区居家养老照顾服务情况调研。根据市政协“关注养老保障，完善服务体系”专题协商工作安排，市老龄办根据洛南、丹凤、山阳调研情况，形成《关于全市老年人权益保障工作情况的调研报告》。市老年学学会组织商州、商南、丹凤县学会赴榆林市学习考察榆阳区社会养老服务体系建设经验，形成《对榆林市榆阳区社会养老服务体系建设考察学习的报告》。五是扎实开展第三届“敬老文明号”创建活动。对商洛养老经办处业务办理大厅、丹凤县竹林关镇丹水社区等单位创建情况进行了检查，各县区对创建工作进行了安排部署，明确了创建目标，扎实推进第三届“敬老文明号”创建工作。同时对商洛市国税局、洛南县光荣院、丹凤县龙驹寨街办陈家社区等第二届“敬老文明号”命名单位进行了回访，巩固创建成果。六是深入开展规范化基层老年协会创建工作。市老龄办印发了《关于推进全市城乡社区老年协会建设工作的通知》，从提高认识、确保登记率、加强培训、规范化建设、加强协会作用发挥几个方面对协会建设工作进行了再要求、再布置，扎实开展规范化基层老年协会创建工作。今年，培育市级规范化基层老年协会示范点21个。七是开展了“商洛十大孝子”评选表彰工作。市老龄委下发了《关于开展“商洛十大孝子”评选表彰活动的通知》，评选活动面向基层，面向群众，经层层推荐，在市政府网站公示无异议后，刘林芳等10名同志被评为“商洛十大孝子”。八是积极参与省级各类创建评选表彰活动。根据省老龄事业发展基金会安排部署，经评选公示，推荐张德凤同志为“陕西省十大孝亲敬老楷模”候选人，刘林芳等9名同志为“陕西省百名孝亲敬老之星”候选人，参与省上联评。推荐商洛市爱心服务志愿者协会等2个社会组织，王宝珍等3名同志参与全省“最美敬老志愿者”评选。推荐赵志发参加全省爱心护理工程“模范院长”联评，推荐张麦芹参加全省爱心护理工程“最美夕阳花”联评。扎实推进爱心护理工程培育点建设，商南县老年护理院、山阳县丰阳老年养生公寓扎实开展创建，已提请省老龄事业发展基金会验收。涌现出一批老龄宣传工作先进集体和个人，市老龄办等3个单位获省老龄宣传通联工作示范单位，市委老干局等3个单位获省老龄宣传通联工作先进单位，雷红等3人获全省老龄宣传通联工作先进个人。', '“敬老月”期间，我市围绕“开展老龄化国情教育，倡导积极健康生活理念”活动主题，开展了丰富多彩的敬老爱老助老活动。一是向老年人发出慰问信。市委、市政府通过《商洛日报》发给全市老年朋友的慰问信，表达了对老年人的节日问候和关怀。二是召开全市敬老大会。市委、市政府召开2018年重阳节敬老暨经济形势通报会。市委书记、市人大常委会主任陈俊出席会议并讲话，市长郑光照通报全市经济社会发展情况，市政协主席高健，市委常委、副市长张礼进，市人大常委会党组书记、副主任刘淑慧等出席。市委常委、市委组织部部长刘荣贤主持。会上表彰了“商洛十大孝子”，并向老年人代表赠送了慰问金。三是广泛开展走访慰问活动。市、县区四套班子主要领导和分管领导以及老龄委成员单位深入社区、农村，开展走访慰问“五老”、高龄、失能和困难老人活动。据统计，市级党政领导和各部门单位共慰问2400余人，发放慰问金120余万元、棉被棉衣500余床（套）。四是开展集中政策宣传活动。市、县老龄委组织司法、卫计、民政、人寿等部门在城区繁华地段开展法律咨询、义诊、政策宣传等为老服务活动，发放资料6万余（份）册，接受咨询3800人次，义诊2900人次。五是开展评选表彰活动。各级各部门组织开展了“敬老爱老助老模范人物”“敬老好儿女”“好婆婆好儿媳”“最美家庭”等评选表彰活动。六是组织开展了系列文体活动。各级老龄办联合老年文艺团体参与庆祝改革开放40周年全国老年人书法绘画摄影大赛。市委老干局和市老年摄影家协会主办“看巨变，赞成就，助超越”市离退休干部庆祝改革开放40周年摄影展，市委书记陈俊、市委组织部部长刘荣贤观看展览。各部门将扶贫与敬老相结合，开展了敬老文体活动，各县区组织开展了金秋敬老文艺演会。', '今年以来，市老龄办深入开展“两学一做”学习教育，落实领导干部“一岗双责”责任，党风廉政建设工作有序开展。一是抓安排部署。根据全市民政系统党风廉政工作会议精神，制定了党风廉政工作计划，对全年的工作和活动安排做了详细规划，做到有规划、有措施、有目标。二是抓责任落实。根据党风廉政建设工作责任制要求，层层签订了《党风廉政目标责任书》和《工作目标责任书》，确保各项工作落实到位。三是抓纪律整顿。根据局党组（党委）统一安排部署，深入开展了春节收假后正风肃纪集中教育整顿和干部作风问题排查整改，制定了整改实施方案和学习计划，列出单位和个人问题清单，限时落实整改，干部纪律作风有效改进。四是抓活动开展。党支部组织开展“党员主题活动日”，讲党课，廉洁教育活动，党员积分制管理，民主评议党员活动，进一步增强了党员的党性修养、宗旨意识和服务能力。五是抓学习教育。认真落实“三会一课”制度，扎实开展“两学一做”学习教育，开展集体学习12次，讲专题党课4次、进行专题讨论2次，召开民主生活会1次，每人写心得体会4篇，认真组织开展了陕西干部网络学院和陕西培训网网上培训学习，选派领导干部赴北京、南京、西安等地开展学习交流，组织财务人员开展相关财务和会计培训。通过学习切实提升了干部的政治素养和业务水平。六是抓财经纪律。扎实开展了贯彻落实中央八项规定专项审计结果整改及自查自纠、单位公务卡及财务管理情况自查和津补贴发放情况检查工作，进一步落实了政府会计制度和各项财经纪律。', '截止2018年底，本部门人员编制6人，全部为参照公务员管理的事业编制；本部门实有人员6人。离退休人员2人拟划转到商洛市卫生健康委员会。', '（1）公共预算财政拨款收入109.97万元，为市级财政当年拨付的公共预算资金财政拨款。', '（5）其他收入18.3万元，为预算单位取得的除上述收入以外的各项收入。主要为省老龄办拨付敬老月慰问贫困老人和养老机构14万元、主题政策调研奖励金0.4万元、省老龄事业发展基金会拨付慰问“五老”、失能老人和抗战老兵3.35元、孝亲敬老之星奖励金0.55万元。', '（6）上年结转和结余15.76万元，为以前年度尚未列支，结转到本年仍按原规定用途继续使用的资金。', '（1）基本支出91.4万元，主要是为保障市老龄办机构正常运转，完成日常工作任务而发生的各项支出。其中：工资福利支出71.92万元，对个人和家庭的补助支出4万元，商品和服务支出15.48万元。', '（2）项目支出38.53万元，主要是为完成特定工作任务或事业发展目标，在基本支出之外发生的支出，包括老龄事业专项及高龄补贴发放工作经费4.64万元，孝亲敬老表彰工作经费13.56万元，省拨专项慰问经费20.33万元等。', '（5）年末结转和结余14.1万元，主要是本年度预算安排、因客观条件发生变化无法按原计划实施，需延迟到以后年度按原规定用途继续使用的资金。', '本年度收入总计109.97万元，较上年度减少21.86万元，主要原因是本年度财政核减老年协会建设项目经费。', '本年度支出总计109.6万元，较上年度减少12.37万元，主要原因是核减了老年协会建设项目支出。', '2018年一般公共预算财政拨款支出109.6万元，其中：基本支出91.4万元，项目支出18.2万元。具体支出构成是：行政运行91.4万元，主要用于本单位正常运转开支，例如机关工作人员工资、办公费、差旅费、印刷费等。老龄事务18.2万元。主要用于高龄补贴发放工作和敬老月走访慰问“五老”、高龄贫困、失能老人和抗战老兵，孝亲敬老表彰宣传活动开展支出。', '人员经费中，包括工资福利支出71.92万元，主要用于在职人员工资、社保等支出。对个人和家庭的补助4万元，主要用于在职人员的住房公积金等支出。', '公用经费中，包括商品服务支出15.48万元，主要用于办公费、差旅费、印刷费、会议费、维修费等日常开支。', '2018年培训费预算0.41万元，支出0万元，较上年减少21.4万元，主要是严格核减了老年协会建设专项，取消了规范化老年协会培训项目。', '2018年会议费预算2.5万元，支出0.7万元，较上年减少1.8万元，主要原因是减少了重阳节敬老暨经济社会发展情况通报会“商洛十大孝子”表彰及慰问老年人代表支出项目。', '2018年本部门机关运行经费支出15.48万元，主要用于维持机关日常运转所必需的公用支出，较上年增加了5.27万元，增长52%。增长原因是本单位职工正常晋升工资经费、由单位缴纳的基本养老金和职业年金的补缴金额。', '3、“三公”经费：指部门使用一般公共预算财政拨款支付的因公出国（境）费、公务用车购置及运行费和公务接待费。', '4、机关运行经费：指行政单位和参照公务员法管理的事业单位使用一般公共预算财政拨款支出的日常公用经费。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>274</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>商洛市</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>商洛市科学技术协会年部门决算说明部门级财政决算</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.shangluo.gov.cn/info/2015/101535.htm</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['(一) 团结和动员全市广大科技工作者以经济建设为中心，坚持和贯彻党的科技方针、政策，参与、推动科教兴商、人才强市和科技带动战略的实施，促进科技进步、经济发展和社会繁荣，为我市经济社会发展提供服务。', '(二) 制定科普工作规划，组织动员社会各方力量，广泛开展科学普及工作; 指导科普设施和科普阵地、场所的建设和管理; 负责科普工作者队伍的培训。', '(三) 弘扬科学精神，普及科学知识，传播科学思想，推广科学方法; 贯彻实施《全民科学素质行动计划纲要》，提高公众科学素质; 组织开展各类科普示范创建活动，推动全市科技进步。', '(四) 指导县区科协、农村专业技术协会、研究会和市级自然科学学术类、科普类学会(协会、研究会) 及企事业单位科协的业务工作。', '(五) 开展学术交流和学术研讨活动，活跃学术思想，促进学科发展，推动自主创新; 指导和组织学术团体及企事业科协开展技术咨询、技术服务和成果转化等工作，承接与科技相关的科技评价、人才评价、科技评选奖励等职能。', '(六) 举荐、宣传、通报优秀科技工作者、自然科学优秀学术论文及学术成果，发挥学术团体举荐科技人才的作用; 参与开展科技工作者继续教育工作。', '(七) 开展调查研究，反映科技工作者的意见和建议，维护科技工作者的合法权益; 组织科技工作者参与全市科技政策、法规的制定和重大事务的政治协商、科学决策、民主监督工作。', '(八) 开展民间科学技术交流活动，发展同外地科技团体、科技工作者的交往和联系，组织开展科技交流活动，积极引进技术和人才。', '负责机关综合协调工作; 负责市科协代表大会、全体委员会、常务委员会、党组会和主席办公会等重要会议和重大活动的会务工作; 拟订市科协工作计划和科协事业发展规划及各项规章制度; 负责机关组织人事、党风廉政、党务和机关精神文明建设工作; 负责机关文秘、劳资、统计、保密、财务财产管理等工作; 负责机关干部职工医疗保险、养老统筹、住房公积金等管理工作; 负责机关后勤服务、信访接待、退休干部管理工作; 负责全市科协系统干部教育培训工作; 组织实施机关目标责任考核; 负责重要事项的检查督办工作。', '负责拟订并组织实施科普工作规划和年度计划; 指导协调全市科协系统的科普工作，组织开展各类科普示范创建活动和科普宣传、科技下乡、科技示范、实用技术培训及推广工作;负责实施“科技之春”宣传月、“全国科普日”等科普宣传活动;组织实施科普项目申报管理工作; 指导全市农村专业技术协会工作; 负责青少年科技教育工作; 围绕“五大重点人群”开展科普活动，提高全民科学文化素质; 指导城乡科普网络、场所和阵地建设工作; 承担市全民科学素质工作协调机构的日常工作。', '负责指导全市自然科学、工程技术及相关学科学会(协会、研究会) 和企事业单位科协工作; 围绕全市中心工作，组织科技工作者开展调查研究，为市委、市政府决策建言献策; 组织学会(协会、研究会) 开展学术交流、科学传播、科技咨询和服务活动，开展民间科学技术交流活动，有效承接政府职能转移; 负责全市自然科学优秀学术论文及学术成果评选、优秀科技工作者等科技人才的举荐、通报和培养、管理工作，反映科技工作者的意见和要求，维护科技工作者的合法权益; 参与做好全市人才工作; 负责新建学术团体和企事业单位科协的审查、管理和指导。', '一是深入学习习近平新时代中国特色社会主义思想和党的十九大精神。坚持把党的政治建设放在首位，不断强化政治站位和使命担当，牢牢把握科协组织的政治属性，始终把讲政治作为第一位要求。按照“学懂、弄通、做实”和“抓首要、大学习、促发展”的要求，深入学习习近平新时代中国特色社会主义思想和党的十九大精神，制定学习计划，组织集中学习，开展交流研讨，强化学习考核，营造机关良好的学习氛围。以开展“讲政治、敢担当、改作风”专题教育为契机，结合“两学一做”学习教育常态化制度化、“不忘初心、牢记使命”主题教育，认真贯彻落实习近平新时代中国特色社会主义思想，提高思想政治素质和履职能力，不断加强思想政治引领，引导广大科技工作者增强“四个意识”、坚定“四个自信”、做到“两个维护”，确保始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。二是扎实开展意识形态和精神文明建设工作。认真履行意识形态主体责任，贯彻落实中省市关于意识形态工作的部署和要求，定期研究意识形态工作情况，开展意识形态教育，筑牢意识形态的思想根基。加强诚信体系建设，开展社会主义核心价值观“进机关”、“弘扬爱国奉献精神，建功立业新时代”活动，开展“厚德陕西·善行商洛”建设、“道德模范”、身边好人推荐宣传、文明部室创建等活动，强力推进机关精神文明建设。加强意识形态的管理，不断加强网络舆论管控和安全监管工作。加强市科协网站日常管理和维护，完善了信息发布三级审核把关、专人上传发布制度。三是积极引导广大科技工作者践行社会主义核心价值观。认真贯彻习近平总书记关于弘扬爱国奋斗精神的重要指示精神，按照市委和中省科协要求，举办“弘扬爱国奋斗精神、建功立业新时代”“西迁精神”专题报告会。树立正确的舆论导向，通过商洛科协网、“商洛科普”微信公众号等载体，积极宣传优秀科技工作者，开展政策宣讲和党员干部理论教育，对错误思潮和言论及时发声，严肃遏制。', '认真学习宣传贯彻党的十九大精神和省科协八届六次全会精神，以习近平新时代中国特色社会主义思想为指导，落实中央全面深化改革的总体要求，依据《中共中央关于加强和改进党的群团工作的意见》和中省《科协系统深化改革实施方案》，结合商洛实际制定印发了《商洛市科协系统深化改革实施方案》，《实施方案》在内容上紧紧围绕中省改革部署，从改革的总体要求、改革联系服务科技工作者的体制机制、改善完善学会治理方式和运行机制、创新面向社会提供公共服务产品的机制、加强和改进党对科协工作的领导和组织实施六个部分24条明确了科协系统深化改革的指导思想、基本原则、主要目标、具体任务和要求，这对在新时期做好商洛市科协工作和推动全市科协系统深化改革具有重要的指导意义。将“三长制”纳入年度改革的重要内容，督促指导县（区）科协全面落实“三长制”，出台《县区科协系统改革方案》，并积极推进落实，突出解决了机构、人员、经费等制约科协发展的难点问题，目前六县一区都出台了《县区科协系统改革方案》。', '围绕商洛经济社会发展和科技助推精准扶贫工作，以需求为导向，发动社会力量，以“科技之春”宣传月、“全国科普日”、“科普大篷车进校园”“健康教育进社区”，“农林牧技术培训进村组”等活动为重点，开展社会性、群众性科普活动，营造爱科学、学科学、懂科学、用科学的浓厚氛围。一是组织开展第二十六届“科技之春”宣传月活动。联合相关部门开展市级各类重点示范活动112项，组织科技下乡184场次，发放各类科普宣传资料22万份，举办各类实用技术培训班256期，培训群众2.8万人次，义诊群众1.5万人次；在省、市各新闻单位刊登、播放宣传月活动稿件及科普宣传文章152篇（件）；全市共有两千余名科技人员和党政干部参与了“科技之春”宣传月活动，近二十万群众受益。二是组织开展青少年科普活动。联合教育、人社部门，开展第33届商洛市青少年科技创新大赛。全市100多所中小学校10万师生参加赛事，组织评委会对5类427项作品认真进行了评审，共评选出市级获奖作品150件（项.幅），并择优推选70件（项.幅）作品参加陕西省青少年科技创新大赛评选。三是组织编印科普宣传资料。组织编印了《科技助力精准扶贫知识读本》、《种植·养殖技术选编》、《农村实用技术选编》和《科普知识宣传画册》5种资料20万册。组织各行各业的科技人员为贫困户解读，实施精准科普、实效科普。四是组织开展了医疗科技下基层系列学术讲座。市医学会组织市直医疗专家，深入到7县区，对基层医疗单位的医务人员进行临床诊疗知识培训，面对面进行指导，培训人员达3000余人。五是组织实施基层科普行动计划。2018年商洛市“基层科普行动计划”项目共申报审定四类28个，涉及科普信息化建设、农技协组织、贫困村新型经营主体、科普示范基地和科技专家服务团等方面，建成科普中国“乡村科普e站”16个。年底，派督导组对2018年普行动计划项目实施情况进行了现场评估验收。六是组织开展“全国科普日”活动。紧扣“创新引领时代，智慧点亮生活”主题，开展市级重点示范活动37项，举办各类培训班22场次，受益群众和师生近10万人，在各类新闻媒体刊播宣传稿件条32（篇）。市级重点示范活动“全国科普日暨科技助力脱贫攻坚”活动被评为“2018年陕西省全国科普日活动优秀活动”。', '围绕建设“三个商洛”目标，以提升学会创新能力和服务能力为主线，以评价激励和示范带动为手段，进一步强化学会的创新意识和服务意识，调动科技工作者积极性、主动性和创造性。一是以“弘扬‘西迁精神’，争做创新先锋，助力追赶超越”为主题，开展了“全国科技工作日”系列活动。带领科技工作者代表50余人，参观全国劳模、党的九大、十大、十一大代表刘西有纪念馆，观看70年代纪录片《大寨红旗映丹江》、召开“弘扬劳模精神 争当创新先锋”座谈会。二是组织召开2015—2016年度商洛市自然科学优秀学术论文表彰大会，对评选出的87篇商洛市自然科学优秀学术论文进行了表彰。三是举办商洛市科技工作者“创新争先行动”科技成果展评活动，共征集参评项目107项，评选出获奖成果40项，对获奖项目进行大会表彰并进行集中展示。四是开展了商洛市第五届优秀科技工作者评选工作，最终确定10名同志为我市第五届优秀科技工作者。积极推荐我市科技工作者参加了“陕西省最美科技工作者”评选活动，我市文家富获得“陕西省最美科技工作者”称号。五是扩大学（协）会组织建设覆盖面。依据学会章程，2018年，新成立了商洛市抗癌协会、商洛市营养学会、商洛市口腔学会、商洛市核桃产业协会产品加工分会、商洛市教育学会家庭教育研究会等5个学（协）会组织。新成立的学（协）会建制规范，运行良好，共组织开展各类学术交流20多场次。六是在省科协的支持下，在六县一区建设省级学会工作服务站7个，搭建科技工作者与企业、产业联姻对接平台，吸收引进外地人才到我市开展创新创业活动和成果转化，促进地方企业产业发展。制定出台《商洛市市级院士专家工作站受理认定办法》，推动市级院士专家工作站建设，严格程序，首批市级院士专家工作者评估认定正在有序进行。', '脱贫攻坚、创建国家卫生城市、园林城市、森林城市、省级文明城市是商洛市2018年重点工作。我们将助力脱贫攻坚和“四城联创”作为科协工作重要组成部分。一是整合资源、凝聚力量，开展科技助力精准扶贫工程。组织引领全市各级科协组织和广大科技工作者，积极投入脱贫攻坚主战场，坚持扶智扶技相结合，坚持科技与扶贫、人才与创新、产业与基地相结合，充分发挥科技助力精准扶贫支撑带动作用，走出了一条科技助力、引领精准扶贫的新路子，得到省级相关部门高度认可。10月底，全省科技助力精准扶贫现场会在山阳县召开，我市科技助力精准扶贫的成效，受到与会者的高度评价。二是立足本职，担当作为，助推市级重点工作落实。举办了森林城市创建报告会，制定脱贫攻坚年度脱贫目标任务，兑现脱贫攻坚承诺事项，选派责任心、工作能力强的干部驻村帮扶，协调解决产业发展中的技术、资金难题，在帮扶的马炉村打造红色文化教育基地，马炉村被市文明办评为“市级文明村”。开展“结对共建 共创美好和谐社区”系列活动，举办“四城联创”专题讲座，组织干部参加社区环境综合整治活动，开展志愿服务，圆满完成了全年的各项创建工作任务。三是围绕中心、服务大局，助力市委、市政府科学决策。紧扣市委、市政府中心任务，发挥科协联系广泛的优势，组织科技工作者积极建言献策、调研咨询，形成建议提案，努力为市委决策提供前瞻性的意见建议。全年全市共形成意见建议、决策咨询报告10余篇。', '坚持科协组织的政治属性，强化“四个意识”，全面落实从严管党治党主体责任 。一是制定责任清单，夯实“一岗双责”。结合实际，研究制定市科协领导班子和班子成员《2018年度全面从严治党主体责任清单和时序表》，夯实“一岗双责”。班子成员尽职履责，把握时间节点，认真填写纪实手册。6月份主要领导调整，党组成员配齐后，对新班子成员重新制定责任清单，进一步夯实了廉政责任。二是强化责任担当，做好巡察问题整改。2018年5月22日至7月6日，市委第四轮第七巡察组对市科协党组进行了巡察，10月23日反馈了巡察意见。市科协党组积极支持配合市委第七巡察组对市科协的巡察工作，对巡察组提出的四个方面12个问题照单全收，召开党组会研究，制定了24项整改措施，把抓好整改工作作为首要的政治任务，切实担起了整改主体责任，以巡察问题整改推动建章立制、推动商洛市科协各项工作顺利开展，截至目前，如期整改到位21项。三是严肃党内政治生活，开展党组织标准化建设。严格落实党组中心组学习制度、党支部“三会一课”制度、民主评议党员和领导干部过双重组织生活等制度，召开脱贫攻坚、巡察整改、问题排查等专题民主生活会，主要领导带头参加支部组织生活会，带头为党员干部辅导学习、讲党课，县级领导在联系社区和包扶村讲党课。积极实行党员积分管理制度，组织全体党员参加学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神手机网上答题、知识竞赛、演讲比赛等活动，并获得“优秀组织奖”。四是提高政治站位，全面开展党的建设系列活动。持续推进“两学一做”学习教育常态化、制度化。组织开展作风问题专项排查整改，在党员中进行《中国共产党纪律处分条例》测试。组织开展“不忘初心、牢记使命”和“讲政治、敢担当、改作风”专题教育，制定了实施方案和学习计划，突出教育主题，按照时间节点和要求，开展专题研讨交流。', '2018年是市科协领导班子和干部队伍建设具有里程碑意义的一年。在市委的关心支持下，成立了市科协党组，配齐了党组成员，健全了市科协核心领导集体。新班子、新气象、新举措，带领全体干部职工讲政治、敢担当、改作风，齐心协力推动科协事业健康发展。一是明确责任分工，实行分级管理，夯实工作责任。六月份新班子配齐后，广泛调研座谈，及时召开党组会议，研究了市科协党组成员及副调研员工作分工、完善修订《市科协机关部室工作职责》，进一步明确了责任分工和分级管理分级负责的原则。形成主要领导以身作则，班子成员各负其责，干部职工尽职尽责的良好局面。二是强化干部教育，从严监督管理，建设忠诚干净担当的干部队伍。注重干部教育，注重年轻干部培养，派员参加公文写作、党务工作、财务制度等业务培训，组织干部职工赴延安、南京考察学习，选派优秀年轻干部到扶贫村担任第一书记。强化干部日常考核，设定载体锻炼干部，针对问题提醒干部，促进干部成长进步。严格执行《党政领导干部选拔任用工作条例》，坚持“好干部”标准，贯彻落实“三项机制”，2018年向市委推荐副县级干部一名已被组织提拔任用。坚持干部职工述职述廉述效制度，定期开展遵守廉政纪律测评和岗位履职综合研判，促使干部对党忠诚、勇于担当，转变作风，干净做事。三是修订完善制度，激励干部担当，推动创新发展。修订完善了《党组会议制度》、《主席办公会议制度》等24项制度。将“三项机制”与日常管理制度对接融合，修订印发市科协“三项机制”的实施细则，干部日常监督管理制度体系日益完备。形成了严格的议事规则和决策程序，严格执行民主集中制，开展不定期思想沟通，增进了班子团结。目前，机关干部职工心齐气顺劲足，和谐共事。研究制定了《贯彻落实“五新”战略任务实施方案》，强化组织落实，有力推动科协各项工作创新发展。四是切实抓好人才、统战与保密工作。扎实开展人才工作，积极落实“一把手”抓人才工作责任，发挥科协联系广泛的优势，全力为科技工作者做好服务。坚持学习宣传统一战线政策法规，积极配合统战部门做好相应工作。认真执行保密工作制度，规范保密工作行为，把保密工作纳入日常工作管理，与涉密干部签订保密工作责任书，组织开展保密知识宣传教育活动。五是坚持“以上率下”，推动工作落实。市科协主要负责同志和班子成员自觉带头加强自身建设、当好廉政表率。扎实开展正风肃纪集中教育整顿工作，定期不定期对单位执行中央八项规定精神和干部纪律作风情况进行专项检查。开设公示栏，每季度通报一次作风检查情况，严肃查处“不干事、不担当，不作为、慢作为”等问题。从严从实做好中办督查组专项督查反馈意见整改工作；认真落实习近平总书记关于作风建设和秦岭生态环境保护重要指示批示精神,切实解决不担当不作为等干部作风问题；定期开展廉政谈话、交心谈心活动，增强了全体干部廉政意识、大局意识，增进了干部之间相互了解，形成了相互理解、相互支持、齐心协力、共创工作新局面的良好氛围，促进干部作风持续好转。', '截止2018年底，本部门人员编制10人。其中，行政编制10人；本部门实有人员13人。其中，行政13人，事业0人。单位管理的离退休人员0人（仅反映未纳入机关事业养老保险经办机构管理的离退休人员）。', '（1）公共预算财政拨款收入329.61万元，为市级财政当年拨付的公共预算资金财政拨款。', '（1）基本支出169.81万元，主要是为保障商洛市科学技术协会机构正常运转、完成日常工作任务而发生的各项支出。', '（2）项目支出125.80万元，主要是为完成特定工作任务或事业发展目标，在基本支出之外发生的支出，包括科普工作经费125.80万元。', '（5）年末结转和结余35.98万元，主要是本年度及以前年度预算安排、因客观条件发生变化无法按原计划实施，需延迟到以后年度按原规定用途继续使用的资金。', '2018年一般公共预算财政拨款安排的“三公经费”支出0.02万元，其中：因公出国出境费0万元，公车运行维护费0万元，公务接待费0.02万元。2018年度“三公经费”支出比上年减少1.04万元，主要是本部门严格贯彻落实八项规定,严格控制各项费用。', '（2）公务用车购置及运行维护费用支出情况。2018年购置车辆0台，支出0万元，公务用车运行维护费支出0万元,比上年减少0万元，比当年预算减少0万元。原因是参加公务车辆改革和严格控制各项车辆运行费用。', '(3)公务接待费支出情况。2018年公务接待1批次，5人次，支出0.02万元，比上年减少1.04万元，接待人次比上年减少。原因是严格贯彻执行八项规定,从严控制接待费用。', '2.培训费支出情况。培训费支出0.14万元，比上年减少0.94万元，主要原因是市委组织部和中、省科协系统安排组织的培训减少。比当年预算增加0.14万元，主要原因是组织参加市委组织部安排的培训。', '3.会议费支出情况。会议费支出1.53万元，比上年增加0.58万元，主要是增加了科普讲座、学术交流、科普报告会等会议次数；比当年预算减少0.97万元，主要原因是厉行节约，严格控制会议次数及规模。', '2018年本部门机关运行经费支出14.37万元，用于维持机关日常运转所必需的公用支出。2018年机关运行经费支出比上年增加3.37万元，主要是随着人员增加而来的基本支出增加，增长的主要原因是差旅费、其他交通费用等增加。', '3、“三公”经费：指部门使用一般公共预算财政拨款支付的因公出国（境）费、公务用车购置及运行费和公务接待费。', '4、机关运行经费：指行政单位和参照公务员法管理的事业单位使用一般公共预算财政拨款支出的日常公用经费。']</t>
         </is>
